--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="275" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="307" uniqueCount="135">
   <si>
     <t>sampleid</t>
   </si>
@@ -21,36 +21,42 @@
     <t>601522</t>
   </si>
   <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
     <t>601633</t>
   </si>
   <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
     <t>500200</t>
   </si>
   <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
     <t>602526</t>
   </si>
   <si>
@@ -60,6 +66,9 @@
     <t>Roanoke</t>
   </si>
   <si>
+    <t>Martinsville</t>
+  </si>
+  <si>
     <t>Franklin County</t>
   </si>
   <si>
@@ -90,18 +99,18 @@
     <t>swab</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>syringe</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>cotton</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>syringe</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -114,18 +123,18 @@
     <t>heroin</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine; benzodiazepine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
     <t>fentanyl; cocaine</t>
   </si>
   <si>
-    <t>fentanyl; xylazine; benzodiazepine</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -159,24 +168,27 @@
     <t>white; brown</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>red; brown</t>
   </si>
   <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
     <t>brown</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -186,9 +198,15 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder; chunky</t>
   </si>
   <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
     <t>tar</t>
   </si>
   <si>
@@ -198,9 +216,6 @@
     <t>plant</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>lustre</t>
   </si>
   <si>
@@ -213,15 +228,15 @@
     <t>weaker</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>more up</t>
+  </si>
+  <si>
     <t>unpleasant</t>
   </si>
   <si>
-    <t>more up</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -255,10 +270,10 @@
     <t>overdose</t>
   </si>
   <si>
+    <t>involved in OD</t>
+  </si>
+  <si>
     <t>not overdose related</t>
-  </si>
-  <si>
-    <t>involved in OD</t>
   </si>
   <si>
     <t>od</t>
@@ -450,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE13"/>
+  <dimension ref="A1:CE15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -461,250 +476,250 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="U1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="X1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Y1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="AA1" t="s">
         <v>61</v>
       </c>
       <c r="AB1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AC1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AD1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AE1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AH1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AI1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AL1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AM1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AN1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AO1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AP1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AQ1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AR1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AS1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AT1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AU1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AV1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AW1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AX1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AY1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AZ1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="BA1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="BB1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="BC1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="BD1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="BE1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="BF1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="BG1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="BH1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="BI1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="BJ1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="BK1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="BL1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="BM1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="BN1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="BO1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="BP1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="BQ1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="BR1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="BS1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="BT1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="BU1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="BV1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="BW1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="BX1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="BY1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="BZ1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="CA1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="CB1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="CC1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="CD1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="CE1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
@@ -712,31 +727,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1">
         <v>45518</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
@@ -766,13 +781,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -783,7 +798,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -798,7 +813,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
@@ -912,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="CB2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="CC2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CD2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CE2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -929,49 +944,49 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -983,24 +998,24 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -1013,7 +1028,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
@@ -1021,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45526</v>
+        <v>45649</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1031,16 +1046,16 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
@@ -1052,16 +1067,16 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="2">
         <v>1</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1097,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1127,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="CB3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="CC3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CD3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CE3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1144,46 +1159,46 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1">
-        <v>45071</v>
+        <v>45435</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="2">
         <v>0</v>
@@ -1198,28 +1213,24 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>-1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -1230,27 +1241,27 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45107</v>
+        <v>45446</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AW4" s="2">
         <v>4</v>
@@ -1262,13 +1273,13 @@
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
         <v>1</v>
       </c>
       <c r="BB4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="2">
         <v>0</v>
@@ -1277,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH4" s="2">
         <v>0</v>
@@ -1346,16 +1357,16 @@
         <v>0</v>
       </c>
       <c r="CB4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="CC4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CD4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CE4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1363,43 +1374,43 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
@@ -1408,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -1417,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1434,9 +1445,11 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD5" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -1447,15 +1460,17 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45525</v>
+        <v>45107</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1468,13 +1483,13 @@
         <v>3</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
@@ -1492,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1531,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1561,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="CB5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="CC5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CD5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CE5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -1578,31 +1593,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1">
-        <v>45435</v>
+        <v>45518</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1611,13 +1626,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
         <v>0</v>
@@ -1632,22 +1647,24 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -1660,30 +1677,28 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45446</v>
+        <v>45526</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX6" s="2">
         <v>1</v>
@@ -1692,10 +1707,10 @@
         <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
@@ -1704,16 +1719,16 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="2">
         <v>0</v>
@@ -1776,16 +1791,16 @@
         <v>0</v>
       </c>
       <c r="CB6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="CC6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CD6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CE6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1793,31 +1808,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1">
-        <v>45590</v>
+        <v>45092</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1829,13 +1844,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1850,22 +1865,26 @@
         <v>51</v>
       </c>
       <c r="U7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -1873,55 +1892,53 @@
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
-      <c r="AM7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AO7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45602</v>
+        <v>45107</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
         <v>0</v>
@@ -1957,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="BP7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -1993,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="CB7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="CC7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CD7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CE7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -2010,31 +2027,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1">
-        <v>45092</v>
+        <v>45590</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -2046,13 +2063,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2064,29 +2081,25 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
@@ -2094,53 +2107,55 @@
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
+      <c r="AM8" s="2">
+        <v>1</v>
+      </c>
       <c r="AN8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45100</v>
+        <v>45602</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
@@ -2176,16 +2191,16 @@
         <v>0</v>
       </c>
       <c r="BP8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
         <v>0</v>
@@ -2212,16 +2227,16 @@
         <v>0</v>
       </c>
       <c r="CB8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="CC8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CD8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CE8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -2229,43 +2244,43 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1">
-        <v>45071</v>
+        <v>45518</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
@@ -2274,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -2283,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2300,11 +2315,9 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>-1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
@@ -2315,17 +2328,15 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45107</v>
+        <v>45525</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2338,13 +2349,13 @@
         <v>3</v>
       </c>
       <c r="AW9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
         <v>0</v>
@@ -2362,10 +2373,10 @@
         <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2401,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="BR9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9" s="2">
         <v>0</v>
@@ -2431,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="CB9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="CC9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CD9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CE9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -2448,31 +2459,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1">
         <v>45518</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2502,13 +2513,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2519,7 +2530,7 @@
       </c>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -2534,7 +2545,7 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
@@ -2648,16 +2659,16 @@
         <v>0</v>
       </c>
       <c r="CB10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="CC10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CD10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CE10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -2665,34 +2676,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2701,13 +2712,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2719,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2736,12 +2747,12 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE11" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2751,7 +2762,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AO11" s="2">
         <v>0</v>
@@ -2761,41 +2772,41 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45107</v>
+        <v>45100</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
       </c>
       <c r="BA11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
         <v>0</v>
@@ -2837,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2867,16 +2878,16 @@
         <v>0</v>
       </c>
       <c r="CB11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="CC11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CD11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CE11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -2884,28 +2895,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1">
-        <v>45092</v>
+        <v>45641</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>36</v>
@@ -2938,13 +2949,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -2953,14 +2964,14 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+      <c r="AB12" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC12" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
@@ -2970,17 +2981,15 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45107</v>
+        <v>45649</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3086,16 +3095,16 @@
         <v>0</v>
       </c>
       <c r="CB12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="CC12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CD12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CE12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -3103,37 +3112,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1">
-        <v>45590</v>
+        <v>45071</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -3157,13 +3166,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3174,9 +3183,11 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD13" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -3187,43 +3198,45 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45611</v>
+        <v>45107</v>
       </c>
       <c r="AS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="2">
         <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW13" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
         <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="2">
         <v>0</v>
@@ -3271,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="BR13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13" s="2">
         <v>0</v>
@@ -3292,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="BY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ13" s="2">
         <v>0</v>
@@ -3301,16 +3314,450 @@
         <v>0</v>
       </c>
       <c r="CB13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="CC13" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="CD13" t="s">
+        <v>20</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1">
+        <v>45071</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>60</v>
+      </c>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>45107</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2">
+        <v>9</v>
+      </c>
+      <c r="AW14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AX14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="s">
         <v>127</v>
       </c>
-      <c r="CE13" t="s">
-        <v>129</v>
+      <c r="CC14" t="s">
+        <v>20</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>20</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45590</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>45611</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BZ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>130</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>132</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,45 +18,45 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>601716</t>
+  </si>
+  <si>
     <t>601522</t>
   </si>
   <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
     <t>602520</t>
   </si>
   <si>
+    <t>602524</t>
+  </si>
+  <si>
     <t>601719</t>
   </si>
   <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
     <t>601646</t>
   </si>
   <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
     <t>602526</t>
   </si>
   <si>
@@ -96,10 +96,13 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
-    <t>spatula</t>
+    <t>cotton</t>
   </si>
   <si>
     <t>syringe</t>
@@ -108,9 +111,6 @@
     <t>unknown</t>
   </si>
   <si>
-    <t>cotton</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -120,21 +120,21 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl; cocaine</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine; benzodiazepine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; cocaine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -165,45 +165,45 @@
     <t>color</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>white; brown</t>
   </si>
   <si>
-    <t>white</t>
+    <t>gray; brown</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>brown</t>
   </si>
   <si>
     <t>red; brown</t>
   </si>
   <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
     <t>light brown; gray</t>
   </si>
   <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>powder; dull</t>
   </si>
   <si>
@@ -231,12 +231,12 @@
     <t>weird</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>more up</t>
   </si>
   <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -270,10 +270,10 @@
     <t>overdose</t>
   </si>
   <si>
+    <t>not overdose related</t>
+  </si>
+  <si>
     <t>involved in OD</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
   </si>
   <si>
     <t>od</t>
@@ -545,13 +545,13 @@
         <v>65</v>
       </c>
       <c r="Y1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s">
         <v>66</v>
       </c>
       <c r="AA1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s">
         <v>67</v>
@@ -748,7 +748,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
@@ -757,13 +757,13 @@
         <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2">
         <v>0</v>
@@ -798,22 +798,20 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
@@ -821,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45526</v>
+        <v>45525</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -831,22 +829,22 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AW2" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
@@ -855,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG2" s="2">
         <v>0</v>
@@ -897,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -944,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -956,7 +954,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -965,13 +963,13 @@
         <v>28</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -980,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -1008,27 +1006,29 @@
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
+      <c r="AH3" s="2">
+        <v>1</v>
+      </c>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45649</v>
+        <v>45526</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1046,28 +1046,28 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AW3" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="2">
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="2">
         <v>1</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1171,34 +1171,34 @@
         <v>24</v>
       </c>
       <c r="F4" s="1">
-        <v>45435</v>
+        <v>45071</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2">
         <v>0</v>
@@ -1213,24 +1213,28 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD4" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -1244,24 +1248,24 @@
         <v>85</v>
       </c>
       <c r="AO4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45446</v>
+        <v>45107</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW4" s="2">
         <v>4</v>
@@ -1273,13 +1277,13 @@
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
         <v>1</v>
       </c>
       <c r="BB4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4" s="2">
         <v>0</v>
@@ -1294,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="BG4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="2">
         <v>0</v>
@@ -1386,22 +1390,22 @@
         <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1410,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1428,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1445,12 +1449,12 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE5" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -1460,7 +1464,7 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO5" s="2">
         <v>0</v>
@@ -1476,20 +1480,20 @@
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
@@ -1501,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
         <v>0</v>
@@ -1546,10 +1550,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1605,37 +1609,37 @@
         <v>24</v>
       </c>
       <c r="F6" s="1">
-        <v>45518</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1647,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1664,10 +1668,12 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1677,34 +1683,36 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO6" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45526</v>
+        <v>45100</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
@@ -1716,16 +1724,16 @@
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="2">
         <v>1</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1761,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1820,19 +1828,19 @@
         <v>24</v>
       </c>
       <c r="F7" s="1">
-        <v>45092</v>
+        <v>45590</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1844,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1862,29 +1870,25 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="U7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -1892,53 +1896,55 @@
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
+      <c r="AM7" s="2">
+        <v>1</v>
+      </c>
       <c r="AN7" t="s">
         <v>86</v>
       </c>
       <c r="AO7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45107</v>
+        <v>45602</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="2">
         <v>0</v>
@@ -1974,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="BP7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2039,22 +2045,22 @@
         <v>24</v>
       </c>
       <c r="F8" s="1">
-        <v>45590</v>
+        <v>45071</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -2081,24 +2087,28 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD8" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -2107,21 +2117,19 @@
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
-      <c r="AM8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM8" s="2"/>
       <c r="AN8" t="s">
         <v>85</v>
       </c>
       <c r="AO8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45602</v>
+        <v>45107</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2131,10 +2139,10 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -2158,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2191,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="BP8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR8" s="2">
         <v>1</v>
@@ -2256,7 +2264,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G9" t="s">
         <v>28</v>
@@ -2265,22 +2273,22 @@
         <v>28</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
@@ -2289,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -2298,13 +2306,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2315,9 +2323,11 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD9" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
@@ -2328,15 +2338,17 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO9" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45525</v>
+        <v>45107</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2349,13 +2361,13 @@
         <v>3</v>
       </c>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
         <v>0</v>
@@ -2373,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2412,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="BR9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9" s="2">
         <v>0</v>
@@ -2480,7 +2492,7 @@
         <v>28</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>38</v>
@@ -2513,31 +2525,29 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
@@ -2545,7 +2555,7 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
@@ -2553,26 +2563,26 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45525</v>
+        <v>45526</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
         <v>0</v>
@@ -2584,16 +2594,16 @@
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="2">
         <v>1</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10" s="2">
         <v>0</v>
@@ -2629,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="BR10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="2">
         <v>0</v>
@@ -2676,7 +2686,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -2688,19 +2698,19 @@
         <v>24</v>
       </c>
       <c r="F11" s="1">
-        <v>45092</v>
+        <v>45641</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2730,29 +2740,27 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2762,30 +2770,28 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45100</v>
+        <v>45649</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX11" s="2">
         <v>0</v>
@@ -2910,16 +2916,16 @@
         <v>45641</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -2949,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
@@ -2981,7 +2987,7 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
@@ -3124,34 +3130,34 @@
         <v>24</v>
       </c>
       <c r="F13" s="1">
-        <v>45071</v>
+        <v>45435</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="2">
         <v>0</v>
@@ -3166,28 +3172,24 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>-1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -3201,24 +3203,24 @@
         <v>86</v>
       </c>
       <c r="AO13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45107</v>
+        <v>45446</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW13" s="2">
         <v>4</v>
@@ -3230,13 +3232,13 @@
         <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
         <v>1</v>
       </c>
       <c r="BB13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="2">
         <v>0</v>
@@ -3251,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="BG13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -3343,25 +3345,25 @@
         <v>24</v>
       </c>
       <c r="F14" s="1">
-        <v>45071</v>
+        <v>45518</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
@@ -3385,31 +3387,31 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>-1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
+      <c r="AG14" s="2">
+        <v>1</v>
+      </c>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
@@ -3417,57 +3419,55 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45107</v>
+        <v>45525</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
         <v>0</v>
       </c>
       <c r="BA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3503,10 +3503,10 @@
         <v>0</v>
       </c>
       <c r="BR14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT14" s="2">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>45590</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
@@ -3604,13 +3604,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3634,7 +3634,7 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,45 +18,45 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
     <t>601716</t>
   </si>
   <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
     <t>602520</t>
   </si>
   <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
     <t>602526</t>
   </si>
   <si>
@@ -96,21 +96,21 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
     <t>syringe</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -120,21 +120,21 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine; benzodiazepine</t>
+  </si>
+  <si>
     <t>fentanyl; cocaine</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine; benzodiazepine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -165,48 +165,48 @@
     <t>color</t>
   </si>
   <si>
+    <t>white; brown</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
-    <t>white; brown</t>
+    <t>clear</t>
   </si>
   <si>
     <t>gray; brown</t>
   </si>
   <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>light brown; gray</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -228,13 +228,13 @@
     <t>weaker</t>
   </si>
   <si>
+    <t>more up</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>more up</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -545,13 +545,13 @@
         <v>65</v>
       </c>
       <c r="Y1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s">
         <v>66</v>
       </c>
       <c r="AA1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s">
         <v>67</v>
@@ -748,7 +748,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
@@ -757,13 +757,13 @@
         <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2">
         <v>0</v>
@@ -798,20 +798,22 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
+      <c r="AH2" s="2">
+        <v>1</v>
+      </c>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
@@ -819,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45525</v>
+        <v>45526</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -829,22 +831,22 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AW2" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
@@ -853,13 +855,13 @@
         <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="2">
         <v>0</v>
@@ -895,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -954,7 +956,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -966,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1002,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1013,30 +1015,32 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD3" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO3" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0</v>
+      </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45526</v>
+        <v>45107</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1046,10 +1050,10 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AW3" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX3" s="2">
         <v>1</v>
@@ -1058,25 +1062,25 @@
         <v>1</v>
       </c>
       <c r="AZ3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="2">
         <v>1</v>
       </c>
       <c r="BB3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3" s="2">
         <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1174,16 +1178,16 @@
         <v>45071</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1219,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1265,10 +1269,10 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
         <v>1</v>
@@ -1280,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="2">
         <v>0</v>
@@ -1378,7 +1382,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -1390,19 +1394,19 @@
         <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>45092</v>
+        <v>45641</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1432,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1447,14 +1451,14 @@
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+      <c r="AB5" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC5" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -1464,17 +1468,15 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45107</v>
+        <v>45649</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1609,19 +1611,19 @@
         <v>24</v>
       </c>
       <c r="F6" s="1">
-        <v>45092</v>
+        <v>45590</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1633,13 +1635,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1651,29 +1653,25 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1681,53 +1679,55 @@
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
+      <c r="AM6" s="2">
+        <v>1</v>
+      </c>
       <c r="AN6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45100</v>
+        <v>45602</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
         <v>0</v>
@@ -1763,16 +1763,16 @@
         <v>0</v>
       </c>
       <c r="BP6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1828,25 +1828,25 @@
         <v>24</v>
       </c>
       <c r="F7" s="1">
-        <v>45590</v>
+        <v>45518</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="s">
         <v>20</v>
@@ -1882,69 +1882,69 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
+      <c r="AG7" s="2">
+        <v>1</v>
+      </c>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
-      <c r="AM7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45602</v>
+        <v>45525</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="BP7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2045,25 +2045,25 @@
         <v>24</v>
       </c>
       <c r="F8" s="1">
-        <v>45071</v>
+        <v>45518</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -2087,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2104,11 +2104,9 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>-1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -2119,17 +2117,15 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45107</v>
+        <v>45526</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2139,10 +2135,10 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -2154,16 +2150,16 @@
         <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="2">
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
         <v>1</v>
@@ -2264,13 +2260,13 @@
         <v>24</v>
       </c>
       <c r="F9" s="1">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -2279,7 +2275,7 @@
         <v>36</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -2288,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2306,13 +2302,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2323,12 +2319,12 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
@@ -2354,20 +2350,20 @@
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
         <v>0</v>
@@ -2379,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
@@ -2424,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="BR9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9" s="2">
         <v>0</v>
@@ -2483,16 +2479,16 @@
         <v>24</v>
       </c>
       <c r="F10" s="1">
-        <v>45518</v>
+        <v>45435</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>38</v>
@@ -2504,13 +2500,13 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
       </c>
       <c r="O10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2">
         <v>0</v>
@@ -2525,19 +2521,17 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -2555,28 +2549,30 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>1</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45526</v>
+        <v>45446</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2585,10 +2581,10 @@
         <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2597,16 +2593,16 @@
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH10" s="2">
         <v>0</v>
@@ -2686,7 +2682,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -2698,19 +2694,19 @@
         <v>24</v>
       </c>
       <c r="F11" s="1">
-        <v>45641</v>
+        <v>45092</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2740,27 +2736,29 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2770,28 +2768,30 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45649</v>
+        <v>45100</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -2913,7 +2913,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="1">
-        <v>45641</v>
+        <v>45071</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
@@ -2922,13 +2922,13 @@
         <v>28</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -2937,13 +2937,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -2970,13 +2970,13 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2">
+      <c r="AB12" s="2"/>
+      <c r="AC12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD12" s="2">
         <v>-1</v>
       </c>
-      <c r="AC12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -2987,49 +2987,51 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO12" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45649</v>
+        <v>45107</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
@@ -3071,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="BR12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12" s="2">
         <v>0</v>
@@ -3130,16 +3132,16 @@
         <v>24</v>
       </c>
       <c r="F13" s="1">
-        <v>45435</v>
+        <v>45518</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>39</v>
@@ -3151,19 +3153,19 @@
         <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -3172,17 +3174,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -3200,42 +3204,40 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45446</v>
+        <v>45525</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -3286,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="BR13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="2">
         <v>0</v>
@@ -3333,7 +3335,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -3345,37 +3347,37 @@
         <v>24</v>
       </c>
       <c r="F14" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3387,13 +3389,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3404,14 +3406,12 @@
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
@@ -3419,7 +3419,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -3427,20 +3427,20 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45525</v>
+        <v>45649</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14" s="2">
         <v>0</v>
@@ -3565,16 +3565,16 @@
         <v>45590</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3604,13 +3604,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3634,7 +3634,7 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -13,62 +13,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="307" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="339" uniqueCount="138">
   <si>
     <t>sampleid</t>
   </si>
   <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
     <t>601522</t>
   </si>
   <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
     <t>602526</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
+    <t>Martinsville</t>
+  </si>
+  <si>
     <t>Roanoke</t>
   </si>
   <si>
-    <t>Martinsville</t>
-  </si>
-  <si>
     <t>Franklin County</t>
   </si>
   <si>
@@ -99,18 +105,18 @@
     <t>swab</t>
   </si>
   <si>
+    <t>syringe</t>
+  </si>
+  <si>
     <t>cotton</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>syringe</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -120,12 +126,12 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>fentanyl</t>
   </si>
   <si>
@@ -165,48 +171,51 @@
     <t>color</t>
   </si>
   <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>light brown; black</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
     <t>white; brown</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>light brown; gray</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
-    <t>powder; dull</t>
+    <t>crystals</t>
   </si>
   <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -222,19 +231,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>more up</t>
+  </si>
+  <si>
     <t>more down</t>
-  </si>
-  <si>
-    <t>weaker</t>
-  </si>
-  <si>
-    <t>more up</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -465,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE15"/>
+  <dimension ref="A1:CE17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -476,250 +485,250 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" t="s">
         <v>64</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>63</v>
-      </c>
       <c r="AB1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AC1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AD1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AE1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AF1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AG1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AK1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AL1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AM1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AN1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AO1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AP1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AQ1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AR1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AS1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AT1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AU1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AV1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AW1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AX1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AY1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="BA1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BB1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="BC1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BD1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="BE1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BF1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="BG1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BH1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="BI1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BJ1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="BK1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BL1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BM1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BN1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="BO1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BP1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BQ1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BR1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="BS1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BT1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BU1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BV1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BW1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BX1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BY1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BZ1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="CA1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="CB1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="CC1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="CD1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="CE1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
@@ -727,34 +736,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -763,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -781,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -796,24 +805,24 @@
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="AB2" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
@@ -821,38 +830,38 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45526</v>
+        <v>45649</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AW2" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
         <v>1</v>
@@ -897,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -927,16 +936,16 @@
         <v>0</v>
       </c>
       <c r="CB2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="CC2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CD2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -944,34 +953,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -980,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -998,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1015,12 +1024,12 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE3" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1030,7 +1039,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO3" s="2">
         <v>0</v>
@@ -1046,41 +1055,41 @@
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1116,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1146,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="CB3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="CC3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CD3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -1163,34 +1172,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1199,13 +1208,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1217,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1234,12 +1243,12 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE4" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1249,7 +1258,7 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO4" s="2">
         <v>0</v>
@@ -1259,26 +1268,26 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45107</v>
+        <v>45100</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
@@ -1290,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
         <v>0</v>
@@ -1335,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1365,16 +1374,16 @@
         <v>0</v>
       </c>
       <c r="CB4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="CC4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CD4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1382,34 +1391,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1">
-        <v>45641</v>
+        <v>45071</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1418,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1436,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1451,13 +1460,13 @@
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2">
+      <c r="AB5" s="2"/>
+      <c r="AC5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD5" s="2">
         <v>-1</v>
       </c>
-      <c r="AC5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -1468,49 +1477,51 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45649</v>
+        <v>45107</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
         <v>0</v>
@@ -1552,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1582,16 +1593,16 @@
         <v>0</v>
       </c>
       <c r="CB5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="CC5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CD5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1599,34 +1610,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1">
-        <v>45590</v>
+        <v>45071</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -1653,24 +1664,28 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD6" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
@@ -1679,21 +1694,19 @@
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
-      <c r="AM6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AO6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45602</v>
+        <v>45107</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1703,10 +1716,10 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW6" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX6" s="2">
         <v>1</v>
@@ -1730,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1763,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="BP6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR6" s="2">
         <v>1</v>
@@ -1799,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="CB6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="CC6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CD6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1816,31 +1829,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1">
         <v>45518</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -1870,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1887,7 +1900,7 @@
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
@@ -1902,7 +1915,7 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
@@ -2016,16 +2029,16 @@
         <v>0</v>
       </c>
       <c r="CB7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="CC7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CD7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -2033,25 +2046,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -2060,22 +2073,22 @@
         <v>37</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2087,24 +2100,24 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -2117,7 +2130,7 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -2125,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45526</v>
+        <v>45649</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2135,16 +2148,16 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
@@ -2156,16 +2169,16 @@
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="2">
         <v>1</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2201,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="BR8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="2">
         <v>0</v>
@@ -2231,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="CB8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="CC8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CD8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -2248,31 +2261,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
-        <v>45092</v>
+        <v>45641</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2284,13 +2297,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2302,13 +2315,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2319,12 +2332,10 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
@@ -2334,48 +2345,48 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AO9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45107</v>
+        <v>45664</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="2">
         <v>1</v>
@@ -2414,16 +2425,16 @@
         <v>0</v>
       </c>
       <c r="BP9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ9" s="2">
         <v>0</v>
       </c>
       <c r="BR9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9" s="2">
         <v>0</v>
@@ -2435,13 +2446,13 @@
         <v>0</v>
       </c>
       <c r="BW9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX9" s="2">
         <v>0</v>
       </c>
       <c r="BY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ9" s="2">
         <v>0</v>
@@ -2450,16 +2461,16 @@
         <v>0</v>
       </c>
       <c r="CB9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="CC9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CD9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -2467,46 +2478,46 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1">
-        <v>45435</v>
+        <v>45590</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
       </c>
       <c r="O10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2">
         <v>0</v>
@@ -2521,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2536,7 +2547,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -2547,9 +2558,11 @@
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
+      <c r="AM10" s="2">
+        <v>1</v>
+      </c>
       <c r="AN10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AO10" s="2">
         <v>1</v>
@@ -2559,20 +2572,20 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45446</v>
+        <v>45602</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW10" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2581,13 +2594,13 @@
         <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
         <v>1</v>
       </c>
       <c r="BB10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="2">
         <v>0</v>
@@ -2602,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="BG10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10" s="2">
         <v>0</v>
@@ -2629,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="BP10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR10" s="2">
         <v>1</v>
@@ -2665,16 +2678,16 @@
         <v>0</v>
       </c>
       <c r="CB10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="CC10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CD10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -2682,49 +2695,49 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1">
-        <v>45092</v>
+        <v>45518</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2736,13 +2749,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2753,12 +2766,10 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2768,36 +2779,34 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45100</v>
+        <v>45526</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
@@ -2809,16 +2818,16 @@
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="2">
         <v>1</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11" s="2">
         <v>0</v>
@@ -2854,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2884,16 +2893,16 @@
         <v>0</v>
       </c>
       <c r="CB11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="CC11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CD11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -2901,31 +2910,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1">
         <v>45071</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -2955,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -2972,7 +2981,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AD12" s="2">
         <v>-1</v>
@@ -2987,7 +2996,7 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO12" s="2">
         <v>0</v>
@@ -3007,10 +3016,10 @@
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW12" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -3022,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="2">
         <v>0</v>
@@ -3103,16 +3112,16 @@
         <v>0</v>
       </c>
       <c r="CB12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="CC12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CD12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -3120,43 +3129,43 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -3165,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -3174,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3191,7 +3200,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -3204,7 +3213,7 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
@@ -3212,17 +3221,17 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45525</v>
+        <v>45664</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
         <v>1</v>
@@ -3243,16 +3252,16 @@
         <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -3318,16 +3327,16 @@
         <v>0</v>
       </c>
       <c r="CB13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="CC13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CD13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -3335,49 +3344,49 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1">
-        <v>45641</v>
+        <v>45435</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3389,24 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -3419,49 +3426,51 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>1</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45649</v>
+        <v>45446</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="2">
         <v>0</v>
@@ -3470,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="BG14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH14" s="2">
         <v>0</v>
@@ -3503,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="BR14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT14" s="2">
         <v>0</v>
@@ -3533,16 +3542,16 @@
         <v>0</v>
       </c>
       <c r="CB14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="CC14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CD14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -3550,31 +3559,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1">
-        <v>45590</v>
+        <v>45518</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3586,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -3595,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3604,13 +3613,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3621,7 +3630,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -3634,7 +3643,7 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
@@ -3642,20 +3651,20 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45611</v>
+        <v>45525</v>
       </c>
       <c r="AS15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="2">
         <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
         <v>0</v>
@@ -3679,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3739,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="BY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ15" s="2">
         <v>0</v>
@@ -3748,16 +3757,448 @@
         <v>0</v>
       </c>
       <c r="CB15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="CC15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1">
+        <v>45518</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>60</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
+        <v>64</v>
+      </c>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>45526</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2">
+        <v>12</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>7</v>
+      </c>
+      <c r="AX16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="s">
         <v>130</v>
       </c>
-      <c r="CD15" t="s">
-        <v>132</v>
-      </c>
-      <c r="CE15" t="s">
-        <v>134</v>
+      <c r="CC16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45590</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>53</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
+        <v>64</v>
+      </c>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>45611</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BZ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>133</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>135</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="339" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="419" uniqueCount="148">
   <si>
     <t>sampleid</t>
   </si>
@@ -21,46 +21,61 @@
     <t>602524</t>
   </si>
   <si>
+    <t>601646</t>
+  </si>
+  <si>
     <t>500175</t>
   </si>
   <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
     <t>500911</t>
   </si>
   <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
     <t>500706</t>
   </si>
   <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
     <t>601633</t>
   </si>
   <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>601522</t>
+    <t>602528</t>
   </si>
   <si>
     <t>602526</t>
@@ -105,18 +120,18 @@
     <t>swab</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>syringe</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>cotton</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -129,12 +144,15 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>heroin; unknown</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine; benzodiazepine</t>
   </si>
   <si>
@@ -177,25 +195,31 @@
     <t>white</t>
   </si>
   <si>
+    <t>white; tan</t>
+  </si>
+  <si>
+    <t>light brown; black</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
+    <t>white; brown</t>
+  </si>
+  <si>
     <t>gray; brown</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>white; brown</t>
+    <t>white; translucent</t>
   </si>
   <si>
     <t>bright_color</t>
@@ -213,6 +237,12 @@
     <t>crystals</t>
   </si>
   <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>chunky; crystals</t>
+  </si>
+  <si>
     <t>powder; chunky</t>
   </si>
   <si>
@@ -231,16 +261,16 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>more up</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
+    <t>weaker</t>
+  </si>
+  <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>weaker</t>
-  </si>
-  <si>
-    <t>more up</t>
   </si>
   <si>
     <t>more down</t>
@@ -474,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE17"/>
+  <dimension ref="A1:CE22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -485,250 +515,250 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="V1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="W1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="X1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="Y1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="Z1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AA1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AB1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AC1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AD1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AE1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AF1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AG1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AJ1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AK1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AL1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AM1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AN1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AO1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AP1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AQ1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="AR1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AS1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AT1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AU1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AV1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AW1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AX1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AY1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AZ1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="BA1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="BB1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="BC1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="BD1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="BE1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="BF1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="BG1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="BH1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="BI1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BJ1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="BK1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="BL1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="BM1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="BN1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="BO1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="BP1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="BQ1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="BR1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="BS1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="BT1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="BU1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="BV1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="BW1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="BX1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="BY1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="BZ1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="CA1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="CB1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="CC1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="CD1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="CE1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
@@ -736,31 +766,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1">
         <v>45641</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -790,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -809,7 +839,7 @@
         <v>-1</v>
       </c>
       <c r="AC2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -822,7 +852,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
@@ -936,16 +966,16 @@
         <v>0</v>
       </c>
       <c r="CB2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="CC2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CD2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CE2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -953,49 +983,49 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1">
-        <v>45092</v>
+        <v>45518</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -1007,31 +1037,31 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
+      <c r="AG3" s="2">
+        <v>1</v>
+      </c>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
@@ -1039,17 +1069,15 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45107</v>
+        <v>45525</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1155,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="CB3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="CC3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CD3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CE3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -1172,31 +1200,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1">
         <v>45092</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1226,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1243,7 +1271,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2">
@@ -1258,7 +1286,7 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AO4" s="2">
         <v>0</v>
@@ -1268,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1374,16 +1402,16 @@
         <v>0</v>
       </c>
       <c r="CB4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="CC4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CD4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CE4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -1391,31 +1419,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1">
-        <v>45071</v>
+        <v>45631</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1445,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1462,11 +1490,9 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -1477,7 +1503,7 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AO5" s="2">
         <v>0</v>
@@ -1487,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45107</v>
+        <v>45666</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1497,10 +1523,10 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1512,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="2">
         <v>0</v>
@@ -1536,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="BI5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ5" s="2">
         <v>0</v>
@@ -1593,16 +1619,16 @@
         <v>0</v>
       </c>
       <c r="CB5" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="CC5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CD5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CE5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -1610,34 +1636,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1">
-        <v>45071</v>
+        <v>45652</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -1646,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1664,28 +1690,26 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
@@ -1696,7 +1720,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AO6" s="2">
         <v>0</v>
@@ -1706,47 +1730,47 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45107</v>
+        <v>45666</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1782,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1812,16 +1836,16 @@
         <v>0</v>
       </c>
       <c r="CB6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="CC6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CD6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CE6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1829,37 +1853,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1883,31 +1907,29 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
@@ -1915,7 +1937,7 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
@@ -1923,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45525</v>
+        <v>45664</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -2029,16 +2051,16 @@
         <v>0</v>
       </c>
       <c r="CB7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="CC7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CD7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CE7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -2046,28 +2068,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1">
         <v>45641</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>37</v>
@@ -2082,13 +2104,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2100,24 +2122,24 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -2130,15 +2152,17 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO8" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>1</v>
+      </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45649</v>
+        <v>45664</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2148,28 +2172,28 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AW8" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="2">
         <v>1</v>
@@ -2208,16 +2232,16 @@
         <v>0</v>
       </c>
       <c r="BP8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ8" s="2">
         <v>0</v>
       </c>
       <c r="BR8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
         <v>0</v>
@@ -2229,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="BW8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX8" s="2">
         <v>0</v>
       </c>
       <c r="BY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ8" s="2">
         <v>0</v>
@@ -2244,16 +2268,16 @@
         <v>0</v>
       </c>
       <c r="CB8" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="CC8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CD8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CE8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -2261,31 +2285,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
         <v>45641</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2297,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2315,24 +2339,24 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
@@ -2345,17 +2369,15 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45664</v>
+        <v>45649</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2365,28 +2387,28 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AW9" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="2">
         <v>1</v>
@@ -2425,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="BP9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ9" s="2">
         <v>0</v>
       </c>
       <c r="BR9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9" s="2">
         <v>0</v>
@@ -2446,13 +2468,13 @@
         <v>0</v>
       </c>
       <c r="BW9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="2">
         <v>0</v>
       </c>
       <c r="BY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ9" s="2">
         <v>0</v>
@@ -2461,16 +2483,16 @@
         <v>0</v>
       </c>
       <c r="CB9" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="CC9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CD9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CE9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -2478,34 +2500,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1">
-        <v>45590</v>
+        <v>45071</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -2532,24 +2554,28 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD10" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2558,21 +2584,19 @@
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
-      <c r="AM10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="AO10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45602</v>
+        <v>45107</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2582,10 +2606,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW10" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2609,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10" s="2">
         <v>0</v>
@@ -2642,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="BP10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR10" s="2">
         <v>1</v>
@@ -2678,16 +2702,16 @@
         <v>0</v>
       </c>
       <c r="CB10" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="CC10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CD10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CE10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -2695,37 +2719,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1">
-        <v>45518</v>
+        <v>45590</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -2749,24 +2773,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="U11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -2777,17 +2799,21 @@
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
+      <c r="AM11" s="2">
+        <v>1</v>
+      </c>
       <c r="AN11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>1</v>
+      </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45526</v>
+        <v>45602</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2797,11 +2823,11 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
+        <v>8</v>
+      </c>
+      <c r="AW11" s="2">
         <v>6</v>
       </c>
-      <c r="AW11" s="2">
-        <v>3</v>
-      </c>
       <c r="AX11" s="2">
         <v>1</v>
       </c>
@@ -2812,22 +2838,22 @@
         <v>0</v>
       </c>
       <c r="BA11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC11" s="2">
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="2">
         <v>0</v>
@@ -2857,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="BP11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR11" s="2">
         <v>1</v>
@@ -2893,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="CB11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="CC11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CD11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CE11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -2910,46 +2936,46 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1">
-        <v>45071</v>
+        <v>45435</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2">
         <v>0</v>
@@ -2964,28 +2990,24 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -2996,30 +3018,30 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AO12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45107</v>
+        <v>45446</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -3028,10 +3050,10 @@
         <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
@@ -3049,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="BG12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH12" s="2">
         <v>0</v>
@@ -3112,16 +3134,16 @@
         <v>0</v>
       </c>
       <c r="CB12" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="CC12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CD12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CE12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -3129,34 +3151,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1">
         <v>45641</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -3183,24 +3205,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -3213,46 +3233,48 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>1</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45664</v>
+        <v>45665</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="2">
         <v>1</v>
@@ -3261,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -3276,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="BK13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL13" s="2">
         <v>0</v>
@@ -3291,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="BP13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ13" s="2">
         <v>0</v>
       </c>
       <c r="BR13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13" s="2">
         <v>0</v>
@@ -3309,16 +3331,16 @@
         <v>0</v>
       </c>
       <c r="BV13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ13" s="2">
         <v>0</v>
@@ -3327,16 +3349,16 @@
         <v>0</v>
       </c>
       <c r="CB13" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="CC13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CD13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CE13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -3344,46 +3366,46 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1">
-        <v>45435</v>
+        <v>45631</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
         <v>0</v>
@@ -3398,22 +3420,24 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -3426,30 +3450,28 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45446</v>
+        <v>45666</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -3458,10 +3480,10 @@
         <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
@@ -3470,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="2">
         <v>0</v>
@@ -3479,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="BG14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH14" s="2">
         <v>0</v>
       </c>
       <c r="BI14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ14" s="2">
         <v>0</v>
@@ -3542,16 +3564,16 @@
         <v>0</v>
       </c>
       <c r="CB14" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="CC14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CD14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CE14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -3559,43 +3581,43 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -3604,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3613,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3630,9 +3652,11 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD15" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -3643,15 +3667,17 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45525</v>
+        <v>45107</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3664,13 +3690,13 @@
         <v>3</v>
       </c>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
@@ -3688,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3727,10 +3753,10 @@
         <v>0</v>
       </c>
       <c r="BR15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" s="2">
         <v>0</v>
@@ -3757,16 +3783,16 @@
         <v>0</v>
       </c>
       <c r="CB15" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="CC15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CD15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CE15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -3774,34 +3800,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F16" s="1">
-        <v>45518</v>
+        <v>45092</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -3810,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3828,13 +3854,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3845,61 +3871,63 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO16" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0</v>
+      </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45526</v>
+        <v>45100</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AW16" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="2">
         <v>1</v>
@@ -3944,10 +3972,10 @@
         <v>0</v>
       </c>
       <c r="BR16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT16" s="2">
         <v>0</v>
@@ -3974,16 +4002,16 @@
         <v>0</v>
       </c>
       <c r="CB16" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="CC16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CD16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="CE16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -3991,37 +4019,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1">
-        <v>45590</v>
+        <v>45518</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -4045,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4062,20 +4090,22 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
+      <c r="AH17" s="2">
+        <v>1</v>
+      </c>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -4083,32 +4113,32 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45611</v>
+        <v>45526</v>
       </c>
       <c r="AS17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="2">
         <v>1</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AW17" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AX17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
@@ -4117,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="2">
         <v>0</v>
@@ -4159,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="BR17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT17" s="2">
         <v>0</v>
@@ -4180,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="BY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ17" s="2">
         <v>0</v>
@@ -4189,16 +4219,1095 @@
         <v>0</v>
       </c>
       <c r="CB17" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="CC17" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="CD17" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="CE17" t="s">
-        <v>137</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45518</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>59</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>76</v>
+      </c>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>45525</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>140</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>27</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45071</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>67</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
+        <v>72</v>
+      </c>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>45107</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2">
+        <v>8</v>
+      </c>
+      <c r="AW19" s="2">
+        <v>4</v>
+      </c>
+      <c r="AX19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>140</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>27</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45518</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>64</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>72</v>
+      </c>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>45526</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW20" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>140</v>
+      </c>
+      <c r="CC20" t="s">
+        <v>27</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45623</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>68</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
+        <v>72</v>
+      </c>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>45666</v>
+      </c>
+      <c r="AS21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW21" s="2">
+        <v>2</v>
+      </c>
+      <c r="AX21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>140</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>27</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45590</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>59</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>45611</v>
+      </c>
+      <c r="AS22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY22" s="2">
+        <v>1</v>
+      </c>
+      <c r="BZ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>143</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>145</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,66 +18,66 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
     <t>602524</t>
   </si>
   <si>
     <t>601646</t>
   </si>
   <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
     <t>500175</t>
   </si>
   <si>
-    <t>602529</t>
-  </si>
-  <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>602522</t>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602525</t>
   </si>
   <si>
     <t>602521</t>
   </si>
   <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
     <t>602526</t>
   </si>
   <si>
@@ -120,18 +120,18 @@
     <t>swab</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>syringe</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>syringe</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -147,18 +147,18 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>fentanyl; cocaine</t>
+  </si>
+  <si>
     <t>heroin; unknown</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine; benzodiazepine</t>
   </si>
   <si>
-    <t>fentanyl; cocaine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -189,63 +189,63 @@
     <t>color</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>white; translucent</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>light brown; gray</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>white; tan</t>
   </si>
   <si>
+    <t>white; brown</t>
+  </si>
+  <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
     <t>light brown; black</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>white; brown</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
-    <t>white; translucent</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>powder; dull</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
     <t>chunky; crystals</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -261,19 +261,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>more up</t>
   </si>
   <si>
+    <t>more down</t>
+  </si>
+  <si>
     <t>weird</t>
-  </si>
-  <si>
-    <t>weaker</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
-    <t>more down</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -590,7 +590,7 @@
         <v>79</v>
       </c>
       <c r="AA1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB1" t="s">
         <v>80</v>
@@ -778,7 +778,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="1">
-        <v>45641</v>
+        <v>45652</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
@@ -830,14 +830,12 @@
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>27</v>
       </c>
@@ -852,15 +850,17 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO2" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0</v>
+      </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45649</v>
+        <v>45666</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -995,7 +995,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="1">
-        <v>45518</v>
+        <v>45623</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -1004,7 +1004,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>43</v>
@@ -1040,28 +1040,26 @@
         <v>59</v>
       </c>
       <c r="U3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
-      <c r="AG3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
@@ -1069,7 +1067,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
@@ -1077,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45525</v>
+        <v>45666</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1087,16 +1085,16 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
@@ -1108,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="2">
         <v>0</v>
@@ -1153,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1212,22 +1210,22 @@
         <v>31</v>
       </c>
       <c r="F4" s="1">
-        <v>45092</v>
+        <v>45071</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1236,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1254,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -1271,12 +1269,12 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2">
-        <v>1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1302,20 +1300,20 @@
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
@@ -1327,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
         <v>0</v>
@@ -1372,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1431,22 +1429,22 @@
         <v>31</v>
       </c>
       <c r="F5" s="1">
-        <v>45631</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1455,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1473,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1490,10 +1488,12 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -1513,26 +1513,26 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45666</v>
+        <v>45100</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="BI5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ5" s="2">
         <v>0</v>
@@ -1589,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -1648,22 +1648,22 @@
         <v>31</v>
       </c>
       <c r="F6" s="1">
-        <v>45652</v>
+        <v>45071</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -1672,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1690,26 +1690,28 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD6" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
@@ -1730,47 +1732,47 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45666</v>
+        <v>45107</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1806,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1853,7 +1855,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1868,19 +1870,19 @@
         <v>45641</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1907,19 +1909,17 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
@@ -1937,46 +1937,48 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>1</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45664</v>
+        <v>45665</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="2">
         <v>1</v>
@@ -1985,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -2000,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL7" s="2">
         <v>0</v>
@@ -2015,16 +2017,16 @@
         <v>0</v>
       </c>
       <c r="BP7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ7" s="2">
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2033,16 +2035,16 @@
         <v>0</v>
       </c>
       <c r="BV7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ7" s="2">
         <v>0</v>
@@ -2083,16 +2085,16 @@
         <v>45641</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -2104,13 +2106,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2122,21 +2124,21 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
         <v>27</v>
@@ -2152,17 +2154,15 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45664</v>
+        <v>45649</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2172,28 +2172,28 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AW8" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="2">
         <v>1</v>
@@ -2232,16 +2232,16 @@
         <v>0</v>
       </c>
       <c r="BP8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ8" s="2">
         <v>0</v>
       </c>
       <c r="BR8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="2">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="BW8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="2">
         <v>0</v>
       </c>
       <c r="BY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ8" s="2">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -2297,25 +2297,25 @@
         <v>31</v>
       </c>
       <c r="F9" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -2327,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -2339,21 +2339,21 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
         <v>27</v>
@@ -2369,7 +2369,7 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45649</v>
+        <v>45525</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2390,7 +2390,7 @@
         <v>3</v>
       </c>
       <c r="AW9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
         <v>0</v>
@@ -2408,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -2512,22 +2512,22 @@
         <v>31</v>
       </c>
       <c r="F10" s="1">
-        <v>45071</v>
+        <v>45641</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2569,13 +2569,13 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+      <c r="AB10" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2586,57 +2586,55 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45107</v>
+        <v>45649</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
         <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="2">
         <v>0</v>
@@ -2672,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="BR10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT10" s="2">
         <v>0</v>
@@ -2731,25 +2729,25 @@
         <v>31</v>
       </c>
       <c r="F11" s="1">
-        <v>45590</v>
+        <v>45518</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -2773,10 +2771,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="s">
         <v>27</v>
@@ -2785,69 +2783,69 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
+      <c r="AG11" s="2">
+        <v>1</v>
+      </c>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
-      <c r="AM11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45602</v>
+        <v>45525</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
       </c>
       <c r="BA11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
         <v>0</v>
@@ -2883,16 +2881,16 @@
         <v>0</v>
       </c>
       <c r="BP11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2948,16 +2946,16 @@
         <v>31</v>
       </c>
       <c r="F12" s="1">
-        <v>45435</v>
+        <v>45631</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
@@ -2966,16 +2964,16 @@
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2">
         <v>0</v>
@@ -2990,17 +2988,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
@@ -3018,30 +3018,30 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AO12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45446</v>
+        <v>45666</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -3050,10 +3050,10 @@
         <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
@@ -3071,13 +3071,13 @@
         <v>0</v>
       </c>
       <c r="BG12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="2">
         <v>0</v>
       </c>
       <c r="BI12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ12" s="2">
         <v>0</v>
@@ -3163,25 +3163,25 @@
         <v>31</v>
       </c>
       <c r="F13" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -3205,17 +3205,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -3233,17 +3235,15 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45665</v>
+        <v>45526</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3253,10 +3253,10 @@
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AW13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX13" s="2">
         <v>1</v>
@@ -3265,10 +3265,10 @@
         <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
         <v>1</v>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="BK13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL13" s="2">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="BP13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ13" s="2">
         <v>0</v>
@@ -3331,16 +3331,16 @@
         <v>0</v>
       </c>
       <c r="BV13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ13" s="2">
         <v>0</v>
@@ -3381,16 +3381,16 @@
         <v>45631</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3450,7 +3450,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -3593,7 +3593,7 @@
         <v>31</v>
       </c>
       <c r="F15" s="1">
-        <v>45071</v>
+        <v>45518</v>
       </c>
       <c r="G15" t="s">
         <v>34</v>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -3652,32 +3652,30 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>-1</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
+      <c r="AH15" s="2">
+        <v>1</v>
+      </c>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45107</v>
+        <v>45526</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3687,10 +3685,10 @@
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AW15" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
@@ -3699,10 +3697,10 @@
         <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
@@ -3711,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
@@ -3812,22 +3810,22 @@
         <v>31</v>
       </c>
       <c r="F16" s="1">
-        <v>45092</v>
+        <v>45071</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -3836,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3854,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
@@ -3871,12 +3869,12 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2">
-        <v>1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -3896,41 +3894,41 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
         <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="2">
         <v>0</v>
@@ -3972,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="BR16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT16" s="2">
         <v>0</v>
@@ -4019,7 +4017,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -4031,7 +4029,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G17" t="s">
         <v>34</v>
@@ -4040,13 +4038,13 @@
         <v>34</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -4073,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
@@ -4090,22 +4088,20 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -4113,38 +4109,38 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45526</v>
+        <v>45664</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD17" s="2">
         <v>1</v>
@@ -4189,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="BR17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT17" s="2">
         <v>0</v>
@@ -4248,25 +4244,25 @@
         <v>31</v>
       </c>
       <c r="F18" s="1">
-        <v>45518</v>
+        <v>45092</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -4278,10 +4274,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -4290,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4307,10 +4303,12 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
@@ -4320,25 +4318,27 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45525</v>
+        <v>45107</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW18" s="2">
         <v>1</v>
@@ -4359,16 +4359,16 @@
         <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="2">
         <v>0</v>
@@ -4463,34 +4463,34 @@
         <v>31</v>
       </c>
       <c r="F19" s="1">
-        <v>45071</v>
+        <v>45435</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="2">
         <v>0</v>
@@ -4505,28 +4505,24 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
@@ -4537,27 +4533,27 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45107</v>
+        <v>45446</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW19" s="2">
         <v>4</v>
@@ -4569,13 +4565,13 @@
         <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
         <v>1</v>
       </c>
       <c r="BB19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC19" s="2">
         <v>0</v>
@@ -4590,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="BG19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH19" s="2">
         <v>0</v>
@@ -4682,25 +4678,25 @@
         <v>31</v>
       </c>
       <c r="F20" s="1">
-        <v>45518</v>
+        <v>45590</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -4724,19 +4720,17 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
@@ -4752,17 +4746,21 @@
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
+      <c r="AM20" s="2">
+        <v>1</v>
+      </c>
       <c r="AN20" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>1</v>
+      </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45526</v>
+        <v>45602</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4772,11 +4770,11 @@
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
+        <v>8</v>
+      </c>
+      <c r="AW20" s="2">
         <v>6</v>
       </c>
-      <c r="AW20" s="2">
-        <v>3</v>
-      </c>
       <c r="AX20" s="2">
         <v>1</v>
       </c>
@@ -4787,22 +4785,22 @@
         <v>0</v>
       </c>
       <c r="BA20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC20" s="2">
         <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="2">
         <v>0</v>
@@ -4832,10 +4830,10 @@
         <v>0</v>
       </c>
       <c r="BP20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR20" s="2">
         <v>1</v>
@@ -4885,7 +4883,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -4897,25 +4895,25 @@
         <v>31</v>
       </c>
       <c r="F21" s="1">
-        <v>45623</v>
+        <v>45641</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -4942,7 +4940,7 @@
         <v>68</v>
       </c>
       <c r="U21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="s">
         <v>72</v>
@@ -4969,28 +4967,30 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO21" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>1</v>
+      </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45666</v>
+        <v>45664</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AW21" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX21" s="2">
         <v>1</v>
@@ -4999,10 +4999,10 @@
         <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" s="2">
         <v>0</v>
@@ -5047,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="BP21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ21" s="2">
         <v>0</v>
@@ -5068,13 +5068,13 @@
         <v>0</v>
       </c>
       <c r="BW21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX21" s="2">
         <v>0</v>
       </c>
       <c r="BY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ21" s="2">
         <v>0</v>
@@ -5115,10 +5115,10 @@
         <v>45590</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
@@ -5184,7 +5184,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,78 +18,78 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
     <t>602676</t>
   </si>
   <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>500782</t>
+    <t>602529</t>
   </si>
   <si>
     <t>500911</t>
   </si>
   <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>602529</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
     <t>602526</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
+    <t>Roanoke</t>
+  </si>
+  <si>
     <t>Martinsville</t>
   </si>
   <si>
-    <t>Roanoke</t>
-  </si>
-  <si>
     <t>Franklin County</t>
   </si>
   <si>
@@ -117,21 +117,21 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>syringe</t>
   </si>
   <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -141,24 +141,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>fentanyl; cocaine</t>
   </si>
   <si>
+    <t>fentanyl; xylazine; benzodiazepine</t>
+  </si>
+  <si>
     <t>heroin; unknown</t>
   </si>
   <si>
-    <t>fentanyl; xylazine; benzodiazepine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -189,57 +189,57 @@
     <t>color</t>
   </si>
   <si>
+    <t>white; translucent</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
-    <t>white; translucent</t>
+    <t>white; brown</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>light brown; black</t>
   </si>
   <si>
     <t>red; brown</t>
   </si>
   <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
+    <t>white; tan</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>light brown; gray</t>
-  </si>
-  <si>
-    <t>white; tan</t>
-  </si>
-  <si>
-    <t>white; brown</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>powder</t>
+    <t>powder; chunky</t>
   </si>
   <si>
     <t>liquid</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>powder; dull</t>
   </si>
   <si>
@@ -264,16 +264,16 @@
     <t>weaker</t>
   </si>
   <si>
+    <t>more down</t>
+  </si>
+  <si>
+    <t>more up</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>more up</t>
-  </si>
-  <si>
-    <t>more down</t>
-  </si>
-  <si>
-    <t>weird</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -584,13 +584,13 @@
         <v>78</v>
       </c>
       <c r="Y1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z1" t="s">
         <v>79</v>
       </c>
       <c r="AA1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB1" t="s">
         <v>80</v>
@@ -778,7 +778,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="1">
-        <v>45652</v>
+        <v>45623</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
@@ -793,22 +793,22 @@
         <v>42</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -823,18 +823,18 @@
         <v>58</v>
       </c>
       <c r="U2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="s">
         <v>71</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>27</v>
@@ -850,11 +850,9 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
@@ -870,16 +868,16 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
         <v>0</v>
@@ -891,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -936,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -983,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -995,7 +993,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="1">
-        <v>45623</v>
+        <v>45071</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -1004,7 +1002,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>43</v>
@@ -1013,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -1040,10 +1038,10 @@
         <v>59</v>
       </c>
       <c r="U3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1054,9 +1052,11 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD3" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -1067,28 +1067,30 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO3" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0</v>
+      </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45666</v>
+        <v>45107</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AW3" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX3" s="2">
         <v>1</v>
@@ -1100,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3" s="2">
         <v>0</v>
@@ -1112,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1210,22 +1212,22 @@
         <v>31</v>
       </c>
       <c r="F4" s="1">
-        <v>45071</v>
+        <v>45641</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1234,13 +1236,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1262,18 +1264,16 @@
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -1284,17 +1284,15 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45107</v>
+        <v>45649</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1310,10 +1308,10 @@
         <v>2</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
@@ -1325,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
         <v>0</v>
@@ -1370,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1417,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1429,22 +1427,22 @@
         <v>31</v>
       </c>
       <c r="F5" s="1">
-        <v>45092</v>
+        <v>45518</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1453,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1477,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1491,60 +1489,58 @@
         <v>83</v>
       </c>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
+      <c r="AH5" s="2">
+        <v>1</v>
+      </c>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45100</v>
+        <v>45526</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="2">
         <v>1</v>
@@ -1589,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1636,7 +1632,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -1648,31 +1644,31 @@
         <v>31</v>
       </c>
       <c r="F6" s="1">
-        <v>45071</v>
+        <v>45518</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -1681,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -1690,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1707,11 +1703,9 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
@@ -1722,17 +1716,15 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45107</v>
+        <v>45525</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1742,25 +1734,25 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AW6" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="2">
         <v>0</v>
@@ -1808,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1855,7 +1847,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1867,22 +1859,22 @@
         <v>31</v>
       </c>
       <c r="F7" s="1">
-        <v>45641</v>
+        <v>45590</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1912,10 +1904,10 @@
         <v>62</v>
       </c>
       <c r="U7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1935,7 +1927,9 @@
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
+      <c r="AM7" s="2">
+        <v>1</v>
+      </c>
       <c r="AN7" t="s">
         <v>99</v>
       </c>
@@ -1947,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45665</v>
+        <v>45602</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1957,10 +1951,10 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AW7" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX7" s="2">
         <v>1</v>
@@ -1969,25 +1963,25 @@
         <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
         <v>1</v>
       </c>
       <c r="BB7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="2">
         <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -2002,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL7" s="2">
         <v>0</v>
@@ -2020,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="BQ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR7" s="2">
         <v>1</v>
@@ -2035,16 +2029,16 @@
         <v>0</v>
       </c>
       <c r="BV7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ7" s="2">
         <v>0</v>
@@ -2082,37 +2076,37 @@
         <v>31</v>
       </c>
       <c r="F8" s="1">
-        <v>45641</v>
+        <v>45435</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2124,21 +2118,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
         <v>27</v>
@@ -2154,49 +2146,51 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO8" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>1</v>
+      </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45649</v>
+        <v>45446</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW8" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
@@ -2205,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="BG8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH8" s="2">
         <v>0</v>
@@ -2238,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="BR8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
         <v>0</v>
@@ -2297,31 +2291,31 @@
         <v>31</v>
       </c>
       <c r="F9" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
@@ -2330,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -2339,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2369,15 +2363,17 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO9" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>1</v>
+      </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45525</v>
+        <v>45664</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2387,22 +2383,22 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
@@ -2411,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2447,16 +2443,16 @@
         <v>0</v>
       </c>
       <c r="BP9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ9" s="2">
         <v>0</v>
       </c>
       <c r="BR9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9" s="2">
         <v>0</v>
@@ -2468,13 +2464,13 @@
         <v>0</v>
       </c>
       <c r="BW9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX9" s="2">
         <v>0</v>
       </c>
       <c r="BY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ9" s="2">
         <v>0</v>
@@ -2512,37 +2508,37 @@
         <v>31</v>
       </c>
       <c r="F10" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>42</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2554,31 +2550,31 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
+      <c r="AG10" s="2">
+        <v>1</v>
+      </c>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
@@ -2586,7 +2582,7 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
@@ -2594,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45649</v>
+        <v>45525</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2717,7 +2713,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -2729,7 +2725,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G11" t="s">
         <v>38</v>
@@ -2747,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -2771,31 +2767,27 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
@@ -2803,46 +2795,48 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>1</v>
+      </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45525</v>
+        <v>45665</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="2">
         <v>1</v>
@@ -2851,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11" s="2">
         <v>0</v>
@@ -2866,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="BK11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL11" s="2">
         <v>0</v>
@@ -2881,16 +2875,16 @@
         <v>0</v>
       </c>
       <c r="BP11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ11" s="2">
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2899,16 +2893,16 @@
         <v>0</v>
       </c>
       <c r="BV11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ11" s="2">
         <v>0</v>
@@ -2934,7 +2928,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -2946,25 +2940,25 @@
         <v>31</v>
       </c>
       <c r="F12" s="1">
-        <v>45631</v>
+        <v>45518</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -2994,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3018,17 +3012,15 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45666</v>
+        <v>45526</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3062,13 +3054,13 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG12" s="2">
         <v>0</v>
@@ -3077,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="BI12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ12" s="2">
         <v>0</v>
@@ -3151,7 +3143,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -3163,16 +3155,16 @@
         <v>31</v>
       </c>
       <c r="F13" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>43</v>
@@ -3181,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -3205,13 +3197,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3222,9 +3214,11 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD13" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -3235,15 +3229,17 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45526</v>
+        <v>45107</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3253,10 +3249,10 @@
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX13" s="2">
         <v>1</v>
@@ -3277,13 +3273,13 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -3366,7 +3362,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -3378,19 +3374,19 @@
         <v>31</v>
       </c>
       <c r="F14" s="1">
-        <v>45631</v>
+        <v>45071</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3420,26 +3416,28 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD14" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
@@ -3450,15 +3448,17 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45666</v>
+        <v>45107</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3468,10 +3468,10 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="BA14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC14" s="2">
         <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="2">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="BI14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ14" s="2">
         <v>0</v>
@@ -3593,22 +3593,22 @@
         <v>31</v>
       </c>
       <c r="F15" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -3617,13 +3617,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3650,24 +3650,24 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC15" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
-      <c r="AH15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
@@ -3675,38 +3675,38 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45526</v>
+        <v>45649</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15" s="2">
         <v>1</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="BR15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT15" s="2">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -3810,13 +3810,13 @@
         <v>31</v>
       </c>
       <c r="F16" s="1">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -3825,7 +3825,7 @@
         <v>44</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3852,13 +3852,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3869,12 +3869,12 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE16" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -3900,35 +3900,35 @@
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
         <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16" s="2">
         <v>0</v>
@@ -3970,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="BR16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT16" s="2">
         <v>0</v>
@@ -4017,7 +4017,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -4032,17 +4032,17 @@
         <v>45641</v>
       </c>
       <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>34</v>
       </c>
-      <c r="H17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>35</v>
-      </c>
       <c r="K17" s="2">
         <v>0</v>
       </c>
@@ -4071,13 +4071,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4101,7 +4101,7 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -4232,7 +4232,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -4244,7 +4244,7 @@
         <v>31</v>
       </c>
       <c r="F18" s="1">
-        <v>45092</v>
+        <v>45631</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -4253,13 +4253,13 @@
         <v>36</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -4268,13 +4268,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -4286,29 +4286,27 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="2">
+        <v>1</v>
+      </c>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
@@ -4318,36 +4316,34 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45107</v>
+        <v>45666</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
         <v>0</v>
@@ -4359,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="2">
         <v>1</v>
@@ -4377,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="BI18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ18" s="2">
         <v>0</v>
@@ -4404,10 +4400,10 @@
         <v>0</v>
       </c>
       <c r="BR18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" s="2">
         <v>0</v>
@@ -4463,37 +4459,37 @@
         <v>31</v>
       </c>
       <c r="F19" s="1">
-        <v>45435</v>
+        <v>45652</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4505,19 +4501,21 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
+      <c r="AA19" s="2">
+        <v>1</v>
+      </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
         <v>27</v>
@@ -4533,17 +4531,17 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AO19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45446</v>
+        <v>45666</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -4553,31 +4551,31 @@
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW19" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="2">
         <v>0</v>
       </c>
       <c r="BC19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19" s="2">
         <v>0</v>
@@ -4586,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="BG19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH19" s="2">
         <v>0</v>
@@ -4619,10 +4617,10 @@
         <v>0</v>
       </c>
       <c r="BR19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT19" s="2">
         <v>0</v>
@@ -4666,7 +4664,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -4678,22 +4676,22 @@
         <v>31</v>
       </c>
       <c r="F20" s="1">
-        <v>45590</v>
+        <v>45631</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -4723,14 +4721,16 @@
         <v>67</v>
       </c>
       <c r="U20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
@@ -4746,21 +4746,19 @@
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
-      <c r="AM20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AO20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45602</v>
+        <v>45666</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4770,10 +4768,10 @@
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW20" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -4785,10 +4783,10 @@
         <v>0</v>
       </c>
       <c r="BA20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="2">
         <v>0</v>
@@ -4809,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="BI20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ20" s="2">
         <v>0</v>
@@ -4830,10 +4828,10 @@
         <v>0</v>
       </c>
       <c r="BP20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR20" s="2">
         <v>1</v>
@@ -4895,19 +4893,19 @@
         <v>31</v>
       </c>
       <c r="F21" s="1">
-        <v>45641</v>
+        <v>45092</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -4919,13 +4917,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -4943,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -4954,10 +4952,12 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
+      <c r="AE21" s="2">
+        <v>1</v>
+      </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
@@ -4967,48 +4967,48 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AO21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45664</v>
+        <v>45100</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AW21" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
       </c>
       <c r="BC21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD21" s="2">
         <v>1</v>
@@ -5047,16 +5047,16 @@
         <v>0</v>
       </c>
       <c r="BP21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ21" s="2">
         <v>0</v>
       </c>
       <c r="BR21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT21" s="2">
         <v>0</v>
@@ -5068,13 +5068,13 @@
         <v>0</v>
       </c>
       <c r="BW21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="2">
         <v>0</v>
       </c>
       <c r="BY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ21" s="2">
         <v>0</v>
@@ -5115,16 +5115,16 @@
         <v>45590</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5154,13 +5154,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5184,7 +5184,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,66 +18,66 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
     <t>602528</t>
   </si>
   <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
     <t>601633</t>
   </si>
   <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>602529</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
     <t>602526</t>
   </si>
   <si>
@@ -117,15 +117,15 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t>swab</t>
   </si>
   <si>
@@ -141,24 +141,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>heroin; unknown</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine; benzodiazepine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>fentanyl; cocaine</t>
   </si>
   <si>
-    <t>fentanyl; xylazine; benzodiazepine</t>
-  </si>
-  <si>
-    <t>heroin; unknown</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -189,63 +189,63 @@
     <t>color</t>
   </si>
   <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>white; tan</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>white; brown</t>
+  </si>
+  <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
+    <t>light brown; black</t>
+  </si>
+  <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
     <t>white; translucent</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>white; brown</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
-    <t>light brown; gray</t>
-  </si>
-  <si>
-    <t>white; tan</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>chunky; crystals</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
+    <t>liquid</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>chunky; crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -264,16 +264,16 @@
     <t>weaker</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>more down</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>more up</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -584,13 +584,13 @@
         <v>78</v>
       </c>
       <c r="Y1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z1" t="s">
         <v>79</v>
       </c>
       <c r="AA1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AB1" t="s">
         <v>80</v>
@@ -778,7 +778,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="1">
-        <v>45623</v>
+        <v>45631</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -823,18 +823,18 @@
         <v>58</v>
       </c>
       <c r="U2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
         <v>71</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>27</v>
@@ -850,7 +850,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
@@ -864,14 +864,14 @@
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX2" s="2">
         <v>1</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="BI2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ2" s="2">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1200,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1212,7 +1212,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="1">
-        <v>45641</v>
+        <v>45631</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1236,13 +1236,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -1264,11 +1264,11 @@
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>27</v>
@@ -1284,15 +1284,17 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45649</v>
+        <v>45666</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1302,16 +1304,16 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW4" s="2">
         <v>3</v>
       </c>
-      <c r="AW4" s="2">
-        <v>2</v>
-      </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
@@ -1323,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
         <v>0</v>
@@ -1341,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ4" s="2">
         <v>0</v>
@@ -1368,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G5" t="s">
         <v>37</v>
@@ -1439,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1469,13 +1471,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1486,30 +1488,32 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD5" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45526</v>
+        <v>45107</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1519,10 +1523,10 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AW5" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1531,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
@@ -1543,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
         <v>0</v>
@@ -1644,25 +1648,25 @@
         <v>31</v>
       </c>
       <c r="F6" s="1">
-        <v>45518</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1674,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -1686,13 +1690,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1703,10 +1707,12 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1716,25 +1722,27 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO6" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45525</v>
+        <v>45100</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
         <v>1</v>
@@ -1755,16 +1763,16 @@
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1859,22 +1867,22 @@
         <v>31</v>
       </c>
       <c r="F7" s="1">
-        <v>45590</v>
+        <v>45641</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1901,13 +1909,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1927,9 +1935,7 @@
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
-      <c r="AM7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM7" s="2"/>
       <c r="AN7" t="s">
         <v>99</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45602</v>
+        <v>45665</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1951,10 +1957,10 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AW7" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX7" s="2">
         <v>1</v>
@@ -1963,25 +1969,25 @@
         <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
         <v>1</v>
       </c>
       <c r="BB7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
         <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1996,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL7" s="2">
         <v>0</v>
@@ -2014,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="BQ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR7" s="2">
         <v>1</v>
@@ -2029,16 +2035,16 @@
         <v>0</v>
       </c>
       <c r="BV7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ7" s="2">
         <v>0</v>
@@ -2076,34 +2082,34 @@
         <v>31</v>
       </c>
       <c r="F8" s="1">
-        <v>45435</v>
+        <v>45590</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2">
         <v>0</v>
@@ -2118,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="U8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="s">
         <v>27</v>
@@ -2144,7 +2150,9 @@
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
+      <c r="AM8" s="2">
+        <v>1</v>
+      </c>
       <c r="AN8" t="s">
         <v>99</v>
       </c>
@@ -2156,20 +2164,20 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45446</v>
+        <v>45602</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW8" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -2178,13 +2186,13 @@
         <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
         <v>1</v>
       </c>
       <c r="BB8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="2">
         <v>0</v>
@@ -2199,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="BG8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="2">
         <v>0</v>
@@ -2226,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="BP8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR8" s="2">
         <v>1</v>
@@ -2300,10 +2308,10 @@
         <v>37</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2339,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2363,11 +2371,9 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
@@ -2379,32 +2385,32 @@
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="2">
         <v>1</v>
@@ -2443,16 +2449,16 @@
         <v>0</v>
       </c>
       <c r="BP9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ9" s="2">
         <v>0</v>
       </c>
       <c r="BR9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9" s="2">
         <v>0</v>
@@ -2464,13 +2470,13 @@
         <v>0</v>
       </c>
       <c r="BW9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="2">
         <v>0</v>
       </c>
       <c r="BY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ9" s="2">
         <v>0</v>
@@ -2511,10 +2517,10 @@
         <v>45518</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -2526,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -2550,21 +2556,21 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
         <v>84</v>
@@ -2572,17 +2578,17 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2">
+        <v>1</v>
+      </c>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
@@ -2590,38 +2596,38 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45525</v>
+        <v>45526</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="2">
         <v>1</v>
@@ -2666,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="BR10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="2">
         <v>0</v>
@@ -2713,7 +2719,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -2728,19 +2734,19 @@
         <v>45641</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2749,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2767,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -2779,7 +2785,9 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
         <v>27</v>
@@ -2795,17 +2803,15 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45665</v>
+        <v>45649</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2815,28 +2821,28 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AW11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="2">
         <v>1</v>
@@ -2845,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="2">
         <v>0</v>
@@ -2860,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="BK11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL11" s="2">
         <v>0</v>
@@ -2875,16 +2881,16 @@
         <v>0</v>
       </c>
       <c r="BP11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ11" s="2">
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2893,16 +2899,16 @@
         <v>0</v>
       </c>
       <c r="BV11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ11" s="2">
         <v>0</v>
@@ -2940,37 +2946,37 @@
         <v>31</v>
       </c>
       <c r="F12" s="1">
-        <v>45518</v>
+        <v>45092</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2982,13 +2988,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -2999,10 +3005,12 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
@@ -3012,34 +3020,36 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO12" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45526</v>
+        <v>45107</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
@@ -3051,16 +3061,16 @@
         <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
         <v>1</v>
       </c>
       <c r="BE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="2">
         <v>0</v>
@@ -3096,10 +3106,10 @@
         <v>0</v>
       </c>
       <c r="BR12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT12" s="2">
         <v>0</v>
@@ -3155,7 +3165,7 @@
         <v>31</v>
       </c>
       <c r="F13" s="1">
-        <v>45071</v>
+        <v>45435</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -3167,22 +3177,22 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="2">
         <v>0</v>
@@ -3197,28 +3207,24 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -3229,30 +3235,30 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45107</v>
+        <v>45446</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX13" s="2">
         <v>1</v>
@@ -3261,10 +3267,10 @@
         <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
@@ -3282,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="BG13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -3362,7 +3368,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -3374,22 +3380,22 @@
         <v>31</v>
       </c>
       <c r="F14" s="1">
-        <v>45071</v>
+        <v>45652</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -3398,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3416,28 +3422,26 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
@@ -3458,41 +3462,41 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45107</v>
+        <v>45666</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
         <v>0</v>
       </c>
       <c r="BA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="2">
         <v>0</v>
@@ -3534,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="BR14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT14" s="2">
         <v>0</v>
@@ -3581,7 +3585,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -3593,37 +3597,37 @@
         <v>31</v>
       </c>
       <c r="F15" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3635,31 +3639,31 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
+      <c r="AG15" s="2">
+        <v>1</v>
+      </c>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
@@ -3667,7 +3671,7 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
@@ -3675,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45649</v>
+        <v>45525</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3810,22 +3814,22 @@
         <v>31</v>
       </c>
       <c r="F16" s="1">
-        <v>45092</v>
+        <v>45071</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -3834,13 +3838,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3852,13 +3856,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3869,12 +3873,12 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2">
-        <v>1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -3900,35 +3904,35 @@
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
         <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="2">
         <v>0</v>
@@ -3970,10 +3974,10 @@
         <v>0</v>
       </c>
       <c r="BR16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT16" s="2">
         <v>0</v>
@@ -4038,10 +4042,10 @@
         <v>37</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4071,13 +4075,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4101,9 +4105,11 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO17" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>1</v>
+      </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
@@ -4115,32 +4121,32 @@
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AW17" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="2">
         <v>1</v>
@@ -4179,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="BP17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ17" s="2">
         <v>0</v>
       </c>
       <c r="BR17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT17" s="2">
         <v>0</v>
@@ -4200,13 +4206,13 @@
         <v>0</v>
       </c>
       <c r="BW17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX17" s="2">
         <v>0</v>
       </c>
       <c r="BY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ17" s="2">
         <v>0</v>
@@ -4232,7 +4238,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -4244,22 +4250,22 @@
         <v>31</v>
       </c>
       <c r="F18" s="1">
-        <v>45631</v>
+        <v>45641</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -4268,13 +4274,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -4286,22 +4292,24 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC18" t="s">
         <v>27</v>
       </c>
@@ -4316,7 +4324,7 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
@@ -4324,26 +4332,26 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45666</v>
+        <v>45649</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="2">
         <v>0</v>
@@ -4355,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18" s="2">
         <v>1</v>
@@ -4373,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="BI18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ18" s="2">
         <v>0</v>
@@ -4400,10 +4408,10 @@
         <v>0</v>
       </c>
       <c r="BR18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT18" s="2">
         <v>0</v>
@@ -4447,7 +4455,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -4459,25 +4467,25 @@
         <v>31</v>
       </c>
       <c r="F19" s="1">
-        <v>45652</v>
+        <v>45518</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -4489,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -4501,21 +4509,21 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
         <v>27</v>
@@ -4531,27 +4539,25 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>0</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45666</v>
+        <v>45525</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW19" s="2">
         <v>1</v>
@@ -4572,16 +4578,16 @@
         <v>0</v>
       </c>
       <c r="BC19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG19" s="2">
         <v>0</v>
@@ -4676,25 +4682,25 @@
         <v>31</v>
       </c>
       <c r="F20" s="1">
-        <v>45631</v>
+        <v>45623</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -4718,13 +4724,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4748,11 +4754,9 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
@@ -4764,14 +4768,14 @@
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -4807,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="BI20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ20" s="2">
         <v>0</v>
@@ -4893,37 +4897,37 @@
         <v>31</v>
       </c>
       <c r="F21" s="1">
-        <v>45092</v>
+        <v>45518</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -4935,13 +4939,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -4952,12 +4956,10 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="AD21" s="2"/>
-      <c r="AE21" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
@@ -4967,36 +4969,34 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO21" s="2">
-        <v>0</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45100</v>
+        <v>45526</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="2">
         <v>0</v>
@@ -5008,16 +5008,16 @@
         <v>0</v>
       </c>
       <c r="BC21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="2">
         <v>1</v>
       </c>
       <c r="BE21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -5053,10 +5053,10 @@
         <v>0</v>
       </c>
       <c r="BR21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT21" s="2">
         <v>0</v>
@@ -5115,16 +5115,16 @@
         <v>45590</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5154,13 +5154,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5184,7 +5184,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,78 +18,78 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
     <t>602527</t>
   </si>
   <si>
-    <t>500200</t>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
+    <t>500911</t>
   </si>
   <si>
     <t>602529</t>
   </si>
   <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
     <t>602526</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
+    <t>Martinsville</t>
+  </si>
+  <si>
     <t>Roanoke</t>
   </si>
   <si>
-    <t>Martinsville</t>
-  </si>
-  <si>
     <t>Franklin County</t>
   </si>
   <si>
@@ -117,6 +117,9 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
@@ -126,9 +129,6 @@
     <t>unknown</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
     <t>syringe</t>
   </si>
   <si>
@@ -141,24 +141,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
+    <t>fentanyl; xylazine; benzodiazepine</t>
+  </si>
+  <si>
+    <t>fentanyl; cocaine</t>
+  </si>
+  <si>
     <t>heroin; unknown</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine; benzodiazepine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; cocaine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -189,60 +189,60 @@
     <t>color</t>
   </si>
   <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>white; brown</t>
+  </si>
+  <si>
     <t>brown</t>
   </si>
   <si>
+    <t>light brown; black</t>
+  </si>
+  <si>
+    <t>white; translucent</t>
+  </si>
+  <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
     <t>white; tan</t>
   </si>
   <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>white; brown</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
-    <t>light brown; gray</t>
-  </si>
-  <si>
-    <t>white; translucent</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>chunky; crystals</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
     <t>liquid</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
     <t>powder; chunky</t>
   </si>
   <si>
@@ -261,19 +261,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>more down</t>
+  </si>
+  <si>
     <t>weaker</t>
   </si>
   <si>
+    <t>more up</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>more down</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>more up</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -590,7 +590,7 @@
         <v>79</v>
       </c>
       <c r="AA1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB1" t="s">
         <v>80</v>
@@ -778,7 +778,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="1">
-        <v>45631</v>
+        <v>45641</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
@@ -793,7 +793,7 @@
         <v>42</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -830,12 +830,14 @@
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC2" t="s">
         <v>27</v>
       </c>
@@ -850,7 +852,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
@@ -858,26 +860,26 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45666</v>
+        <v>45649</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
         <v>0</v>
@@ -889,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
         <v>1</v>
@@ -907,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="BI2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2" s="2">
         <v>0</v>
@@ -934,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -981,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -993,25 +995,25 @@
         <v>31</v>
       </c>
       <c r="F3" s="1">
-        <v>45071</v>
+        <v>45518</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -1035,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
@@ -1052,11 +1054,9 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -1067,17 +1067,15 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45107</v>
+        <v>45526</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1087,10 +1085,10 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX3" s="2">
         <v>1</v>
@@ -1102,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="2">
         <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3" s="2">
         <v>1</v>
@@ -1212,22 +1210,22 @@
         <v>31</v>
       </c>
       <c r="F4" s="1">
-        <v>45631</v>
+        <v>45641</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1236,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1254,21 +1252,21 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>27</v>
@@ -1284,17 +1282,15 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45666</v>
+        <v>45649</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1304,16 +1300,16 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
@@ -1325,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
         <v>0</v>
@@ -1343,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4" s="2">
         <v>0</v>
@@ -1370,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1417,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1429,19 +1425,19 @@
         <v>31</v>
       </c>
       <c r="F5" s="1">
-        <v>45071</v>
+        <v>45518</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1471,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1490,30 +1486,28 @@
       <c r="AC5" t="s">
         <v>82</v>
       </c>
-      <c r="AD5" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
+      <c r="AH5" s="2">
+        <v>1</v>
+      </c>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45107</v>
+        <v>45526</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1523,10 +1517,10 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1535,10 +1529,10 @@
         <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
@@ -1547,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
         <v>0</v>
@@ -1636,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -1648,13 +1642,13 @@
         <v>31</v>
       </c>
       <c r="F6" s="1">
-        <v>45092</v>
+        <v>45071</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1663,7 +1657,7 @@
         <v>44</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -1672,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1690,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -1709,10 +1703,10 @@
       <c r="AC6" t="s">
         <v>83</v>
       </c>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1732,47 +1726,47 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1808,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1870,19 +1864,19 @@
         <v>45641</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1909,17 +1903,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
@@ -1937,48 +1933,46 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45665</v>
+        <v>45664</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="2">
         <v>1</v>
@@ -1987,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -2002,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL7" s="2">
         <v>0</v>
@@ -2017,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="BP7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ7" s="2">
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2035,16 +2029,16 @@
         <v>0</v>
       </c>
       <c r="BV7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ7" s="2">
         <v>0</v>
@@ -2082,19 +2076,19 @@
         <v>31</v>
       </c>
       <c r="F8" s="1">
-        <v>45590</v>
+        <v>45652</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -2106,13 +2100,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2124,19 +2118,21 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
         <v>27</v>
@@ -2150,55 +2146,53 @@
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
-      <c r="AM8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AO8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45602</v>
+        <v>45666</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
@@ -2234,16 +2228,16 @@
         <v>0</v>
       </c>
       <c r="BP8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="2">
         <v>0</v>
@@ -2299,25 +2293,25 @@
         <v>31</v>
       </c>
       <c r="F9" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -2341,29 +2335,31 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
+      <c r="AG9" s="2">
+        <v>1</v>
+      </c>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
@@ -2371,7 +2367,7 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
@@ -2379,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45664</v>
+        <v>45525</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2502,7 +2498,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -2514,19 +2510,19 @@
         <v>31</v>
       </c>
       <c r="F10" s="1">
-        <v>45518</v>
+        <v>45631</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2556,39 +2552,37 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-      <c r="AH10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
@@ -2596,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45526</v>
+        <v>45666</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2606,10 +2600,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AW10" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2618,10 +2612,10 @@
         <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2645,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ10" s="2">
         <v>0</v>
@@ -2731,7 +2725,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="1">
-        <v>45641</v>
+        <v>45071</v>
       </c>
       <c r="G11" t="s">
         <v>34</v>
@@ -2740,13 +2734,13 @@
         <v>34</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>44</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2755,13 +2749,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2773,26 +2767,28 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD11" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -2803,15 +2799,17 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45649</v>
+        <v>45107</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2827,10 +2825,10 @@
         <v>2</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
@@ -2842,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
         <v>0</v>
@@ -2887,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2946,19 +2944,19 @@
         <v>31</v>
       </c>
       <c r="F12" s="1">
-        <v>45092</v>
+        <v>45641</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -2970,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3005,12 +3003,10 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
@@ -3020,48 +3016,48 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45107</v>
+        <v>45664</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AW12" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="2">
         <v>1</v>
@@ -3100,16 +3096,16 @@
         <v>0</v>
       </c>
       <c r="BP12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ12" s="2">
         <v>0</v>
       </c>
       <c r="BR12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12" s="2">
         <v>0</v>
@@ -3121,13 +3117,13 @@
         <v>0</v>
       </c>
       <c r="BW12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX12" s="2">
         <v>0</v>
       </c>
       <c r="BY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ12" s="2">
         <v>0</v>
@@ -3153,7 +3149,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -3168,10 +3164,10 @@
         <v>45435</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -3380,7 +3376,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="1">
-        <v>45652</v>
+        <v>45623</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
@@ -3392,25 +3388,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3422,21 +3418,21 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
         <v>27</v>
@@ -3452,11 +3448,9 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
@@ -3472,16 +3466,16 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
         <v>0</v>
@@ -3493,10 +3487,10 @@
         <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="2">
         <v>0</v>
@@ -3538,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="BR14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT14" s="2">
         <v>0</v>
@@ -3585,7 +3579,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -3597,25 +3591,25 @@
         <v>31</v>
       </c>
       <c r="F15" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3639,31 +3633,31 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD15" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
@@ -3671,49 +3665,51 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45525</v>
+        <v>45107</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
       </c>
       <c r="BA15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
@@ -3755,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="BR15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" s="2">
         <v>0</v>
@@ -3802,7 +3798,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -3814,22 +3810,22 @@
         <v>31</v>
       </c>
       <c r="F16" s="1">
-        <v>45071</v>
+        <v>45590</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -3856,28 +3852,24 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -3886,19 +3878,21 @@
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
+      <c r="AM16" s="2">
+        <v>1</v>
+      </c>
       <c r="AN16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45107</v>
+        <v>45602</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -3911,7 +3905,7 @@
         <v>8</v>
       </c>
       <c r="AW16" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3968,10 +3962,10 @@
         <v>0</v>
       </c>
       <c r="BP16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR16" s="2">
         <v>1</v>
@@ -4036,19 +4030,19 @@
         <v>45641</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -4075,19 +4069,17 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -4115,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45664</v>
+        <v>45665</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -4125,10 +4117,10 @@
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AW17" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX17" s="2">
         <v>1</v>
@@ -4155,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="BF17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG17" s="2">
         <v>0</v>
@@ -4170,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="BK17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL17" s="2">
         <v>0</v>
@@ -4203,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="BV17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW17" s="2">
         <v>1</v>
       </c>
       <c r="BX17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY17" s="2">
         <v>1</v>
@@ -4250,19 +4242,19 @@
         <v>31</v>
       </c>
       <c r="F18" s="1">
-        <v>45641</v>
+        <v>45092</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -4292,13 +4284,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4307,14 +4299,14 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
@@ -4324,15 +4316,17 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45649</v>
+        <v>45107</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -4455,7 +4449,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -4470,16 +4464,16 @@
         <v>45518</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -4509,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
@@ -4539,7 +4533,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -4670,7 +4664,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -4682,37 +4676,37 @@
         <v>31</v>
       </c>
       <c r="F20" s="1">
-        <v>45623</v>
+        <v>45092</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4724,10 +4718,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="s">
         <v>72</v>
@@ -4741,10 +4735,12 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
@@ -4754,15 +4750,17 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0</v>
+      </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45666</v>
+        <v>45100</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4772,16 +4770,16 @@
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
         <v>0</v>
@@ -4793,10 +4791,10 @@
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" s="2">
         <v>0</v>
@@ -4838,10 +4836,10 @@
         <v>0</v>
       </c>
       <c r="BR20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="2">
         <v>0</v>
@@ -4885,7 +4883,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -4897,7 +4895,7 @@
         <v>31</v>
       </c>
       <c r="F21" s="1">
-        <v>45518</v>
+        <v>45631</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -4909,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -4939,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
@@ -4969,15 +4967,17 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO21" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>0</v>
+      </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45526</v>
+        <v>45666</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5011,13 +5011,13 @@
         <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="BI21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ21" s="2">
         <v>0</v>
@@ -5115,16 +5115,16 @@
         <v>45590</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
@@ -5184,7 +5184,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,78 +18,78 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
     <t>602524</t>
   </si>
   <si>
-    <t>601633</t>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>602527</t>
   </si>
   <si>
     <t>602520</t>
   </si>
   <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>602529</t>
-  </si>
-  <si>
     <t>602526</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
+    <t>Roanoke</t>
+  </si>
+  <si>
     <t>Martinsville</t>
   </si>
   <si>
-    <t>Roanoke</t>
-  </si>
-  <si>
     <t>Franklin County</t>
   </si>
   <si>
@@ -117,21 +117,21 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
-    <t>spatula</t>
+    <t>syringe</t>
   </si>
   <si>
     <t>cotton</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>syringe</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -141,12 +141,12 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>heroin</t>
   </si>
   <si>
@@ -189,63 +189,63 @@
     <t>color</t>
   </si>
   <si>
+    <t>white; translucent</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>light brown; gray</t>
   </si>
   <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>white</t>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>light brown; black</t>
+  </si>
+  <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
+    <t>white; tan</t>
   </si>
   <si>
     <t>white; brown</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
-    <t>white; translucent</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>white; tan</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
     <t>powder; dull</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>crystals</t>
+    <t>powder; chunky</t>
   </si>
   <si>
     <t>chunky; crystals</t>
   </si>
   <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -261,19 +261,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>more up</t>
+  </si>
+  <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>more down</t>
-  </si>
-  <si>
-    <t>weaker</t>
-  </si>
-  <si>
-    <t>more up</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -584,13 +584,13 @@
         <v>78</v>
       </c>
       <c r="Y1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z1" t="s">
         <v>79</v>
       </c>
       <c r="AA1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB1" t="s">
         <v>80</v>
@@ -778,7 +778,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="1">
-        <v>45641</v>
+        <v>45623</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
@@ -793,22 +793,22 @@
         <v>42</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>58</v>
       </c>
       <c r="U2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="s">
         <v>71</v>
@@ -835,9 +835,7 @@
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>27</v>
       </c>
@@ -852,7 +850,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
@@ -860,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45649</v>
+        <v>45666</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -870,16 +868,16 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
         <v>0</v>
@@ -891,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -936,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -983,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -998,16 +996,16 @@
         <v>45518</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1043,23 +1041,25 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
+      <c r="AG3" s="2">
+        <v>1</v>
+      </c>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
@@ -1067,7 +1067,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
@@ -1075,26 +1075,26 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45526</v>
+        <v>45525</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="2">
         <v>1</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1210,19 +1210,19 @@
         <v>31</v>
       </c>
       <c r="F4" s="1">
-        <v>45641</v>
+        <v>45652</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1252,13 +1252,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1282,28 +1282,30 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45649</v>
+        <v>45666</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
         <v>0</v>
@@ -1413,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1425,7 +1427,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="1">
-        <v>45518</v>
+        <v>45590</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -1437,10 +1439,10 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1467,47 +1469,47 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
+      <c r="AM5" s="2">
+        <v>1</v>
+      </c>
       <c r="AN5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>1</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45526</v>
+        <v>45602</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1517,10 +1519,10 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AW5" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1529,19 +1531,19 @@
         <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
         <v>1</v>
       </c>
       <c r="BB5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="2">
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
         <v>0</v>
@@ -1577,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="BP5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR5" s="2">
         <v>1</v>
@@ -1630,7 +1632,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -1684,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1736,10 +1738,10 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AW6" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="2">
         <v>1</v>
@@ -1751,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="2">
         <v>0</v>
@@ -1763,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1864,19 +1866,19 @@
         <v>45641</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1903,19 +1905,17 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
@@ -1933,46 +1933,48 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>1</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45664</v>
+        <v>45665</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="2">
         <v>1</v>
@@ -1981,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1996,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL7" s="2">
         <v>0</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="BP7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ7" s="2">
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2029,16 +2031,16 @@
         <v>0</v>
       </c>
       <c r="BV7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ7" s="2">
         <v>0</v>
@@ -2076,22 +2078,22 @@
         <v>31</v>
       </c>
       <c r="F8" s="1">
-        <v>45652</v>
+        <v>45071</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -2100,13 +2102,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2118,26 +2120,28 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD8" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -2158,47 +2162,47 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45666</v>
+        <v>45107</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2234,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="BR8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
         <v>0</v>
@@ -2281,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -2296,16 +2300,16 @@
         <v>45518</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2335,31 +2339,29 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
@@ -2367,7 +2369,7 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
@@ -2375,26 +2377,26 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45525</v>
+        <v>45526</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
         <v>0</v>
@@ -2406,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="2">
         <v>1</v>
       </c>
       <c r="BE9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2451,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="BR9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9" s="2">
         <v>0</v>
@@ -2510,22 +2512,22 @@
         <v>31</v>
       </c>
       <c r="F10" s="1">
-        <v>45631</v>
+        <v>45641</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -2534,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
@@ -2562,12 +2564,14 @@
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC10" t="s">
         <v>27</v>
       </c>
@@ -2582,7 +2586,7 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
@@ -2590,26 +2594,26 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45666</v>
+        <v>45649</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
         <v>0</v>
@@ -2621,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="2">
         <v>1</v>
@@ -2639,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ10" s="2">
         <v>0</v>
@@ -2666,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="BR10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT10" s="2">
         <v>0</v>
@@ -2713,7 +2717,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -2725,22 +2729,22 @@
         <v>31</v>
       </c>
       <c r="F11" s="1">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2749,13 +2753,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2767,13 +2771,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2784,12 +2788,12 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE11" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2809,26 +2813,26 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45107</v>
+        <v>45100</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
@@ -2840,10 +2844,10 @@
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
         <v>0</v>
@@ -2885,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2932,7 +2936,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -2947,17 +2951,17 @@
         <v>45641</v>
       </c>
       <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
         <v>34</v>
       </c>
-      <c r="H12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>37</v>
-      </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
@@ -2986,13 +2990,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3149,7 +3153,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -3164,10 +3168,10 @@
         <v>45435</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -3364,7 +3368,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -3376,19 +3380,19 @@
         <v>31</v>
       </c>
       <c r="F14" s="1">
-        <v>45623</v>
+        <v>45518</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3400,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -3409,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -3418,13 +3422,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="U14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3448,7 +3452,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -3456,26 +3460,26 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45666</v>
+        <v>45525</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
         <v>0</v>
@@ -3493,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3532,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="BR14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT14" s="2">
         <v>0</v>
@@ -3579,7 +3583,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -3591,22 +3595,22 @@
         <v>31</v>
       </c>
       <c r="F15" s="1">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -3615,13 +3619,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3633,13 +3637,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3650,12 +3654,12 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE15" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -3681,35 +3685,35 @@
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
       </c>
       <c r="BA15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
@@ -3751,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="BR15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT15" s="2">
         <v>0</v>
@@ -3798,7 +3802,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -3810,22 +3814,22 @@
         <v>31</v>
       </c>
       <c r="F16" s="1">
-        <v>45590</v>
+        <v>45071</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -3855,21 +3859,25 @@
         <v>66</v>
       </c>
       <c r="U16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD16" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -3878,21 +3886,19 @@
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
-      <c r="AM16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AO16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45602</v>
+        <v>45107</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -3905,7 +3911,7 @@
         <v>8</v>
       </c>
       <c r="AW16" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3962,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="BP16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR16" s="2">
         <v>1</v>
@@ -4015,7 +4021,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -4027,19 +4033,19 @@
         <v>31</v>
       </c>
       <c r="F17" s="1">
-        <v>45641</v>
+        <v>45631</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -4069,17 +4075,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -4097,17 +4105,17 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AO17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45665</v>
+        <v>45666</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -4117,10 +4125,10 @@
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AW17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="2">
         <v>1</v>
@@ -4129,10 +4137,10 @@
         <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
@@ -4141,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="2">
         <v>0</v>
       </c>
       <c r="BF17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG17" s="2">
         <v>0</v>
@@ -4156,13 +4164,13 @@
         <v>0</v>
       </c>
       <c r="BI17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ17" s="2">
         <v>0</v>
       </c>
       <c r="BK17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL17" s="2">
         <v>0</v>
@@ -4177,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="BP17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ17" s="2">
         <v>0</v>
@@ -4195,16 +4203,16 @@
         <v>0</v>
       </c>
       <c r="BV17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ17" s="2">
         <v>0</v>
@@ -4230,7 +4238,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -4242,22 +4250,22 @@
         <v>31</v>
       </c>
       <c r="F18" s="1">
-        <v>45092</v>
+        <v>45518</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -4266,13 +4274,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -4284,13 +4292,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4301,63 +4309,61 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
+      <c r="AH18" s="2">
+        <v>1</v>
+      </c>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45107</v>
+        <v>45526</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="2">
         <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="2">
         <v>1</v>
@@ -4402,10 +4408,10 @@
         <v>0</v>
       </c>
       <c r="BR18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" s="2">
         <v>0</v>
@@ -4461,31 +4467,31 @@
         <v>31</v>
       </c>
       <c r="F19" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -4494,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -4503,13 +4509,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4533,7 +4539,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -4541,17 +4547,17 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45525</v>
+        <v>45664</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW19" s="2">
         <v>1</v>
@@ -4572,16 +4578,16 @@
         <v>0</v>
       </c>
       <c r="BC19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="2">
         <v>0</v>
@@ -4664,7 +4670,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -4676,22 +4682,22 @@
         <v>31</v>
       </c>
       <c r="F20" s="1">
-        <v>45092</v>
+        <v>45631</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -4700,13 +4706,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4718,29 +4724,27 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
@@ -4750,36 +4754,34 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45100</v>
+        <v>45666</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
         <v>0</v>
@@ -4791,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="2">
         <v>1</v>
@@ -4809,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="BI20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ20" s="2">
         <v>0</v>
@@ -4836,10 +4838,10 @@
         <v>0</v>
       </c>
       <c r="BR20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT20" s="2">
         <v>0</v>
@@ -4895,22 +4897,22 @@
         <v>31</v>
       </c>
       <c r="F21" s="1">
-        <v>45631</v>
+        <v>45641</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -4919,13 +4921,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -4937,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
@@ -4947,11 +4949,11 @@
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
+      <c r="AA21" s="2">
+        <v>1</v>
+      </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
         <v>27</v>
@@ -4967,17 +4969,15 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO21" s="2">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45666</v>
+        <v>45649</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -4987,16 +4987,16 @@
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="2">
         <v>0</v>
@@ -5008,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="BC21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" s="2">
         <v>0</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="BI21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ21" s="2">
         <v>0</v>
@@ -5053,10 +5053,10 @@
         <v>0</v>
       </c>
       <c r="BR21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT21" s="2">
         <v>0</v>
@@ -5115,16 +5115,16 @@
         <v>45590</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5154,13 +5154,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5184,7 +5184,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,66 +18,66 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
     <t>602528</t>
   </si>
   <si>
+    <t>500200</t>
+  </si>
+  <si>
     <t>601646</t>
   </si>
   <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
     <t>500782</t>
   </si>
   <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>602529</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
     <t>602526</t>
   </si>
   <si>
@@ -117,21 +117,21 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>syringe</t>
+  </si>
+  <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>syringe</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -141,24 +141,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl; cocaine</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine; benzodiazepine</t>
+  </si>
+  <si>
+    <t>heroin; unknown</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine; benzodiazepine</t>
-  </si>
-  <si>
-    <t>fentanyl; cocaine</t>
-  </si>
-  <si>
-    <t>heroin; unknown</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -189,39 +189,39 @@
     <t>color</t>
   </si>
   <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>light brown; black</t>
+  </si>
+  <si>
+    <t>white; brown</t>
+  </si>
+  <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
+    <t>white; tan</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
     <t>white; translucent</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>light brown; gray</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
-    <t>white; tan</t>
-  </si>
-  <si>
-    <t>white; brown</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -231,21 +231,21 @@
     <t>powder</t>
   </si>
   <si>
+    <t>chunky; crystals</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
     <t>liquid</t>
   </si>
   <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>chunky; crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -261,19 +261,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>more down</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>more up</t>
-  </si>
-  <si>
-    <t>weaker</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>more down</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -590,7 +590,7 @@
         <v>79</v>
       </c>
       <c r="AA1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AB1" t="s">
         <v>80</v>
@@ -778,7 +778,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="1">
-        <v>45623</v>
+        <v>45071</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>58</v>
       </c>
       <c r="U2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
         <v>71</v>
@@ -837,9 +837,11 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD2" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -850,28 +852,30 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO2" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0</v>
+      </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45666</v>
+        <v>45107</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX2" s="2">
         <v>1</v>
@@ -883,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC2" s="2">
         <v>0</v>
@@ -993,7 +997,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="1">
-        <v>45518</v>
+        <v>45631</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -1002,7 +1006,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
@@ -1011,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -1041,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1052,14 +1056,12 @@
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
-      <c r="AG3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
@@ -1067,7 +1069,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
@@ -1075,26 +1077,26 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45525</v>
+        <v>45666</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
@@ -1106,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="2">
         <v>1</v>
@@ -1124,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="BI3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ3" s="2">
         <v>0</v>
@@ -1151,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1198,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1210,7 +1212,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="1">
-        <v>45652</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
@@ -1219,7 +1221,7 @@
         <v>36</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>43</v>
@@ -1252,27 +1254,29 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1292,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45666</v>
+        <v>45100</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1427,31 +1431,31 @@
         <v>31</v>
       </c>
       <c r="F5" s="1">
-        <v>45590</v>
+        <v>45518</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
@@ -1460,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -1469,17 +1473,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
@@ -1495,21 +1501,17 @@
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
-      <c r="AM5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45602</v>
+        <v>45525</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1519,25 +1521,25 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW5" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="2">
         <v>0</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1579,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="BP5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1632,7 +1634,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -1644,22 +1646,22 @@
         <v>31</v>
       </c>
       <c r="F6" s="1">
-        <v>45071</v>
+        <v>45641</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -1703,11 +1705,9 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
@@ -1718,36 +1718,34 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45107</v>
+        <v>45664</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
@@ -1759,10 +1757,10 @@
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
         <v>0</v>
@@ -1804,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1851,7 +1849,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1863,7 +1861,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="1">
-        <v>45641</v>
+        <v>45652</v>
       </c>
       <c r="G7" t="s">
         <v>37</v>
@@ -1872,13 +1870,13 @@
         <v>37</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1887,13 +1885,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1905,19 +1903,21 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
         <v>27</v>
@@ -1933,48 +1933,48 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AO7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45665</v>
+        <v>45666</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="2">
         <v>1</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL7" s="2">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="BP7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ7" s="2">
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2031,16 +2031,16 @@
         <v>0</v>
       </c>
       <c r="BV7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ7" s="2">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="1">
-        <v>45071</v>
+        <v>45590</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -2090,10 +2090,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -2123,25 +2123,21 @@
         <v>62</v>
       </c>
       <c r="U8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -2150,19 +2146,21 @@
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
+      <c r="AM8" s="2">
+        <v>1</v>
+      </c>
       <c r="AN8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45107</v>
+        <v>45602</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2172,10 +2170,10 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW8" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -2199,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2232,10 +2230,10 @@
         <v>0</v>
       </c>
       <c r="BP8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR8" s="2">
         <v>1</v>
@@ -2297,19 +2295,19 @@
         <v>31</v>
       </c>
       <c r="F9" s="1">
-        <v>45518</v>
+        <v>45435</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2318,13 +2316,13 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="2">
         <v>0</v>
@@ -2339,19 +2337,17 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -2369,28 +2365,30 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO9" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>1</v>
+      </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45526</v>
+        <v>45446</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX9" s="2">
         <v>1</v>
@@ -2399,10 +2397,10 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
@@ -2411,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH9" s="2">
         <v>0</v>
@@ -2515,16 +2513,16 @@
         <v>45641</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -2536,13 +2534,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2560,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2569,9 +2567,7 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB10" s="2"/>
       <c r="AC10" t="s">
         <v>27</v>
       </c>
@@ -2586,46 +2582,48 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>1</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45649</v>
+        <v>45664</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="2">
         <v>1</v>
@@ -2664,16 +2662,16 @@
         <v>0</v>
       </c>
       <c r="BP10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ10" s="2">
         <v>0</v>
       </c>
       <c r="BR10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="2">
         <v>0</v>
@@ -2685,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="BW10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX10" s="2">
         <v>0</v>
       </c>
       <c r="BY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ10" s="2">
         <v>0</v>
@@ -2729,7 +2727,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="1">
-        <v>45092</v>
+        <v>45518</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -2741,10 +2739,10 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2753,13 +2751,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2791,60 +2789,58 @@
         <v>84</v>
       </c>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
+      <c r="AH11" s="2">
+        <v>1</v>
+      </c>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45100</v>
+        <v>45526</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="2">
         <v>1</v>
@@ -2889,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2936,7 +2932,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -2948,7 +2944,7 @@
         <v>31</v>
       </c>
       <c r="F12" s="1">
-        <v>45641</v>
+        <v>45092</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -2960,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -2972,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2990,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
@@ -3007,10 +3003,12 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
@@ -3020,48 +3018,48 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AO12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45664</v>
+        <v>45107</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
         <v>1</v>
@@ -3100,16 +3098,16 @@
         <v>0</v>
       </c>
       <c r="BP12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ12" s="2">
         <v>0</v>
       </c>
       <c r="BR12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT12" s="2">
         <v>0</v>
@@ -3121,13 +3119,13 @@
         <v>0</v>
       </c>
       <c r="BW12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="2">
         <v>0</v>
       </c>
       <c r="BY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ12" s="2">
         <v>0</v>
@@ -3153,7 +3151,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -3165,37 +3163,37 @@
         <v>31</v>
       </c>
       <c r="F13" s="1">
-        <v>45435</v>
+        <v>45641</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3207,20 +3205,24 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
+      <c r="AB13" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC13" t="s">
         <v>27</v>
       </c>
@@ -3235,17 +3237,15 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45446</v>
+        <v>45649</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3255,31 +3255,31 @@
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="BG13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -3321,10 +3321,10 @@
         <v>0</v>
       </c>
       <c r="BR13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="2">
         <v>0</v>
@@ -3380,13 +3380,13 @@
         <v>31</v>
       </c>
       <c r="F14" s="1">
-        <v>45518</v>
+        <v>45631</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -3398,13 +3398,13 @@
         <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -3422,13 +3422,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3452,15 +3452,17 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45525</v>
+        <v>45666</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3470,16 +3472,16 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW14" s="2">
         <v>3</v>
       </c>
-      <c r="AW14" s="2">
-        <v>1</v>
-      </c>
       <c r="AX14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
         <v>0</v>
@@ -3497,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="BI14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ14" s="2">
         <v>0</v>
@@ -3536,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="BR14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT14" s="2">
         <v>0</v>
@@ -3595,7 +3597,7 @@
         <v>31</v>
       </c>
       <c r="F15" s="1">
-        <v>45092</v>
+        <v>45518</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
@@ -3604,28 +3606,28 @@
         <v>37</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3637,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -3654,12 +3656,10 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -3669,36 +3669,34 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45107</v>
+        <v>45526</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
@@ -3710,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="2">
         <v>1</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3755,10 +3753,10 @@
         <v>0</v>
       </c>
       <c r="BR15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" s="2">
         <v>0</v>
@@ -3802,7 +3800,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -3814,22 +3812,22 @@
         <v>31</v>
       </c>
       <c r="F16" s="1">
-        <v>45071</v>
+        <v>45641</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -3838,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3856,28 +3854,26 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
+      <c r="AA16" s="2">
+        <v>1</v>
+      </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -3888,17 +3884,15 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45107</v>
+        <v>45649</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -3908,31 +3902,31 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW16" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
         <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16" s="2">
         <v>0</v>
@@ -3974,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="BR16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT16" s="2">
         <v>0</v>
@@ -4033,19 +4027,19 @@
         <v>31</v>
       </c>
       <c r="F17" s="1">
-        <v>45631</v>
+        <v>45641</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -4075,19 +4069,17 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -4105,17 +4097,17 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45666</v>
+        <v>45665</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -4125,10 +4117,10 @@
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AW17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX17" s="2">
         <v>1</v>
@@ -4137,10 +4129,10 @@
         <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
@@ -4149,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="2">
         <v>0</v>
       </c>
       <c r="BF17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG17" s="2">
         <v>0</v>
@@ -4164,13 +4156,13 @@
         <v>0</v>
       </c>
       <c r="BI17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ17" s="2">
         <v>0</v>
       </c>
       <c r="BK17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL17" s="2">
         <v>0</v>
@@ -4185,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="BP17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ17" s="2">
         <v>0</v>
@@ -4203,16 +4195,16 @@
         <v>0</v>
       </c>
       <c r="BV17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ17" s="2">
         <v>0</v>
@@ -4250,25 +4242,25 @@
         <v>31</v>
       </c>
       <c r="F18" s="1">
-        <v>45518</v>
+        <v>45623</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -4295,7 +4287,7 @@
         <v>68</v>
       </c>
       <c r="U18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="s">
         <v>71</v>
@@ -4309,22 +4301,20 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
-      <c r="AH18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
@@ -4332,20 +4322,20 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45526</v>
+        <v>45666</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AW18" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -4354,10 +4344,10 @@
         <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="2">
         <v>0</v>
@@ -4366,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="2">
         <v>0</v>
@@ -4455,7 +4445,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -4467,22 +4457,22 @@
         <v>31</v>
       </c>
       <c r="F19" s="1">
-        <v>45641</v>
+        <v>45071</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -4526,9 +4516,11 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD19" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
@@ -4539,55 +4531,57 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO19" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45664</v>
+        <v>45107</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW19" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
         <v>0</v>
       </c>
       <c r="BA19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG19" s="2">
         <v>0</v>
@@ -4623,10 +4617,10 @@
         <v>0</v>
       </c>
       <c r="BR19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT19" s="2">
         <v>0</v>
@@ -4682,7 +4676,7 @@
         <v>31</v>
       </c>
       <c r="F20" s="1">
-        <v>45631</v>
+        <v>45518</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
@@ -4691,16 +4685,16 @@
         <v>35</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -4724,13 +4718,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4741,12 +4735,14 @@
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
+      <c r="AG20" s="2">
+        <v>1</v>
+      </c>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
@@ -4754,7 +4750,7 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
@@ -4762,26 +4758,26 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45666</v>
+        <v>45525</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
         <v>0</v>
@@ -4793,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" s="2">
         <v>1</v>
@@ -4811,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="BI20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ20" s="2">
         <v>0</v>
@@ -4838,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="BR20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="2">
         <v>0</v>
@@ -4885,7 +4881,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -4897,22 +4893,22 @@
         <v>31</v>
       </c>
       <c r="F21" s="1">
-        <v>45641</v>
+        <v>45071</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -4921,13 +4917,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -4939,26 +4935,28 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD21" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -4969,15 +4967,17 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO21" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>0</v>
+      </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45649</v>
+        <v>45107</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -4993,10 +4993,10 @@
         <v>2</v>
       </c>
       <c r="AX21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="2">
         <v>0</v>
@@ -5008,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="BC21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE21" s="2">
         <v>0</v>
@@ -5053,10 +5053,10 @@
         <v>0</v>
       </c>
       <c r="BR21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT21" s="2">
         <v>0</v>
@@ -5115,16 +5115,16 @@
         <v>45590</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
@@ -5184,7 +5184,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,40 +18,58 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
     <t>500706</t>
   </si>
   <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>602525</t>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>602520</t>
   </si>
   <si>
     <t>601719</t>
   </si>
   <si>
-    <t>602521</t>
-  </si>
-  <si>
     <t>601522</t>
   </si>
   <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>602524</t>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>602528</t>
   </si>
   <si>
     <t>602529</t>
@@ -60,36 +78,18 @@
     <t>601633</t>
   </si>
   <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
     <t>602526</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
+    <t>Martinsville</t>
+  </si>
+  <si>
     <t>Roanoke</t>
   </si>
   <si>
-    <t>Martinsville</t>
-  </si>
-  <si>
     <t>Franklin County</t>
   </si>
   <si>
@@ -117,18 +117,18 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>cotton</t>
   </si>
   <si>
+    <t>syringe</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>syringe</t>
-  </si>
-  <si>
-    <t>swab</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -153,12 +153,12 @@
     <t>fentanyl; xylazine; benzodiazepine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>heroin; unknown</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -189,39 +189,39 @@
     <t>color</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
     <t>gray; brown</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
     <t>light brown; black</t>
   </si>
   <si>
     <t>white; brown</t>
   </si>
   <si>
-    <t>light brown; gray</t>
+    <t>white; translucent</t>
   </si>
   <si>
     <t>white; tan</t>
   </si>
   <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>white; translucent</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -234,12 +234,12 @@
     <t>chunky; crystals</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>powder; dull</t>
   </si>
   <si>
@@ -264,13 +264,13 @@
     <t>weaker</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>unpleasant</t>
   </si>
   <si>
     <t>more down</t>
-  </si>
-  <si>
-    <t>weird</t>
   </si>
   <si>
     <t>more up</t>
@@ -590,7 +590,7 @@
         <v>79</v>
       </c>
       <c r="AA1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB1" t="s">
         <v>80</v>
@@ -778,7 +778,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="1">
-        <v>45071</v>
+        <v>45641</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
@@ -787,13 +787,13 @@
         <v>34</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -837,11 +837,9 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -852,51 +850,49 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45107</v>
+        <v>45664</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW2" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
         <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -938,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -985,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -997,7 +993,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="1">
-        <v>45631</v>
+        <v>45071</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -1006,7 +1002,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
@@ -1045,20 +1041,22 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD3" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -1069,15 +1067,17 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO3" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0</v>
+      </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45666</v>
+        <v>45107</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1087,10 +1087,10 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX3" s="2">
         <v>1</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3" s="2">
         <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="BI3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3" s="2">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1419,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1431,25 +1431,25 @@
         <v>31</v>
       </c>
       <c r="F5" s="1">
-        <v>45518</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -1461,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -1473,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1490,10 +1490,12 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -1503,25 +1505,27 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45525</v>
+        <v>45100</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
         <v>1</v>
@@ -1542,16 +1546,16 @@
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1646,7 +1650,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="1">
-        <v>45641</v>
+        <v>45631</v>
       </c>
       <c r="G6" t="s">
         <v>37</v>
@@ -1658,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -1688,21 +1692,21 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>27</v>
@@ -1726,26 +1730,26 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45664</v>
+        <v>45666</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
@@ -1757,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="2">
         <v>1</v>
@@ -1775,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="BI6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ6" s="2">
         <v>0</v>
@@ -1802,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1849,7 +1853,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1864,10 +1868,10 @@
         <v>45652</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -1903,13 +1907,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2066,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2078,31 +2082,31 @@
         <v>31</v>
       </c>
       <c r="F8" s="1">
-        <v>45590</v>
+        <v>45518</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -2111,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -2120,17 +2124,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -2146,21 +2152,17 @@
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
-      <c r="AM8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45602</v>
+        <v>45525</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2170,25 +2172,25 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW8" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="2">
         <v>0</v>
@@ -2197,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2230,16 +2232,16 @@
         <v>0</v>
       </c>
       <c r="BP8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="2">
         <v>0</v>
@@ -2283,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -2295,34 +2297,34 @@
         <v>31</v>
       </c>
       <c r="F9" s="1">
-        <v>45435</v>
+        <v>45071</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
         <v>0</v>
@@ -2337,24 +2339,28 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD9" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
@@ -2365,30 +2371,30 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AO9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45446</v>
+        <v>45107</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW9" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="2">
         <v>1</v>
@@ -2397,10 +2403,10 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
@@ -2418,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="BG9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="2">
         <v>0</v>
@@ -2510,13 +2516,13 @@
         <v>31</v>
       </c>
       <c r="F10" s="1">
-        <v>45641</v>
+        <v>45590</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -2552,19 +2558,17 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -2580,7 +2584,9 @@
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
+      <c r="AM10" s="2">
+        <v>1</v>
+      </c>
       <c r="AN10" t="s">
         <v>99</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45664</v>
+        <v>45602</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2602,10 +2608,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AW10" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2614,19 +2620,19 @@
         <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
         <v>1</v>
       </c>
       <c r="BB10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="2">
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
         <v>0</v>
@@ -2665,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="BQ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR10" s="2">
         <v>1</v>
@@ -2683,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="BW10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="2">
         <v>0</v>
       </c>
       <c r="BY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ10" s="2">
         <v>0</v>
@@ -2727,22 +2733,22 @@
         <v>31</v>
       </c>
       <c r="F11" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2751,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2769,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2784,17 +2790,17 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
+      <c r="AB11" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC11" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
@@ -2809,38 +2815,38 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45526</v>
+        <v>45649</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="2">
         <v>1</v>
@@ -2885,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2932,7 +2938,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -2944,22 +2950,22 @@
         <v>31</v>
       </c>
       <c r="F12" s="1">
-        <v>45092</v>
+        <v>45071</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -2968,13 +2974,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2986,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
@@ -3003,12 +3009,12 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2">
-        <v>1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
@@ -3034,35 +3040,35 @@
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
@@ -3104,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="BR12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12" s="2">
         <v>0</v>
@@ -3151,7 +3157,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -3166,16 +3172,16 @@
         <v>45641</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -3187,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3211,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3220,9 +3226,7 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s">
         <v>27</v>
       </c>
@@ -3237,46 +3241,48 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>1</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45649</v>
+        <v>45664</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="2">
         <v>1</v>
@@ -3315,16 +3321,16 @@
         <v>0</v>
       </c>
       <c r="BP13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ13" s="2">
         <v>0</v>
       </c>
       <c r="BR13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13" s="2">
         <v>0</v>
@@ -3336,13 +3342,13 @@
         <v>0</v>
       </c>
       <c r="BW13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX13" s="2">
         <v>0</v>
       </c>
       <c r="BY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ13" s="2">
         <v>0</v>
@@ -3380,22 +3386,22 @@
         <v>31</v>
       </c>
       <c r="F14" s="1">
-        <v>45631</v>
+        <v>45641</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -3404,13 +3410,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3422,21 +3428,21 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
         <v>27</v>
@@ -3452,17 +3458,15 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45666</v>
+        <v>45649</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3472,16 +3476,16 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
         <v>0</v>
@@ -3493,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="2">
         <v>0</v>
@@ -3511,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="BI14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ14" s="2">
         <v>0</v>
@@ -3538,10 +3542,10 @@
         <v>0</v>
       </c>
       <c r="BR14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT14" s="2">
         <v>0</v>
@@ -3585,7 +3589,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -3597,19 +3601,19 @@
         <v>31</v>
       </c>
       <c r="F15" s="1">
-        <v>45518</v>
+        <v>45435</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3618,13 +3622,13 @@
         <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="2">
         <v>0</v>
@@ -3639,19 +3643,17 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
@@ -3669,28 +3671,30 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>1</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45526</v>
+        <v>45446</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
@@ -3699,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
@@ -3711,16 +3715,16 @@
         <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3812,22 +3816,22 @@
         <v>31</v>
       </c>
       <c r="F16" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -3836,13 +3840,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3854,30 +3858,32 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
+      <c r="AH16" s="2">
+        <v>1</v>
+      </c>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
@@ -3892,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45649</v>
+        <v>45526</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -3902,28 +3908,28 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AW16" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="2">
         <v>1</v>
@@ -3968,10 +3974,10 @@
         <v>0</v>
       </c>
       <c r="BR16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT16" s="2">
         <v>0</v>
@@ -4015,7 +4021,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -4230,7 +4236,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -4242,19 +4248,19 @@
         <v>31</v>
       </c>
       <c r="F18" s="1">
-        <v>45623</v>
+        <v>45518</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -4284,29 +4290,31 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="U18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="2">
+        <v>1</v>
+      </c>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
+      <c r="AG18" s="2">
+        <v>1</v>
+      </c>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
@@ -4322,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45666</v>
+        <v>45525</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -4332,16 +4340,16 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="2">
         <v>0</v>
@@ -4353,10 +4361,10 @@
         <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE18" s="2">
         <v>0</v>
@@ -4398,10 +4406,10 @@
         <v>0</v>
       </c>
       <c r="BR18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT18" s="2">
         <v>0</v>
@@ -4445,7 +4453,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -4457,25 +4465,25 @@
         <v>31</v>
       </c>
       <c r="F19" s="1">
-        <v>45071</v>
+        <v>45623</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -4499,10 +4507,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="U19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="s">
         <v>71</v>
@@ -4516,11 +4524,9 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
@@ -4531,30 +4537,28 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45107</v>
+        <v>45666</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AW19" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
@@ -4566,10 +4570,10 @@
         <v>0</v>
       </c>
       <c r="BA19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC19" s="2">
         <v>0</v>
@@ -4578,10 +4582,10 @@
         <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="2">
         <v>0</v>
@@ -4664,7 +4668,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -4676,16 +4680,16 @@
         <v>31</v>
       </c>
       <c r="F20" s="1">
-        <v>45518</v>
+        <v>45631</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
@@ -4694,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -4718,31 +4722,29 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
@@ -4750,34 +4752,36 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0</v>
+      </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45525</v>
+        <v>45666</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
         <v>0</v>
@@ -4789,10 +4793,10 @@
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="2">
         <v>0</v>
@@ -4807,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="BI20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ20" s="2">
         <v>0</v>
@@ -4834,10 +4838,10 @@
         <v>0</v>
       </c>
       <c r="BR20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT20" s="2">
         <v>0</v>
@@ -4881,7 +4885,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -4893,25 +4897,25 @@
         <v>31</v>
       </c>
       <c r="F21" s="1">
-        <v>45071</v>
+        <v>45518</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -4935,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
@@ -4952,11 +4956,9 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -4967,17 +4969,15 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO21" s="2">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45107</v>
+        <v>45526</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -4987,11 +4987,11 @@
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW21" s="2">
         <v>3</v>
       </c>
-      <c r="AW21" s="2">
-        <v>2</v>
-      </c>
       <c r="AX21" s="2">
         <v>1</v>
       </c>
@@ -5011,13 +5011,13 @@
         <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,78 +18,78 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
     <t>602522</t>
   </si>
   <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
     <t>500200</t>
   </si>
   <si>
     <t>500175</t>
   </si>
   <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>601716</t>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>601522</t>
   </si>
   <si>
     <t>500782</t>
   </si>
   <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>602529</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
     <t>602526</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
+    <t>Roanoke</t>
+  </si>
+  <si>
     <t>Martinsville</t>
   </si>
   <si>
-    <t>Roanoke</t>
-  </si>
-  <si>
     <t>Franklin County</t>
   </si>
   <si>
@@ -117,21 +117,21 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
+    <t>syringe</t>
+  </si>
+  <si>
     <t>cotton</t>
   </si>
   <si>
-    <t>syringe</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -141,24 +141,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>heroin; unknown</t>
+  </si>
+  <si>
+    <t>fentanyl; cocaine</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl; cocaine</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine; benzodiazepine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>heroin; unknown</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -189,24 +189,30 @@
     <t>color</t>
   </si>
   <si>
+    <t>white; tan</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
+    <t>white; translucent</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
     <t>brown</t>
   </si>
   <si>
-    <t>clear</t>
-  </si>
-  <si>
     <t>red; brown</t>
   </si>
   <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>light brown; gray</t>
-  </si>
-  <si>
     <t>gray; brown</t>
   </si>
   <si>
@@ -216,12 +222,6 @@
     <t>white; brown</t>
   </si>
   <si>
-    <t>white; translucent</t>
-  </si>
-  <si>
-    <t>white; tan</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -231,18 +231,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
     <t>chunky; crystals</t>
   </si>
   <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
     <t>liquid</t>
   </si>
   <si>
@@ -261,19 +261,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>more up</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>weaker</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
     <t>more down</t>
-  </si>
-  <si>
-    <t>more up</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -590,7 +590,7 @@
         <v>79</v>
       </c>
       <c r="AA1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB1" t="s">
         <v>80</v>
@@ -778,7 +778,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="1">
-        <v>45641</v>
+        <v>45631</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
@@ -790,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -850,34 +850,36 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO2" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0</v>
+      </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45664</v>
+        <v>45666</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
         <v>0</v>
@@ -889,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -907,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="BI2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ2" s="2">
         <v>0</v>
@@ -934,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -981,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -993,7 +995,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="1">
-        <v>45071</v>
+        <v>45518</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -1002,22 +1004,22 @@
         <v>35</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -1026,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1052,11 +1054,9 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -1067,17 +1067,15 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45107</v>
+        <v>45525</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1087,25 +1085,25 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="2">
         <v>0</v>
@@ -1153,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1212,7 +1210,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="1">
-        <v>45092</v>
+        <v>45641</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
@@ -1221,10 +1219,10 @@
         <v>36</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1236,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1254,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -1271,12 +1269,10 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1286,17 +1282,15 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45107</v>
+        <v>45664</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1431,7 +1425,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="1">
-        <v>45092</v>
+        <v>45641</v>
       </c>
       <c r="G5" t="s">
         <v>36</v>
@@ -1440,10 +1434,10 @@
         <v>36</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1479,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1488,14 +1482,14 @@
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+      <c r="AB5" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC5" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -1505,17 +1499,15 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45100</v>
+        <v>45649</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1638,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -1650,25 +1642,25 @@
         <v>31</v>
       </c>
       <c r="F6" s="1">
-        <v>45631</v>
+        <v>45623</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1692,21 +1684,21 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>27</v>
@@ -1722,7 +1714,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
@@ -1736,14 +1728,14 @@
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="2">
         <v>1</v>
@@ -1764,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
         <v>0</v>
@@ -1779,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="BI6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6" s="2">
         <v>0</v>
@@ -1865,7 +1857,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="1">
-        <v>45652</v>
+        <v>45590</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -1874,10 +1866,10 @@
         <v>34</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1889,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1907,21 +1899,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
         <v>27</v>
@@ -1935,53 +1925,55 @@
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
+      <c r="AM7" s="2">
+        <v>1</v>
+      </c>
       <c r="AN7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45666</v>
+        <v>45602</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="2">
         <v>0</v>
@@ -2017,16 +2009,16 @@
         <v>0</v>
       </c>
       <c r="BP7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2070,7 +2062,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2085,16 +2077,16 @@
         <v>45518</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2106,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -2115,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -2124,29 +2116,31 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
+      <c r="AG8" s="2">
+        <v>1</v>
+      </c>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
@@ -2154,7 +2148,7 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -2168,11 +2162,11 @@
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="2">
         <v>1</v>
@@ -2193,16 +2187,16 @@
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2285,7 +2279,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -2297,22 +2291,22 @@
         <v>31</v>
       </c>
       <c r="F9" s="1">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -2321,13 +2315,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2339,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2356,12 +2350,12 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
@@ -2381,26 +2375,26 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45107</v>
+        <v>45100</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
         <v>0</v>
@@ -2412,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
@@ -2457,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="BR9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9" s="2">
         <v>0</v>
@@ -2504,7 +2498,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -2516,22 +2510,22 @@
         <v>31</v>
       </c>
       <c r="F10" s="1">
-        <v>45590</v>
+        <v>45631</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -2558,19 +2552,21 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
         <v>27</v>
@@ -2584,21 +2580,17 @@
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
-      <c r="AM10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45602</v>
+        <v>45666</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2608,10 +2600,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW10" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2623,16 +2615,16 @@
         <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10" s="2">
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
         <v>0</v>
@@ -2647,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ10" s="2">
         <v>0</v>
@@ -2668,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="BP10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR10" s="2">
         <v>1</v>
@@ -2733,37 +2725,37 @@
         <v>31</v>
       </c>
       <c r="F11" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2775,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2790,9 +2782,7 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB11" s="2"/>
       <c r="AC11" t="s">
         <v>27</v>
       </c>
@@ -2807,7 +2797,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -2815,26 +2805,26 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45649</v>
+        <v>45526</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
@@ -2846,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="2">
         <v>1</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11" s="2">
         <v>0</v>
@@ -2891,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2938,7 +2928,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -2953,16 +2943,16 @@
         <v>45071</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -2992,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
@@ -3009,7 +2999,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AD12" s="2">
         <v>-1</v>
@@ -3157,7 +3147,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -3169,19 +3159,19 @@
         <v>31</v>
       </c>
       <c r="F13" s="1">
-        <v>45641</v>
+        <v>45652</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -3193,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3211,21 +3201,21 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
+      <c r="AA13" s="2">
+        <v>1</v>
+      </c>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
         <v>27</v>
@@ -3241,48 +3231,48 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AO13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45664</v>
+        <v>45666</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13" s="2">
         <v>1</v>
@@ -3321,16 +3311,16 @@
         <v>0</v>
       </c>
       <c r="BP13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ13" s="2">
         <v>0</v>
       </c>
       <c r="BR13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="2">
         <v>0</v>
@@ -3342,13 +3332,13 @@
         <v>0</v>
       </c>
       <c r="BW13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="2">
         <v>0</v>
       </c>
       <c r="BY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ13" s="2">
         <v>0</v>
@@ -3374,7 +3364,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -3389,16 +3379,16 @@
         <v>45641</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3428,13 +3418,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3458,7 +3448,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -3589,7 +3579,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -3601,34 +3591,34 @@
         <v>31</v>
       </c>
       <c r="F15" s="1">
-        <v>45435</v>
+        <v>45641</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2">
         <v>0</v>
@@ -3643,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3681,17 +3671,17 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45446</v>
+        <v>45665</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AW15" s="2">
         <v>4</v>
@@ -3715,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3736,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="BK15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL15" s="2">
         <v>0</v>
@@ -3751,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="BP15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ15" s="2">
         <v>0</v>
@@ -3769,16 +3759,16 @@
         <v>0</v>
       </c>
       <c r="BV15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ15" s="2">
         <v>0</v>
@@ -3804,7 +3794,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -3816,19 +3806,19 @@
         <v>31</v>
       </c>
       <c r="F16" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3858,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
@@ -3875,30 +3865,32 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD16" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO16" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0</v>
+      </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45526</v>
+        <v>45107</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -3908,10 +3900,10 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AW16" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3920,25 +3912,25 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
         <v>1</v>
       </c>
       <c r="BB16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="2">
         <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG16" s="2">
         <v>0</v>
@@ -4021,7 +4013,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -4033,22 +4025,22 @@
         <v>31</v>
       </c>
       <c r="F17" s="1">
-        <v>45641</v>
+        <v>45092</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -4057,13 +4049,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4081,19 +4073,23 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
+      <c r="AE17" s="2">
+        <v>1</v>
+      </c>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
@@ -4103,48 +4099,48 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AO17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45665</v>
+        <v>45107</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD17" s="2">
         <v>1</v>
@@ -4153,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="BF17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG17" s="2">
         <v>0</v>
@@ -4168,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="BK17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL17" s="2">
         <v>0</v>
@@ -4183,16 +4179,16 @@
         <v>0</v>
       </c>
       <c r="BP17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ17" s="2">
         <v>0</v>
       </c>
       <c r="BR17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT17" s="2">
         <v>0</v>
@@ -4201,16 +4197,16 @@
         <v>0</v>
       </c>
       <c r="BV17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ17" s="2">
         <v>0</v>
@@ -4236,7 +4232,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -4248,19 +4244,19 @@
         <v>31</v>
       </c>
       <c r="F18" s="1">
-        <v>45518</v>
+        <v>45435</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -4269,13 +4265,13 @@
         <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2">
         <v>0</v>
@@ -4290,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
@@ -4302,19 +4298,15 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
@@ -4322,15 +4314,17 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>1</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45525</v>
+        <v>45446</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -4340,31 +4334,31 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="2">
         <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="2">
         <v>0</v>
@@ -4373,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="BG18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -4406,10 +4400,10 @@
         <v>0</v>
       </c>
       <c r="BR18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" s="2">
         <v>0</v>
@@ -4465,25 +4459,25 @@
         <v>31</v>
       </c>
       <c r="F19" s="1">
-        <v>45623</v>
+        <v>45641</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -4510,7 +4504,7 @@
         <v>67</v>
       </c>
       <c r="U19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="s">
         <v>71</v>
@@ -4537,28 +4531,30 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO19" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>1</v>
+      </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45666</v>
+        <v>45664</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AW19" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
@@ -4567,10 +4563,10 @@
         <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="2">
         <v>0</v>
@@ -4579,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19" s="2">
         <v>0</v>
@@ -4615,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="BP19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ19" s="2">
         <v>0</v>
@@ -4636,13 +4632,13 @@
         <v>0</v>
       </c>
       <c r="BW19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX19" s="2">
         <v>0</v>
       </c>
       <c r="BY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ19" s="2">
         <v>0</v>
@@ -4668,7 +4664,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -4680,19 +4676,19 @@
         <v>31</v>
       </c>
       <c r="F20" s="1">
-        <v>45631</v>
+        <v>45518</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4739,30 +4735,30 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
+      <c r="AH20" s="2">
+        <v>1</v>
+      </c>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45666</v>
+        <v>45526</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4772,10 +4768,10 @@
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AW20" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -4784,10 +4780,10 @@
         <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="2">
         <v>0</v>
@@ -4796,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" s="2">
         <v>0</v>
@@ -4811,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="BI20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ20" s="2">
         <v>0</v>
@@ -4885,7 +4881,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -4897,16 +4893,16 @@
         <v>31</v>
       </c>
       <c r="F21" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>46</v>
@@ -4915,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -4939,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
@@ -4956,9 +4952,11 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD21" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -4969,15 +4967,17 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO21" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>0</v>
+      </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45526</v>
+        <v>45107</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -4987,10 +4987,10 @@
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX21" s="2">
         <v>1</v>
@@ -5011,13 +5011,13 @@
         <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -5115,16 +5115,16 @@
         <v>45590</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
@@ -5184,7 +5184,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,63 +18,63 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
     <t>602529</t>
   </si>
   <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
     <t>601716</t>
   </si>
   <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
     <t>602528</t>
   </si>
   <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
     <t>602525</t>
   </si>
   <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
     <t>601646</t>
   </si>
   <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
     <t>500782</t>
   </si>
   <si>
@@ -117,18 +117,18 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>syringe</t>
+  </si>
+  <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>syringe</t>
-  </si>
-  <si>
     <t>cotton</t>
   </si>
   <si>
@@ -141,24 +141,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine; benzodiazepine</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>heroin; unknown</t>
   </si>
   <si>
     <t>fentanyl; cocaine</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine; benzodiazepine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -189,39 +189,39 @@
     <t>color</t>
   </si>
   <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>white; tan</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>light brown; gray</t>
-  </si>
-  <si>
     <t>white; translucent</t>
   </si>
   <si>
+    <t>white; brown</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
+    <t>light brown; black</t>
+  </si>
+  <si>
     <t>blue</t>
   </si>
   <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
-    <t>white; brown</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -231,18 +231,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>chunky; crystals</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>chunky; crystals</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>liquid</t>
   </si>
   <si>
@@ -261,19 +261,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>more down</t>
+  </si>
+  <si>
     <t>more up</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
-    <t>weaker</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>more down</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -590,7 +590,7 @@
         <v>79</v>
       </c>
       <c r="AA1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB1" t="s">
         <v>80</v>
@@ -778,7 +778,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="1">
-        <v>45631</v>
+        <v>45092</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
@@ -787,13 +787,13 @@
         <v>34</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -837,10 +837,12 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
+      <c r="AE2" s="2">
+        <v>1</v>
+      </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
@@ -860,26 +862,26 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45666</v>
+        <v>45100</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
         <v>0</v>
@@ -891,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -909,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="BI2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2" s="2">
         <v>0</v>
@@ -936,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -983,7 +985,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -995,7 +997,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -1007,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -1025,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -1052,7 +1054,9 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="AB3" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC3" t="s">
         <v>27</v>
       </c>
@@ -1067,7 +1071,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
@@ -1075,17 +1079,17 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45525</v>
+        <v>45649</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
         <v>1</v>
@@ -1106,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1213,16 +1217,16 @@
         <v>45641</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1252,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -1282,7 +1286,7 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
@@ -1413,7 +1417,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1425,37 +1429,37 @@
         <v>31</v>
       </c>
       <c r="F5" s="1">
-        <v>45641</v>
+        <v>45435</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1467,24 +1471,20 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>27</v>
       </c>
@@ -1499,15 +1499,17 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>1</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45649</v>
+        <v>45446</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1517,31 +1519,31 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
         <v>0</v>
@@ -1550,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5" s="2">
         <v>0</v>
@@ -1583,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1642,25 +1644,25 @@
         <v>31</v>
       </c>
       <c r="F6" s="1">
-        <v>45623</v>
+        <v>45631</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1687,18 +1689,18 @@
         <v>61</v>
       </c>
       <c r="U6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>27</v>
@@ -1714,7 +1716,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
@@ -1728,14 +1730,14 @@
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX6" s="2">
         <v>1</v>
@@ -1756,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
         <v>0</v>
@@ -1771,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="BI6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ6" s="2">
         <v>0</v>
@@ -1845,7 +1847,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1857,19 +1859,19 @@
         <v>31</v>
       </c>
       <c r="F7" s="1">
-        <v>45590</v>
+        <v>45652</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1881,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1899,19 +1901,21 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
         <v>27</v>
@@ -1925,55 +1929,53 @@
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
-      <c r="AM7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AO7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45602</v>
+        <v>45666</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
         <v>0</v>
@@ -2009,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="BP7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2074,16 +2076,16 @@
         <v>31</v>
       </c>
       <c r="F8" s="1">
-        <v>45518</v>
+        <v>45631</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>45</v>
@@ -2092,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -2116,31 +2118,29 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
@@ -2148,34 +2148,36 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO8" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0</v>
+      </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45525</v>
+        <v>45666</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
@@ -2187,10 +2189,10 @@
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="BI8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ8" s="2">
         <v>0</v>
@@ -2232,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="BR8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
         <v>0</v>
@@ -2294,16 +2296,16 @@
         <v>45092</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2510,19 +2512,19 @@
         <v>31</v>
       </c>
       <c r="F10" s="1">
-        <v>45631</v>
+        <v>45071</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2552,26 +2554,28 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD10" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2582,15 +2586,17 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45666</v>
+        <v>45107</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2600,10 +2606,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2615,22 +2621,22 @@
         <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="2">
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10" s="2">
         <v>0</v>
@@ -2639,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ10" s="2">
         <v>0</v>
@@ -2737,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2749,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
@@ -2758,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2767,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2797,7 +2803,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -2805,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45526</v>
+        <v>45525</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2815,16 +2821,16 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
@@ -2839,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
         <v>1</v>
@@ -2881,10 +2887,10 @@
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2940,25 +2946,25 @@
         <v>31</v>
       </c>
       <c r="F12" s="1">
-        <v>45071</v>
+        <v>45623</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -2982,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="s">
         <v>71</v>
@@ -2999,11 +3005,9 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -3014,30 +3018,28 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45107</v>
+        <v>45666</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW12" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -3049,10 +3051,10 @@
         <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="2">
         <v>0</v>
@@ -3147,7 +3149,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -3159,22 +3161,22 @@
         <v>31</v>
       </c>
       <c r="F13" s="1">
-        <v>45652</v>
+        <v>45518</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -3183,13 +3185,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3201,78 +3203,78 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
+      <c r="AH13" s="2">
+        <v>1</v>
+      </c>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45666</v>
+        <v>45526</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="2">
         <v>1</v>
@@ -3317,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="BR13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13" s="2">
         <v>0</v>
@@ -3364,7 +3366,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -3376,7 +3378,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -3388,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3418,21 +3420,21 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
         <v>27</v>
@@ -3448,7 +3450,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -3456,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45649</v>
+        <v>45526</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3466,16 +3468,16 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW14" s="2">
         <v>3</v>
       </c>
-      <c r="AW14" s="2">
-        <v>2</v>
-      </c>
       <c r="AX14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
         <v>0</v>
@@ -3487,16 +3489,16 @@
         <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="2">
         <v>1</v>
       </c>
       <c r="BE14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3532,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="BR14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT14" s="2">
         <v>0</v>
@@ -3591,19 +3593,19 @@
         <v>31</v>
       </c>
       <c r="F15" s="1">
-        <v>45641</v>
+        <v>45071</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3633,24 +3635,28 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD15" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -3661,17 +3667,17 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AO15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45665</v>
+        <v>45107</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3681,7 +3687,7 @@
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AW15" s="2">
         <v>4</v>
@@ -3693,25 +3699,25 @@
         <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
         <v>1</v>
       </c>
       <c r="BB15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="2">
         <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3726,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="BK15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL15" s="2">
         <v>0</v>
@@ -3741,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="BP15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ15" s="2">
         <v>0</v>
@@ -3759,16 +3765,16 @@
         <v>0</v>
       </c>
       <c r="BV15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ15" s="2">
         <v>0</v>
@@ -3794,7 +3800,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -3806,22 +3812,22 @@
         <v>31</v>
       </c>
       <c r="F16" s="1">
-        <v>45071</v>
+        <v>45641</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -3848,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
@@ -3865,11 +3871,9 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -3880,17 +3884,17 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45107</v>
+        <v>45664</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -3900,10 +3904,10 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AW16" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3912,25 +3916,25 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
         <v>1</v>
       </c>
       <c r="BB16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC16" s="2">
         <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="2">
         <v>0</v>
@@ -3960,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="BP16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ16" s="2">
         <v>0</v>
@@ -3981,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="BW16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX16" s="2">
         <v>0</v>
       </c>
       <c r="BY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ16" s="2">
         <v>0</v>
@@ -4025,7 +4029,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="1">
-        <v>45092</v>
+        <v>45590</v>
       </c>
       <c r="G17" t="s">
         <v>37</v>
@@ -4037,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4049,13 +4053,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4067,29 +4071,25 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="U17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
@@ -4097,53 +4097,55 @@
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
+      <c r="AM17" s="2">
+        <v>1</v>
+      </c>
       <c r="AN17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45107</v>
+        <v>45602</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW17" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
         <v>0</v>
       </c>
       <c r="BA17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="2">
         <v>0</v>
@@ -4179,16 +4181,16 @@
         <v>0</v>
       </c>
       <c r="BP17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT17" s="2">
         <v>0</v>
@@ -4232,7 +4234,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -4244,7 +4246,7 @@
         <v>31</v>
       </c>
       <c r="F18" s="1">
-        <v>45435</v>
+        <v>45641</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -4253,28 +4255,28 @@
         <v>36</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -4286,19 +4288,21 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="2">
+        <v>1</v>
+      </c>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
         <v>27</v>
@@ -4314,51 +4318,49 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45446</v>
+        <v>45649</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW18" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="2">
         <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE18" s="2">
         <v>0</v>
@@ -4367,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="BG18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -4400,10 +4402,10 @@
         <v>0</v>
       </c>
       <c r="BR18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT18" s="2">
         <v>0</v>
@@ -4447,7 +4449,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -4462,19 +4464,19 @@
         <v>45641</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -4501,19 +4503,17 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45664</v>
+        <v>45665</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -4551,10 +4551,10 @@
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AW19" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="BF19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG19" s="2">
         <v>0</v>
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="BK19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL19" s="2">
         <v>0</v>
@@ -4629,13 +4629,13 @@
         <v>0</v>
       </c>
       <c r="BV19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW19" s="2">
         <v>1</v>
       </c>
       <c r="BX19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY19" s="2">
         <v>1</v>
@@ -4688,13 +4688,13 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -4718,21 +4718,21 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
         <v>86</v>
@@ -4740,17 +4740,17 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
@@ -4758,38 +4758,38 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45526</v>
+        <v>45525</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AW20" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="2">
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" s="2">
         <v>1</v>
@@ -4834,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="BR20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="2">
         <v>0</v>
@@ -4896,16 +4896,16 @@
         <v>45071</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5115,16 +5115,16 @@
         <v>45590</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
@@ -5184,7 +5184,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,66 +18,66 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>601646</t>
+  </si>
+  <si>
     <t>500911</t>
   </si>
   <si>
     <t>602524</t>
   </si>
   <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>602528</t>
+  </si>
+  <si>
     <t>602522</t>
   </si>
   <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602527</t>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>601633</t>
   </si>
   <si>
     <t>602676</t>
   </si>
   <si>
-    <t>602529</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
     <t>602526</t>
   </si>
   <si>
@@ -117,21 +117,21 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>syringe</t>
   </si>
   <si>
     <t>swab</t>
   </si>
   <si>
-    <t>spatula</t>
+    <t>cotton</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>cotton</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -141,24 +141,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine; benzodiazepine</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>heroin; unknown</t>
   </si>
   <si>
     <t>fentanyl; cocaine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -189,39 +189,39 @@
     <t>color</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
     <t>light brown; gray</t>
   </si>
   <si>
-    <t>white</t>
+    <t>gray; brown</t>
+  </si>
+  <si>
+    <t>light brown; black</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>white; tan</t>
+  </si>
+  <si>
+    <t>white; brown</t>
   </si>
   <si>
     <t>brown</t>
   </si>
   <si>
-    <t>white; tan</t>
-  </si>
-  <si>
     <t>white; translucent</t>
   </si>
   <si>
-    <t>white; brown</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -237,15 +237,15 @@
     <t>chunky; crystals</t>
   </si>
   <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -261,19 +261,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>more up</t>
+  </si>
+  <si>
     <t>unpleasant</t>
   </si>
   <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>more down</t>
+  </si>
+  <si>
     <t>weird</t>
-  </si>
-  <si>
-    <t>weaker</t>
-  </si>
-  <si>
-    <t>more down</t>
-  </si>
-  <si>
-    <t>more up</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -590,7 +590,7 @@
         <v>79</v>
       </c>
       <c r="AA1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB1" t="s">
         <v>80</v>
@@ -778,7 +778,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="1">
-        <v>45092</v>
+        <v>45518</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
@@ -793,22 +793,22 @@
         <v>42</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -826,25 +826,25 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>82</v>
       </c>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
+      <c r="AG2" s="2">
+        <v>1</v>
+      </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
@@ -852,17 +852,15 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45100</v>
+        <v>45525</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -985,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -997,7 +995,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="1">
-        <v>45641</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -1006,10 +1004,10 @@
         <v>35</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -1045,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1054,14 +1052,14 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1071,15 +1069,17 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO3" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0</v>
+      </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45649</v>
+        <v>45100</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1217,16 +1217,16 @@
         <v>45641</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1238,13 +1238,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1271,7 +1271,9 @@
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="AB4" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC4" t="s">
         <v>27</v>
       </c>
@@ -1286,7 +1288,7 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45664</v>
+        <v>45649</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1429,34 +1431,34 @@
         <v>31</v>
       </c>
       <c r="F5" s="1">
-        <v>45435</v>
+        <v>45071</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
         <v>0</v>
@@ -1471,24 +1473,28 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD5" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -1499,27 +1505,27 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AO5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45446</v>
+        <v>45107</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW5" s="2">
         <v>4</v>
@@ -1531,13 +1537,13 @@
         <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
         <v>1</v>
       </c>
       <c r="BB5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="2">
         <v>0</v>
@@ -1552,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="2">
         <v>0</v>
@@ -1632,7 +1638,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -1644,7 +1650,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="1">
-        <v>45631</v>
+        <v>45641</v>
       </c>
       <c r="G6" t="s">
         <v>36</v>
@@ -1653,13 +1659,13 @@
         <v>36</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -1686,21 +1692,21 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>27</v>
@@ -1716,15 +1722,17 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO6" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>1</v>
+      </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45666</v>
+        <v>45664</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1734,11 +1742,11 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
+        <v>13</v>
+      </c>
+      <c r="AW6" s="2">
         <v>7</v>
       </c>
-      <c r="AW6" s="2">
-        <v>3</v>
-      </c>
       <c r="AX6" s="2">
         <v>1</v>
       </c>
@@ -1746,10 +1754,10 @@
         <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
@@ -1773,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="BI6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6" s="2">
         <v>0</v>
@@ -1794,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="BP6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ6" s="2">
         <v>0</v>
@@ -1815,13 +1823,13 @@
         <v>0</v>
       </c>
       <c r="BW6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX6" s="2">
         <v>0</v>
       </c>
       <c r="BY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ6" s="2">
         <v>0</v>
@@ -1847,7 +1855,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1859,22 +1867,22 @@
         <v>31</v>
       </c>
       <c r="F7" s="1">
-        <v>45652</v>
+        <v>45071</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1883,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1901,26 +1909,28 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD7" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -1941,26 +1951,26 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45666</v>
+        <v>45107</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
@@ -1972,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="2">
         <v>0</v>
@@ -2017,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2076,22 +2086,22 @@
         <v>31</v>
       </c>
       <c r="F8" s="1">
-        <v>45631</v>
+        <v>45590</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -2118,19 +2128,17 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -2146,19 +2154,21 @@
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
+      <c r="AM8" s="2">
+        <v>1</v>
+      </c>
       <c r="AN8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45666</v>
+        <v>45602</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2168,11 +2178,11 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
+        <v>8</v>
+      </c>
+      <c r="AW8" s="2">
         <v>6</v>
       </c>
-      <c r="AW8" s="2">
-        <v>3</v>
-      </c>
       <c r="AX8" s="2">
         <v>1</v>
       </c>
@@ -2183,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="2">
         <v>0</v>
@@ -2207,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="BI8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ8" s="2">
         <v>0</v>
@@ -2228,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="BP8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR8" s="2">
         <v>1</v>
@@ -2293,37 +2303,37 @@
         <v>31</v>
       </c>
       <c r="F9" s="1">
-        <v>45092</v>
+        <v>45435</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2335,29 +2345,25 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
@@ -2367,17 +2373,17 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45107</v>
+        <v>45446</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2387,31 +2393,31 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
@@ -2420,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="BG9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH9" s="2">
         <v>0</v>
@@ -2453,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="BR9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9" s="2">
         <v>0</v>
@@ -2512,7 +2518,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="1">
-        <v>45071</v>
+        <v>45631</v>
       </c>
       <c r="G10" t="s">
         <v>38</v>
@@ -2521,10 +2527,10 @@
         <v>38</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2554,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
@@ -2571,11 +2577,9 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2596,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45107</v>
+        <v>45666</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2606,10 +2610,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2621,10 +2625,10 @@
         <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10" s="2">
         <v>0</v>
@@ -2633,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="2">
         <v>0</v>
@@ -2645,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ10" s="2">
         <v>0</v>
@@ -2740,22 +2744,22 @@
         <v>36</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
@@ -2764,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2773,13 +2777,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2790,20 +2794,22 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
+      <c r="AH11" s="2">
+        <v>1</v>
+      </c>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -2811,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45525</v>
+        <v>45526</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2821,22 +2827,22 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
@@ -2845,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="2">
         <v>0</v>
@@ -2887,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2946,25 +2952,25 @@
         <v>31</v>
       </c>
       <c r="F12" s="1">
-        <v>45623</v>
+        <v>45631</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -2988,21 +2994,21 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="U12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
         <v>27</v>
@@ -3018,7 +3024,7 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
@@ -3032,14 +3038,14 @@
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -3060,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
@@ -3075,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="BI12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ12" s="2">
         <v>0</v>
@@ -3164,28 +3170,28 @@
         <v>45518</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -3194,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -3203,13 +3209,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3220,22 +3226,20 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
-      <c r="AH13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
@@ -3243,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45526</v>
+        <v>45525</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3253,22 +3257,22 @@
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AW13" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
@@ -3277,13 +3281,13 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -3319,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="BR13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="2">
         <v>0</v>
@@ -3378,7 +3382,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -3387,16 +3391,16 @@
         <v>35</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
@@ -3420,19 +3424,17 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
@@ -3450,15 +3452,17 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>1</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45526</v>
+        <v>45665</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3468,10 +3472,10 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -3480,10 +3484,10 @@
         <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
@@ -3495,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="BE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="2">
         <v>1</v>
@@ -3513,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL14" s="2">
         <v>0</v>
@@ -3528,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="BP14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ14" s="2">
         <v>0</v>
@@ -3546,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="BV14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ14" s="2">
         <v>0</v>
@@ -3593,22 +3597,22 @@
         <v>31</v>
       </c>
       <c r="F15" s="1">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -3617,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3635,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -3652,12 +3656,12 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE15" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -3683,35 +3687,35 @@
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
       </c>
       <c r="BA15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
@@ -3753,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="BR15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT15" s="2">
         <v>0</v>
@@ -3800,7 +3804,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -3812,25 +3816,25 @@
         <v>31</v>
       </c>
       <c r="F16" s="1">
-        <v>45641</v>
+        <v>45623</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -3854,10 +3858,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="s">
         <v>71</v>
@@ -3884,30 +3888,28 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45664</v>
+        <v>45666</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AW16" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3916,10 +3918,10 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
@@ -3928,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="2">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="BP16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ16" s="2">
         <v>0</v>
@@ -3985,13 +3987,13 @@
         <v>0</v>
       </c>
       <c r="BW16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="2">
         <v>0</v>
       </c>
       <c r="BY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ16" s="2">
         <v>0</v>
@@ -4017,7 +4019,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -4029,19 +4031,19 @@
         <v>31</v>
       </c>
       <c r="F17" s="1">
-        <v>45590</v>
+        <v>45641</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4071,17 +4073,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="U17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -4097,55 +4101,51 @@
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
-      <c r="AM17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45602</v>
+        <v>45664</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
         <v>0</v>
       </c>
       <c r="BA17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="2">
         <v>0</v>
@@ -4181,16 +4181,16 @@
         <v>0</v>
       </c>
       <c r="BP17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT17" s="2">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -4246,22 +4246,22 @@
         <v>31</v>
       </c>
       <c r="F18" s="1">
-        <v>45641</v>
+        <v>45071</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -4270,13 +4270,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -4288,26 +4288,28 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD18" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
@@ -4318,15 +4320,17 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45649</v>
+        <v>45107</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -4336,37 +4340,37 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AW18" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
         <v>0</v>
       </c>
       <c r="BA18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18" s="2">
         <v>0</v>
@@ -4402,10 +4406,10 @@
         <v>0</v>
       </c>
       <c r="BR18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" s="2">
         <v>0</v>
@@ -4449,7 +4453,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -4470,13 +4474,13 @@
         <v>34</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -4485,13 +4489,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4503,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
@@ -4515,7 +4519,9 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
+      <c r="AA19" s="2">
+        <v>1</v>
+      </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
         <v>27</v>
@@ -4531,17 +4537,15 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45665</v>
+        <v>45649</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -4551,28 +4555,28 @@
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AW19" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="2">
         <v>0</v>
       </c>
       <c r="BC19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD19" s="2">
         <v>1</v>
@@ -4581,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="BF19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="2">
         <v>0</v>
@@ -4596,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="BK19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL19" s="2">
         <v>0</v>
@@ -4611,16 +4615,16 @@
         <v>0</v>
       </c>
       <c r="BP19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ19" s="2">
         <v>0</v>
       </c>
       <c r="BR19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT19" s="2">
         <v>0</v>
@@ -4629,16 +4633,16 @@
         <v>0</v>
       </c>
       <c r="BV19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ19" s="2">
         <v>0</v>
@@ -4685,10 +4689,10 @@
         <v>36</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4718,31 +4722,29 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
@@ -4750,7 +4752,7 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
@@ -4758,26 +4760,26 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45525</v>
+        <v>45526</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
         <v>0</v>
@@ -4789,16 +4791,16 @@
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="2">
         <v>1</v>
       </c>
       <c r="BE20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG20" s="2">
         <v>0</v>
@@ -4834,10 +4836,10 @@
         <v>0</v>
       </c>
       <c r="BR20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT20" s="2">
         <v>0</v>
@@ -4881,7 +4883,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -4893,22 +4895,22 @@
         <v>31</v>
       </c>
       <c r="F21" s="1">
-        <v>45071</v>
+        <v>45652</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -4917,13 +4919,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -4935,28 +4937,26 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
+      <c r="AA21" s="2">
+        <v>1</v>
+      </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>-1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -4977,26 +4977,26 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45107</v>
+        <v>45666</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="2">
         <v>0</v>
@@ -5008,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="BC21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" s="2">
         <v>0</v>
@@ -5053,10 +5053,10 @@
         <v>0</v>
       </c>
       <c r="BR21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT21" s="2">
         <v>0</v>
@@ -5115,16 +5115,16 @@
         <v>45590</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
@@ -5184,7 +5184,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -13,69 +13,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="419" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="483" uniqueCount="156">
   <si>
     <t>sampleid</t>
   </si>
   <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>602671</t>
+  </si>
+  <si>
+    <t>602679</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
     <t>601646</t>
   </si>
   <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>602524</t>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>602675</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>601716</t>
   </si>
   <si>
     <t>500706</t>
   </si>
   <si>
-    <t>602521</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602529</t>
-  </si>
-  <si>
     <t>601522</t>
   </si>
   <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
     <t>500200</t>
   </si>
   <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>602676</t>
+    <t>602677</t>
   </si>
   <si>
     <t>602526</t>
@@ -84,12 +96,12 @@
     <t>location</t>
   </si>
   <si>
+    <t>Martinsville</t>
+  </si>
+  <si>
     <t>Roanoke</t>
   </si>
   <si>
-    <t>Martinsville</t>
-  </si>
-  <si>
     <t>Franklin County</t>
   </si>
   <si>
@@ -117,42 +129,48 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>spatula; swab</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
     <t>syringe</t>
   </si>
   <si>
-    <t>swab</t>
+    <t>unknown</t>
   </si>
   <si>
     <t>cotton</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
+    <t>multiple methods</t>
+  </si>
+  <si>
     <t>consumed</t>
   </si>
   <si>
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine; benzodiazepine</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine; benzodiazepine</t>
-  </si>
-  <si>
     <t>heroin; unknown</t>
   </si>
   <si>
@@ -192,36 +210,39 @@
     <t>white</t>
   </si>
   <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>white; tan</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
-    <t>light brown; gray</t>
+    <t>light brown; black</t>
+  </si>
+  <si>
+    <t>white; translucent</t>
+  </si>
+  <si>
+    <t>clear; white</t>
+  </si>
+  <si>
+    <t>blue</t>
   </si>
   <si>
     <t>gray; brown</t>
   </si>
   <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>white; tan</t>
-  </si>
-  <si>
     <t>white; brown</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>white; translucent</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -234,18 +255,21 @@
     <t>powder; dull</t>
   </si>
   <si>
+    <t>crystals; shiny; flaky</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
     <t>chunky; crystals</t>
   </si>
   <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -261,21 +285,21 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>more up</t>
   </si>
   <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
-    <t>weaker</t>
+    <t>weird</t>
   </si>
   <si>
     <t>more down</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -309,10 +333,10 @@
     <t>overdose</t>
   </si>
   <si>
+    <t>involved in OD</t>
+  </si>
+  <si>
     <t>not overdose related</t>
-  </si>
-  <si>
-    <t>involved in OD</t>
   </si>
   <si>
     <t>od</t>
@@ -504,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE22"/>
+  <dimension ref="A1:CE26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -515,250 +539,250 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="S1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="U1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="V1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="X1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y1" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" t="s">
-        <v>71</v>
-      </c>
       <c r="Z1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AA1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AC1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AD1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AE1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AF1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AG1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="AH1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AI1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AJ1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AK1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AL1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="AM1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AN1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AO1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AP1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AQ1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="AR1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AS1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AT1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AU1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AV1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AW1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AX1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AY1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AZ1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="BA1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="BB1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="BC1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="BD1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="BE1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="BF1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="BG1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="BH1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="BI1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="BJ1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="BK1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="BL1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="BM1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="BN1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="BO1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="BP1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="BQ1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="BR1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="BS1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="BT1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="BU1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="BV1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="BW1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="BX1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="BY1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="BZ1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="CA1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="CB1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="CC1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="CD1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="CE1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
@@ -766,37 +790,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -820,31 +844,29 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
-      <c r="AG2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
@@ -852,7 +874,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
@@ -860,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45525</v>
+        <v>45664</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -966,16 +988,16 @@
         <v>0</v>
       </c>
       <c r="CB2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -983,31 +1005,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1">
-        <v>45092</v>
+        <v>45641</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -1037,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1052,14 +1074,14 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="AB3" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC3" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1069,17 +1091,15 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45100</v>
+        <v>45649</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1185,16 +1205,16 @@
         <v>0</v>
       </c>
       <c r="CB3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -1202,49 +1222,49 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1">
-        <v>45641</v>
+        <v>45435</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1256,26 +1276,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
@@ -1288,15 +1304,17 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>1</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45649</v>
+        <v>45446</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1306,31 +1324,31 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
         <v>0</v>
@@ -1339,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="BG4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH4" s="2">
         <v>0</v>
@@ -1372,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1402,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="CB4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1419,31 +1437,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1">
         <v>45071</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1473,13 +1491,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1490,7 +1508,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AD5" s="2">
         <v>-1</v>
@@ -1505,7 +1523,7 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AO5" s="2">
         <v>0</v>
@@ -1525,10 +1543,10 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW5" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1540,10 +1558,10 @@
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="2">
         <v>0</v>
@@ -1621,16 +1639,16 @@
         <v>0</v>
       </c>
       <c r="CB5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1638,31 +1656,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1">
-        <v>45641</v>
+        <v>45679</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1674,13 +1692,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1692,13 +1710,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1709,7 +1727,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -1722,48 +1740,48 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AO6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45664</v>
+        <v>45687</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="2">
         <v>1</v>
@@ -1802,16 +1820,16 @@
         <v>0</v>
       </c>
       <c r="BP6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ6" s="2">
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1823,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="BW6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="2">
         <v>0</v>
       </c>
       <c r="BY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ6" s="2">
         <v>0</v>
@@ -1838,16 +1856,16 @@
         <v>0</v>
       </c>
       <c r="CB6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -1855,34 +1873,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1">
-        <v>45071</v>
+        <v>45652</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1909,28 +1927,28 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1</v>
+      </c>
       <c r="AC7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>-1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -1941,36 +1959,34 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45107</v>
+        <v>45687</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
@@ -1982,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
         <v>0</v>
@@ -2027,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2057,16 +2073,16 @@
         <v>0</v>
       </c>
       <c r="CB7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -2074,19 +2090,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1">
-        <v>45590</v>
+        <v>45518</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -2095,16 +2111,16 @@
         <v>38</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -2128,22 +2144,24 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -2154,21 +2172,17 @@
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
-      <c r="AM8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45602</v>
+        <v>45526</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2178,10 +2192,10 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW8" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -2193,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="2">
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2238,10 +2252,10 @@
         <v>0</v>
       </c>
       <c r="BP8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR8" s="2">
         <v>1</v>
@@ -2274,16 +2288,16 @@
         <v>0</v>
       </c>
       <c r="CB8" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -2291,49 +2305,49 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1">
-        <v>45435</v>
+        <v>45652</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2345,22 +2359,24 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
@@ -2373,17 +2389,17 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AO9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45446</v>
+        <v>45666</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2393,31 +2409,31 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
@@ -2426,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="BG9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="2">
         <v>0</v>
@@ -2459,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="BR9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9" s="2">
         <v>0</v>
@@ -2489,16 +2505,16 @@
         <v>0</v>
       </c>
       <c r="CB9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -2506,34 +2522,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1">
-        <v>45631</v>
+        <v>45641</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -2542,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2560,24 +2576,24 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -2590,17 +2606,15 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45666</v>
+        <v>45649</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2610,16 +2624,16 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
         <v>0</v>
@@ -2631,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
         <v>0</v>
@@ -2649,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ10" s="2">
         <v>0</v>
@@ -2676,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="BR10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT10" s="2">
         <v>0</v>
@@ -2706,16 +2720,16 @@
         <v>0</v>
       </c>
       <c r="CB10" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -2723,31 +2737,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2777,47 +2791,45 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>1</v>
+      </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45526</v>
+        <v>45665</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2827,10 +2839,10 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AW11" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX11" s="2">
         <v>1</v>
@@ -2857,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11" s="2">
         <v>0</v>
@@ -2872,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="BK11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL11" s="2">
         <v>0</v>
@@ -2887,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="BP11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ11" s="2">
         <v>0</v>
@@ -2905,16 +2917,16 @@
         <v>0</v>
       </c>
       <c r="BV11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ11" s="2">
         <v>0</v>
@@ -2923,16 +2935,16 @@
         <v>0</v>
       </c>
       <c r="CB11" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -2940,31 +2952,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1">
         <v>45631</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -2994,24 +3006,24 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -3024,9 +3036,11 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO12" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
@@ -3042,7 +3056,7 @@
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW12" s="2">
         <v>3</v>
@@ -3066,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
@@ -3138,16 +3152,16 @@
         <v>0</v>
       </c>
       <c r="CB12" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -3155,37 +3169,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1">
-        <v>45518</v>
+        <v>45092</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -3197,10 +3211,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -3209,13 +3223,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3226,10 +3240,12 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -3239,25 +3255,27 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45525</v>
+        <v>45100</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
         <v>1</v>
@@ -3278,16 +3296,16 @@
         <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -3353,16 +3371,16 @@
         <v>0</v>
       </c>
       <c r="CB13" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -3370,34 +3388,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1">
         <v>45641</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -3424,22 +3442,24 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -3452,7 +3472,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AO14" s="2">
         <v>1</v>
@@ -3462,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45665</v>
+        <v>45664</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3472,10 +3492,10 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AW14" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -3502,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3517,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL14" s="2">
         <v>0</v>
@@ -3550,13 +3570,13 @@
         <v>0</v>
       </c>
       <c r="BV14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW14" s="2">
         <v>1</v>
       </c>
       <c r="BX14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY14" s="2">
         <v>1</v>
@@ -3568,16 +3588,16 @@
         <v>0</v>
       </c>
       <c r="CB14" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -3585,49 +3605,49 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1">
-        <v>45092</v>
+        <v>45518</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3639,31 +3659,31 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
+      <c r="AG15" s="2">
+        <v>1</v>
+      </c>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
@@ -3671,17 +3691,15 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45107</v>
+        <v>45525</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3787,16 +3805,16 @@
         <v>0</v>
       </c>
       <c r="CB15" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -3804,49 +3822,49 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1">
-        <v>45623</v>
+        <v>45092</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3858,13 +3876,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="U16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3875,10 +3893,12 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -3888,15 +3908,17 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO16" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0</v>
+      </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45666</v>
+        <v>45107</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -3906,16 +3928,16 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
         <v>0</v>
@@ -3927,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16" s="2">
         <v>0</v>
@@ -3972,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="BR16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT16" s="2">
         <v>0</v>
@@ -4002,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="CB16" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -4019,34 +4041,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F17" s="1">
-        <v>45641</v>
+        <v>45631</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -4073,24 +4095,24 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="2">
+        <v>1</v>
+      </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -4103,7 +4125,7 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -4111,26 +4133,26 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45664</v>
+        <v>45666</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
         <v>0</v>
@@ -4142,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="2">
         <v>1</v>
@@ -4160,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ17" s="2">
         <v>0</v>
@@ -4187,10 +4209,10 @@
         <v>0</v>
       </c>
       <c r="BR17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT17" s="2">
         <v>0</v>
@@ -4217,16 +4239,16 @@
         <v>0</v>
       </c>
       <c r="CB17" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -4234,37 +4256,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1">
-        <v>45071</v>
+        <v>45623</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -4288,13 +4310,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="U18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4305,11 +4327,9 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>-1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
@@ -4320,30 +4340,28 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45107</v>
+        <v>45666</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AW18" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -4355,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="BA18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC18" s="2">
         <v>0</v>
@@ -4367,10 +4385,10 @@
         <v>0</v>
       </c>
       <c r="BE18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="2">
         <v>0</v>
@@ -4436,16 +4454,16 @@
         <v>0</v>
       </c>
       <c r="CB18" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -4453,31 +4471,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1">
-        <v>45641</v>
+        <v>45683</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -4507,13 +4525,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4524,7 +4542,7 @@
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
@@ -4537,7 +4555,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -4545,20 +4563,20 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45649</v>
+        <v>45687</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
         <v>0</v>
@@ -4651,16 +4669,16 @@
         <v>0</v>
       </c>
       <c r="CB19" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -4668,37 +4686,37 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F20" s="1">
-        <v>45518</v>
+        <v>45590</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>42</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -4722,24 +4740,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
@@ -4750,17 +4766,21 @@
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
+      <c r="AM20" s="2">
+        <v>1</v>
+      </c>
       <c r="AN20" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>1</v>
+      </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45526</v>
+        <v>45602</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4770,11 +4790,11 @@
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
+        <v>8</v>
+      </c>
+      <c r="AW20" s="2">
         <v>6</v>
       </c>
-      <c r="AW20" s="2">
-        <v>3</v>
-      </c>
       <c r="AX20" s="2">
         <v>1</v>
       </c>
@@ -4785,22 +4805,22 @@
         <v>0</v>
       </c>
       <c r="BA20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC20" s="2">
         <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="2">
         <v>0</v>
@@ -4830,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="BP20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR20" s="2">
         <v>1</v>
@@ -4866,16 +4886,16 @@
         <v>0</v>
       </c>
       <c r="CB20" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -4883,37 +4903,37 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F21" s="1">
-        <v>45652</v>
+        <v>45518</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -4925,10 +4945,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -4937,24 +4957,24 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -4967,27 +4987,25 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO21" s="2">
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45666</v>
+        <v>45525</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW21" s="2">
         <v>1</v>
@@ -5008,16 +5026,16 @@
         <v>0</v>
       </c>
       <c r="BC21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -5083,16 +5101,16 @@
         <v>0</v>
       </c>
       <c r="CB21" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CC21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CD21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CE21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -5100,37 +5118,37 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F22" s="1">
-        <v>45590</v>
+        <v>45071</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -5154,13 +5172,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5171,9 +5189,11 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD22" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -5184,43 +5204,45 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO22" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>0</v>
+      </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45611</v>
+        <v>45107</v>
       </c>
       <c r="AS22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="2">
         <v>1</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW22" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ22" s="2">
         <v>0</v>
       </c>
       <c r="BA22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC22" s="2">
         <v>0</v>
@@ -5268,10 +5290,10 @@
         <v>0</v>
       </c>
       <c r="BR22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT22" s="2">
         <v>0</v>
@@ -5289,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="BY22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ22" s="2">
         <v>0</v>
@@ -5298,16 +5320,882 @@
         <v>0</v>
       </c>
       <c r="CB22" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="CC22" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="CD22" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="CE22" t="s">
-        <v>147</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45518</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>75</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>78</v>
+      </c>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>45526</v>
+      </c>
+      <c r="AS23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2">
+        <v>12</v>
+      </c>
+      <c r="AW23" s="2">
+        <v>7</v>
+      </c>
+      <c r="AX23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ23" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>148</v>
+      </c>
+      <c r="CC23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45071</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>67</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
+        <v>78</v>
+      </c>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>45107</v>
+      </c>
+      <c r="AS24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2">
+        <v>9</v>
+      </c>
+      <c r="AW24" s="2">
+        <v>4</v>
+      </c>
+      <c r="AX24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ24" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>148</v>
+      </c>
+      <c r="CC24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45679</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>64</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>78</v>
+      </c>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>45687</v>
+      </c>
+      <c r="AS25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>148</v>
+      </c>
+      <c r="CC25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45590</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>64</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" t="s">
+        <v>78</v>
+      </c>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>45611</v>
+      </c>
+      <c r="AS26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY26" s="2">
+        <v>1</v>
+      </c>
+      <c r="BZ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>149</v>
+      </c>
+      <c r="CC26" t="s">
+        <v>151</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE26" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -13,21 +13,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="483" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="499" uniqueCount="159">
   <si>
     <t>sampleid</t>
   </si>
   <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>602529</t>
+  </si>
+  <si>
     <t>602522</t>
   </si>
   <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
     <t>602524</t>
   </si>
   <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>500782</t>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>602675</t>
   </si>
   <si>
     <t>602671</t>
@@ -36,58 +78,19 @@
     <t>602679</t>
   </si>
   <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>602676</t>
+    <t>602677</t>
   </si>
   <si>
     <t>602520</t>
   </si>
   <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>602529</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
     <t>602521</t>
   </si>
   <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>602675</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
     <t>601716</t>
   </si>
   <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>602677</t>
+    <t>602678</t>
   </si>
   <si>
     <t>602526</t>
@@ -96,12 +99,12 @@
     <t>location</t>
   </si>
   <si>
+    <t>Roanoke</t>
+  </si>
+  <si>
     <t>Martinsville</t>
   </si>
   <si>
-    <t>Roanoke</t>
-  </si>
-  <si>
     <t>Franklin County</t>
   </si>
   <si>
@@ -129,24 +132,24 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>syringe</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>spatula; swab</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>syringe</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -162,18 +165,18 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>heroin; unknown</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine; benzodiazepine</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>heroin; unknown</t>
-  </si>
-  <si>
     <t>fentanyl; cocaine</t>
   </si>
   <si>
@@ -210,37 +213,40 @@
     <t>white</t>
   </si>
   <si>
+    <t>white; translucent</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
+    <t>white; brown</t>
+  </si>
+  <si>
+    <t>white; tan</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>light brown; gray</t>
   </si>
   <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>white; tan</t>
-  </si>
-  <si>
     <t>clear</t>
   </si>
   <si>
+    <t>clear; white</t>
+  </si>
+  <si>
     <t>light brown; black</t>
   </si>
   <si>
-    <t>white; translucent</t>
-  </si>
-  <si>
-    <t>clear; white</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
-    <t>white; brown</t>
+    <t>white; clear</t>
   </si>
   <si>
     <t>bright_color</t>
@@ -252,24 +258,27 @@
     <t>powder</t>
   </si>
   <si>
+    <t>chunky; crystals</t>
+  </si>
+  <si>
     <t>powder; dull</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
     <t>crystals; shiny; flaky</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>chunky; crystals</t>
-  </si>
-  <si>
     <t>powder; chunky</t>
   </si>
   <si>
+    <t>crystals; powder</t>
+  </si>
+  <si>
     <t>tar</t>
   </si>
   <si>
@@ -285,21 +294,21 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>weaker</t>
   </si>
   <si>
+    <t>more down</t>
+  </si>
+  <si>
+    <t>more up</t>
+  </si>
+  <si>
     <t>unpleasant</t>
   </si>
   <si>
-    <t>more up</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>more down</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -333,10 +342,10 @@
     <t>overdose</t>
   </si>
   <si>
+    <t>not overdose related</t>
+  </si>
+  <si>
     <t>involved in OD</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
   </si>
   <si>
     <t>od</t>
@@ -528,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE26"/>
+  <dimension ref="A1:CE27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -539,250 +548,250 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Y1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AA1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AD1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AE1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AF1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AG1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AH1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AI1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AJ1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AK1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AL1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AM1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AN1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AO1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AP1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AQ1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AR1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AS1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AT1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AU1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AV1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AW1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AX1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AY1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AZ1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BA1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BB1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BC1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BD1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BE1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="BF1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="BG1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="BH1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="BI1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="BJ1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="BK1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="BL1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="BM1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="BN1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="BO1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="BP1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="BQ1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="BR1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BS1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="BT1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="BU1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BV1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="BW1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="BX1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BY1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="BZ1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="CA1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="CB1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="CC1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="CD1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="CE1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
@@ -790,31 +799,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1">
-        <v>45641</v>
+        <v>45092</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -826,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -844,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -861,10 +870,12 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
+      <c r="AE2" s="2">
+        <v>1</v>
+      </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
@@ -874,15 +885,17 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO2" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0</v>
+      </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45664</v>
+        <v>45107</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -988,16 +1001,16 @@
         <v>0</v>
       </c>
       <c r="CB2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1005,49 +1018,49 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1">
-        <v>45641</v>
+        <v>45623</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -1059,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1074,11 +1087,9 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -1091,7 +1102,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
@@ -1099,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45649</v>
+        <v>45666</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1109,16 +1120,16 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
@@ -1130,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="2">
         <v>0</v>
@@ -1175,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1205,16 +1216,16 @@
         <v>0</v>
       </c>
       <c r="CB3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1225,43 +1236,43 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1">
-        <v>45435</v>
+        <v>45590</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2">
         <v>0</v>
@@ -1276,13 +1287,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="U4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1291,7 +1302,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
@@ -1302,9 +1313,11 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
+      <c r="AM4" s="2">
+        <v>1</v>
+      </c>
       <c r="AN4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO4" s="2">
         <v>1</v>
@@ -1314,20 +1327,20 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45446</v>
+        <v>45602</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX4" s="2">
         <v>1</v>
@@ -1336,13 +1349,13 @@
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
         <v>1</v>
       </c>
       <c r="BB4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4" s="2">
         <v>0</v>
@@ -1357,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="BG4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="2">
         <v>0</v>
@@ -1384,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="BP4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR4" s="2">
         <v>1</v>
@@ -1420,16 +1433,16 @@
         <v>0</v>
       </c>
       <c r="CB4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1440,28 +1453,28 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1">
         <v>45071</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1491,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1508,7 +1521,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AD5" s="2">
         <v>-1</v>
@@ -1523,7 +1536,7 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AO5" s="2">
         <v>0</v>
@@ -1543,10 +1556,10 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1558,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="2">
         <v>0</v>
@@ -1639,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="CB5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1659,31 +1672,31 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>45679</v>
+        <v>45071</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -1692,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1710,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1727,9 +1740,11 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD6" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
@@ -1740,7 +1755,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AO6" s="2">
         <v>0</v>
@@ -1750,26 +1765,26 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45687</v>
+        <v>45107</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
@@ -1781,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
         <v>0</v>
@@ -1826,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1856,16 +1871,16 @@
         <v>0</v>
       </c>
       <c r="CB6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1876,31 +1891,31 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1">
-        <v>45652</v>
+        <v>45518</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1927,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -1937,29 +1952,29 @@
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
+      <c r="AH7" s="2">
+        <v>1</v>
+      </c>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
@@ -1967,38 +1982,38 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45687</v>
+        <v>45526</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="2">
         <v>1</v>
@@ -2043,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2073,16 +2088,16 @@
         <v>0</v>
       </c>
       <c r="CB7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -2093,28 +2108,28 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1">
         <v>45518</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2144,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2161,7 +2176,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -2174,7 +2189,7 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -2288,16 +2303,16 @@
         <v>0</v>
       </c>
       <c r="CB8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -2305,34 +2320,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1">
-        <v>45652</v>
+        <v>45631</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -2341,13 +2356,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2359,24 +2374,24 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
@@ -2389,7 +2404,7 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AO9" s="2">
         <v>0</v>
@@ -2405,20 +2420,20 @@
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
         <v>0</v>
@@ -2430,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
@@ -2448,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="BI9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ9" s="2">
         <v>0</v>
@@ -2475,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="BR9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9" s="2">
         <v>0</v>
@@ -2505,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="CB9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -2522,32 +2537,32 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1">
         <v>45641</v>
       </c>
       <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>40</v>
       </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
@@ -2558,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2576,24 +2591,24 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -2606,7 +2621,7 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
@@ -2614,20 +2629,20 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45649</v>
+        <v>45664</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
         <v>0</v>
@@ -2720,16 +2735,16 @@
         <v>0</v>
       </c>
       <c r="CB10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -2740,43 +2755,43 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1">
-        <v>45641</v>
+        <v>45435</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="2">
         <v>0</v>
@@ -2791,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2806,7 +2821,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -2819,7 +2834,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO11" s="2">
         <v>1</v>
@@ -2829,17 +2844,17 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45665</v>
+        <v>45446</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AW11" s="2">
         <v>4</v>
@@ -2863,16 +2878,16 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
         <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH11" s="2">
         <v>0</v>
@@ -2884,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="BK11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL11" s="2">
         <v>0</v>
@@ -2899,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="BP11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ11" s="2">
         <v>0</v>
@@ -2917,16 +2932,16 @@
         <v>0</v>
       </c>
       <c r="BV11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ11" s="2">
         <v>0</v>
@@ -2935,16 +2950,16 @@
         <v>0</v>
       </c>
       <c r="CB11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2955,28 +2970,28 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1">
         <v>45631</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -3006,24 +3021,24 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -3036,11 +3051,9 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
@@ -3056,7 +3069,7 @@
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW12" s="2">
         <v>3</v>
@@ -3080,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
@@ -3152,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="CB12" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -3172,16 +3185,16 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1">
-        <v>45092</v>
+        <v>45071</v>
       </c>
       <c r="G13" t="s">
         <v>41</v>
@@ -3193,10 +3206,10 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -3205,13 +3218,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3223,13 +3236,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3240,12 +3253,12 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2">
-        <v>1</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -3255,7 +3268,7 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AO13" s="2">
         <v>0</v>
@@ -3265,47 +3278,47 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
         <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -3341,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="BR13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13" s="2">
         <v>0</v>
@@ -3371,16 +3384,16 @@
         <v>0</v>
       </c>
       <c r="CB13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -3388,31 +3401,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1">
         <v>45641</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3424,13 +3437,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3442,13 +3455,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3457,9 +3470,11 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
+      <c r="AB14" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -3472,48 +3487,46 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>1</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45664</v>
+        <v>45649</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="2">
         <v>1</v>
@@ -3552,16 +3565,16 @@
         <v>0</v>
       </c>
       <c r="BP14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ14" s="2">
         <v>0</v>
       </c>
       <c r="BR14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT14" s="2">
         <v>0</v>
@@ -3573,13 +3586,13 @@
         <v>0</v>
       </c>
       <c r="BW14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="2">
         <v>0</v>
       </c>
       <c r="BY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ14" s="2">
         <v>0</v>
@@ -3588,16 +3601,16 @@
         <v>0</v>
       </c>
       <c r="CB14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -3608,28 +3621,28 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1">
         <v>45518</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3659,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3676,7 +3689,7 @@
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -3691,7 +3704,7 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
@@ -3805,16 +3818,16 @@
         <v>0</v>
       </c>
       <c r="CB15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -3825,28 +3838,28 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1">
         <v>45092</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -3876,13 +3889,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3893,7 +3906,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2">
@@ -3908,7 +3921,7 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AO16" s="2">
         <v>0</v>
@@ -3918,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45107</v>
+        <v>45100</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4024,16 +4037,16 @@
         <v>0</v>
       </c>
       <c r="CB16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -4041,34 +4054,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1">
-        <v>45631</v>
+        <v>45652</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -4077,13 +4090,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4095,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
@@ -4112,7 +4125,7 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -4125,9 +4138,11 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO17" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
@@ -4139,20 +4154,20 @@
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
         <v>0</v>
@@ -4164,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD17" s="2">
         <v>1</v>
@@ -4182,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ17" s="2">
         <v>0</v>
@@ -4209,10 +4224,10 @@
         <v>0</v>
       </c>
       <c r="BR17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT17" s="2">
         <v>0</v>
@@ -4239,16 +4254,16 @@
         <v>0</v>
       </c>
       <c r="CB17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -4259,25 +4274,25 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="1">
-        <v>45623</v>
+        <v>45641</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>51</v>
@@ -4286,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -4310,24 +4325,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -4340,28 +4353,30 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>1</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45666</v>
+        <v>45665</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AW18" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -4370,10 +4385,10 @@
         <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="2">
         <v>0</v>
@@ -4382,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE18" s="2">
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18" s="2">
         <v>0</v>
@@ -4403,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="BK18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL18" s="2">
         <v>0</v>
@@ -4418,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="BP18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ18" s="2">
         <v>0</v>
@@ -4436,16 +4451,16 @@
         <v>0</v>
       </c>
       <c r="BV18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ18" s="2">
         <v>0</v>
@@ -4454,16 +4469,16 @@
         <v>0</v>
       </c>
       <c r="CB18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -4471,31 +4486,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="1">
         <v>45683</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -4525,13 +4540,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4542,7 +4557,7 @@
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
@@ -4555,7 +4570,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -4669,16 +4684,16 @@
         <v>0</v>
       </c>
       <c r="CB19" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -4689,16 +4704,16 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1">
-        <v>45590</v>
+        <v>45679</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
@@ -4707,10 +4722,10 @@
         <v>42</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -4722,13 +4737,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4740,22 +4755,24 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="U20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
@@ -4766,55 +4783,53 @@
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
-      <c r="AM20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AO20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45602</v>
+        <v>45687</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW20" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
         <v>0</v>
       </c>
       <c r="BA20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" s="2">
         <v>0</v>
@@ -4850,16 +4865,16 @@
         <v>0</v>
       </c>
       <c r="BP20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="2">
         <v>0</v>
@@ -4886,16 +4901,16 @@
         <v>0</v>
       </c>
       <c r="CB20" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -4906,40 +4921,40 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" s="1">
-        <v>45518</v>
+        <v>45652</v>
       </c>
       <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
         <v>40</v>
       </c>
-      <c r="H21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>53</v>
-      </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -4948,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -4957,24 +4972,26 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
+      <c r="AA21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>1</v>
+      </c>
       <c r="AC21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -4987,7 +5004,7 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
@@ -4995,17 +5012,17 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45525</v>
+        <v>45687</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW21" s="2">
         <v>1</v>
@@ -5026,16 +5043,16 @@
         <v>0</v>
       </c>
       <c r="BC21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -5101,16 +5118,16 @@
         <v>0</v>
       </c>
       <c r="CB21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -5121,31 +5138,31 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" s="1">
-        <v>45071</v>
+        <v>45679</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
@@ -5154,13 +5171,13 @@
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -5172,13 +5189,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5189,11 +5206,9 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -5204,51 +5219,49 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO22" s="2">
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45107</v>
+        <v>45687</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW22" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="2">
         <v>0</v>
       </c>
       <c r="BA22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE22" s="2">
         <v>0</v>
@@ -5290,10 +5303,10 @@
         <v>0</v>
       </c>
       <c r="BR22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT22" s="2">
         <v>0</v>
@@ -5320,16 +5333,16 @@
         <v>0</v>
       </c>
       <c r="CB22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -5337,34 +5350,34 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -5373,13 +5386,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -5391,39 +5404,37 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
+      <c r="AA23" s="2">
+        <v>1</v>
+      </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AH23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
@@ -5431,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45526</v>
+        <v>45649</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
@@ -5441,28 +5452,28 @@
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AW23" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="2">
         <v>0</v>
       </c>
       <c r="BC23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD23" s="2">
         <v>1</v>
@@ -5507,10 +5518,10 @@
         <v>0</v>
       </c>
       <c r="BR23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT23" s="2">
         <v>0</v>
@@ -5537,16 +5548,16 @@
         <v>0</v>
       </c>
       <c r="CB23" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -5554,34 +5565,34 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F24" s="1">
-        <v>45071</v>
+        <v>45641</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>
@@ -5608,13 +5619,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -5625,11 +5636,9 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
@@ -5640,17 +5649,17 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AO24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45107</v>
+        <v>45664</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -5660,10 +5669,10 @@
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AW24" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX24" s="2">
         <v>1</v>
@@ -5672,25 +5681,25 @@
         <v>1</v>
       </c>
       <c r="AZ24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="2">
         <v>1</v>
       </c>
       <c r="BB24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC24" s="2">
         <v>0</v>
       </c>
       <c r="BD24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG24" s="2">
         <v>0</v>
@@ -5720,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="BP24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ24" s="2">
         <v>0</v>
@@ -5741,13 +5750,13 @@
         <v>0</v>
       </c>
       <c r="BW24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX24" s="2">
         <v>0</v>
       </c>
       <c r="BY24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ24" s="2">
         <v>0</v>
@@ -5756,16 +5765,16 @@
         <v>0</v>
       </c>
       <c r="CB24" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -5776,34 +5785,34 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1">
-        <v>45679</v>
+        <v>45518</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
@@ -5815,10 +5824,10 @@
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
@@ -5827,13 +5836,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5844,7 +5853,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
@@ -5857,7 +5866,7 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
@@ -5865,17 +5874,17 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45687</v>
+        <v>45525</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW25" s="2">
         <v>1</v>
@@ -5896,16 +5905,16 @@
         <v>0</v>
       </c>
       <c r="BC25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG25" s="2">
         <v>0</v>
@@ -5971,16 +5980,16 @@
         <v>0</v>
       </c>
       <c r="CB25" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CC25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -5988,37 +5997,37 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F26" s="1">
-        <v>45590</v>
+        <v>45652</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -6042,13 +6051,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6056,10 +6065,12 @@
         <v>1</v>
       </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
+      <c r="AA26" s="2">
+        <v>1</v>
+      </c>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -6072,7 +6083,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
@@ -6080,122 +6091,339 @@
         <v>0</v>
       </c>
       <c r="AR26" s="1">
+        <v>45688</v>
+      </c>
+      <c r="AS26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>152</v>
+      </c>
+      <c r="CC26" t="s">
+        <v>154</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>156</v>
+      </c>
+      <c r="CE26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45590</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>65</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" t="s">
+        <v>80</v>
+      </c>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="1">
         <v>45611</v>
       </c>
-      <c r="AS26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU26" s="2"/>
-      <c r="AV26" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BW26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY26" s="2">
-        <v>1</v>
-      </c>
-      <c r="BZ26" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA26" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB26" t="s">
-        <v>149</v>
-      </c>
-      <c r="CC26" t="s">
-        <v>151</v>
-      </c>
-      <c r="CD26" t="s">
-        <v>153</v>
-      </c>
-      <c r="CE26" t="s">
-        <v>155</v>
+      <c r="AS27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BZ27" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>152</v>
+      </c>
+      <c r="CC27" t="s">
+        <v>154</v>
+      </c>
+      <c r="CD27" t="s">
+        <v>156</v>
+      </c>
+      <c r="CE27" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,10 +18,70 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>601716</t>
+  </si>
+  <si>
+    <t>602677</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>602675</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>602671</t>
+  </si>
+  <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>602679</t>
+  </si>
+  <si>
     <t>500175</t>
   </si>
   <si>
-    <t>602528</t>
+    <t>500200</t>
   </si>
   <si>
     <t>602525</t>
@@ -30,72 +90,12 @@
     <t>500706</t>
   </si>
   <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>602529</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>602675</t>
-  </si>
-  <si>
-    <t>602671</t>
-  </si>
-  <si>
-    <t>602679</t>
-  </si>
-  <si>
-    <t>602677</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
-    <t>601716</t>
+    <t>602526</t>
   </si>
   <si>
     <t>602678</t>
   </si>
   <si>
-    <t>602526</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -132,6 +132,15 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>spatula; swab</t>
+  </si>
+  <si>
     <t>syringe</t>
   </si>
   <si>
@@ -141,15 +150,6 @@
     <t>cotton</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>spatula; swab</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -162,24 +162,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl; cocaine</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>heroin; unknown</t>
   </si>
   <si>
     <t>fentanyl; xylazine; benzodiazepine</t>
   </si>
   <si>
-    <t>fentanyl; cocaine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -213,39 +213,39 @@
     <t>white</t>
   </si>
   <si>
+    <t>white; brown</t>
+  </si>
+  <si>
+    <t>clear; white</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>white; translucent</t>
   </si>
   <si>
+    <t>red; brown</t>
+  </si>
+  <si>
+    <t>light brown; black</t>
+  </si>
+  <si>
+    <t>white; tan</t>
+  </si>
+  <si>
     <t>blue</t>
   </si>
   <si>
     <t>gray; brown</t>
   </si>
   <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>white; brown</t>
-  </si>
-  <si>
-    <t>white; tan</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>light brown; gray</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>clear; white</t>
-  </si>
-  <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
     <t>white; clear</t>
   </si>
   <si>
@@ -255,27 +255,27 @@
     <t>texture</t>
   </si>
   <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
     <t>chunky; crystals</t>
   </si>
   <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>liquid</t>
   </si>
   <si>
     <t>crystals; shiny; flaky</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>crystals; powder</t>
   </si>
   <si>
@@ -294,19 +294,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>more down</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>more up</t>
+  </si>
+  <si>
     <t>weird</t>
-  </si>
-  <si>
-    <t>weaker</t>
-  </si>
-  <si>
-    <t>more down</t>
-  </si>
-  <si>
-    <t>more up</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -617,13 +617,13 @@
         <v>89</v>
       </c>
       <c r="Y1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z1" t="s">
         <v>90</v>
       </c>
       <c r="AA1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB1" t="s">
         <v>91</v>
@@ -811,7 +811,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="1">
-        <v>45092</v>
+        <v>45518</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
@@ -820,16 +820,16 @@
         <v>39</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -841,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2">
         <v>0</v>
@@ -870,12 +870,10 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
@@ -885,27 +883,25 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45107</v>
+        <v>45525</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW2" s="2">
         <v>1</v>
@@ -926,16 +922,16 @@
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG2" s="2">
         <v>0</v>
@@ -1030,7 +1026,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="1">
-        <v>45623</v>
+        <v>45679</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -1045,22 +1041,22 @@
         <v>50</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -1072,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1102,7 +1098,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
@@ -1110,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45666</v>
+        <v>45687</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1120,16 +1116,16 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
@@ -1141,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3" s="2">
         <v>0</v>
@@ -1186,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1245,7 +1241,7 @@
         <v>36</v>
       </c>
       <c r="F4" s="1">
-        <v>45590</v>
+        <v>45518</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
@@ -1257,10 +1253,10 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1287,47 +1283,47 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+      <c r="AH4" s="2">
+        <v>1</v>
+      </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
-      <c r="AM4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45602</v>
+        <v>45526</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1337,10 +1333,10 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AW4" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX4" s="2">
         <v>1</v>
@@ -1349,19 +1345,19 @@
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
         <v>1</v>
       </c>
       <c r="BB4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="2">
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
         <v>0</v>
@@ -1397,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="BP4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR4" s="2">
         <v>1</v>
@@ -1450,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -1462,22 +1458,22 @@
         <v>36</v>
       </c>
       <c r="F5" s="1">
-        <v>45071</v>
+        <v>45683</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1486,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1504,28 +1500,26 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -1536,51 +1530,49 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45107</v>
+        <v>45687</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
         <v>0</v>
@@ -1622,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1681,7 +1673,7 @@
         <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="s">
         <v>42</v>
@@ -1693,10 +1685,10 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -1705,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1723,13 +1715,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1742,10 +1734,10 @@
       <c r="AC6" t="s">
         <v>94</v>
       </c>
-      <c r="AD6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1765,26 +1757,26 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45107</v>
+        <v>45100</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
@@ -1796,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
         <v>0</v>
@@ -1841,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1888,7 +1880,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -1900,22 +1892,22 @@
         <v>36</v>
       </c>
       <c r="F7" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1924,13 +1916,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1942,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1957,24 +1949,24 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="AB7" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC7" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
@@ -1982,38 +1974,38 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45526</v>
+        <v>45649</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="2">
         <v>1</v>
@@ -2058,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2105,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -2117,13 +2109,13 @@
         <v>36</v>
       </c>
       <c r="F8" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -2132,22 +2124,22 @@
         <v>50</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2159,21 +2151,21 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
         <v>32</v>
@@ -2189,7 +2181,7 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -2197,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45526</v>
+        <v>45649</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2207,16 +2199,16 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
@@ -2228,16 +2220,16 @@
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="2">
         <v>1</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2273,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="BR8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="2">
         <v>0</v>
@@ -2335,16 +2327,16 @@
         <v>45631</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2374,21 +2366,21 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
         <v>32</v>
@@ -2404,11 +2396,9 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
@@ -2424,7 +2414,7 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW9" s="2">
         <v>3</v>
@@ -2448,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
@@ -2537,7 +2527,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -2549,19 +2539,19 @@
         <v>36</v>
       </c>
       <c r="F10" s="1">
-        <v>45641</v>
+        <v>45679</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -2573,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2597,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2621,15 +2611,17 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45664</v>
+        <v>45687</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2764,19 +2756,19 @@
         <v>36</v>
       </c>
       <c r="F11" s="1">
-        <v>45435</v>
+        <v>45623</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2785,13 +2777,13 @@
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2">
         <v>0</v>
@@ -2806,17 +2798,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="U11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
@@ -2834,17 +2828,15 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45446</v>
+        <v>45666</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2854,10 +2846,10 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX11" s="2">
         <v>1</v>
@@ -2866,10 +2858,10 @@
         <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
@@ -2887,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="BG11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="2">
         <v>0</v>
@@ -2979,16 +2971,16 @@
         <v>36</v>
       </c>
       <c r="F12" s="1">
-        <v>45631</v>
+        <v>45071</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>51</v>
@@ -3031,16 +3023,18 @@
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD12" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -3051,15 +3045,17 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO12" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45666</v>
+        <v>45107</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3069,10 +3065,10 @@
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -3093,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
@@ -3108,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="BI12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ12" s="2">
         <v>0</v>
@@ -3194,25 +3190,25 @@
         <v>36</v>
       </c>
       <c r="F13" s="1">
-        <v>45071</v>
+        <v>45518</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -3236,31 +3232,31 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
+      <c r="AA13" s="2">
+        <v>1</v>
+      </c>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>-1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
+      <c r="AG13" s="2">
+        <v>1</v>
+      </c>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
@@ -3268,57 +3264,55 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45107</v>
+        <v>45525</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
         <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -3354,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="BR13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="2">
         <v>0</v>
@@ -3416,16 +3410,16 @@
         <v>45641</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3437,13 +3431,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3461,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3470,9 +3464,7 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s">
         <v>32</v>
       </c>
@@ -3487,46 +3479,48 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>1</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45649</v>
+        <v>45664</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="2">
         <v>1</v>
@@ -3565,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="BP14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ14" s="2">
         <v>0</v>
       </c>
       <c r="BR14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT14" s="2">
         <v>0</v>
@@ -3586,13 +3580,13 @@
         <v>0</v>
       </c>
       <c r="BW14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX14" s="2">
         <v>0</v>
       </c>
       <c r="BY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ14" s="2">
         <v>0</v>
@@ -3630,7 +3624,7 @@
         <v>36</v>
       </c>
       <c r="F15" s="1">
-        <v>45518</v>
+        <v>45631</v>
       </c>
       <c r="G15" t="s">
         <v>43</v>
@@ -3639,16 +3633,16 @@
         <v>43</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3672,31 +3666,29 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
@@ -3704,34 +3696,36 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45525</v>
+        <v>45666</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
@@ -3743,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
@@ -3761,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="BI15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ15" s="2">
         <v>0</v>
@@ -3788,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="BR15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" s="2">
         <v>0</v>
@@ -3835,7 +3829,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -3847,19 +3841,19 @@
         <v>36</v>
       </c>
       <c r="F16" s="1">
-        <v>45092</v>
+        <v>45652</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -3889,29 +3883,27 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
+      <c r="AA16" s="2">
+        <v>1</v>
+      </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -3931,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45100</v>
+        <v>45666</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4066,19 +4058,19 @@
         <v>36</v>
       </c>
       <c r="F17" s="1">
-        <v>45652</v>
+        <v>45641</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4090,13 +4082,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4114,15 +4106,15 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
         <v>32</v>
@@ -4138,17 +4130,15 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45666</v>
+        <v>45664</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -4283,25 +4273,25 @@
         <v>36</v>
       </c>
       <c r="F18" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -4331,11 +4321,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
@@ -4353,17 +4345,15 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45665</v>
+        <v>45526</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -4373,10 +4363,10 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AW18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -4385,10 +4375,10 @@
         <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="2">
         <v>0</v>
@@ -4400,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="BE18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF18" s="2">
         <v>1</v>
@@ -4418,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="BK18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL18" s="2">
         <v>0</v>
@@ -4433,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="BP18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ18" s="2">
         <v>0</v>
@@ -4451,16 +4441,16 @@
         <v>0</v>
       </c>
       <c r="BV18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ18" s="2">
         <v>0</v>
@@ -4486,7 +4476,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -4498,37 +4488,37 @@
         <v>36</v>
       </c>
       <c r="F19" s="1">
-        <v>45683</v>
+        <v>45435</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4540,21 +4530,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
         <v>32</v>
@@ -4570,15 +4558,17 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO19" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>1</v>
+      </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45687</v>
+        <v>45446</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -4588,31 +4578,31 @@
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW19" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="2">
         <v>0</v>
       </c>
       <c r="BC19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE19" s="2">
         <v>0</v>
@@ -4621,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="BG19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH19" s="2">
         <v>0</v>
@@ -4654,10 +4644,10 @@
         <v>0</v>
       </c>
       <c r="BR19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT19" s="2">
         <v>0</v>
@@ -4713,7 +4703,7 @@
         <v>36</v>
       </c>
       <c r="F20" s="1">
-        <v>45679</v>
+        <v>45641</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
@@ -4722,13 +4712,13 @@
         <v>42</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -4737,13 +4727,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4755,19 +4745,17 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
@@ -4785,48 +4773,48 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45687</v>
+        <v>45665</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="2">
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="2">
         <v>1</v>
@@ -4835,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="BF20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG20" s="2">
         <v>0</v>
@@ -4850,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="BK20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL20" s="2">
         <v>0</v>
@@ -4865,16 +4853,16 @@
         <v>0</v>
       </c>
       <c r="BP20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ20" s="2">
         <v>0</v>
       </c>
       <c r="BR20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT20" s="2">
         <v>0</v>
@@ -4883,16 +4871,16 @@
         <v>0</v>
       </c>
       <c r="BV20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ20" s="2">
         <v>0</v>
@@ -4933,7 +4921,7 @@
         <v>45652</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
         <v>46</v>
@@ -4942,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -4978,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -5004,7 +4992,7 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
@@ -5147,7 +5135,7 @@
         <v>36</v>
       </c>
       <c r="F22" s="1">
-        <v>45679</v>
+        <v>45092</v>
       </c>
       <c r="G22" t="s">
         <v>42</v>
@@ -5156,10 +5144,10 @@
         <v>42</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -5195,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5206,10 +5194,12 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
@@ -5219,15 +5209,17 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO22" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>0</v>
+      </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45687</v>
+        <v>45107</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5350,7 +5342,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -5362,22 +5354,22 @@
         <v>36</v>
       </c>
       <c r="F23" s="1">
-        <v>45641</v>
+        <v>45071</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -5386,13 +5378,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -5404,26 +5396,28 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
+      <c r="Y23" s="2">
+        <v>1</v>
+      </c>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD23" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
@@ -5434,15 +5428,17 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO23" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>0</v>
+      </c>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45649</v>
+        <v>45107</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
@@ -5452,37 +5448,37 @@
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AW23" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="2">
         <v>0</v>
       </c>
       <c r="BA23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG23" s="2">
         <v>0</v>
@@ -5518,10 +5514,10 @@
         <v>0</v>
       </c>
       <c r="BR23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT23" s="2">
         <v>0</v>
@@ -5565,7 +5561,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
@@ -5577,19 +5573,19 @@
         <v>36</v>
       </c>
       <c r="F24" s="1">
-        <v>45641</v>
+        <v>45590</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -5619,19 +5615,17 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -5647,7 +5641,9 @@
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
-      <c r="AM24" s="2"/>
+      <c r="AM24" s="2">
+        <v>1</v>
+      </c>
       <c r="AN24" t="s">
         <v>110</v>
       </c>
@@ -5659,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45664</v>
+        <v>45602</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -5669,10 +5665,10 @@
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AW24" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX24" s="2">
         <v>1</v>
@@ -5681,19 +5677,19 @@
         <v>1</v>
       </c>
       <c r="AZ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="2">
         <v>1</v>
       </c>
       <c r="BB24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC24" s="2">
         <v>0</v>
       </c>
       <c r="BD24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE24" s="2">
         <v>0</v>
@@ -5732,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="BQ24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR24" s="2">
         <v>1</v>
@@ -5750,13 +5746,13 @@
         <v>0</v>
       </c>
       <c r="BW24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="2">
         <v>0</v>
       </c>
       <c r="BY24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ24" s="2">
         <v>0</v>
@@ -5794,31 +5790,31 @@
         <v>36</v>
       </c>
       <c r="F25" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
@@ -5827,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
@@ -5836,13 +5832,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5853,9 +5849,11 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD25" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
@@ -5866,15 +5864,17 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO25" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>0</v>
+      </c>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45525</v>
+        <v>45107</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
@@ -5884,25 +5884,25 @@
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW25" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
         <v>0</v>
       </c>
       <c r="BA25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC25" s="2">
         <v>0</v>
@@ -5911,10 +5911,10 @@
         <v>0</v>
       </c>
       <c r="BE25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG25" s="2">
         <v>0</v>
@@ -5950,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="BR25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT25" s="2">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>36</v>
       </c>
       <c r="F26" s="1">
-        <v>45652</v>
+        <v>45590</v>
       </c>
       <c r="G26" t="s">
         <v>43</v>
@@ -6021,13 +6021,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -6051,13 +6051,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6065,9 +6065,7 @@
         <v>1</v>
       </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
         <v>32</v>
@@ -6083,7 +6081,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
@@ -6091,19 +6089,17 @@
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45688</v>
+        <v>45611</v>
       </c>
       <c r="AS26" s="2">
         <v>0</v>
       </c>
       <c r="AT26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU26" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW26" s="2">
         <v>0</v>
@@ -6190,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="BY26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ26" s="2">
         <v>0</v>
@@ -6228,25 +6224,25 @@
         <v>36</v>
       </c>
       <c r="F27" s="1">
-        <v>45590</v>
+        <v>45652</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -6270,13 +6266,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -6284,7 +6280,9 @@
         <v>1</v>
       </c>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
+      <c r="AA27" s="2">
+        <v>1</v>
+      </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
         <v>32</v>
@@ -6300,7 +6298,7 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
@@ -6308,17 +6306,19 @@
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45611</v>
+        <v>45688</v>
       </c>
       <c r="AS27" s="2">
         <v>0</v>
       </c>
       <c r="AT27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU27" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU27" s="2">
+        <v>1</v>
+      </c>
       <c r="AV27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="2">
         <v>0</v>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="BY27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ27" s="2">
         <v>0</v>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,93 +18,93 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>602679</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
     <t>601716</t>
   </si>
   <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>602675</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>602671</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
     <t>602677</t>
   </si>
   <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>602675</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>602671</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
     <t>602529</t>
   </si>
   <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>602679</t>
-  </si>
-  <si>
     <t>500175</t>
   </si>
   <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>500706</t>
+    <t>602678</t>
   </si>
   <si>
     <t>602526</t>
   </si>
   <si>
-    <t>602678</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
+    <t>Martinsville</t>
+  </si>
+  <si>
     <t>Roanoke</t>
   </si>
   <si>
-    <t>Martinsville</t>
-  </si>
-  <si>
     <t>Franklin County</t>
   </si>
   <si>
@@ -132,24 +132,24 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>spatula; swab</t>
+  </si>
+  <si>
+    <t>syringe</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>spatula; swab</t>
-  </si>
-  <si>
-    <t>syringe</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -162,24 +162,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine; benzodiazepine</t>
+  </si>
+  <si>
     <t>fentanyl; cocaine</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>heroin; unknown</t>
   </si>
   <si>
-    <t>fentanyl; xylazine; benzodiazepine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -210,42 +210,42 @@
     <t>color</t>
   </si>
   <si>
+    <t>light brown; black</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>white; translucent</t>
+  </si>
+  <si>
     <t>white; brown</t>
   </si>
   <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>clear; white</t>
   </si>
   <si>
-    <t>clear</t>
-  </si>
-  <si>
     <t>light brown; gray</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>white; translucent</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
     <t>white; tan</t>
   </si>
   <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
     <t>white; clear</t>
   </si>
   <si>
@@ -255,27 +255,27 @@
     <t>texture</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>crystals; shiny; flaky</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>chunky; crystals</t>
+  </si>
+  <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>powder; dull</t>
   </si>
   <si>
-    <t>chunky; crystals</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>crystals; shiny; flaky</t>
-  </si>
-  <si>
     <t>crystals; powder</t>
   </si>
   <si>
@@ -294,15 +294,15 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>more down</t>
   </si>
   <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
-    <t>weaker</t>
-  </si>
-  <si>
     <t>more up</t>
   </si>
   <si>
@@ -342,10 +342,10 @@
     <t>overdose</t>
   </si>
   <si>
+    <t>involved in OD</t>
+  </si>
+  <si>
     <t>not overdose related</t>
-  </si>
-  <si>
-    <t>involved in OD</t>
   </si>
   <si>
     <t>od</t>
@@ -617,7 +617,7 @@
         <v>89</v>
       </c>
       <c r="Y1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z1" t="s">
         <v>90</v>
@@ -811,7 +811,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
@@ -820,22 +820,22 @@
         <v>39</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2">
         <v>0</v>
@@ -883,15 +883,17 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO2" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>1</v>
+      </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45525</v>
+        <v>45664</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -901,22 +903,22 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AW2" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
@@ -925,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="2">
         <v>0</v>
@@ -961,16 +963,16 @@
         <v>0</v>
       </c>
       <c r="BP2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ2" s="2">
         <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -982,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="BW2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX2" s="2">
         <v>0</v>
       </c>
       <c r="BY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ2" s="2">
         <v>0</v>
@@ -1014,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1026,7 +1028,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="1">
-        <v>45679</v>
+        <v>45590</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -1035,10 +1037,10 @@
         <v>40</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -1050,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -1068,19 +1070,17 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
@@ -1096,51 +1096,55 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
+      <c r="AM3" s="2">
+        <v>1</v>
+      </c>
       <c r="AN3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO3" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>1</v>
+      </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45687</v>
+        <v>45602</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="2">
         <v>0</v>
@@ -1176,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="BP3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1229,7 +1233,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -1241,19 +1245,19 @@
         <v>36</v>
       </c>
       <c r="F4" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1283,13 +1287,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1302,28 +1306,30 @@
       <c r="AC4" t="s">
         <v>93</v>
       </c>
-      <c r="AD4" s="2"/>
+      <c r="AD4" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45526</v>
+        <v>45107</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1333,10 +1339,10 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AW4" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX4" s="2">
         <v>1</v>
@@ -1345,19 +1351,19 @@
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
         <v>1</v>
       </c>
       <c r="BB4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4" s="2">
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
         <v>0</v>
@@ -1458,22 +1464,22 @@
         <v>36</v>
       </c>
       <c r="F5" s="1">
-        <v>45683</v>
+        <v>45071</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1482,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1500,26 +1506,28 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD5" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -1530,34 +1538,36 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45687</v>
+        <v>45107</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
@@ -1569,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
         <v>0</v>
@@ -1614,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1661,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -1673,19 +1683,19 @@
         <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>45092</v>
+        <v>45652</v>
       </c>
       <c r="G6" t="s">
         <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1697,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1715,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -1725,19 +1735,19 @@
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
       <c r="AC6" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1747,17 +1757,15 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45100</v>
+        <v>45687</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1880,7 +1888,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -1892,13 +1900,13 @@
         <v>36</v>
       </c>
       <c r="F7" s="1">
-        <v>45641</v>
+        <v>45652</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -1940,18 +1948,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="2"/>
       <c r="AC7" t="s">
         <v>32</v>
       </c>
@@ -1966,15 +1972,17 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45649</v>
+        <v>45666</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -2109,16 +2117,16 @@
         <v>36</v>
       </c>
       <c r="F8" s="1">
-        <v>45641</v>
+        <v>45092</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -2151,27 +2159,29 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
@@ -2181,28 +2191,30 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO8" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0</v>
+      </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45649</v>
+        <v>45100</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
         <v>0</v>
@@ -2324,22 +2336,22 @@
         <v>36</v>
       </c>
       <c r="F9" s="1">
-        <v>45631</v>
+        <v>45641</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -2348,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2366,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2396,7 +2408,7 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
@@ -2404,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45666</v>
+        <v>45649</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2414,16 +2426,16 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
         <v>0</v>
@@ -2435,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="2">
         <v>1</v>
@@ -2453,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="BI9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ9" s="2">
         <v>0</v>
@@ -2480,10 +2492,10 @@
         <v>0</v>
       </c>
       <c r="BR9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9" s="2">
         <v>0</v>
@@ -2527,7 +2539,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -2539,37 +2551,37 @@
         <v>36</v>
       </c>
       <c r="F10" s="1">
-        <v>45679</v>
+        <v>45518</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2581,13 +2593,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2611,36 +2623,34 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45687</v>
+        <v>45526</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
         <v>0</v>
@@ -2652,16 +2662,16 @@
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="2">
         <v>1</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10" s="2">
         <v>0</v>
@@ -2697,10 +2707,10 @@
         <v>0</v>
       </c>
       <c r="BR10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="2">
         <v>0</v>
@@ -2744,7 +2754,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2759,16 +2769,16 @@
         <v>45623</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2804,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2828,7 +2838,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -2971,22 +2981,22 @@
         <v>36</v>
       </c>
       <c r="F12" s="1">
-        <v>45071</v>
+        <v>45641</v>
       </c>
       <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>40</v>
       </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>51</v>
-      </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -3013,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3030,11 +3040,9 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -3045,36 +3053,34 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45107</v>
+        <v>45664</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
@@ -3086,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
@@ -3131,10 +3137,10 @@
         <v>0</v>
       </c>
       <c r="BR12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT12" s="2">
         <v>0</v>
@@ -3178,7 +3184,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -3202,13 +3208,13 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -3232,39 +3238,39 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2">
+        <v>1</v>
+      </c>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
@@ -3272,38 +3278,38 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45525</v>
+        <v>45526</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="2">
         <v>1</v>
@@ -3348,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="BR13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13" s="2">
         <v>0</v>
@@ -3410,19 +3416,19 @@
         <v>45641</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -3455,13 +3461,11 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
@@ -3479,7 +3483,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AO14" s="2">
         <v>1</v>
@@ -3489,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45664</v>
+        <v>45665</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3499,10 +3503,10 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AW14" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -3529,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3544,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL14" s="2">
         <v>0</v>
@@ -3577,13 +3581,13 @@
         <v>0</v>
       </c>
       <c r="BV14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW14" s="2">
         <v>1</v>
       </c>
       <c r="BX14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY14" s="2">
         <v>1</v>
@@ -3612,7 +3616,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3624,34 +3628,34 @@
         <v>36</v>
       </c>
       <c r="F15" s="1">
-        <v>45631</v>
+        <v>45435</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="2">
         <v>0</v>
@@ -3666,19 +3670,17 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
@@ -3699,27 +3701,27 @@
         <v>109</v>
       </c>
       <c r="AO15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45666</v>
+        <v>45446</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
@@ -3728,10 +3730,10 @@
         <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
@@ -3749,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="BG15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
       </c>
       <c r="BI15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ15" s="2">
         <v>0</v>
@@ -3841,22 +3843,22 @@
         <v>36</v>
       </c>
       <c r="F16" s="1">
-        <v>45652</v>
+        <v>45631</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -3865,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3883,13 +3885,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3913,11 +3915,9 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
@@ -3929,20 +3929,20 @@
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="2">
         <v>1</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="BI16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ16" s="2">
         <v>0</v>
@@ -3999,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="BR16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT16" s="2">
         <v>0</v>
@@ -4058,31 +4058,31 @@
         <v>36</v>
       </c>
       <c r="F17" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="2">
         <v>0</v>
@@ -4100,13 +4100,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4130,7 +4130,7 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -4138,17 +4138,17 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45664</v>
+        <v>45525</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW17" s="2">
         <v>1</v>
@@ -4169,16 +4169,16 @@
         <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG17" s="2">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -4273,25 +4273,25 @@
         <v>36</v>
       </c>
       <c r="F18" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -4315,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4332,9 +4332,11 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD18" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
@@ -4345,15 +4347,17 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45526</v>
+        <v>45107</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -4363,10 +4367,10 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -4378,16 +4382,16 @@
         <v>0</v>
       </c>
       <c r="BA18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="2">
         <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="2">
         <v>1</v>
@@ -4488,37 +4492,37 @@
         <v>36</v>
       </c>
       <c r="F19" s="1">
-        <v>45435</v>
+        <v>45683</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4530,19 +4534,21 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
+      <c r="AA19" s="2">
+        <v>1</v>
+      </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
         <v>32</v>
@@ -4558,17 +4564,15 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>1</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45446</v>
+        <v>45687</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -4578,31 +4582,31 @@
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW19" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="2">
         <v>0</v>
       </c>
       <c r="BC19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19" s="2">
         <v>0</v>
@@ -4611,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="BG19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH19" s="2">
         <v>0</v>
@@ -4644,10 +4648,10 @@
         <v>0</v>
       </c>
       <c r="BR19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT19" s="2">
         <v>0</v>
@@ -4706,19 +4710,19 @@
         <v>45641</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -4727,13 +4731,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4745,20 +4749,24 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
+      <c r="AB20" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC20" t="s">
         <v>32</v>
       </c>
@@ -4773,48 +4781,46 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>1</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45665</v>
+        <v>45649</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AW20" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="2">
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" s="2">
         <v>1</v>
@@ -4823,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="BF20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="2">
         <v>0</v>
@@ -4838,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="BK20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL20" s="2">
         <v>0</v>
@@ -4853,16 +4859,16 @@
         <v>0</v>
       </c>
       <c r="BP20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ20" s="2">
         <v>0</v>
       </c>
       <c r="BR20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="2">
         <v>0</v>
@@ -4871,16 +4877,16 @@
         <v>0</v>
       </c>
       <c r="BV20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ20" s="2">
         <v>0</v>
@@ -4906,7 +4912,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -4918,19 +4924,19 @@
         <v>36</v>
       </c>
       <c r="F21" s="1">
-        <v>45652</v>
+        <v>45679</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -4942,13 +4948,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -4960,24 +4966,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s">
         <v>32</v>
       </c>
@@ -4992,9 +4996,11 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO21" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>0</v>
+      </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
@@ -5123,7 +5129,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -5135,37 +5141,37 @@
         <v>36</v>
       </c>
       <c r="F22" s="1">
-        <v>45092</v>
+        <v>45518</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -5177,31 +5183,31 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
+      <c r="AA22" s="2">
+        <v>1</v>
+      </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD22" s="2"/>
-      <c r="AE22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
+      <c r="AG22" s="2">
+        <v>1</v>
+      </c>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
@@ -5209,17 +5215,15 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO22" s="2">
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45107</v>
+        <v>45525</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5342,7 +5346,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -5354,22 +5358,22 @@
         <v>36</v>
       </c>
       <c r="F23" s="1">
-        <v>45071</v>
+        <v>45679</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -5378,13 +5382,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -5396,13 +5400,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -5413,11 +5417,9 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
@@ -5428,57 +5430,55 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO23" s="2">
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45107</v>
+        <v>45687</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AW23" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="2">
         <v>0</v>
       </c>
       <c r="BA23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG23" s="2">
         <v>0</v>
@@ -5514,10 +5514,10 @@
         <v>0</v>
       </c>
       <c r="BR23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT23" s="2">
         <v>0</v>
@@ -5561,7 +5561,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
@@ -5573,22 +5573,22 @@
         <v>36</v>
       </c>
       <c r="F24" s="1">
-        <v>45590</v>
+        <v>45631</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>
@@ -5615,17 +5615,19 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
+      <c r="Y24" s="2">
+        <v>1</v>
+      </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -5641,21 +5643,19 @@
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
-      <c r="AM24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM24" s="2"/>
       <c r="AN24" t="s">
         <v>110</v>
       </c>
       <c r="AO24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45602</v>
+        <v>45666</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -5665,10 +5665,10 @@
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW24" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX24" s="2">
         <v>1</v>
@@ -5680,10 +5680,10 @@
         <v>0</v>
       </c>
       <c r="BA24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC24" s="2">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="BI24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ24" s="2">
         <v>0</v>
@@ -5725,10 +5725,10 @@
         <v>0</v>
       </c>
       <c r="BP24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR24" s="2">
         <v>1</v>
@@ -5778,7 +5778,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -5790,22 +5790,22 @@
         <v>36</v>
       </c>
       <c r="F25" s="1">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
@@ -5814,13 +5814,13 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -5832,13 +5832,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5849,12 +5849,12 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE25" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2">
+        <v>1</v>
+      </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
@@ -5864,7 +5864,7 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO25" s="2">
         <v>0</v>
@@ -5880,35 +5880,35 @@
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW25" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="2">
         <v>0</v>
       </c>
       <c r="BA25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE25" s="2">
         <v>0</v>
@@ -5950,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="BR25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT25" s="2">
         <v>0</v>
@@ -6009,25 +6009,25 @@
         <v>36</v>
       </c>
       <c r="F26" s="1">
-        <v>45590</v>
+        <v>45652</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -6051,13 +6051,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6065,7 +6065,9 @@
         <v>1</v>
       </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
+      <c r="AA26" s="2">
+        <v>1</v>
+      </c>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
         <v>32</v>
@@ -6081,7 +6083,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
@@ -6089,17 +6091,19 @@
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45611</v>
+        <v>45688</v>
       </c>
       <c r="AS26" s="2">
         <v>0</v>
       </c>
       <c r="AT26" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU26" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU26" s="2">
+        <v>1</v>
+      </c>
       <c r="AV26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW26" s="2">
         <v>0</v>
@@ -6186,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="BY26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ26" s="2">
         <v>0</v>
@@ -6224,25 +6228,25 @@
         <v>36</v>
       </c>
       <c r="F27" s="1">
-        <v>45652</v>
+        <v>45590</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -6266,13 +6270,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -6280,9 +6284,7 @@
         <v>1</v>
       </c>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
         <v>32</v>
@@ -6298,7 +6300,7 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
@@ -6306,19 +6308,17 @@
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45688</v>
+        <v>45611</v>
       </c>
       <c r="AS27" s="2">
         <v>0</v>
       </c>
       <c r="AT27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU27" s="2"/>
       <c r="AV27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW27" s="2">
         <v>0</v>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="BY27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ27" s="2">
         <v>0</v>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,78 +18,78 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>602677</t>
+  </si>
+  <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>602671</t>
+  </si>
+  <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>602675</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>602679</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
     <t>602521</t>
   </si>
   <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>602679</t>
-  </si>
-  <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>602520</t>
+    <t>500175</t>
   </si>
   <si>
     <t>601633</t>
   </si>
   <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>602523</t>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>601646</t>
   </si>
   <si>
     <t>601719</t>
   </si>
   <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>602675</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>602671</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>602677</t>
-  </si>
-  <si>
-    <t>602529</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
     <t>602678</t>
   </si>
   <si>
@@ -99,12 +99,12 @@
     <t>location</t>
   </si>
   <si>
+    <t>Roanoke</t>
+  </si>
+  <si>
     <t>Martinsville</t>
   </si>
   <si>
-    <t>Roanoke</t>
-  </si>
-  <si>
     <t>Franklin County</t>
   </si>
   <si>
@@ -132,21 +132,21 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>syringe</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>spatula; swab</t>
+  </si>
+  <si>
     <t>cotton</t>
   </si>
   <si>
-    <t>spatula; swab</t>
-  </si>
-  <si>
-    <t>syringe</t>
-  </si>
-  <si>
     <t>spatula</t>
   </si>
   <si>
@@ -168,18 +168,18 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>heroin; unknown</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
+    <t>fentanyl; cocaine</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine; benzodiazepine</t>
   </si>
   <si>
-    <t>fentanyl; cocaine</t>
-  </si>
-  <si>
-    <t>heroin; unknown</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -210,42 +210,42 @@
     <t>color</t>
   </si>
   <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>white; tan</t>
+  </si>
+  <si>
+    <t>white; translucent</t>
+  </si>
+  <si>
+    <t>white; brown</t>
+  </si>
+  <si>
+    <t>clear; white</t>
+  </si>
+  <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
     <t>light brown; black</t>
   </si>
   <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>white; translucent</t>
-  </si>
-  <si>
-    <t>white; brown</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>clear; white</t>
-  </si>
-  <si>
     <t>light brown; gray</t>
   </si>
   <si>
-    <t>white; tan</t>
-  </si>
-  <si>
     <t>white; clear</t>
   </si>
   <si>
@@ -255,24 +255,24 @@
     <t>texture</t>
   </si>
   <si>
+    <t>liquid</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>crystals; shiny; flaky</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
     <t>chunky; crystals</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>powder; dull</t>
   </si>
   <si>
@@ -294,19 +294,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>more down</t>
+  </si>
+  <si>
     <t>weaker</t>
   </si>
   <si>
     <t>unpleasant</t>
   </si>
   <si>
-    <t>more down</t>
+    <t>weird</t>
   </si>
   <si>
     <t>more up</t>
-  </si>
-  <si>
-    <t>weird</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -617,7 +617,7 @@
         <v>89</v>
       </c>
       <c r="Y1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z1" t="s">
         <v>90</v>
@@ -823,10 +823,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -863,9 +863,7 @@
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -893,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45664</v>
+        <v>45665</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -903,10 +901,10 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AW2" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX2" s="2">
         <v>1</v>
@@ -933,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="BF2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG2" s="2">
         <v>0</v>
@@ -948,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="BK2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL2" s="2">
         <v>0</v>
@@ -981,13 +979,13 @@
         <v>0</v>
       </c>
       <c r="BV2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW2" s="2">
         <v>1</v>
       </c>
       <c r="BX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY2" s="2">
         <v>1</v>
@@ -1016,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1028,7 +1026,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="1">
-        <v>45590</v>
+        <v>45679</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -1037,10 +1035,10 @@
         <v>40</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -1052,13 +1050,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -1073,14 +1071,16 @@
         <v>66</v>
       </c>
       <c r="U3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
@@ -1096,55 +1096,51 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
-      <c r="AM3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45602</v>
+        <v>45687</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3" s="2">
         <v>0</v>
@@ -1180,16 +1176,16 @@
         <v>0</v>
       </c>
       <c r="BP3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1233,7 +1229,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -1245,7 +1241,7 @@
         <v>36</v>
       </c>
       <c r="F4" s="1">
-        <v>45071</v>
+        <v>45631</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
@@ -1254,10 +1250,10 @@
         <v>41</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1293,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1304,11 +1300,9 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -1329,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45107</v>
+        <v>45666</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1339,10 +1333,10 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX4" s="2">
         <v>1</v>
@@ -1354,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="2">
         <v>0</v>
@@ -1378,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ4" s="2">
         <v>0</v>
@@ -1452,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -1464,22 +1458,22 @@
         <v>36</v>
       </c>
       <c r="F5" s="1">
-        <v>45071</v>
+        <v>45679</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1488,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1506,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1523,11 +1517,9 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -1548,26 +1540,26 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45107</v>
+        <v>45687</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
@@ -1579,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
         <v>0</v>
@@ -1624,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1671,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -1683,25 +1675,25 @@
         <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>45652</v>
+        <v>45623</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1725,24 +1717,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="s">
         <v>81</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>32</v>
       </c>
@@ -1757,7 +1747,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
@@ -1765,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45687</v>
+        <v>45666</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1775,16 +1765,16 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
@@ -1796,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
         <v>0</v>
@@ -1841,10 +1831,10 @@
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1900,22 +1890,22 @@
         <v>36</v>
       </c>
       <c r="F7" s="1">
-        <v>45652</v>
+        <v>45518</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1924,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1948,72 +1938,72 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
+      <c r="AH7" s="2">
+        <v>1</v>
+      </c>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45666</v>
+        <v>45526</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="2">
         <v>1</v>
@@ -2058,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2117,16 +2107,16 @@
         <v>36</v>
       </c>
       <c r="F8" s="1">
-        <v>45092</v>
+        <v>45652</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -2159,29 +2149,27 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
@@ -2201,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45100</v>
+        <v>45666</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2324,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -2336,13 +2324,13 @@
         <v>36</v>
       </c>
       <c r="F9" s="1">
-        <v>45641</v>
+        <v>45683</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -2378,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2408,7 +2396,7 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
@@ -2416,20 +2404,20 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45649</v>
+        <v>45687</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
         <v>0</v>
@@ -2539,7 +2527,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -2551,25 +2539,25 @@
         <v>36</v>
       </c>
       <c r="F10" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -2593,13 +2581,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2610,9 +2598,11 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD10" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2623,15 +2613,17 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45526</v>
+        <v>45107</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2641,10 +2633,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2656,22 +2648,22 @@
         <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="2">
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="2">
         <v>0</v>
@@ -2766,37 +2758,37 @@
         <v>36</v>
       </c>
       <c r="F11" s="1">
-        <v>45623</v>
+        <v>45641</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2808,21 +2800,21 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
         <v>32</v>
@@ -2838,7 +2830,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -2846,26 +2838,26 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45666</v>
+        <v>45649</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW11" s="2">
         <v>2</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
@@ -2877,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
         <v>0</v>
@@ -2922,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2981,31 +2973,31 @@
         <v>36</v>
       </c>
       <c r="F12" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -3014,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -3023,13 +3015,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3053,7 +3045,7 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
@@ -3061,17 +3053,17 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45664</v>
+        <v>45525</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW12" s="2">
         <v>1</v>
@@ -3092,16 +3084,16 @@
         <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG12" s="2">
         <v>0</v>
@@ -3184,7 +3176,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -3196,13 +3188,13 @@
         <v>36</v>
       </c>
       <c r="F13" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -3244,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3255,30 +3247,32 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD13" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
-      <c r="AH13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45526</v>
+        <v>45107</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3288,10 +3282,10 @@
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AW13" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX13" s="2">
         <v>1</v>
@@ -3300,10 +3294,10 @@
         <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
@@ -3312,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="2">
         <v>0</v>
@@ -3401,7 +3395,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -3413,22 +3407,22 @@
         <v>36</v>
       </c>
       <c r="F14" s="1">
-        <v>45641</v>
+        <v>45590</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -3458,10 +3452,10 @@
         <v>73</v>
       </c>
       <c r="U14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3481,7 +3475,9 @@
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
-      <c r="AM14" s="2"/>
+      <c r="AM14" s="2">
+        <v>1</v>
+      </c>
       <c r="AN14" t="s">
         <v>109</v>
       </c>
@@ -3493,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45665</v>
+        <v>45602</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3503,10 +3499,10 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AW14" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -3515,25 +3511,25 @@
         <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
         <v>1</v>
       </c>
       <c r="BB14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC14" s="2">
         <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="2">
         <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3548,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL14" s="2">
         <v>0</v>
@@ -3566,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="BQ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR14" s="2">
         <v>1</v>
@@ -3581,16 +3577,16 @@
         <v>0</v>
       </c>
       <c r="BV14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ14" s="2">
         <v>0</v>
@@ -3616,7 +3612,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3628,34 +3624,34 @@
         <v>36</v>
       </c>
       <c r="F15" s="1">
-        <v>45435</v>
+        <v>45071</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2">
         <v>0</v>
@@ -3670,24 +3666,28 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD15" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -3698,27 +3698,27 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45446</v>
+        <v>45107</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW15" s="2">
         <v>4</v>
@@ -3730,13 +3730,13 @@
         <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
         <v>1</v>
       </c>
       <c r="BB15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="2">
         <v>0</v>
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -3843,22 +3843,22 @@
         <v>36</v>
       </c>
       <c r="F16" s="1">
-        <v>45631</v>
+        <v>45092</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3885,27 +3885,29 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -3915,34 +3917,36 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO16" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0</v>
+      </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45666</v>
+        <v>45100</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
         <v>0</v>
@@ -3954,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="2">
         <v>1</v>
@@ -3972,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="BI16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ16" s="2">
         <v>0</v>
@@ -3999,10 +4003,10 @@
         <v>0</v>
       </c>
       <c r="BR16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT16" s="2">
         <v>0</v>
@@ -4058,31 +4062,31 @@
         <v>36</v>
       </c>
       <c r="F17" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
@@ -4091,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2">
         <v>0</v>
@@ -4100,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4130,7 +4134,7 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -4138,17 +4142,17 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45525</v>
+        <v>45664</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="2">
         <v>1</v>
@@ -4169,16 +4173,16 @@
         <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG17" s="2">
         <v>0</v>
@@ -4261,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -4273,22 +4277,22 @@
         <v>36</v>
       </c>
       <c r="F18" s="1">
-        <v>45071</v>
+        <v>45652</v>
       </c>
       <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>41</v>
       </c>
-      <c r="H18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>49</v>
-      </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -4315,28 +4319,28 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
+      <c r="AA18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>1</v>
+      </c>
       <c r="AC18" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
@@ -4347,57 +4351,55 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45107</v>
+        <v>45687</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AW18" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="2">
         <v>0</v>
       </c>
       <c r="BA18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="2">
         <v>0</v>
@@ -4433,10 +4435,10 @@
         <v>0</v>
       </c>
       <c r="BR18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT18" s="2">
         <v>0</v>
@@ -4492,22 +4494,22 @@
         <v>36</v>
       </c>
       <c r="F19" s="1">
-        <v>45683</v>
+        <v>45631</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -4516,13 +4518,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4534,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4564,7 +4566,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -4572,26 +4574,26 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45687</v>
+        <v>45666</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
         <v>0</v>
@@ -4603,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="BC19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="2">
         <v>1</v>
@@ -4621,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="BI19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ19" s="2">
         <v>0</v>
@@ -4648,10 +4650,10 @@
         <v>0</v>
       </c>
       <c r="BR19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT19" s="2">
         <v>0</v>
@@ -4695,7 +4697,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -4710,16 +4712,16 @@
         <v>45641</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -4731,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4755,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4764,9 +4766,7 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s">
         <v>32</v>
       </c>
@@ -4781,46 +4781,48 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>1</v>
+      </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45649</v>
+        <v>45664</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="2">
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="2">
         <v>1</v>
@@ -4859,16 +4861,16 @@
         <v>0</v>
       </c>
       <c r="BP20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ20" s="2">
         <v>0</v>
       </c>
       <c r="BR20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT20" s="2">
         <v>0</v>
@@ -4880,13 +4882,13 @@
         <v>0</v>
       </c>
       <c r="BW20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX20" s="2">
         <v>0</v>
       </c>
       <c r="BY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ20" s="2">
         <v>0</v>
@@ -4912,7 +4914,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -4924,7 +4926,7 @@
         <v>36</v>
       </c>
       <c r="F21" s="1">
-        <v>45679</v>
+        <v>45092</v>
       </c>
       <c r="G21" t="s">
         <v>39</v>
@@ -4933,7 +4935,7 @@
         <v>39</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>50</v>
@@ -4966,13 +4968,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -4983,10 +4985,12 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
+      <c r="AE21" s="2">
+        <v>1</v>
+      </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
@@ -5006,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45687</v>
+        <v>45107</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5129,7 +5133,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -5144,16 +5148,16 @@
         <v>45518</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5183,31 +5187,29 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
@@ -5215,7 +5217,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
@@ -5223,26 +5225,26 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45525</v>
+        <v>45526</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW22" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ22" s="2">
         <v>0</v>
@@ -5254,16 +5256,16 @@
         <v>0</v>
       </c>
       <c r="BC22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="2">
         <v>1</v>
       </c>
       <c r="BE22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG22" s="2">
         <v>0</v>
@@ -5299,10 +5301,10 @@
         <v>0</v>
       </c>
       <c r="BR22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT22" s="2">
         <v>0</v>
@@ -5358,13 +5360,13 @@
         <v>36</v>
       </c>
       <c r="F23" s="1">
-        <v>45679</v>
+        <v>45641</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -5400,13 +5402,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -5415,7 +5417,9 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
+      <c r="AB23" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC23" t="s">
         <v>32</v>
       </c>
@@ -5430,7 +5434,7 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
@@ -5438,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45687</v>
+        <v>45649</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
@@ -5561,7 +5565,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
@@ -5573,25 +5577,25 @@
         <v>36</v>
       </c>
       <c r="F24" s="1">
-        <v>45631</v>
+        <v>45518</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
@@ -5615,29 +5619,31 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
+      <c r="AA24" s="2">
+        <v>1</v>
+      </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
+      <c r="AG24" s="2">
+        <v>1</v>
+      </c>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
@@ -5645,36 +5651,34 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45666</v>
+        <v>45525</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="2">
         <v>0</v>
@@ -5686,10 +5690,10 @@
         <v>0</v>
       </c>
       <c r="BC24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE24" s="2">
         <v>0</v>
@@ -5704,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="BI24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ24" s="2">
         <v>0</v>
@@ -5731,10 +5735,10 @@
         <v>0</v>
       </c>
       <c r="BR24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT24" s="2">
         <v>0</v>
@@ -5778,7 +5782,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -5790,37 +5794,37 @@
         <v>36</v>
       </c>
       <c r="F25" s="1">
-        <v>45092</v>
+        <v>45435</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -5832,29 +5836,25 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="AD25" s="2"/>
-      <c r="AE25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
@@ -5864,17 +5864,17 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AO25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45107</v>
+        <v>45446</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
@@ -5884,31 +5884,31 @@
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW25" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
       </c>
       <c r="BC25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE25" s="2">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="BG25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH25" s="2">
         <v>0</v>
@@ -5950,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="BR25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT25" s="2">
         <v>0</v>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6083,7 +6083,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
@@ -6231,16 +6231,16 @@
         <v>45590</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -6270,13 +6270,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -6300,7 +6300,7 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,78 +18,78 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602677</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
+    <t>602671</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>602675</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
     <t>602523</t>
   </si>
   <si>
-    <t>602677</t>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>602525</t>
   </si>
   <si>
     <t>602529</t>
   </si>
   <si>
-    <t>602671</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>602675</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
     <t>602679</t>
   </si>
   <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
     <t>602678</t>
   </si>
   <si>
@@ -132,24 +132,24 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>spatula; swab</t>
+  </si>
+  <si>
     <t>syringe</t>
   </si>
   <si>
-    <t>swab</t>
+    <t>cotton</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>spatula; swab</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -162,24 +162,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl; cocaine</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>methamphetamine</t>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine; benzodiazepine</t>
   </si>
   <si>
     <t>heroin; unknown</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; cocaine</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine; benzodiazepine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -210,42 +210,42 @@
     <t>color</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>clear; white</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
+    <t>white; brown</t>
+  </si>
+  <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
+    <t>white; translucent</t>
+  </si>
+  <si>
+    <t>light brown; black</t>
+  </si>
+  <si>
     <t>brown</t>
   </si>
   <si>
-    <t>white</t>
+    <t>blue</t>
   </si>
   <si>
     <t>white; tan</t>
   </si>
   <si>
-    <t>white; translucent</t>
-  </si>
-  <si>
-    <t>white; brown</t>
-  </si>
-  <si>
-    <t>clear; white</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
-    <t>light brown; gray</t>
-  </si>
-  <si>
     <t>white; clear</t>
   </si>
   <si>
@@ -255,27 +255,27 @@
     <t>texture</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>chunky; crystals</t>
+  </si>
+  <si>
     <t>liquid</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>crystals; shiny; flaky</t>
   </si>
   <si>
-    <t>chunky; crystals</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
     <t>crystals; powder</t>
   </si>
   <si>
@@ -294,21 +294,21 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>more up</t>
+  </si>
+  <si>
     <t>more down</t>
   </si>
   <si>
-    <t>weaker</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>more up</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -342,10 +342,10 @@
     <t>overdose</t>
   </si>
   <si>
+    <t>not overdose related</t>
+  </si>
+  <si>
     <t>involved in OD</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
   </si>
   <si>
     <t>od</t>
@@ -617,7 +617,7 @@
         <v>89</v>
       </c>
       <c r="Y1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z1" t="s">
         <v>90</v>
@@ -811,7 +811,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="1">
-        <v>45641</v>
+        <v>45679</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
@@ -820,13 +820,13 @@
         <v>39</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -863,7 +863,9 @@
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -881,48 +883,46 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>1</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45665</v>
+        <v>45687</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AW2" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
         <v>1</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="BF2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="2">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="BK2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL2" s="2">
         <v>0</v>
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="BP2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ2" s="2">
         <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="BV2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ2" s="2">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="1">
-        <v>45679</v>
+        <v>45518</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -1041,10 +1041,10 @@
         <v>50</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
@@ -1098,7 +1098,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
@@ -1106,17 +1106,17 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45687</v>
+        <v>45525</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="2">
         <v>1</v>
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>36</v>
       </c>
       <c r="F4" s="1">
-        <v>45631</v>
+        <v>45679</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1313,7 +1313,7 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AO4" s="2">
         <v>0</v>
@@ -1323,26 +1323,26 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45666</v>
+        <v>45687</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4" s="2">
         <v>0</v>
@@ -1399,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -1458,19 +1458,19 @@
         <v>36</v>
       </c>
       <c r="F5" s="1">
-        <v>45679</v>
+        <v>45641</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1500,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1530,17 +1530,15 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45687</v>
+        <v>45664</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1663,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -1675,37 +1673,37 @@
         <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>45623</v>
+        <v>45683</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1717,21 +1715,21 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>32</v>
@@ -1747,7 +1745,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
@@ -1755,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45666</v>
+        <v>45687</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1765,16 +1763,16 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
@@ -1786,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
         <v>0</v>
@@ -1831,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1890,13 +1888,13 @@
         <v>36</v>
       </c>
       <c r="F7" s="1">
-        <v>45518</v>
+        <v>45092</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -1905,7 +1903,7 @@
         <v>49</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1914,13 +1912,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1932,13 +1930,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1952,58 +1950,60 @@
         <v>93</v>
       </c>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45526</v>
+        <v>45100</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="2">
         <v>1</v>
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -2107,22 +2107,22 @@
         <v>36</v>
       </c>
       <c r="F8" s="1">
-        <v>45652</v>
+        <v>45071</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2149,26 +2149,28 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD8" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -2179,7 +2181,7 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AO8" s="2">
         <v>0</v>
@@ -2189,26 +2191,26 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45666</v>
+        <v>45107</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
@@ -2220,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
@@ -2265,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="BR8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
         <v>0</v>
@@ -2312,7 +2314,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -2324,37 +2326,37 @@
         <v>36</v>
       </c>
       <c r="F9" s="1">
-        <v>45683</v>
+        <v>45518</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2383,12 +2385,14 @@
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
+      <c r="AG9" s="2">
+        <v>1</v>
+      </c>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
@@ -2396,7 +2400,7 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
@@ -2404,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45687</v>
+        <v>45525</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2539,19 +2543,19 @@
         <v>36</v>
       </c>
       <c r="F10" s="1">
-        <v>45071</v>
+        <v>45518</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2581,13 +2585,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2598,32 +2602,30 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>-1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
+      <c r="AH10" s="2">
+        <v>1</v>
+      </c>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45107</v>
+        <v>45526</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2633,10 +2635,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AW10" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2645,19 +2647,19 @@
         <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
         <v>1</v>
       </c>
       <c r="BB10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10" s="2">
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
         <v>0</v>
@@ -2746,7 +2748,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2758,22 +2760,22 @@
         <v>36</v>
       </c>
       <c r="F11" s="1">
-        <v>45641</v>
+        <v>45071</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2782,13 +2784,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2800,26 +2802,28 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD11" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -2830,15 +2834,17 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45649</v>
+        <v>45107</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2848,31 +2854,31 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
       </c>
       <c r="BA11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
         <v>0</v>
@@ -2914,10 +2920,10 @@
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2973,25 +2979,25 @@
         <v>36</v>
       </c>
       <c r="F12" s="1">
-        <v>45518</v>
+        <v>45092</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -3003,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -3015,13 +3021,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3032,10 +3038,12 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
@@ -3045,25 +3053,27 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO12" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45525</v>
+        <v>45107</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="2">
         <v>1</v>
@@ -3084,16 +3094,16 @@
         <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="2">
         <v>0</v>
@@ -3188,34 +3198,34 @@
         <v>36</v>
       </c>
       <c r="F13" s="1">
-        <v>45071</v>
+        <v>45435</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="2">
         <v>0</v>
@@ -3230,28 +3240,24 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -3265,27 +3271,27 @@
         <v>110</v>
       </c>
       <c r="AO13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45107</v>
+        <v>45446</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX13" s="2">
         <v>1</v>
@@ -3294,10 +3300,10 @@
         <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
@@ -3315,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="BG13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -3395,7 +3401,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -3407,19 +3413,19 @@
         <v>36</v>
       </c>
       <c r="F14" s="1">
-        <v>45590</v>
+        <v>45641</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3431,13 +3437,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3449,20 +3455,24 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
+      <c r="AB14" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC14" t="s">
         <v>32</v>
       </c>
@@ -3475,55 +3485,51 @@
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
-      <c r="AM14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>1</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45602</v>
+        <v>45649</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
         <v>0</v>
       </c>
       <c r="BA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="2">
         <v>0</v>
@@ -3559,16 +3565,16 @@
         <v>0</v>
       </c>
       <c r="BP14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT14" s="2">
         <v>0</v>
@@ -3624,25 +3630,25 @@
         <v>36</v>
       </c>
       <c r="F15" s="1">
-        <v>45071</v>
+        <v>45623</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3666,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="U15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3683,11 +3689,9 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -3698,30 +3702,28 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45107</v>
+        <v>45666</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AW15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
@@ -3733,10 +3735,10 @@
         <v>0</v>
       </c>
       <c r="BA15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="2">
         <v>0</v>
@@ -3745,10 +3747,10 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3831,7 +3833,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -3843,7 +3845,7 @@
         <v>36</v>
       </c>
       <c r="F16" s="1">
-        <v>45092</v>
+        <v>45652</v>
       </c>
       <c r="G16" t="s">
         <v>39</v>
@@ -3852,10 +3854,10 @@
         <v>39</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -3885,29 +3887,27 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
+      <c r="AA16" s="2">
+        <v>1</v>
+      </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -3917,7 +3917,7 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AO16" s="2">
         <v>0</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45100</v>
+        <v>45666</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4065,16 +4065,16 @@
         <v>45641</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4134,9 +4134,11 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO17" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>1</v>
+      </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
@@ -4148,32 +4150,32 @@
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AW17" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="2">
         <v>1</v>
@@ -4212,16 +4214,16 @@
         <v>0</v>
       </c>
       <c r="BP17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ17" s="2">
         <v>0</v>
       </c>
       <c r="BR17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT17" s="2">
         <v>0</v>
@@ -4233,13 +4235,13 @@
         <v>0</v>
       </c>
       <c r="BW17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX17" s="2">
         <v>0</v>
       </c>
       <c r="BY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ17" s="2">
         <v>0</v>
@@ -4277,22 +4279,22 @@
         <v>36</v>
       </c>
       <c r="F18" s="1">
-        <v>45652</v>
+        <v>45631</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -4319,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
@@ -4334,9 +4336,7 @@
       <c r="AA18" s="2">
         <v>1</v>
       </c>
-      <c r="AB18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s">
         <v>32</v>
       </c>
@@ -4351,7 +4351,7 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
@@ -4359,26 +4359,26 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45687</v>
+        <v>45666</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="2">
         <v>1</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="BI18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ18" s="2">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>0</v>
       </c>
       <c r="BR18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" s="2">
         <v>0</v>
@@ -4494,25 +4494,25 @@
         <v>36</v>
       </c>
       <c r="F19" s="1">
-        <v>45631</v>
+        <v>45518</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -4536,21 +4536,21 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
         <v>32</v>
@@ -4566,7 +4566,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45666</v>
+        <v>45526</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW19" s="2">
         <v>3</v>
@@ -4611,10 +4611,10 @@
         <v>1</v>
       </c>
       <c r="BE19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG19" s="2">
         <v>0</v>
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="BI19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ19" s="2">
         <v>0</v>
@@ -4718,10 +4718,10 @@
         <v>40</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -4733,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4751,21 +4751,21 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
         <v>32</v>
@@ -4781,17 +4781,15 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>1</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45664</v>
+        <v>45649</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4801,28 +4799,28 @@
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AW20" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="2">
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" s="2">
         <v>1</v>
@@ -4861,16 +4859,16 @@
         <v>0</v>
       </c>
       <c r="BP20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ20" s="2">
         <v>0</v>
       </c>
       <c r="BR20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="2">
         <v>0</v>
@@ -4882,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="BW20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="2">
         <v>0</v>
       </c>
       <c r="BY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ20" s="2">
         <v>0</v>
@@ -4926,22 +4924,22 @@
         <v>36</v>
       </c>
       <c r="F21" s="1">
-        <v>45092</v>
+        <v>45641</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -4950,13 +4948,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -4968,29 +4966,25 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="AD21" s="2"/>
-      <c r="AE21" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
@@ -5003,45 +4997,45 @@
         <v>110</v>
       </c>
       <c r="AO21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45107</v>
+        <v>45665</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AW21" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
       </c>
       <c r="BC21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="2">
         <v>1</v>
@@ -5050,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="BF21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -5065,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="BK21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL21" s="2">
         <v>0</v>
@@ -5080,16 +5074,16 @@
         <v>0</v>
       </c>
       <c r="BP21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ21" s="2">
         <v>0</v>
       </c>
       <c r="BR21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT21" s="2">
         <v>0</v>
@@ -5098,16 +5092,16 @@
         <v>0</v>
       </c>
       <c r="BV21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ21" s="2">
         <v>0</v>
@@ -5145,25 +5139,25 @@
         <v>36</v>
       </c>
       <c r="F22" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -5187,13 +5181,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5204,9 +5198,11 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD22" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -5217,15 +5213,17 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO22" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>0</v>
+      </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45526</v>
+        <v>45107</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5235,10 +5233,10 @@
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX22" s="2">
         <v>1</v>
@@ -5250,16 +5248,16 @@
         <v>0</v>
       </c>
       <c r="BA22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC22" s="2">
         <v>0</v>
       </c>
       <c r="BD22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE22" s="2">
         <v>1</v>
@@ -5348,7 +5346,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -5360,19 +5358,19 @@
         <v>36</v>
       </c>
       <c r="F23" s="1">
-        <v>45641</v>
+        <v>45590</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -5384,13 +5382,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -5402,24 +5400,20 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s">
         <v>32</v>
       </c>
@@ -5432,51 +5426,55 @@
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
-      <c r="AM23" s="2"/>
+      <c r="AM23" s="2">
+        <v>1</v>
+      </c>
       <c r="AN23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO23" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>1</v>
+      </c>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45649</v>
+        <v>45602</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW23" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="2">
         <v>0</v>
       </c>
       <c r="BA23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE23" s="2">
         <v>0</v>
@@ -5512,16 +5510,16 @@
         <v>0</v>
       </c>
       <c r="BP23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT23" s="2">
         <v>0</v>
@@ -5577,7 +5575,7 @@
         <v>36</v>
       </c>
       <c r="F24" s="1">
-        <v>45518</v>
+        <v>45631</v>
       </c>
       <c r="G24" t="s">
         <v>44</v>
@@ -5586,16 +5584,16 @@
         <v>44</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
@@ -5619,31 +5617,29 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
+      <c r="Y24" s="2">
+        <v>1</v>
+      </c>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
@@ -5651,34 +5647,36 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO24" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>0</v>
+      </c>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45525</v>
+        <v>45666</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24" s="2">
         <v>0</v>
@@ -5690,10 +5688,10 @@
         <v>0</v>
       </c>
       <c r="BC24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE24" s="2">
         <v>0</v>
@@ -5708,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="BI24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ24" s="2">
         <v>0</v>
@@ -5735,10 +5733,10 @@
         <v>0</v>
       </c>
       <c r="BR24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT24" s="2">
         <v>0</v>
@@ -5794,34 +5792,34 @@
         <v>36</v>
       </c>
       <c r="F25" s="1">
-        <v>45435</v>
+        <v>45652</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2">
         <v>0</v>
       </c>
       <c r="O25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="2">
         <v>0</v>
@@ -5836,20 +5834,24 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
+      <c r="AA25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>1</v>
+      </c>
       <c r="AC25" t="s">
         <v>32</v>
       </c>
@@ -5864,17 +5866,15 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO25" s="2">
-        <v>1</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45446</v>
+        <v>45687</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
@@ -5884,31 +5884,31 @@
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW25" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
       </c>
       <c r="BC25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE25" s="2">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="BG25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH25" s="2">
         <v>0</v>
@@ -5950,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="BR25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT25" s="2">
         <v>0</v>
@@ -6012,16 +6012,16 @@
         <v>45652</v>
       </c>
       <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
         <v>44</v>
-      </c>
-      <c r="H26" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>41</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6083,7 +6083,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
@@ -6231,10 +6231,10 @@
         <v>45590</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
@@ -6270,13 +6270,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -6300,7 +6300,7 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,84 +18,84 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>602679</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
+    <t>602671</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
     <t>602677</t>
   </si>
   <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>602671</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
     <t>602675</t>
   </si>
   <si>
-    <t>500911</t>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>601633</t>
   </si>
   <si>
     <t>500782</t>
   </si>
   <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>602529</t>
-  </si>
-  <si>
-    <t>602679</t>
+    <t>602526</t>
   </si>
   <si>
     <t>602678</t>
   </si>
   <si>
-    <t>602526</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -132,24 +132,24 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t>spatula; swab</t>
   </si>
   <si>
     <t>syringe</t>
   </si>
   <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -162,24 +162,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>heroin; unknown</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine; benzodiazepine</t>
+  </si>
+  <si>
     <t>fentanyl; cocaine</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine; benzodiazepine</t>
-  </si>
-  <si>
-    <t>heroin; unknown</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -210,42 +210,42 @@
     <t>color</t>
   </si>
   <si>
+    <t>white; translucent</t>
+  </si>
+  <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>white; brown</t>
+  </si>
+  <si>
+    <t>white; tan</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>light brown; black</t>
+  </si>
+  <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
     <t>clear; white</t>
   </si>
   <si>
-    <t>clear</t>
-  </si>
-  <si>
     <t>red; brown</t>
   </si>
   <si>
-    <t>white; brown</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
-    <t>light brown; gray</t>
-  </si>
-  <si>
-    <t>white; translucent</t>
-  </si>
-  <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>white; tan</t>
-  </si>
-  <si>
     <t>white; clear</t>
   </si>
   <si>
@@ -258,24 +258,24 @@
     <t>powder</t>
   </si>
   <si>
+    <t>chunky; crystals</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>crystals; shiny; flaky</t>
+  </si>
+  <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>crystals</t>
+    <t>liquid</t>
   </si>
   <si>
     <t>powder; dull</t>
   </si>
   <si>
-    <t>chunky; crystals</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>crystals; shiny; flaky</t>
-  </si>
-  <si>
     <t>crystals; powder</t>
   </si>
   <si>
@@ -294,19 +294,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>more down</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>unpleasant</t>
   </si>
   <si>
-    <t>weaker</t>
-  </si>
-  <si>
     <t>more up</t>
-  </si>
-  <si>
-    <t>more down</t>
-  </si>
-  <si>
-    <t>weird</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -811,7 +811,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="1">
-        <v>45679</v>
+        <v>45623</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
@@ -826,22 +826,22 @@
         <v>49</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>65</v>
       </c>
       <c r="U2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="s">
         <v>80</v>
@@ -883,7 +883,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45687</v>
+        <v>45666</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -901,16 +901,16 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
         <v>0</v>
@@ -922,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -1035,7 +1035,7 @@
         <v>40</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
@@ -1044,13 +1044,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1085,9 +1085,11 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD3" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -1098,15 +1100,17 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO3" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0</v>
+      </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45525</v>
+        <v>45107</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1116,25 +1120,25 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3" s="2">
         <v>0</v>
@@ -1143,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1182,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1241,22 +1245,22 @@
         <v>36</v>
       </c>
       <c r="F4" s="1">
-        <v>45679</v>
+        <v>45631</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1265,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1283,21 +1287,21 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>32</v>
@@ -1313,36 +1317,34 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45687</v>
+        <v>45666</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="2">
         <v>1</v>
@@ -1372,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ4" s="2">
         <v>0</v>
@@ -1399,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1461,16 +1463,16 @@
         <v>45641</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1482,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1500,21 +1502,21 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>32</v>
@@ -1530,7 +1532,7 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
@@ -1538,20 +1540,20 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45664</v>
+        <v>45649</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -1673,19 +1675,19 @@
         <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>45683</v>
+        <v>45590</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1697,13 +1699,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1715,21 +1717,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>32</v>
@@ -1743,51 +1743,55 @@
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
+      <c r="AM6" s="2">
+        <v>1</v>
+      </c>
       <c r="AN6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO6" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>1</v>
+      </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45687</v>
+        <v>45602</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
         <v>0</v>
@@ -1823,16 +1827,16 @@
         <v>0</v>
       </c>
       <c r="BP6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1888,7 +1892,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="1">
-        <v>45092</v>
+        <v>45518</v>
       </c>
       <c r="G7" t="s">
         <v>42</v>
@@ -1900,10 +1904,10 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1912,13 +1916,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1930,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -1947,63 +1951,61 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
+      <c r="AH7" s="2">
+        <v>1</v>
+      </c>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45100</v>
+        <v>45526</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="2">
         <v>1</v>
@@ -2048,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2095,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -2107,22 +2109,22 @@
         <v>36</v>
       </c>
       <c r="F8" s="1">
-        <v>45071</v>
+        <v>45641</v>
       </c>
       <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>51</v>
-      </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -2166,11 +2168,9 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -2181,36 +2181,34 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45107</v>
+        <v>45664</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
@@ -2222,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
@@ -2267,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="BR8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="2">
         <v>0</v>
@@ -2326,16 +2324,16 @@
         <v>36</v>
       </c>
       <c r="F9" s="1">
-        <v>45518</v>
+        <v>45631</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>52</v>
@@ -2344,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -2368,31 +2366,29 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
@@ -2400,34 +2396,36 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO9" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45525</v>
+        <v>45666</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
         <v>0</v>
@@ -2439,10 +2437,10 @@
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
@@ -2457,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="BI9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ9" s="2">
         <v>0</v>
@@ -2484,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="BR9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9" s="2">
         <v>0</v>
@@ -2543,19 +2541,19 @@
         <v>36</v>
       </c>
       <c r="F10" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2585,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
@@ -2602,30 +2600,32 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD10" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-      <c r="AH10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45526</v>
+        <v>45107</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2635,10 +2635,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AW10" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2647,25 +2647,25 @@
         <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
         <v>1</v>
       </c>
       <c r="BB10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="2">
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10" s="2">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>36</v>
       </c>
       <c r="F11" s="1">
-        <v>45071</v>
+        <v>45652</v>
       </c>
       <c r="G11" t="s">
         <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2802,28 +2802,28 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>1</v>
+      </c>
       <c r="AC11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -2834,51 +2834,49 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45107</v>
+        <v>45687</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
       </c>
       <c r="BA11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
         <v>0</v>
@@ -2920,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2979,7 +2977,7 @@
         <v>36</v>
       </c>
       <c r="F12" s="1">
-        <v>45092</v>
+        <v>45435</v>
       </c>
       <c r="G12" t="s">
         <v>42</v>
@@ -2991,25 +2989,25 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3021,29 +3019,25 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
@@ -3053,17 +3047,17 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45107</v>
+        <v>45446</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3073,31 +3067,31 @@
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
@@ -3106,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="BG12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH12" s="2">
         <v>0</v>
@@ -3139,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="BR12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12" s="2">
         <v>0</v>
@@ -3198,19 +3192,19 @@
         <v>36</v>
       </c>
       <c r="F13" s="1">
-        <v>45435</v>
+        <v>45518</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3219,19 +3213,19 @@
         <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -3240,17 +3234,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -3268,42 +3264,40 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45446</v>
+        <v>45525</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
@@ -3315,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -3354,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="BR13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="2">
         <v>0</v>
@@ -3401,7 +3395,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -3413,19 +3407,19 @@
         <v>36</v>
       </c>
       <c r="F14" s="1">
-        <v>45641</v>
+        <v>45679</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3455,13 +3449,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3470,9 +3464,7 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s">
         <v>32</v>
       </c>
@@ -3487,15 +3479,17 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45649</v>
+        <v>45687</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3618,7 +3612,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3630,37 +3624,37 @@
         <v>36</v>
       </c>
       <c r="F15" s="1">
-        <v>45623</v>
+        <v>45652</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3672,21 +3666,21 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="U15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
         <v>32</v>
@@ -3702,9 +3696,11 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
@@ -3720,16 +3716,16 @@
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
@@ -3741,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
@@ -3786,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="BR15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT15" s="2">
         <v>0</v>
@@ -3833,7 +3829,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -3845,19 +3841,19 @@
         <v>36</v>
       </c>
       <c r="F16" s="1">
-        <v>45652</v>
+        <v>45092</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -3887,27 +3883,29 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -3927,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45666</v>
+        <v>45107</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4050,7 +4048,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -4062,19 +4060,19 @@
         <v>36</v>
       </c>
       <c r="F17" s="1">
-        <v>45641</v>
+        <v>45092</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4086,13 +4084,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4104,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
@@ -4121,10 +4119,12 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
+      <c r="AE17" s="2">
+        <v>1</v>
+      </c>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
@@ -4134,48 +4134,48 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AO17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45664</v>
+        <v>45100</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD17" s="2">
         <v>1</v>
@@ -4214,16 +4214,16 @@
         <v>0</v>
       </c>
       <c r="BP17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ17" s="2">
         <v>0</v>
       </c>
       <c r="BR17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT17" s="2">
         <v>0</v>
@@ -4235,13 +4235,13 @@
         <v>0</v>
       </c>
       <c r="BW17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="2">
         <v>0</v>
       </c>
       <c r="BY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ17" s="2">
         <v>0</v>
@@ -4279,19 +4279,19 @@
         <v>36</v>
       </c>
       <c r="F18" s="1">
-        <v>45631</v>
+        <v>45641</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -4321,21 +4321,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
         <v>32</v>
@@ -4351,15 +4349,17 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>1</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45666</v>
+        <v>45665</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -4369,10 +4369,10 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AW18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -4381,10 +4381,10 @@
         <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="2">
         <v>0</v>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18" s="2">
         <v>0</v>
@@ -4408,13 +4408,13 @@
         <v>0</v>
       </c>
       <c r="BI18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ18" s="2">
         <v>0</v>
       </c>
       <c r="BK18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL18" s="2">
         <v>0</v>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="BP18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ18" s="2">
         <v>0</v>
@@ -4447,16 +4447,16 @@
         <v>0</v>
       </c>
       <c r="BV18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ18" s="2">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -4494,25 +4494,25 @@
         <v>36</v>
       </c>
       <c r="F19" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
         <v>39</v>
       </c>
-      <c r="H19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>52</v>
-      </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
@@ -4566,15 +4566,17 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO19" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>1</v>
+      </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45526</v>
+        <v>45664</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -4584,10 +4586,10 @@
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AW19" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
@@ -4596,10 +4598,10 @@
         <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="2">
         <v>0</v>
@@ -4611,10 +4613,10 @@
         <v>1</v>
       </c>
       <c r="BE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="2">
         <v>0</v>
@@ -4644,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="BP19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ19" s="2">
         <v>0</v>
@@ -4665,13 +4667,13 @@
         <v>0</v>
       </c>
       <c r="BW19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX19" s="2">
         <v>0</v>
       </c>
       <c r="BY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ19" s="2">
         <v>0</v>
@@ -4712,16 +4714,16 @@
         <v>45641</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -4751,22 +4753,24 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC20" t="s">
         <v>32</v>
       </c>
@@ -4781,7 +4785,7 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
@@ -4795,14 +4799,14 @@
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
         <v>0</v>
@@ -4924,7 +4928,7 @@
         <v>36</v>
       </c>
       <c r="F21" s="1">
-        <v>45641</v>
+        <v>45679</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -4933,13 +4937,13 @@
         <v>42</v>
       </c>
       <c r="I21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>51</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -4948,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -4966,17 +4970,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -4994,48 +5000,46 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO21" s="2">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45665</v>
+        <v>45687</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AW21" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
       </c>
       <c r="BC21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD21" s="2">
         <v>1</v>
@@ -5044,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="BF21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -5059,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="BK21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL21" s="2">
         <v>0</v>
@@ -5074,16 +5078,16 @@
         <v>0</v>
       </c>
       <c r="BP21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ21" s="2">
         <v>0</v>
       </c>
       <c r="BR21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT21" s="2">
         <v>0</v>
@@ -5092,16 +5096,16 @@
         <v>0</v>
       </c>
       <c r="BV21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ21" s="2">
         <v>0</v>
@@ -5127,7 +5131,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -5139,22 +5143,22 @@
         <v>36</v>
       </c>
       <c r="F22" s="1">
-        <v>45071</v>
+        <v>45683</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>51</v>
       </c>
       <c r="K22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
@@ -5163,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -5181,28 +5185,26 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
+      <c r="AA22" s="2">
+        <v>1</v>
+      </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -5213,57 +5215,55 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO22" s="2">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45107</v>
+        <v>45687</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AW22" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="2">
         <v>0</v>
       </c>
       <c r="BA22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG22" s="2">
         <v>0</v>
@@ -5299,10 +5299,10 @@
         <v>0</v>
       </c>
       <c r="BR22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT22" s="2">
         <v>0</v>
@@ -5358,25 +5358,25 @@
         <v>36</v>
       </c>
       <c r="F23" s="1">
-        <v>45590</v>
+        <v>45518</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -5400,10 +5400,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="U23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="s">
         <v>32</v>
@@ -5412,69 +5412,69 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
+      <c r="AA23" s="2">
+        <v>1</v>
+      </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
+      <c r="AG23" s="2">
+        <v>1</v>
+      </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
-      <c r="AM23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO23" s="2">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45602</v>
+        <v>45525</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW23" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="2">
         <v>0</v>
       </c>
       <c r="BA23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE23" s="2">
         <v>0</v>
@@ -5510,16 +5510,16 @@
         <v>0</v>
       </c>
       <c r="BP23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT23" s="2">
         <v>0</v>
@@ -5575,25 +5575,25 @@
         <v>36</v>
       </c>
       <c r="F24" s="1">
-        <v>45631</v>
+        <v>45518</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
@@ -5647,17 +5647,15 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45666</v>
+        <v>45526</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -5691,13 +5689,13 @@
         <v>0</v>
       </c>
       <c r="BD24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG24" s="2">
         <v>0</v>
@@ -5706,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="BI24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ24" s="2">
         <v>0</v>
@@ -5792,22 +5790,22 @@
         <v>36</v>
       </c>
       <c r="F25" s="1">
-        <v>45652</v>
+        <v>45071</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
@@ -5834,28 +5832,28 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD25" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
@@ -5866,34 +5864,36 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO25" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>0</v>
+      </c>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45687</v>
+        <v>45107</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
         <v>0</v>
@@ -5905,10 +5905,10 @@
         <v>0</v>
       </c>
       <c r="BC25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE25" s="2">
         <v>0</v>
@@ -5950,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="BR25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT25" s="2">
         <v>0</v>
@@ -6009,25 +6009,25 @@
         <v>36</v>
       </c>
       <c r="F26" s="1">
-        <v>45652</v>
+        <v>45590</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -6051,13 +6051,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6065,9 +6065,7 @@
         <v>1</v>
       </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
         <v>32</v>
@@ -6083,7 +6081,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
@@ -6091,19 +6089,17 @@
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45688</v>
+        <v>45611</v>
       </c>
       <c r="AS26" s="2">
         <v>0</v>
       </c>
       <c r="AT26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU26" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW26" s="2">
         <v>0</v>
@@ -6190,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="BY26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ26" s="2">
         <v>0</v>
@@ -6228,25 +6224,25 @@
         <v>36</v>
       </c>
       <c r="F27" s="1">
-        <v>45590</v>
+        <v>45652</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -6270,13 +6266,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -6284,7 +6280,9 @@
         <v>1</v>
       </c>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
+      <c r="AA27" s="2">
+        <v>1</v>
+      </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
         <v>32</v>
@@ -6300,7 +6298,7 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
@@ -6308,17 +6306,19 @@
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45611</v>
+        <v>45688</v>
       </c>
       <c r="AS27" s="2">
         <v>0</v>
       </c>
       <c r="AT27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU27" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU27" s="2">
+        <v>1</v>
+      </c>
       <c r="AV27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="2">
         <v>0</v>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="BY27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ27" s="2">
         <v>0</v>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,78 +18,78 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
     <t>602528</t>
   </si>
   <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>602675</t>
+  </si>
+  <si>
+    <t>602677</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
     <t>500706</t>
   </si>
   <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>602520</t>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>602679</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>602524</t>
   </si>
   <si>
     <t>602525</t>
   </si>
   <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
     <t>601522</t>
   </si>
   <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>602529</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>602679</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>601716</t>
+    <t>500911</t>
   </si>
   <si>
     <t>602671</t>
   </si>
   <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>602677</t>
-  </si>
-  <si>
-    <t>602675</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
     <t>602526</t>
   </si>
   <si>
@@ -132,24 +132,24 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>syringe</t>
+  </si>
+  <si>
+    <t>spatula; swab</t>
+  </si>
+  <si>
     <t>cotton</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>spatula; swab</t>
-  </si>
-  <si>
-    <t>syringe</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -162,12 +162,15 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>fentanyl; cocaine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>methamphetamine</t>
   </si>
   <si>
@@ -177,9 +180,6 @@
     <t>fentanyl; xylazine; benzodiazepine</t>
   </si>
   <si>
-    <t>fentanyl; cocaine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -210,16 +210,31 @@
     <t>color</t>
   </si>
   <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>light brown; black</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>white; translucent</t>
   </si>
   <si>
+    <t>red; brown</t>
+  </si>
+  <si>
+    <t>clear; white</t>
+  </si>
+  <si>
     <t>gray; brown</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>white</t>
+    <t>white; tan</t>
+  </si>
+  <si>
+    <t>light brown; gray</t>
   </si>
   <si>
     <t>blue</t>
@@ -228,24 +243,9 @@
     <t>white; brown</t>
   </si>
   <si>
-    <t>white; tan</t>
-  </si>
-  <si>
     <t>clear</t>
   </si>
   <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
-    <t>light brown; gray</t>
-  </si>
-  <si>
-    <t>clear; white</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
     <t>white; clear</t>
   </si>
   <si>
@@ -255,10 +255,16 @@
     <t>texture</t>
   </si>
   <si>
+    <t>chunky; crystals</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
-    <t>chunky; crystals</t>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>liquid</t>
   </si>
   <si>
     <t>crystals</t>
@@ -267,12 +273,6 @@
     <t>crystals; shiny; flaky</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
     <t>powder; dull</t>
   </si>
   <si>
@@ -297,18 +297,18 @@
     <t>weaker</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>more up</t>
+  </si>
+  <si>
     <t>more down</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>unpleasant</t>
   </si>
   <si>
-    <t>more up</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -342,10 +342,10 @@
     <t>overdose</t>
   </si>
   <si>
+    <t>involved in OD</t>
+  </si>
+  <si>
     <t>not overdose related</t>
-  </si>
-  <si>
-    <t>involved in OD</t>
   </si>
   <si>
     <t>od</t>
@@ -617,13 +617,13 @@
         <v>89</v>
       </c>
       <c r="Y1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z1" t="s">
         <v>90</v>
       </c>
       <c r="AA1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB1" t="s">
         <v>91</v>
@@ -811,7 +811,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="1">
-        <v>45623</v>
+        <v>45631</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -856,18 +856,18 @@
         <v>65</v>
       </c>
       <c r="U2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
         <v>80</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>32</v>
@@ -883,7 +883,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
@@ -897,14 +897,14 @@
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX2" s="2">
         <v>1</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="BI2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ2" s="2">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1026,7 +1026,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="1">
-        <v>45071</v>
+        <v>45641</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -1038,10 +1038,10 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1085,11 +1085,9 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -1103,14 +1101,14 @@
         <v>109</v>
       </c>
       <c r="AO3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45107</v>
+        <v>45664</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1120,10 +1118,10 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AW3" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX3" s="2">
         <v>1</v>
@@ -1132,19 +1130,19 @@
         <v>1</v>
       </c>
       <c r="AZ3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3" s="2">
         <v>1</v>
       </c>
       <c r="BB3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="2">
         <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3" s="2">
         <v>0</v>
@@ -1180,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="BP3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ3" s="2">
         <v>0</v>
@@ -1201,13 +1199,13 @@
         <v>0</v>
       </c>
       <c r="BW3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX3" s="2">
         <v>0</v>
       </c>
       <c r="BY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ3" s="2">
         <v>0</v>
@@ -1245,13 +1243,13 @@
         <v>36</v>
       </c>
       <c r="F4" s="1">
-        <v>45631</v>
+        <v>45518</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -1263,13 +1261,13 @@
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -1278,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -1293,15 +1291,15 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>32</v>
@@ -1317,7 +1315,7 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
@@ -1325,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45666</v>
+        <v>45525</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1335,16 +1333,16 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
@@ -1359,13 +1357,13 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1374,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4" s="2">
         <v>0</v>
@@ -1401,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1448,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -1460,7 +1458,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="1">
-        <v>45641</v>
+        <v>45623</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
@@ -1475,22 +1473,22 @@
         <v>51</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1505,18 +1503,18 @@
         <v>68</v>
       </c>
       <c r="U5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>32</v>
@@ -1532,7 +1530,7 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
@@ -1540,26 +1538,26 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45649</v>
+        <v>45666</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW5" s="2">
         <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
@@ -1571,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
         <v>0</v>
@@ -1616,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1675,22 +1673,22 @@
         <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>45590</v>
+        <v>45641</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -1717,13 +1715,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1743,11 +1741,9 @@
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
-      <c r="AM6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AO6" s="2">
         <v>1</v>
@@ -1757,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45602</v>
+        <v>45665</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1767,10 +1763,10 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AW6" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX6" s="2">
         <v>1</v>
@@ -1779,25 +1775,25 @@
         <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
         <v>1</v>
       </c>
       <c r="BB6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="2">
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
         <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1812,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="BK6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL6" s="2">
         <v>0</v>
@@ -1830,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="BQ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR6" s="2">
         <v>1</v>
@@ -1845,16 +1841,16 @@
         <v>0</v>
       </c>
       <c r="BV6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ6" s="2">
         <v>0</v>
@@ -1895,22 +1891,22 @@
         <v>45518</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1934,13 +1930,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1951,22 +1947,20 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
@@ -1984,10 +1978,10 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AW7" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX7" s="2">
         <v>1</v>
@@ -1996,10 +1990,10 @@
         <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
@@ -2011,10 +2005,10 @@
         <v>1</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -2109,19 +2103,19 @@
         <v>36</v>
       </c>
       <c r="F8" s="1">
-        <v>45641</v>
+        <v>45683</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -2133,13 +2127,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2151,21 +2145,21 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
         <v>32</v>
@@ -2181,7 +2175,7 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -2189,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45664</v>
+        <v>45687</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2324,13 +2318,13 @@
         <v>36</v>
       </c>
       <c r="F9" s="1">
-        <v>45631</v>
+        <v>45679</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -2339,7 +2333,7 @@
         <v>52</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -2348,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2366,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2396,36 +2390,34 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45666</v>
+        <v>45687</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
         <v>0</v>
@@ -2437,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
@@ -2455,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="BI9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ9" s="2">
         <v>0</v>
@@ -2482,10 +2474,10 @@
         <v>0</v>
       </c>
       <c r="BR9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9" s="2">
         <v>0</v>
@@ -2529,7 +2521,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -2541,7 +2533,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="1">
-        <v>45071</v>
+        <v>45652</v>
       </c>
       <c r="G10" t="s">
         <v>40</v>
@@ -2550,13 +2542,13 @@
         <v>40</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -2565,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2589,22 +2581,20 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2615,7 +2605,7 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO10" s="2">
         <v>0</v>
@@ -2625,47 +2615,47 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45107</v>
+        <v>45666</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
         <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="2">
         <v>0</v>
@@ -2701,10 +2691,10 @@
         <v>0</v>
       </c>
       <c r="BR10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT10" s="2">
         <v>0</v>
@@ -2748,7 +2738,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2760,19 +2750,19 @@
         <v>36</v>
       </c>
       <c r="F11" s="1">
-        <v>45652</v>
+        <v>45641</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2784,13 +2774,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2802,13 +2792,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2817,9 +2807,7 @@
       <c r="AA11" s="2">
         <v>1</v>
       </c>
-      <c r="AB11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB11" s="2"/>
       <c r="AC11" t="s">
         <v>32</v>
       </c>
@@ -2834,7 +2822,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -2842,20 +2830,20 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45687</v>
+        <v>45649</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX11" s="2">
         <v>0</v>
@@ -2977,34 +2965,34 @@
         <v>36</v>
       </c>
       <c r="F12" s="1">
-        <v>45435</v>
+        <v>45071</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2">
         <v>0</v>
@@ -3019,24 +3007,28 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD12" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -3050,24 +3042,24 @@
         <v>110</v>
       </c>
       <c r="AO12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45446</v>
+        <v>45107</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW12" s="2">
         <v>4</v>
@@ -3079,13 +3071,13 @@
         <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
         <v>1</v>
       </c>
       <c r="BB12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="2">
         <v>0</v>
@@ -3094,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="2">
         <v>0</v>
@@ -3192,31 +3184,31 @@
         <v>36</v>
       </c>
       <c r="F13" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -3225,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -3234,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3251,9 +3243,11 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD13" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -3264,15 +3258,17 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45525</v>
+        <v>45107</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3282,25 +3278,25 @@
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
         <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="2">
         <v>0</v>
@@ -3309,10 +3305,10 @@
         <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -3348,10 +3344,10 @@
         <v>0</v>
       </c>
       <c r="BR13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13" s="2">
         <v>0</v>
@@ -3407,7 +3403,7 @@
         <v>36</v>
       </c>
       <c r="F14" s="1">
-        <v>45679</v>
+        <v>45092</v>
       </c>
       <c r="G14" t="s">
         <v>42</v>
@@ -3416,10 +3412,10 @@
         <v>42</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3449,13 +3445,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3466,10 +3462,12 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
@@ -3479,7 +3477,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO14" s="2">
         <v>0</v>
@@ -3489,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45687</v>
+        <v>45107</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3612,7 +3610,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3624,22 +3622,22 @@
         <v>36</v>
       </c>
       <c r="F15" s="1">
-        <v>45652</v>
+        <v>45071</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -3648,13 +3646,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3666,26 +3664,28 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD15" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -3696,7 +3696,7 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO15" s="2">
         <v>0</v>
@@ -3706,26 +3706,26 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45666</v>
+        <v>45107</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="BR15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" s="2">
         <v>0</v>
@@ -3841,19 +3841,19 @@
         <v>36</v>
       </c>
       <c r="F16" s="1">
-        <v>45092</v>
+        <v>45652</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -3865,13 +3865,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3883,29 +3883,29 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="AA16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>1</v>
+      </c>
       <c r="AC16" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -3915,17 +3915,15 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45107</v>
+        <v>45687</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4060,13 +4058,13 @@
         <v>36</v>
       </c>
       <c r="F17" s="1">
-        <v>45092</v>
+        <v>45518</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -4075,22 +4073,22 @@
         <v>51</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4102,31 +4100,31 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="2">
+        <v>1</v>
+      </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
+      <c r="AG17" s="2">
+        <v>1</v>
+      </c>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
@@ -4134,17 +4132,15 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45100</v>
+        <v>45525</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -4279,19 +4275,19 @@
         <v>36</v>
       </c>
       <c r="F18" s="1">
-        <v>45641</v>
+        <v>45631</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -4321,17 +4317,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
@@ -4352,14 +4350,14 @@
         <v>110</v>
       </c>
       <c r="AO18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45665</v>
+        <v>45666</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -4369,10 +4367,10 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AW18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -4381,10 +4379,10 @@
         <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="2">
         <v>0</v>
@@ -4393,13 +4391,13 @@
         <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="2">
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="2">
         <v>0</v>
@@ -4408,13 +4406,13 @@
         <v>0</v>
       </c>
       <c r="BI18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ18" s="2">
         <v>0</v>
       </c>
       <c r="BK18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL18" s="2">
         <v>0</v>
@@ -4429,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="BP18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ18" s="2">
         <v>0</v>
@@ -4447,16 +4445,16 @@
         <v>0</v>
       </c>
       <c r="BV18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ18" s="2">
         <v>0</v>
@@ -4497,16 +4495,16 @@
         <v>45641</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -4518,13 +4516,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4542,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4551,7 +4549,9 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
+      <c r="AB19" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC19" t="s">
         <v>32</v>
       </c>
@@ -4566,48 +4566,46 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45664</v>
+        <v>45649</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AW19" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="2">
         <v>0</v>
       </c>
       <c r="BC19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD19" s="2">
         <v>1</v>
@@ -4646,16 +4644,16 @@
         <v>0</v>
       </c>
       <c r="BP19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ19" s="2">
         <v>0</v>
       </c>
       <c r="BR19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT19" s="2">
         <v>0</v>
@@ -4667,13 +4665,13 @@
         <v>0</v>
       </c>
       <c r="BW19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="2">
         <v>0</v>
       </c>
       <c r="BY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ19" s="2">
         <v>0</v>
@@ -4699,7 +4697,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -4711,19 +4709,19 @@
         <v>36</v>
       </c>
       <c r="F20" s="1">
-        <v>45641</v>
+        <v>45590</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -4735,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4756,21 +4754,17 @@
         <v>74</v>
       </c>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s">
         <v>32</v>
       </c>
@@ -4783,51 +4777,55 @@
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
+      <c r="AM20" s="2">
+        <v>1</v>
+      </c>
       <c r="AN20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>1</v>
+      </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45649</v>
+        <v>45602</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
         <v>0</v>
       </c>
       <c r="BA20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="2">
         <v>0</v>
@@ -4863,16 +4861,16 @@
         <v>0</v>
       </c>
       <c r="BP20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT20" s="2">
         <v>0</v>
@@ -4916,7 +4914,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -4928,19 +4926,19 @@
         <v>36</v>
       </c>
       <c r="F21" s="1">
-        <v>45679</v>
+        <v>45641</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -4952,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -4970,13 +4968,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -5000,7 +4998,7 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
@@ -5008,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45687</v>
+        <v>45664</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5131,7 +5129,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -5143,37 +5141,37 @@
         <v>36</v>
       </c>
       <c r="F22" s="1">
-        <v>45683</v>
+        <v>45435</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -5185,21 +5183,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
         <v>32</v>
@@ -5215,15 +5211,17 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO22" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>1</v>
+      </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45687</v>
+        <v>45446</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5233,31 +5231,31 @@
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW22" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
       </c>
       <c r="BC22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE22" s="2">
         <v>0</v>
@@ -5266,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="BG22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH22" s="2">
         <v>0</v>
@@ -5299,10 +5297,10 @@
         <v>0</v>
       </c>
       <c r="BR22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT22" s="2">
         <v>0</v>
@@ -5361,10 +5359,10 @@
         <v>45518</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
@@ -5376,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -5400,39 +5398,39 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
+      <c r="Y23" s="2">
+        <v>1</v>
+      </c>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
-      <c r="AG23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2">
+        <v>1</v>
+      </c>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
@@ -5440,38 +5438,38 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45525</v>
+        <v>45526</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AW23" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23" s="2">
         <v>0</v>
       </c>
       <c r="BC23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="2">
         <v>1</v>
@@ -5516,10 +5514,10 @@
         <v>0</v>
       </c>
       <c r="BR23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT23" s="2">
         <v>0</v>
@@ -5575,7 +5573,7 @@
         <v>36</v>
       </c>
       <c r="F24" s="1">
-        <v>45518</v>
+        <v>45092</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -5584,28 +5582,28 @@
         <v>42</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="2">
         <v>0</v>
@@ -5623,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -5634,10 +5632,12 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
+      <c r="AE24" s="2">
+        <v>1</v>
+      </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
@@ -5647,34 +5647,36 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO24" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>0</v>
+      </c>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45526</v>
+        <v>45100</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="2">
         <v>0</v>
@@ -5686,16 +5688,16 @@
         <v>0</v>
       </c>
       <c r="BC24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD24" s="2">
         <v>1</v>
       </c>
       <c r="BE24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG24" s="2">
         <v>0</v>
@@ -5731,10 +5733,10 @@
         <v>0</v>
       </c>
       <c r="BR24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT24" s="2">
         <v>0</v>
@@ -5790,22 +5792,22 @@
         <v>36</v>
       </c>
       <c r="F25" s="1">
-        <v>45071</v>
+        <v>45679</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
@@ -5814,13 +5816,13 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -5832,13 +5834,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5849,11 +5851,9 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
@@ -5864,7 +5864,7 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO25" s="2">
         <v>0</v>
@@ -5874,26 +5874,26 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45107</v>
+        <v>45687</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="2">
         <v>0</v>
@@ -5905,10 +5905,10 @@
         <v>0</v>
       </c>
       <c r="BC25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE25" s="2">
         <v>0</v>
@@ -5950,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="BR25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT25" s="2">
         <v>0</v>
@@ -6012,16 +6012,16 @@
         <v>45590</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -6051,13 +6051,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6081,7 +6081,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
@@ -6227,16 +6227,16 @@
         <v>45652</v>
       </c>
       <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
         <v>41</v>
-      </c>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>39</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -6298,7 +6298,7 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,78 +18,78 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602679</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
     <t>602527</t>
   </si>
   <si>
+    <t>602677</t>
+  </si>
+  <si>
+    <t>602675</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>602671</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
     <t>602521</t>
   </si>
   <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>602675</t>
-  </si>
-  <si>
-    <t>602677</t>
-  </si>
-  <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>602679</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>602529</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
     <t>601522</t>
   </si>
   <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>602671</t>
-  </si>
-  <si>
     <t>602526</t>
   </si>
   <si>
@@ -132,21 +132,21 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>spatula; swab</t>
+  </si>
+  <si>
+    <t>syringe</t>
+  </si>
+  <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>syringe</t>
-  </si>
-  <si>
-    <t>spatula; swab</t>
-  </si>
-  <si>
     <t>cotton</t>
   </si>
   <si>
@@ -162,24 +162,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>heroin; unknown</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
+    <t>fentanyl; xylazine; benzodiazepine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>fentanyl; cocaine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>heroin; unknown</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine; benzodiazepine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -210,42 +210,42 @@
     <t>color</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
+    <t>white; tan</t>
+  </si>
+  <si>
     <t>brown</t>
   </si>
   <si>
+    <t>clear; white</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>white; translucent</t>
+  </si>
+  <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
     <t>light brown; black</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>white; translucent</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>clear; white</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
-    <t>white; tan</t>
-  </si>
-  <si>
-    <t>light brown; gray</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
     <t>white; brown</t>
   </si>
   <si>
-    <t>clear</t>
-  </si>
-  <si>
     <t>white; clear</t>
   </si>
   <si>
@@ -255,27 +255,27 @@
     <t>texture</t>
   </si>
   <si>
+    <t>crystals; shiny; flaky</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
     <t>chunky; crystals</t>
   </si>
   <si>
-    <t>powder</t>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>liquid</t>
   </si>
   <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>crystals; shiny; flaky</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
     <t>crystals; powder</t>
   </si>
   <si>
@@ -294,21 +294,21 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>more up</t>
+  </si>
+  <si>
     <t>weaker</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>more up</t>
-  </si>
-  <si>
     <t>more down</t>
   </si>
   <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -342,10 +342,10 @@
     <t>overdose</t>
   </si>
   <si>
+    <t>not overdose related</t>
+  </si>
+  <si>
     <t>involved in OD</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
   </si>
   <si>
     <t>od</t>
@@ -811,22 +811,22 @@
         <v>36</v>
       </c>
       <c r="F2" s="1">
-        <v>45631</v>
+        <v>45652</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -868,7 +868,9 @@
       <c r="AA2" s="2">
         <v>1</v>
       </c>
-      <c r="AB2" s="2"/>
+      <c r="AB2" s="2">
+        <v>1</v>
+      </c>
       <c r="AC2" t="s">
         <v>32</v>
       </c>
@@ -883,7 +885,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
@@ -891,26 +893,26 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45666</v>
+        <v>45687</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
         <v>0</v>
@@ -922,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
         <v>1</v>
@@ -940,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="BI2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2" s="2">
         <v>0</v>
@@ -967,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -1014,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1026,7 +1028,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="1">
-        <v>45641</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -1038,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -1050,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -1085,10 +1087,12 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1101,45 +1105,45 @@
         <v>109</v>
       </c>
       <c r="AO3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45664</v>
+        <v>45100</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="2">
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="2">
         <v>1</v>
@@ -1178,16 +1182,16 @@
         <v>0</v>
       </c>
       <c r="BP3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ3" s="2">
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1199,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="BW3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="2">
         <v>0</v>
       </c>
       <c r="BY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ3" s="2">
         <v>0</v>
@@ -1231,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -1243,25 +1247,25 @@
         <v>36</v>
       </c>
       <c r="F4" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -1273,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -1300,7 +1304,9 @@
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="AB4" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC4" t="s">
         <v>32</v>
       </c>
@@ -1315,7 +1321,7 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
@@ -1323,17 +1329,17 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45525</v>
+        <v>45649</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="2">
         <v>1</v>
@@ -1354,16 +1360,16 @@
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1458,25 +1464,25 @@
         <v>36</v>
       </c>
       <c r="F5" s="1">
-        <v>45623</v>
+        <v>45631</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -1503,7 +1509,7 @@
         <v>68</v>
       </c>
       <c r="U5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="s">
         <v>81</v>
@@ -1530,9 +1536,11 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
@@ -1544,14 +1552,14 @@
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1587,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="BI5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ5" s="2">
         <v>0</v>
@@ -1673,13 +1681,13 @@
         <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>45641</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1688,7 +1696,7 @@
         <v>49</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -1697,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1721,19 +1729,23 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1746,45 +1758,45 @@
         <v>109</v>
       </c>
       <c r="AO6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45665</v>
+        <v>45107</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="2">
         <v>1</v>
@@ -1793,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1808,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="BK6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="2">
         <v>0</v>
@@ -1823,16 +1835,16 @@
         <v>0</v>
       </c>
       <c r="BP6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ6" s="2">
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1841,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="BV6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ6" s="2">
         <v>0</v>
@@ -1888,13 +1900,13 @@
         <v>36</v>
       </c>
       <c r="F7" s="1">
-        <v>45518</v>
+        <v>45631</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -1906,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1936,15 +1948,15 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
         <v>32</v>
@@ -1960,7 +1972,7 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
@@ -1968,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45526</v>
+        <v>45666</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1978,7 +1990,7 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW7" s="2">
         <v>3</v>
@@ -2005,10 +2017,10 @@
         <v>1</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -2017,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="BI7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ7" s="2">
         <v>0</v>
@@ -2091,7 +2103,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -2103,19 +2115,19 @@
         <v>36</v>
       </c>
       <c r="F8" s="1">
-        <v>45683</v>
+        <v>45679</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -2145,21 +2157,21 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
         <v>32</v>
@@ -2175,7 +2187,7 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -2306,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -2318,19 +2330,19 @@
         <v>36</v>
       </c>
       <c r="F9" s="1">
-        <v>45679</v>
+        <v>45683</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2360,21 +2372,21 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
         <v>32</v>
@@ -2390,7 +2402,7 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
@@ -2521,7 +2533,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -2533,19 +2545,19 @@
         <v>36</v>
       </c>
       <c r="F10" s="1">
-        <v>45652</v>
+        <v>45590</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -2557,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2575,21 +2587,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
         <v>32</v>
@@ -2603,53 +2613,55 @@
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
+      <c r="AM10" s="2">
+        <v>1</v>
+      </c>
       <c r="AN10" t="s">
         <v>110</v>
       </c>
       <c r="AO10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45666</v>
+        <v>45602</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
         <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
         <v>0</v>
@@ -2685,16 +2697,16 @@
         <v>0</v>
       </c>
       <c r="BP10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="2">
         <v>0</v>
@@ -2750,19 +2762,19 @@
         <v>36</v>
       </c>
       <c r="F11" s="1">
-        <v>45641</v>
+        <v>45652</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2792,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -2822,28 +2834,30 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45649</v>
+        <v>45666</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
         <v>0</v>
@@ -2965,34 +2979,34 @@
         <v>36</v>
       </c>
       <c r="F12" s="1">
-        <v>45071</v>
+        <v>45435</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2">
         <v>0</v>
@@ -3007,28 +3021,24 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -3042,24 +3052,24 @@
         <v>110</v>
       </c>
       <c r="AO12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45107</v>
+        <v>45446</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AW12" s="2">
         <v>4</v>
@@ -3071,13 +3081,13 @@
         <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
         <v>1</v>
       </c>
       <c r="BB12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="2">
         <v>0</v>
@@ -3086,13 +3096,13 @@
         <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH12" s="2">
         <v>0</v>
@@ -3184,25 +3194,25 @@
         <v>36</v>
       </c>
       <c r="F13" s="1">
-        <v>45071</v>
+        <v>45623</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -3226,10 +3236,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="s">
         <v>81</v>
@@ -3243,11 +3253,9 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -3258,30 +3266,28 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45107</v>
+        <v>45666</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW13" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX13" s="2">
         <v>1</v>
@@ -3293,10 +3299,10 @@
         <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="2">
         <v>0</v>
@@ -3391,7 +3397,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -3403,20 +3409,20 @@
         <v>36</v>
       </c>
       <c r="F14" s="1">
-        <v>45092</v>
+        <v>45641</v>
       </c>
       <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>42</v>
       </c>
-      <c r="H14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>52</v>
-      </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
@@ -3427,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3445,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
@@ -3462,12 +3468,10 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
@@ -3477,17 +3481,15 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45107</v>
+        <v>45664</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3622,25 +3624,25 @@
         <v>36</v>
       </c>
       <c r="F15" s="1">
-        <v>45071</v>
+        <v>45518</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3664,31 +3666,31 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>-1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
+      <c r="AG15" s="2">
+        <v>1</v>
+      </c>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
@@ -3696,36 +3698,34 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45107</v>
+        <v>45525</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="BR15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT15" s="2">
         <v>0</v>
@@ -3841,22 +3841,22 @@
         <v>36</v>
       </c>
       <c r="F16" s="1">
-        <v>45652</v>
+        <v>45071</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -3883,28 +3883,28 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD16" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -3915,49 +3915,51 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO16" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0</v>
+      </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45687</v>
+        <v>45107</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
         <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="2">
         <v>0</v>
@@ -3999,10 +4001,10 @@
         <v>0</v>
       </c>
       <c r="BR16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT16" s="2">
         <v>0</v>
@@ -4058,13 +4060,13 @@
         <v>36</v>
       </c>
       <c r="F17" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -4076,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -4100,31 +4102,27 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
-      <c r="AG17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
@@ -4132,46 +4130,48 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO17" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>1</v>
+      </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45525</v>
+        <v>45665</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AW17" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="2">
         <v>1</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="BF17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG17" s="2">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="BK17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL17" s="2">
         <v>0</v>
@@ -4210,16 +4210,16 @@
         <v>0</v>
       </c>
       <c r="BP17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ17" s="2">
         <v>0</v>
       </c>
       <c r="BR17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT17" s="2">
         <v>0</v>
@@ -4228,16 +4228,16 @@
         <v>0</v>
       </c>
       <c r="BV17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ17" s="2">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>36</v>
       </c>
       <c r="F18" s="1">
-        <v>45631</v>
+        <v>45071</v>
       </c>
       <c r="G18" t="s">
         <v>41</v>
@@ -4284,10 +4284,10 @@
         <v>41</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
@@ -4334,9 +4334,11 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD18" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
@@ -4347,7 +4349,7 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AO18" s="2">
         <v>0</v>
@@ -4357,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45666</v>
+        <v>45107</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -4367,10 +4369,10 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -4406,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="BI18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ18" s="2">
         <v>0</v>
@@ -4495,16 +4497,16 @@
         <v>45641</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -4534,24 +4536,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s">
         <v>32</v>
       </c>
@@ -4566,7 +4566,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -4580,14 +4580,14 @@
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX19" s="2">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>36</v>
       </c>
       <c r="F20" s="1">
-        <v>45590</v>
+        <v>45679</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -4718,10 +4718,10 @@
         <v>41</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -4733,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4751,17 +4751,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="U20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
@@ -4777,55 +4779,53 @@
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
-      <c r="AM20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM20" s="2"/>
       <c r="AN20" t="s">
         <v>109</v>
       </c>
       <c r="AO20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45602</v>
+        <v>45687</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW20" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
         <v>0</v>
       </c>
       <c r="BA20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" s="2">
         <v>0</v>
@@ -4861,16 +4861,16 @@
         <v>0</v>
       </c>
       <c r="BP20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="2">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -4926,22 +4926,22 @@
         <v>36</v>
       </c>
       <c r="F21" s="1">
-        <v>45641</v>
+        <v>45071</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
@@ -4985,9 +4985,11 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD21" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -4998,55 +5000,57 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO21" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>0</v>
+      </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45664</v>
+        <v>45107</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW21" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="2">
         <v>0</v>
       </c>
       <c r="BA21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -5082,10 +5086,10 @@
         <v>0</v>
       </c>
       <c r="BR21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT21" s="2">
         <v>0</v>
@@ -5141,19 +5145,19 @@
         <v>36</v>
       </c>
       <c r="F22" s="1">
-        <v>45435</v>
+        <v>45518</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5162,13 +5166,13 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2">
         <v>0</v>
@@ -5183,17 +5187,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
@@ -5211,30 +5217,28 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO22" s="2">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45446</v>
+        <v>45526</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX22" s="2">
         <v>1</v>
@@ -5243,10 +5247,10 @@
         <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
@@ -5255,16 +5259,16 @@
         <v>0</v>
       </c>
       <c r="BD22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH22" s="2">
         <v>0</v>
@@ -5359,28 +5363,28 @@
         <v>45518</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
@@ -5389,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
@@ -5398,13 +5402,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -5415,22 +5419,20 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AH23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
@@ -5438,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45526</v>
+        <v>45525</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
@@ -5448,22 +5450,22 @@
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AW23" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="2">
         <v>0</v>
@@ -5472,13 +5474,13 @@
         <v>0</v>
       </c>
       <c r="BD23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG23" s="2">
         <v>0</v>
@@ -5514,10 +5516,10 @@
         <v>0</v>
       </c>
       <c r="BR23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT23" s="2">
         <v>0</v>
@@ -5561,7 +5563,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
@@ -5573,20 +5575,20 @@
         <v>36</v>
       </c>
       <c r="F24" s="1">
-        <v>45092</v>
+        <v>45641</v>
       </c>
       <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
         <v>42</v>
       </c>
-      <c r="H24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>52</v>
-      </c>
       <c r="K24" s="2">
         <v>0</v>
       </c>
@@ -5597,13 +5599,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2">
         <v>0</v>
@@ -5615,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
@@ -5632,12 +5634,10 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="AD24" s="2"/>
-      <c r="AE24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
@@ -5650,45 +5650,45 @@
         <v>110</v>
       </c>
       <c r="AO24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45100</v>
+        <v>45664</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AW24" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="2">
         <v>0</v>
       </c>
       <c r="BC24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="2">
         <v>1</v>
@@ -5727,16 +5727,16 @@
         <v>0</v>
       </c>
       <c r="BP24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ24" s="2">
         <v>0</v>
       </c>
       <c r="BR24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT24" s="2">
         <v>0</v>
@@ -5748,13 +5748,13 @@
         <v>0</v>
       </c>
       <c r="BW24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX24" s="2">
         <v>0</v>
       </c>
       <c r="BY24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ24" s="2">
         <v>0</v>
@@ -5792,22 +5792,22 @@
         <v>36</v>
       </c>
       <c r="F25" s="1">
-        <v>45679</v>
+        <v>45518</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
@@ -5816,13 +5816,13 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
@@ -5851,61 +5851,61 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
+      <c r="AH25" s="2">
+        <v>1</v>
+      </c>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO25" s="2">
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45687</v>
+        <v>45526</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AW25" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
       </c>
       <c r="BC25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="2">
         <v>1</v>
@@ -5950,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="BR25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT25" s="2">
         <v>0</v>
@@ -6012,16 +6012,16 @@
         <v>45590</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
@@ -6081,7 +6081,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
@@ -6227,16 +6227,16 @@
         <v>45652</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -6298,7 +6298,7 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -21,81 +21,81 @@
     <t>602679</t>
   </si>
   <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>602675</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
     <t>500911</t>
   </si>
   <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>602671</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
+    <t>602677</t>
+  </si>
+  <si>
     <t>602524</t>
   </si>
   <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
     <t>602529</t>
   </si>
   <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>602677</t>
-  </si>
-  <si>
-    <t>602675</t>
+    <t>500706</t>
   </si>
   <si>
     <t>602525</t>
   </si>
   <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
     <t>601646</t>
   </si>
   <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>602671</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
-    <t>601522</t>
+    <t>602678</t>
   </si>
   <si>
     <t>602526</t>
   </si>
   <si>
-    <t>602678</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -135,15 +135,15 @@
     <t>spatula; swab</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>syringe</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>spatula</t>
   </si>
   <si>
@@ -162,24 +162,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>fentanyl; cocaine</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine; benzodiazepine</t>
+  </si>
+  <si>
     <t>heroin; unknown</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine; benzodiazepine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; cocaine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -213,6 +213,24 @@
     <t>white</t>
   </si>
   <si>
+    <t>red; brown</t>
+  </si>
+  <si>
+    <t>white; brown</t>
+  </si>
+  <si>
+    <t>white; translucent</t>
+  </si>
+  <si>
+    <t>light brown; black</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>clear; white</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
@@ -222,30 +240,12 @@
     <t>white; tan</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>clear; white</t>
+    <t>gray; brown</t>
   </si>
   <si>
     <t>blue</t>
   </si>
   <si>
-    <t>white; translucent</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
-    <t>white; brown</t>
-  </si>
-  <si>
     <t>white; clear</t>
   </si>
   <si>
@@ -261,21 +261,21 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>chunky; crystals</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>powder; dull</t>
   </si>
   <si>
-    <t>chunky; crystals</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>crystals; powder</t>
   </si>
   <si>
@@ -294,6 +294,12 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>more down</t>
+  </si>
+  <si>
     <t>unpleasant</t>
   </si>
   <si>
@@ -301,12 +307,6 @@
   </si>
   <si>
     <t>more up</t>
-  </si>
-  <si>
-    <t>weaker</t>
-  </si>
-  <si>
-    <t>more down</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -623,7 +623,7 @@
         <v>90</v>
       </c>
       <c r="AA1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB1" t="s">
         <v>91</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -885,7 +885,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
@@ -1028,7 +1028,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="1">
-        <v>45092</v>
+        <v>45071</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -1043,7 +1043,7 @@
         <v>49</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -1052,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -1089,10 +1089,10 @@
       <c r="AC3" t="s">
         <v>93</v>
       </c>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1112,26 +1112,26 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
@@ -1143,10 +1143,10 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="2">
         <v>0</v>
@@ -1188,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -1247,22 +1247,22 @@
         <v>36</v>
       </c>
       <c r="F4" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1304,24 +1304,24 @@
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+      <c r="AH4" s="2">
+        <v>1</v>
+      </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
@@ -1329,38 +1329,38 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45649</v>
+        <v>45526</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="2">
         <v>1</v>
@@ -1405,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1464,13 +1464,13 @@
         <v>36</v>
       </c>
       <c r="F5" s="1">
-        <v>45631</v>
+        <v>45623</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>68</v>
       </c>
       <c r="U5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="s">
         <v>81</v>
@@ -1536,11 +1536,9 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
@@ -1552,14 +1550,14 @@
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1595,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="BI5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ5" s="2">
         <v>0</v>
@@ -1669,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -1681,7 +1679,7 @@
         <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>45092</v>
+        <v>45641</v>
       </c>
       <c r="G6" t="s">
         <v>40</v>
@@ -1693,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1705,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1723,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -1740,12 +1738,10 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1755,48 +1751,48 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45107</v>
+        <v>45664</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="2">
         <v>1</v>
@@ -1835,16 +1831,16 @@
         <v>0</v>
       </c>
       <c r="BP6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ6" s="2">
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1856,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="BW6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX6" s="2">
         <v>0</v>
       </c>
       <c r="BY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ6" s="2">
         <v>0</v>
@@ -1888,7 +1884,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -1900,13 +1896,13 @@
         <v>36</v>
       </c>
       <c r="F7" s="1">
-        <v>45631</v>
+        <v>45652</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -1915,7 +1911,7 @@
         <v>51</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1924,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1942,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1972,9 +1968,11 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
@@ -1986,20 +1984,20 @@
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
@@ -2011,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="2">
         <v>1</v>
@@ -2029,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="BI7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ7" s="2">
         <v>0</v>
@@ -2056,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2115,37 +2113,37 @@
         <v>36</v>
       </c>
       <c r="F8" s="1">
-        <v>45679</v>
+        <v>45518</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2157,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2187,7 +2185,7 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -2195,26 +2193,26 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45687</v>
+        <v>45526</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
@@ -2226,16 +2224,16 @@
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="2">
         <v>1</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2271,10 +2269,10 @@
         <v>0</v>
       </c>
       <c r="BR8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
         <v>0</v>
@@ -2318,7 +2316,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -2330,22 +2328,22 @@
         <v>36</v>
       </c>
       <c r="F9" s="1">
-        <v>45683</v>
+        <v>45641</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>49</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -2354,13 +2352,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2378,15 +2376,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
         <v>32</v>
@@ -2402,46 +2398,48 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO9" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>1</v>
+      </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45687</v>
+        <v>45665</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="2">
         <v>1</v>
@@ -2450,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2465,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="BK9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL9" s="2">
         <v>0</v>
@@ -2480,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="BP9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ9" s="2">
         <v>0</v>
       </c>
       <c r="BR9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9" s="2">
         <v>0</v>
@@ -2498,16 +2496,16 @@
         <v>0</v>
       </c>
       <c r="BV9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ9" s="2">
         <v>0</v>
@@ -2533,7 +2531,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -2545,19 +2543,19 @@
         <v>36</v>
       </c>
       <c r="F10" s="1">
-        <v>45590</v>
+        <v>45683</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -2569,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2590,16 +2588,18 @@
         <v>71</v>
       </c>
       <c r="U10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
         <v>32</v>
@@ -2613,55 +2613,51 @@
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
-      <c r="AM10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45602</v>
+        <v>45687</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
         <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
         <v>0</v>
@@ -2697,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="BP10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT10" s="2">
         <v>0</v>
@@ -2750,7 +2746,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2762,13 +2758,13 @@
         <v>36</v>
       </c>
       <c r="F11" s="1">
-        <v>45652</v>
+        <v>45631</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -2777,7 +2773,7 @@
         <v>49</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2786,13 +2782,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2804,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -2834,11 +2830,9 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
@@ -2850,20 +2844,20 @@
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
@@ -2875,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="2">
         <v>1</v>
@@ -2893,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="BI11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ11" s="2">
         <v>0</v>
@@ -2920,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2979,34 +2973,34 @@
         <v>36</v>
       </c>
       <c r="F12" s="1">
-        <v>45435</v>
+        <v>45071</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2">
         <v>0</v>
@@ -3021,24 +3015,28 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD12" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -3049,27 +3047,27 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AO12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45446</v>
+        <v>45107</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW12" s="2">
         <v>4</v>
@@ -3081,13 +3079,13 @@
         <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
         <v>1</v>
       </c>
       <c r="BB12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="2">
         <v>0</v>
@@ -3096,13 +3094,13 @@
         <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="2">
         <v>0</v>
@@ -3194,7 +3192,7 @@
         <v>36</v>
       </c>
       <c r="F13" s="1">
-        <v>45623</v>
+        <v>45092</v>
       </c>
       <c r="G13" t="s">
         <v>42</v>
@@ -3203,28 +3201,28 @@
         <v>42</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3239,7 +3237,7 @@
         <v>72</v>
       </c>
       <c r="U13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="s">
         <v>81</v>
@@ -3253,10 +3251,12 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -3266,15 +3266,17 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45666</v>
+        <v>45100</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3284,16 +3286,16 @@
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
         <v>0</v>
@@ -3305,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
         <v>0</v>
@@ -3350,10 +3352,10 @@
         <v>0</v>
       </c>
       <c r="BR13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="2">
         <v>0</v>
@@ -3412,16 +3414,16 @@
         <v>45641</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3433,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3457,15 +3459,15 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
         <v>32</v>
@@ -3481,7 +3483,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -3489,20 +3491,20 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45664</v>
+        <v>45649</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14" s="2">
         <v>0</v>
@@ -3612,7 +3614,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3624,25 +3626,25 @@
         <v>36</v>
       </c>
       <c r="F15" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3672,25 +3674,23 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
@@ -3698,7 +3698,7 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45525</v>
+        <v>45664</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3841,22 +3841,22 @@
         <v>36</v>
       </c>
       <c r="F16" s="1">
-        <v>45071</v>
+        <v>45679</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>51</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -3865,13 +3865,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
@@ -3900,11 +3900,9 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -3925,41 +3923,41 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45107</v>
+        <v>45687</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
         <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16" s="2">
         <v>0</v>
@@ -4001,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="BR16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT16" s="2">
         <v>0</v>
@@ -4060,31 +4058,31 @@
         <v>36</v>
       </c>
       <c r="F17" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
@@ -4093,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="2">
         <v>0</v>
@@ -4102,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
@@ -4112,7 +4110,9 @@
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -4130,17 +4130,15 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45665</v>
+        <v>45525</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -4150,22 +4148,22 @@
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AW17" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
@@ -4174,10 +4172,10 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF17" s="2">
         <v>1</v>
@@ -4195,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="BK17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL17" s="2">
         <v>0</v>
@@ -4210,16 +4208,16 @@
         <v>0</v>
       </c>
       <c r="BP17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ17" s="2">
         <v>0</v>
       </c>
       <c r="BR17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT17" s="2">
         <v>0</v>
@@ -4228,16 +4226,16 @@
         <v>0</v>
       </c>
       <c r="BV17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ17" s="2">
         <v>0</v>
@@ -4275,22 +4273,22 @@
         <v>36</v>
       </c>
       <c r="F18" s="1">
-        <v>45071</v>
+        <v>45679</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>51</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -4299,13 +4297,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -4317,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
@@ -4334,11 +4332,9 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
@@ -4349,36 +4345,34 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45107</v>
+        <v>45687</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="2">
         <v>0</v>
@@ -4390,10 +4384,10 @@
         <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE18" s="2">
         <v>0</v>
@@ -4435,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="BR18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT18" s="2">
         <v>0</v>
@@ -4497,16 +4491,16 @@
         <v>45641</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -4536,22 +4530,24 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC19" t="s">
         <v>32</v>
       </c>
@@ -4566,7 +4562,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -4580,14 +4576,14 @@
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
         <v>0</v>
@@ -4709,19 +4705,19 @@
         <v>36</v>
       </c>
       <c r="F20" s="1">
-        <v>45679</v>
+        <v>45092</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -4768,10 +4764,12 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
@@ -4791,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45687</v>
+        <v>45107</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4926,34 +4924,34 @@
         <v>36</v>
       </c>
       <c r="F21" s="1">
-        <v>45071</v>
+        <v>45435</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="2">
         <v>0</v>
@@ -4968,28 +4966,24 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -5000,27 +4994,27 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45107</v>
+        <v>45446</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AW21" s="2">
         <v>4</v>
@@ -5032,13 +5026,13 @@
         <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="2">
         <v>1</v>
       </c>
       <c r="BB21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC21" s="2">
         <v>0</v>
@@ -5047,13 +5041,13 @@
         <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH21" s="2">
         <v>0</v>
@@ -5145,7 +5139,7 @@
         <v>36</v>
       </c>
       <c r="F22" s="1">
-        <v>45518</v>
+        <v>45631</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -5157,13 +5151,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -5217,15 +5211,17 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO22" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>0</v>
+      </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45526</v>
+        <v>45666</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5259,13 +5255,13 @@
         <v>0</v>
       </c>
       <c r="BD22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG22" s="2">
         <v>0</v>
@@ -5274,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="BI22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ22" s="2">
         <v>0</v>
@@ -5360,31 +5356,31 @@
         <v>36</v>
       </c>
       <c r="F23" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
@@ -5393,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
@@ -5402,13 +5398,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -5419,9 +5415,11 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD23" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
@@ -5432,15 +5430,17 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO23" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>0</v>
+      </c>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45525</v>
+        <v>45107</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
@@ -5450,25 +5450,25 @@
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW23" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="2">
         <v>0</v>
       </c>
       <c r="BA23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC23" s="2">
         <v>0</v>
@@ -5477,10 +5477,10 @@
         <v>0</v>
       </c>
       <c r="BE23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG23" s="2">
         <v>0</v>
@@ -5516,10 +5516,10 @@
         <v>0</v>
       </c>
       <c r="BR23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT23" s="2">
         <v>0</v>
@@ -5563,7 +5563,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
@@ -5575,7 +5575,7 @@
         <v>36</v>
       </c>
       <c r="F24" s="1">
-        <v>45641</v>
+        <v>45590</v>
       </c>
       <c r="G24" t="s">
         <v>41</v>
@@ -5587,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -5617,19 +5617,17 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -5645,7 +5643,9 @@
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
-      <c r="AM24" s="2"/>
+      <c r="AM24" s="2">
+        <v>1</v>
+      </c>
       <c r="AN24" t="s">
         <v>110</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45664</v>
+        <v>45602</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -5667,10 +5667,10 @@
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AW24" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX24" s="2">
         <v>1</v>
@@ -5679,19 +5679,19 @@
         <v>1</v>
       </c>
       <c r="AZ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="2">
         <v>1</v>
       </c>
       <c r="BB24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC24" s="2">
         <v>0</v>
       </c>
       <c r="BD24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE24" s="2">
         <v>0</v>
@@ -5730,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="BQ24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR24" s="2">
         <v>1</v>
@@ -5748,13 +5748,13 @@
         <v>0</v>
       </c>
       <c r="BW24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="2">
         <v>0</v>
       </c>
       <c r="BY24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ24" s="2">
         <v>0</v>
@@ -5795,22 +5795,22 @@
         <v>45518</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
@@ -5834,21 +5834,21 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
+      <c r="AA25" s="2">
+        <v>1</v>
+      </c>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
         <v>97</v>
@@ -5856,17 +5856,17 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
@@ -5874,38 +5874,38 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45526</v>
+        <v>45525</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AW25" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
       </c>
       <c r="BC25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD25" s="2">
         <v>1</v>
@@ -5950,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="BR25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT25" s="2">
         <v>0</v>
@@ -6009,25 +6009,25 @@
         <v>36</v>
       </c>
       <c r="F26" s="1">
-        <v>45590</v>
+        <v>45652</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -6051,13 +6051,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6065,7 +6065,9 @@
         <v>1</v>
       </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
+      <c r="AA26" s="2">
+        <v>1</v>
+      </c>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
         <v>32</v>
@@ -6081,7 +6083,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
@@ -6089,17 +6091,19 @@
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45611</v>
+        <v>45688</v>
       </c>
       <c r="AS26" s="2">
         <v>0</v>
       </c>
       <c r="AT26" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU26" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU26" s="2">
+        <v>1</v>
+      </c>
       <c r="AV26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW26" s="2">
         <v>0</v>
@@ -6186,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="BY26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ26" s="2">
         <v>0</v>
@@ -6224,25 +6228,25 @@
         <v>36</v>
       </c>
       <c r="F27" s="1">
-        <v>45652</v>
+        <v>45590</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -6266,13 +6270,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -6280,9 +6284,7 @@
         <v>1</v>
       </c>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
         <v>32</v>
@@ -6298,7 +6300,7 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
@@ -6306,19 +6308,17 @@
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45688</v>
+        <v>45611</v>
       </c>
       <c r="AS27" s="2">
         <v>0</v>
       </c>
       <c r="AT27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU27" s="2"/>
       <c r="AV27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW27" s="2">
         <v>0</v>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="BY27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ27" s="2">
         <v>0</v>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,78 +18,78 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>602677</t>
+  </si>
+  <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
     <t>602679</t>
   </si>
   <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>602671</t>
+  </si>
+  <si>
     <t>500782</t>
   </si>
   <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
     <t>602521</t>
   </si>
   <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
     <t>602675</t>
   </si>
   <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>602671</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>602677</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602529</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
     <t>602678</t>
   </si>
   <si>
@@ -132,21 +132,21 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>spatula; swab</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>syringe</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t>cotton</t>
   </si>
   <si>
@@ -162,24 +162,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>heroin; unknown</t>
+  </si>
+  <si>
+    <t>fentanyl; cocaine</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl; cocaine</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine; benzodiazepine</t>
   </si>
   <si>
-    <t>heroin; unknown</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -210,42 +210,42 @@
     <t>color</t>
   </si>
   <si>
+    <t>white; translucent</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
+    <t>white; tan</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>white; brown</t>
+  </si>
+  <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
     <t>red; brown</t>
   </si>
   <si>
-    <t>white; brown</t>
-  </si>
-  <si>
-    <t>white; translucent</t>
-  </si>
-  <si>
     <t>light brown; black</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
     <t>clear; white</t>
   </si>
   <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>light brown; gray</t>
-  </si>
-  <si>
-    <t>white; tan</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
     <t>white; clear</t>
   </si>
   <si>
@@ -255,27 +255,27 @@
     <t>texture</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>crystals; shiny; flaky</t>
   </si>
   <si>
-    <t>powder</t>
+    <t>liquid</t>
   </si>
   <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>liquid</t>
+    <t>powder; dull</t>
   </si>
   <si>
     <t>chunky; crystals</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
     <t>crystals; powder</t>
   </si>
   <si>
@@ -297,16 +297,16 @@
     <t>weaker</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>more down</t>
   </si>
   <si>
-    <t>unpleasant</t>
+    <t>more up</t>
   </si>
   <si>
     <t>weird</t>
-  </si>
-  <si>
-    <t>more up</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -617,13 +617,13 @@
         <v>89</v>
       </c>
       <c r="Y1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z1" t="s">
         <v>90</v>
       </c>
       <c r="AA1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB1" t="s">
         <v>91</v>
@@ -811,25 +811,25 @@
         <v>36</v>
       </c>
       <c r="F2" s="1">
-        <v>45652</v>
+        <v>45623</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -856,21 +856,19 @@
         <v>65</v>
       </c>
       <c r="U2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="s">
         <v>80</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>32</v>
       </c>
@@ -885,7 +883,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
@@ -893,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45687</v>
+        <v>45666</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -903,16 +901,16 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
         <v>0</v>
@@ -924,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -969,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -1028,7 +1026,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="1">
-        <v>45071</v>
+        <v>45679</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -1037,13 +1035,13 @@
         <v>40</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -1052,13 +1050,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -1076,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1087,11 +1085,9 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -1102,36 +1098,34 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45107</v>
+        <v>45687</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
@@ -1143,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3" s="2">
         <v>0</v>
@@ -1188,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1247,19 +1241,19 @@
         <v>36</v>
       </c>
       <c r="F4" s="1">
-        <v>45518</v>
+        <v>45631</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1295,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1306,30 +1300,30 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45526</v>
+        <v>45666</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1339,10 +1333,10 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AW4" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX4" s="2">
         <v>1</v>
@@ -1351,10 +1345,10 @@
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
@@ -1363,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
         <v>0</v>
@@ -1378,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ4" s="2">
         <v>0</v>
@@ -1464,7 +1458,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="1">
-        <v>45623</v>
+        <v>45518</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
@@ -1476,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1488,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
@@ -1497,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -1506,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="s">
         <v>81</v>
@@ -1536,7 +1530,7 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
@@ -1544,26 +1538,26 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45666</v>
+        <v>45525</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
@@ -1581,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1620,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1667,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -1679,19 +1673,19 @@
         <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>45641</v>
+        <v>45652</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1721,22 +1715,24 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
       <c r="AC6" t="s">
         <v>32</v>
       </c>
@@ -1751,48 +1747,46 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45664</v>
+        <v>45687</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="2">
         <v>1</v>
@@ -1831,16 +1825,16 @@
         <v>0</v>
       </c>
       <c r="BP6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ6" s="2">
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1852,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="BW6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="2">
         <v>0</v>
       </c>
       <c r="BY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ6" s="2">
         <v>0</v>
@@ -1884,7 +1878,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -1896,22 +1890,22 @@
         <v>36</v>
       </c>
       <c r="F7" s="1">
-        <v>45652</v>
+        <v>45641</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1920,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1938,21 +1932,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
         <v>32</v>
@@ -1968,48 +1960,48 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45666</v>
+        <v>45665</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="2">
         <v>1</v>
@@ -2018,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -2033,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL7" s="2">
         <v>0</v>
@@ -2048,16 +2040,16 @@
         <v>0</v>
       </c>
       <c r="BP7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ7" s="2">
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2066,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="BV7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ7" s="2">
         <v>0</v>
@@ -2101,7 +2093,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -2113,7 +2105,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G8" t="s">
         <v>40</v>
@@ -2125,13 +2117,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -2161,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2185,7 +2177,7 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -2193,26 +2185,26 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45526</v>
+        <v>45664</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
@@ -2224,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="2">
         <v>1</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2269,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="BR8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="2">
         <v>0</v>
@@ -2328,22 +2320,22 @@
         <v>36</v>
       </c>
       <c r="F9" s="1">
-        <v>45641</v>
+        <v>45590</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -2370,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2396,7 +2388,9 @@
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
+      <c r="AM9" s="2">
+        <v>1</v>
+      </c>
       <c r="AN9" t="s">
         <v>110</v>
       </c>
@@ -2408,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45665</v>
+        <v>45602</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2418,10 +2412,10 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AW9" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX9" s="2">
         <v>1</v>
@@ -2430,25 +2424,25 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
         <v>1</v>
       </c>
       <c r="BB9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC9" s="2">
         <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2463,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="BK9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="2">
         <v>0</v>
@@ -2481,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="BQ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR9" s="2">
         <v>1</v>
@@ -2496,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="BV9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ9" s="2">
         <v>0</v>
@@ -2531,7 +2525,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -2543,22 +2537,22 @@
         <v>36</v>
       </c>
       <c r="F10" s="1">
-        <v>45683</v>
+        <v>45071</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -2567,13 +2561,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2585,26 +2579,28 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD10" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2615,55 +2611,57 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45687</v>
+        <v>45107</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
         <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10" s="2">
         <v>0</v>
@@ -2699,10 +2697,10 @@
         <v>0</v>
       </c>
       <c r="BR10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="2">
         <v>0</v>
@@ -2746,7 +2744,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2758,22 +2756,22 @@
         <v>36</v>
       </c>
       <c r="F11" s="1">
-        <v>45631</v>
+        <v>45641</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2782,13 +2780,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2800,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -2830,7 +2828,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -2838,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45666</v>
+        <v>45649</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2848,16 +2846,16 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
@@ -2869,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="2">
         <v>1</v>
@@ -2887,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="BI11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ11" s="2">
         <v>0</v>
@@ -2914,10 +2912,10 @@
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2961,7 +2959,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -2973,22 +2971,22 @@
         <v>36</v>
       </c>
       <c r="F12" s="1">
-        <v>45071</v>
+        <v>45652</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -2997,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3015,28 +3013,26 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -3057,47 +3053,47 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45107</v>
+        <v>45666</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="2">
         <v>0</v>
@@ -3133,10 +3129,10 @@
         <v>0</v>
       </c>
       <c r="BR12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT12" s="2">
         <v>0</v>
@@ -3195,16 +3191,16 @@
         <v>45092</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -3234,13 +3230,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3251,7 +3247,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2">
@@ -3399,7 +3395,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -3411,22 +3407,22 @@
         <v>36</v>
       </c>
       <c r="F14" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -3435,13 +3431,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3453,37 +3449,39 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
+      <c r="AH14" s="2">
+        <v>1</v>
+      </c>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -3491,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45649</v>
+        <v>45526</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3501,28 +3499,28 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AW14" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="2">
         <v>1</v>
@@ -3567,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="BR14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT14" s="2">
         <v>0</v>
@@ -3614,7 +3612,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3626,7 +3624,7 @@
         <v>36</v>
       </c>
       <c r="F15" s="1">
-        <v>45641</v>
+        <v>45435</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -3635,25 +3633,25 @@
         <v>40</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="2">
         <v>0</v>
@@ -3668,19 +3666,17 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
@@ -3698,15 +3694,17 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>1</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45664</v>
+        <v>45446</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3716,31 +3714,31 @@
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
@@ -3749,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3782,10 +3780,10 @@
         <v>0</v>
       </c>
       <c r="BR15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" s="2">
         <v>0</v>
@@ -3841,37 +3839,37 @@
         <v>36</v>
       </c>
       <c r="F16" s="1">
-        <v>45679</v>
+        <v>45518</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3883,29 +3881,31 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
+      <c r="AA16" s="2">
+        <v>1</v>
+      </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
+      <c r="AG16" s="2">
+        <v>1</v>
+      </c>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
@@ -3913,17 +3913,15 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45687</v>
+        <v>45525</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4046,7 +4044,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -4058,25 +4056,25 @@
         <v>36</v>
       </c>
       <c r="F17" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -4088,10 +4086,10 @@
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2">
         <v>0</v>
@@ -4100,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
@@ -4115,7 +4113,9 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
+      <c r="AB17" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC17" t="s">
         <v>32</v>
       </c>
@@ -4130,7 +4130,7 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -4138,17 +4138,17 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45525</v>
+        <v>45649</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="2">
         <v>1</v>
@@ -4169,16 +4169,16 @@
         <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG17" s="2">
         <v>0</v>
@@ -4273,22 +4273,22 @@
         <v>36</v>
       </c>
       <c r="F18" s="1">
-        <v>45679</v>
+        <v>45071</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -4297,13 +4297,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -4315,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4332,9 +4332,11 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD18" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
@@ -4345,49 +4347,51 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45687</v>
+        <v>45107</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
         <v>0</v>
       </c>
       <c r="BA18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="2">
         <v>0</v>
@@ -4429,10 +4433,10 @@
         <v>0</v>
       </c>
       <c r="BR18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" s="2">
         <v>0</v>
@@ -4476,7 +4480,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -4488,7 +4492,7 @@
         <v>36</v>
       </c>
       <c r="F19" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G19" t="s">
         <v>40</v>
@@ -4500,25 +4504,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4530,13 +4534,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4545,9 +4549,7 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s">
         <v>32</v>
       </c>
@@ -4562,7 +4564,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -4570,26 +4572,26 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45649</v>
+        <v>45526</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
         <v>0</v>
@@ -4601,16 +4603,16 @@
         <v>0</v>
       </c>
       <c r="BC19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="2">
         <v>1</v>
       </c>
       <c r="BE19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG19" s="2">
         <v>0</v>
@@ -4646,10 +4648,10 @@
         <v>0</v>
       </c>
       <c r="BR19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT19" s="2">
         <v>0</v>
@@ -4705,22 +4707,22 @@
         <v>36</v>
       </c>
       <c r="F20" s="1">
-        <v>45092</v>
+        <v>45631</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -4729,13 +4731,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4747,29 +4749,27 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
@@ -4779,36 +4779,34 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45107</v>
+        <v>45666</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
         <v>0</v>
@@ -4820,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="2">
         <v>1</v>
@@ -4838,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="BI20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ20" s="2">
         <v>0</v>
@@ -4865,10 +4863,10 @@
         <v>0</v>
       </c>
       <c r="BR20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT20" s="2">
         <v>0</v>
@@ -4924,37 +4922,37 @@
         <v>36</v>
       </c>
       <c r="F21" s="1">
-        <v>45435</v>
+        <v>45092</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -4966,25 +4964,29 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
+      <c r="AE21" s="2">
+        <v>1</v>
+      </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
@@ -4994,17 +4996,17 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AO21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45446</v>
+        <v>45107</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5014,31 +5016,31 @@
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW21" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
       </c>
       <c r="BC21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" s="2">
         <v>0</v>
@@ -5047,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="BG21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH21" s="2">
         <v>0</v>
@@ -5080,10 +5082,10 @@
         <v>0</v>
       </c>
       <c r="BR21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT21" s="2">
         <v>0</v>
@@ -5139,22 +5141,22 @@
         <v>36</v>
       </c>
       <c r="F22" s="1">
-        <v>45631</v>
+        <v>45679</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
@@ -5163,13 +5165,13 @@
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -5181,13 +5183,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5221,26 +5223,26 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45666</v>
+        <v>45687</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="2">
         <v>0</v>
@@ -5252,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="BC22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE22" s="2">
         <v>0</v>
@@ -5270,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="BI22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ22" s="2">
         <v>0</v>
@@ -5297,10 +5299,10 @@
         <v>0</v>
       </c>
       <c r="BR22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT22" s="2">
         <v>0</v>
@@ -5359,16 +5361,16 @@
         <v>45071</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -5398,13 +5400,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -5450,10 +5452,10 @@
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW23" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX23" s="2">
         <v>1</v>
@@ -5465,10 +5467,10 @@
         <v>0</v>
       </c>
       <c r="BA23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC23" s="2">
         <v>0</v>
@@ -5563,7 +5565,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
@@ -5575,19 +5577,19 @@
         <v>36</v>
       </c>
       <c r="F24" s="1">
-        <v>45590</v>
+        <v>45641</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -5617,17 +5619,19 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
+      <c r="Y24" s="2">
+        <v>1</v>
+      </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -5643,9 +5647,7 @@
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
-      <c r="AM24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM24" s="2"/>
       <c r="AN24" t="s">
         <v>110</v>
       </c>
@@ -5657,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45602</v>
+        <v>45664</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -5667,10 +5669,10 @@
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AW24" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX24" s="2">
         <v>1</v>
@@ -5679,19 +5681,19 @@
         <v>1</v>
       </c>
       <c r="AZ24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="2">
         <v>1</v>
       </c>
       <c r="BB24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC24" s="2">
         <v>0</v>
       </c>
       <c r="BD24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE24" s="2">
         <v>0</v>
@@ -5730,7 +5732,7 @@
         <v>1</v>
       </c>
       <c r="BQ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR24" s="2">
         <v>1</v>
@@ -5748,13 +5750,13 @@
         <v>0</v>
       </c>
       <c r="BW24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX24" s="2">
         <v>0</v>
       </c>
       <c r="BY24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ24" s="2">
         <v>0</v>
@@ -5780,7 +5782,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -5792,37 +5794,37 @@
         <v>36</v>
       </c>
       <c r="F25" s="1">
-        <v>45518</v>
+        <v>45683</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>50</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -5834,13 +5836,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5851,14 +5853,12 @@
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
-      <c r="AG25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
@@ -5866,7 +5866,7 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45525</v>
+        <v>45687</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
@@ -6012,16 +6012,16 @@
         <v>45652</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6083,7 +6083,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
@@ -6231,16 +6231,16 @@
         <v>45590</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -6270,13 +6270,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -6300,7 +6300,7 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,84 +18,84 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602679</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>602671</t>
+  </si>
+  <si>
+    <t>602677</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
     <t>602528</t>
   </si>
   <si>
-    <t>602677</t>
-  </si>
-  <si>
     <t>602529</t>
   </si>
   <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>602679</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>500200</t>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>602675</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>500911</t>
   </si>
   <si>
     <t>602520</t>
   </si>
   <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
     <t>602527</t>
   </si>
   <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>602671</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
-    <t>602675</t>
+    <t>602526</t>
   </si>
   <si>
     <t>602678</t>
   </si>
   <si>
-    <t>602526</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -132,24 +132,24 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>spatula; swab</t>
+  </si>
+  <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>spatula; swab</t>
-  </si>
-  <si>
     <t>syringe</t>
   </si>
   <si>
-    <t>cotton</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -162,24 +162,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>fentanyl; cocaine</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine; benzodiazepine</t>
   </si>
   <si>
     <t>heroin; unknown</t>
   </si>
   <si>
-    <t>fentanyl; cocaine</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine; benzodiazepine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -210,42 +210,42 @@
     <t>color</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
     <t>white; translucent</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>white; tan</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>blue</t>
+    <t>white; brown</t>
+  </si>
+  <si>
+    <t>clear; white</t>
+  </si>
+  <si>
+    <t>light brown; black</t>
   </si>
   <si>
     <t>clear</t>
   </si>
   <si>
-    <t>white; brown</t>
-  </si>
-  <si>
-    <t>light brown; gray</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
-    <t>clear; white</t>
-  </si>
-  <si>
     <t>white; clear</t>
   </si>
   <si>
@@ -255,24 +255,24 @@
     <t>texture</t>
   </si>
   <si>
+    <t>crystals; shiny; flaky</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>crystals; shiny; flaky</t>
-  </si>
-  <si>
     <t>liquid</t>
   </si>
   <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
     <t>chunky; crystals</t>
   </si>
   <si>
@@ -294,19 +294,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>more up</t>
+  </si>
+  <si>
     <t>weaker</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>more down</t>
+  </si>
+  <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>more down</t>
-  </si>
-  <si>
-    <t>more up</t>
-  </si>
-  <si>
-    <t>weird</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -617,13 +617,13 @@
         <v>89</v>
       </c>
       <c r="Y1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z1" t="s">
         <v>90</v>
       </c>
       <c r="AA1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB1" t="s">
         <v>91</v>
@@ -811,25 +811,25 @@
         <v>36</v>
       </c>
       <c r="F2" s="1">
-        <v>45623</v>
+        <v>45652</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -856,19 +856,21 @@
         <v>65</v>
       </c>
       <c r="U2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
         <v>80</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1</v>
+      </c>
       <c r="AC2" t="s">
         <v>32</v>
       </c>
@@ -883,7 +885,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
@@ -891,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45666</v>
+        <v>45687</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -901,16 +903,16 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
         <v>0</v>
@@ -922,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -967,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -1014,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1026,7 +1028,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="1">
-        <v>45679</v>
+        <v>45641</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -1038,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -1074,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1083,7 +1085,9 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="AB3" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC3" t="s">
         <v>32</v>
       </c>
@@ -1098,7 +1102,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
@@ -1106,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45687</v>
+        <v>45649</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1241,25 +1245,25 @@
         <v>36</v>
       </c>
       <c r="F4" s="1">
-        <v>45631</v>
+        <v>45518</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -1283,29 +1287,31 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
+      <c r="AG4" s="2">
+        <v>1</v>
+      </c>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
@@ -1313,36 +1319,34 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45666</v>
+        <v>45525</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
@@ -1354,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
         <v>0</v>
@@ -1372,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4" s="2">
         <v>0</v>
@@ -1399,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1458,31 +1462,31 @@
         <v>36</v>
       </c>
       <c r="F5" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
@@ -1491,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -1500,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1517,9 +1521,11 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD5" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -1530,15 +1536,17 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45525</v>
+        <v>45107</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1548,25 +1556,25 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="2">
         <v>0</v>
@@ -1575,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1614,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1661,7 +1669,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -1673,19 +1681,19 @@
         <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>45652</v>
+        <v>45641</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1715,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -1725,14 +1733,12 @@
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>32</v>
       </c>
@@ -1747,7 +1753,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
@@ -1755,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45687</v>
+        <v>45664</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1890,19 +1896,19 @@
         <v>36</v>
       </c>
       <c r="F7" s="1">
-        <v>45641</v>
+        <v>45071</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -1938,18 +1944,22 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD7" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -1960,17 +1970,17 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AO7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45665</v>
+        <v>45107</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1980,7 +1990,7 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AW7" s="2">
         <v>4</v>
@@ -1992,22 +2002,22 @@
         <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
         <v>1</v>
       </c>
       <c r="BB7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
         <v>1</v>
@@ -2025,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL7" s="2">
         <v>0</v>
@@ -2040,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="BP7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ7" s="2">
         <v>0</v>
@@ -2058,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="BV7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ7" s="2">
         <v>0</v>
@@ -2093,7 +2103,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -2105,31 +2115,31 @@
         <v>36</v>
       </c>
       <c r="F8" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -2138,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -2147,13 +2157,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2177,7 +2187,7 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -2185,17 +2195,17 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45664</v>
+        <v>45525</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW8" s="2">
         <v>1</v>
@@ -2216,16 +2226,16 @@
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2320,34 +2330,34 @@
         <v>36</v>
       </c>
       <c r="F9" s="1">
-        <v>45590</v>
+        <v>45435</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="2">
         <v>0</v>
@@ -2362,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="U9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="s">
         <v>32</v>
@@ -2388,9 +2398,7 @@
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
-      <c r="AM9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM9" s="2"/>
       <c r="AN9" t="s">
         <v>110</v>
       </c>
@@ -2402,20 +2410,20 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45602</v>
+        <v>45446</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW9" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX9" s="2">
         <v>1</v>
@@ -2424,13 +2432,13 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
         <v>1</v>
       </c>
       <c r="BB9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="2">
         <v>0</v>
@@ -2445,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="BG9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH9" s="2">
         <v>0</v>
@@ -2472,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="BP9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR9" s="2">
         <v>1</v>
@@ -2537,22 +2545,22 @@
         <v>36</v>
       </c>
       <c r="F10" s="1">
-        <v>45071</v>
+        <v>45590</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -2579,28 +2587,24 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2609,19 +2613,21 @@
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
+      <c r="AM10" s="2">
+        <v>1</v>
+      </c>
       <c r="AN10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45107</v>
+        <v>45602</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2631,10 +2637,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW10" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2658,10 +2664,10 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="2">
         <v>0</v>
@@ -2691,10 +2697,10 @@
         <v>0</v>
       </c>
       <c r="BP10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR10" s="2">
         <v>1</v>
@@ -2744,7 +2750,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2756,13 +2762,13 @@
         <v>36</v>
       </c>
       <c r="F11" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -2771,22 +2777,22 @@
         <v>50</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2798,21 +2804,21 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
         <v>32</v>
@@ -2828,7 +2834,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -2836,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45649</v>
+        <v>45526</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2846,16 +2852,16 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW11" s="2">
         <v>3</v>
       </c>
-      <c r="AW11" s="2">
-        <v>2</v>
-      </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
@@ -2867,16 +2873,16 @@
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="2">
         <v>1</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11" s="2">
         <v>0</v>
@@ -2912,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2959,7 +2965,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -2971,7 +2977,7 @@
         <v>36</v>
       </c>
       <c r="F12" s="1">
-        <v>45652</v>
+        <v>45679</v>
       </c>
       <c r="G12" t="s">
         <v>40</v>
@@ -2983,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3013,21 +3019,21 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
         <v>32</v>
@@ -3053,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45666</v>
+        <v>45687</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3188,19 +3194,19 @@
         <v>36</v>
       </c>
       <c r="F13" s="1">
-        <v>45092</v>
+        <v>45679</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -3230,13 +3236,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3247,12 +3253,10 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -3262,17 +3266,15 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45100</v>
+        <v>45687</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3407,19 +3409,19 @@
         <v>36</v>
       </c>
       <c r="F14" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3449,47 +3451,45 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
-      <c r="AH14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>1</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45526</v>
+        <v>45665</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3499,10 +3499,10 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AW14" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL14" s="2">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="BP14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ14" s="2">
         <v>0</v>
@@ -3577,16 +3577,16 @@
         <v>0</v>
       </c>
       <c r="BV14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ14" s="2">
         <v>0</v>
@@ -3612,7 +3612,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3624,7 +3624,7 @@
         <v>36</v>
       </c>
       <c r="F15" s="1">
-        <v>45435</v>
+        <v>45652</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -3633,28 +3633,28 @@
         <v>40</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3666,19 +3666,21 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
         <v>32</v>
@@ -3694,17 +3696,17 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AO15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45446</v>
+        <v>45666</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3714,31 +3716,31 @@
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
@@ -3747,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3780,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="BR15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT15" s="2">
         <v>0</v>
@@ -3839,19 +3841,19 @@
         <v>36</v>
       </c>
       <c r="F16" s="1">
-        <v>45518</v>
+        <v>45623</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3881,31 +3883,29 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="U16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
@@ -3913,7 +3913,7 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45525</v>
+        <v>45666</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -3931,16 +3931,16 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="2">
         <v>0</v>
@@ -3997,10 +3997,10 @@
         <v>0</v>
       </c>
       <c r="BR16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT16" s="2">
         <v>0</v>
@@ -4044,7 +4044,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -4056,22 +4056,22 @@
         <v>36</v>
       </c>
       <c r="F17" s="1">
-        <v>45641</v>
+        <v>45631</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -4080,13 +4080,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4113,9 +4113,7 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s">
         <v>32</v>
       </c>
@@ -4130,34 +4128,36 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO17" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45649</v>
+        <v>45666</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
         <v>0</v>
@@ -4169,10 +4169,10 @@
         <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="2">
         <v>0</v>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ17" s="2">
         <v>0</v>
@@ -4214,10 +4214,10 @@
         <v>0</v>
       </c>
       <c r="BR17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT17" s="2">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>36</v>
       </c>
       <c r="F18" s="1">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="G18" t="s">
         <v>44</v>
@@ -4285,10 +4285,10 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -4297,13 +4297,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -4315,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4332,12 +4332,12 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE18" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
@@ -4363,35 +4363,35 @@
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW18" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="2">
         <v>0</v>
       </c>
       <c r="BA18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE18" s="2">
         <v>0</v>
@@ -4433,10 +4433,10 @@
         <v>0</v>
       </c>
       <c r="BR18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT18" s="2">
         <v>0</v>
@@ -4501,16 +4501,16 @@
         <v>40</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -4534,13 +4534,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4551,20 +4551,22 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
+      <c r="AH19" s="2">
+        <v>1</v>
+      </c>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -4582,10 +4584,10 @@
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AW19" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
@@ -4594,10 +4596,10 @@
         <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="2">
         <v>0</v>
@@ -4609,10 +4611,10 @@
         <v>1</v>
       </c>
       <c r="BE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="2">
         <v>0</v>
@@ -4695,7 +4697,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -4707,22 +4709,22 @@
         <v>36</v>
       </c>
       <c r="F20" s="1">
-        <v>45631</v>
+        <v>45683</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -4731,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4749,13 +4751,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4779,7 +4781,7 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
@@ -4787,26 +4789,26 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45666</v>
+        <v>45687</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
         <v>0</v>
@@ -4818,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" s="2">
         <v>1</v>
@@ -4836,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="BI20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ20" s="2">
         <v>0</v>
@@ -4863,10 +4865,10 @@
         <v>0</v>
       </c>
       <c r="BR20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="2">
         <v>0</v>
@@ -4922,22 +4924,22 @@
         <v>36</v>
       </c>
       <c r="F21" s="1">
-        <v>45092</v>
+        <v>45071</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -4946,13 +4948,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -4964,13 +4966,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -4981,12 +4983,12 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2">
-        <v>1</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
@@ -5012,20 +5014,20 @@
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="2">
         <v>0</v>
@@ -5037,10 +5039,10 @@
         <v>0</v>
       </c>
       <c r="BC21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE21" s="2">
         <v>0</v>
@@ -5082,10 +5084,10 @@
         <v>0</v>
       </c>
       <c r="BR21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT21" s="2">
         <v>0</v>
@@ -5129,7 +5131,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -5141,7 +5143,7 @@
         <v>36</v>
       </c>
       <c r="F22" s="1">
-        <v>45679</v>
+        <v>45641</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -5150,10 +5152,10 @@
         <v>40</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -5165,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -5183,13 +5185,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5213,48 +5215,48 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45687</v>
+        <v>45664</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AW22" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
       </c>
       <c r="BC22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="2">
         <v>1</v>
@@ -5293,16 +5295,16 @@
         <v>0</v>
       </c>
       <c r="BP22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ22" s="2">
         <v>0</v>
       </c>
       <c r="BR22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT22" s="2">
         <v>0</v>
@@ -5314,13 +5316,13 @@
         <v>0</v>
       </c>
       <c r="BW22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX22" s="2">
         <v>0</v>
       </c>
       <c r="BY22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ22" s="2">
         <v>0</v>
@@ -5358,22 +5360,22 @@
         <v>36</v>
       </c>
       <c r="F23" s="1">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -5382,13 +5384,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -5400,13 +5402,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -5417,12 +5419,12 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE23" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2">
+        <v>1</v>
+      </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
@@ -5442,26 +5444,26 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45107</v>
+        <v>45100</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="2">
         <v>0</v>
@@ -5473,10 +5475,10 @@
         <v>0</v>
       </c>
       <c r="BC23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE23" s="2">
         <v>0</v>
@@ -5518,10 +5520,10 @@
         <v>0</v>
       </c>
       <c r="BR23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT23" s="2">
         <v>0</v>
@@ -5580,16 +5582,16 @@
         <v>45641</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -5601,13 +5603,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="2">
         <v>0</v>
@@ -5619,21 +5621,21 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
+      <c r="AA24" s="2">
+        <v>1</v>
+      </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
         <v>32</v>
@@ -5649,17 +5651,15 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45664</v>
+        <v>45649</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -5669,28 +5669,28 @@
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AW24" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="2">
         <v>0</v>
       </c>
       <c r="BC24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD24" s="2">
         <v>1</v>
@@ -5729,16 +5729,16 @@
         <v>0</v>
       </c>
       <c r="BP24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ24" s="2">
         <v>0</v>
       </c>
       <c r="BR24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT24" s="2">
         <v>0</v>
@@ -5750,13 +5750,13 @@
         <v>0</v>
       </c>
       <c r="BW24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="2">
         <v>0</v>
       </c>
       <c r="BY24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ24" s="2">
         <v>0</v>
@@ -5782,7 +5782,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -5794,22 +5794,22 @@
         <v>36</v>
       </c>
       <c r="F25" s="1">
-        <v>45683</v>
+        <v>45631</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
@@ -5818,13 +5818,13 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -5836,13 +5836,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5866,7 +5866,7 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
@@ -5874,26 +5874,26 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45687</v>
+        <v>45666</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW25" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
         <v>0</v>
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="BC25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="2">
         <v>1</v>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="BI25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ25" s="2">
         <v>0</v>
@@ -5950,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="BR25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT25" s="2">
         <v>0</v>
@@ -6009,25 +6009,25 @@
         <v>36</v>
       </c>
       <c r="F26" s="1">
-        <v>45652</v>
+        <v>45590</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -6051,13 +6051,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6065,9 +6065,7 @@
         <v>1</v>
       </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
         <v>32</v>
@@ -6083,7 +6081,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
@@ -6091,19 +6089,17 @@
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45688</v>
+        <v>45611</v>
       </c>
       <c r="AS26" s="2">
         <v>0</v>
       </c>
       <c r="AT26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU26" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW26" s="2">
         <v>0</v>
@@ -6190,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="BY26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ26" s="2">
         <v>0</v>
@@ -6228,25 +6224,25 @@
         <v>36</v>
       </c>
       <c r="F27" s="1">
-        <v>45590</v>
+        <v>45652</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -6270,13 +6266,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -6284,7 +6280,9 @@
         <v>1</v>
       </c>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
+      <c r="AA27" s="2">
+        <v>1</v>
+      </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
         <v>32</v>
@@ -6300,7 +6298,7 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
@@ -6308,17 +6306,19 @@
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45611</v>
+        <v>45688</v>
       </c>
       <c r="AS27" s="2">
         <v>0</v>
       </c>
       <c r="AT27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU27" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU27" s="2">
+        <v>1</v>
+      </c>
       <c r="AV27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="2">
         <v>0</v>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="BY27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ27" s="2">
         <v>0</v>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,78 +18,78 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602677</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
     <t>602679</t>
   </si>
   <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602525</t>
+    <t>602671</t>
   </si>
   <si>
     <t>601633</t>
   </si>
   <si>
-    <t>602671</t>
-  </si>
-  <si>
-    <t>602677</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>602529</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
     <t>602675</t>
   </si>
   <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>602527</t>
-  </si>
-  <si>
     <t>602526</t>
   </si>
   <si>
@@ -132,24 +132,24 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>syringe</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
     <t>spatula; swab</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>syringe</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -171,12 +171,12 @@
     <t>heroin</t>
   </si>
   <si>
+    <t>fentanyl; xylazine; benzodiazepine</t>
+  </si>
+  <si>
     <t>fentanyl; cocaine</t>
   </si>
   <si>
-    <t>fentanyl; xylazine; benzodiazepine</t>
-  </si>
-  <si>
     <t>heroin; unknown</t>
   </si>
   <si>
@@ -216,36 +216,36 @@
     <t>light brown; gray</t>
   </si>
   <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
     <t>gray; brown</t>
   </si>
   <si>
+    <t>light brown; black</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
+    <t>white; translucent</t>
+  </si>
+  <si>
+    <t>white; tan</t>
+  </si>
+  <si>
+    <t>white; brown</t>
+  </si>
+  <si>
     <t>brown</t>
   </si>
   <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>white; translucent</t>
-  </si>
-  <si>
-    <t>white; tan</t>
-  </si>
-  <si>
-    <t>white; brown</t>
-  </si>
-  <si>
     <t>clear; white</t>
   </si>
   <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
     <t>white; clear</t>
   </si>
   <si>
@@ -255,27 +255,27 @@
     <t>texture</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>chunky; crystals</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
     <t>crystals; shiny; flaky</t>
   </si>
   <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>chunky; crystals</t>
-  </si>
-  <si>
     <t>crystals; powder</t>
   </si>
   <si>
@@ -294,19 +294,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>more up</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>weaker</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>more down</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -617,13 +617,13 @@
         <v>89</v>
       </c>
       <c r="Y1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z1" t="s">
         <v>90</v>
       </c>
       <c r="AA1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AB1" t="s">
         <v>91</v>
@@ -811,19 +811,19 @@
         <v>36</v>
       </c>
       <c r="F2" s="1">
-        <v>45652</v>
+        <v>45679</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -863,14 +863,12 @@
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>32</v>
       </c>
@@ -885,7 +883,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
@@ -1031,10 +1029,10 @@
         <v>45641</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -1102,7 +1100,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
@@ -1245,37 +1243,37 @@
         <v>36</v>
       </c>
       <c r="F4" s="1">
-        <v>45518</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1287,31 +1285,31 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>93</v>
       </c>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
       <c r="AF4" s="2"/>
-      <c r="AG4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
@@ -1319,15 +1317,17 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45525</v>
+        <v>45100</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1462,22 +1462,22 @@
         <v>36</v>
       </c>
       <c r="F5" s="1">
-        <v>45071</v>
+        <v>45590</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1504,28 +1504,24 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -1534,19 +1530,21 @@
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
+      <c r="AM5" s="2">
+        <v>1</v>
+      </c>
       <c r="AN5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45107</v>
+        <v>45602</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1559,7 +1557,7 @@
         <v>8</v>
       </c>
       <c r="AW5" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1616,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="BP5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR5" s="2">
         <v>1</v>
@@ -1669,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -1681,25 +1679,25 @@
         <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1729,23 +1727,25 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
+      <c r="AG6" s="2">
+        <v>1</v>
+      </c>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
@@ -1753,7 +1753,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45664</v>
+        <v>45525</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1896,22 +1896,22 @@
         <v>36</v>
       </c>
       <c r="F7" s="1">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1920,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1955,12 +1955,12 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE7" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -1986,41 +1986,41 @@
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2115,31 +2115,31 @@
         <v>36</v>
       </c>
       <c r="F8" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -2157,13 +2157,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2174,9 +2174,11 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD8" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -2187,15 +2189,17 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO8" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0</v>
+      </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45525</v>
+        <v>45107</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2205,25 +2209,25 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="2">
         <v>0</v>
@@ -2232,10 +2236,10 @@
         <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2271,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="BR8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
         <v>0</v>
@@ -2318,7 +2322,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -2330,37 +2334,37 @@
         <v>36</v>
       </c>
       <c r="F9" s="1">
-        <v>45435</v>
+        <v>45641</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2372,19 +2376,21 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
         <v>32</v>
@@ -2400,51 +2406,49 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45446</v>
+        <v>45649</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW9" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
@@ -2453,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="BG9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="2">
         <v>0</v>
@@ -2486,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="BR9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9" s="2">
         <v>0</v>
@@ -2533,7 +2537,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -2545,19 +2549,19 @@
         <v>36</v>
       </c>
       <c r="F10" s="1">
-        <v>45590</v>
+        <v>45641</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -2587,17 +2591,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -2613,9 +2619,7 @@
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
-      <c r="AM10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM10" s="2"/>
       <c r="AN10" t="s">
         <v>110</v>
       </c>
@@ -2627,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45602</v>
+        <v>45664</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2637,10 +2641,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AW10" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2649,19 +2653,19 @@
         <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
         <v>1</v>
       </c>
       <c r="BB10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10" s="2">
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
         <v>0</v>
@@ -2700,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="BQ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR10" s="2">
         <v>1</v>
@@ -2718,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="BW10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX10" s="2">
         <v>0</v>
       </c>
       <c r="BY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ10" s="2">
         <v>0</v>
@@ -2750,7 +2754,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2762,37 +2766,37 @@
         <v>36</v>
       </c>
       <c r="F11" s="1">
-        <v>45518</v>
+        <v>45652</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2804,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -2814,11 +2818,11 @@
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
         <v>32</v>
@@ -2834,34 +2838,36 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45526</v>
+        <v>45666</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
@@ -2873,16 +2879,16 @@
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="2">
         <v>1</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="2">
         <v>0</v>
@@ -2918,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2977,22 +2983,22 @@
         <v>36</v>
       </c>
       <c r="F12" s="1">
-        <v>45679</v>
+        <v>45071</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -3001,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3019,13 +3025,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3036,9 +3042,11 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD12" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -3059,26 +3067,26 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45687</v>
+        <v>45107</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
@@ -3090,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
@@ -3135,10 +3143,10 @@
         <v>0</v>
       </c>
       <c r="BR12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12" s="2">
         <v>0</v>
@@ -3194,37 +3202,37 @@
         <v>36</v>
       </c>
       <c r="F13" s="1">
-        <v>45679</v>
+        <v>45435</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3236,19 +3244,17 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -3266,15 +3272,17 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>1</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45687</v>
+        <v>45446</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3284,31 +3292,31 @@
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="2">
         <v>0</v>
@@ -3317,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="BG13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -3350,10 +3358,10 @@
         <v>0</v>
       </c>
       <c r="BR13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13" s="2">
         <v>0</v>
@@ -3397,7 +3405,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -3412,19 +3420,19 @@
         <v>45641</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -3451,17 +3459,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
@@ -3479,48 +3489,46 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45665</v>
+        <v>45664</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="2">
         <v>1</v>
@@ -3529,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3544,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL14" s="2">
         <v>0</v>
@@ -3559,16 +3567,16 @@
         <v>0</v>
       </c>
       <c r="BP14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ14" s="2">
         <v>0</v>
       </c>
       <c r="BR14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT14" s="2">
         <v>0</v>
@@ -3577,16 +3585,16 @@
         <v>0</v>
       </c>
       <c r="BV14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ14" s="2">
         <v>0</v>
@@ -3612,7 +3620,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3624,25 +3632,25 @@
         <v>36</v>
       </c>
       <c r="F15" s="1">
-        <v>45652</v>
+        <v>45518</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3654,10 +3662,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3672,15 +3680,15 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
         <v>32</v>
@@ -3696,27 +3704,25 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45666</v>
+        <v>45525</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW15" s="2">
         <v>1</v>
@@ -3737,16 +3743,16 @@
         <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3844,10 +3850,10 @@
         <v>45623</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -3883,13 +3889,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U16" s="2">
         <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3913,7 +3919,7 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
@@ -4059,10 +4065,10 @@
         <v>45631</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -4098,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4273,22 +4279,22 @@
         <v>36</v>
       </c>
       <c r="F18" s="1">
-        <v>45092</v>
+        <v>45518</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -4297,13 +4303,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -4315,13 +4321,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4332,63 +4338,61 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
+      <c r="AH18" s="2">
+        <v>1</v>
+      </c>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45107</v>
+        <v>45526</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="2">
         <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="2">
         <v>1</v>
@@ -4433,10 +4437,10 @@
         <v>0</v>
       </c>
       <c r="BR18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" s="2">
         <v>0</v>
@@ -4492,16 +4496,16 @@
         <v>36</v>
       </c>
       <c r="F19" s="1">
-        <v>45518</v>
+        <v>45631</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>51</v>
@@ -4534,39 +4538,37 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
+      <c r="AA19" s="2">
+        <v>1</v>
+      </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
-      <c r="AH19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -4574,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45526</v>
+        <v>45666</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -4584,10 +4586,10 @@
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AW19" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
@@ -4596,10 +4598,10 @@
         <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="2">
         <v>0</v>
@@ -4623,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="BI19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ19" s="2">
         <v>0</v>
@@ -4697,7 +4699,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -4709,22 +4711,22 @@
         <v>36</v>
       </c>
       <c r="F20" s="1">
-        <v>45683</v>
+        <v>45071</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -4733,13 +4735,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4751,26 +4753,28 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD20" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
@@ -4781,55 +4785,57 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0</v>
+      </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45687</v>
+        <v>45107</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
         <v>0</v>
       </c>
       <c r="BA20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG20" s="2">
         <v>0</v>
@@ -4865,10 +4871,10 @@
         <v>0</v>
       </c>
       <c r="BR20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT20" s="2">
         <v>0</v>
@@ -4924,7 +4930,7 @@
         <v>36</v>
       </c>
       <c r="F21" s="1">
-        <v>45071</v>
+        <v>45641</v>
       </c>
       <c r="G21" t="s">
         <v>40</v>
@@ -4966,28 +4972,24 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -4998,17 +5000,17 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45107</v>
+        <v>45665</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5018,10 +5020,10 @@
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AW21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX21" s="2">
         <v>1</v>
@@ -5030,10 +5032,10 @@
         <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
@@ -5042,13 +5044,13 @@
         <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" s="2">
         <v>0</v>
       </c>
       <c r="BF21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -5063,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="BK21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL21" s="2">
         <v>0</v>
@@ -5078,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="BP21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ21" s="2">
         <v>0</v>
@@ -5096,16 +5098,16 @@
         <v>0</v>
       </c>
       <c r="BV21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ21" s="2">
         <v>0</v>
@@ -5131,7 +5133,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -5143,19 +5145,19 @@
         <v>36</v>
       </c>
       <c r="F22" s="1">
-        <v>45641</v>
+        <v>45652</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -5185,22 +5187,24 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
+      <c r="AA22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>1</v>
+      </c>
       <c r="AC22" t="s">
         <v>32</v>
       </c>
@@ -5215,48 +5219,46 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO22" s="2">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45664</v>
+        <v>45687</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AW22" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
       </c>
       <c r="BC22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD22" s="2">
         <v>1</v>
@@ -5295,16 +5297,16 @@
         <v>0</v>
       </c>
       <c r="BP22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ22" s="2">
         <v>0</v>
       </c>
       <c r="BR22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT22" s="2">
         <v>0</v>
@@ -5316,13 +5318,13 @@
         <v>0</v>
       </c>
       <c r="BW22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="2">
         <v>0</v>
       </c>
       <c r="BY22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ22" s="2">
         <v>0</v>
@@ -5360,16 +5362,16 @@
         <v>36</v>
       </c>
       <c r="F23" s="1">
-        <v>45092</v>
+        <v>45679</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>49</v>
@@ -5402,13 +5404,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -5419,12 +5421,10 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="AD23" s="2"/>
-      <c r="AE23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45100</v>
+        <v>45687</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
@@ -5567,7 +5567,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
@@ -5579,37 +5579,37 @@
         <v>36</v>
       </c>
       <c r="F24" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2">
         <v>0</v>
@@ -5621,21 +5621,21 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
+      <c r="Y24" s="2">
+        <v>1</v>
+      </c>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
         <v>32</v>
@@ -5651,7 +5651,7 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
@@ -5659,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45649</v>
+        <v>45526</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -5669,16 +5669,16 @@
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW24" s="2">
         <v>3</v>
       </c>
-      <c r="AW24" s="2">
-        <v>2</v>
-      </c>
       <c r="AX24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24" s="2">
         <v>0</v>
@@ -5690,16 +5690,16 @@
         <v>0</v>
       </c>
       <c r="BC24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="2">
         <v>1</v>
       </c>
       <c r="BE24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG24" s="2">
         <v>0</v>
@@ -5735,10 +5735,10 @@
         <v>0</v>
       </c>
       <c r="BR24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT24" s="2">
         <v>0</v>
@@ -5782,7 +5782,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -5794,22 +5794,22 @@
         <v>36</v>
       </c>
       <c r="F25" s="1">
-        <v>45631</v>
+        <v>45683</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
@@ -5818,13 +5818,13 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -5836,13 +5836,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5866,7 +5866,7 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
@@ -5874,26 +5874,26 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45666</v>
+        <v>45687</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="2">
         <v>0</v>
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="BC25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD25" s="2">
         <v>1</v>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="BI25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ25" s="2">
         <v>0</v>
@@ -5950,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="BR25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT25" s="2">
         <v>0</v>
@@ -6012,10 +6012,10 @@
         <v>45590</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6081,7 +6081,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
@@ -6227,16 +6227,16 @@
         <v>45652</v>
       </c>
       <c r="G27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
         <v>41</v>
-      </c>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>43</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -6298,7 +6298,7 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,84 +18,84 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>602679</t>
+  </si>
+  <si>
     <t>602677</t>
   </si>
   <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>602671</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>602675</t>
+  </si>
+  <si>
     <t>602524</t>
   </si>
   <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>602520</t>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>500782</t>
   </si>
   <si>
     <t>602521</t>
   </si>
   <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>602529</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>602679</t>
-  </si>
-  <si>
-    <t>602671</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>602675</t>
+    <t>602678</t>
   </si>
   <si>
     <t>602526</t>
   </si>
   <si>
-    <t>602678</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -132,24 +132,24 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>syringe</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>spatula; swab</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
-    <t>syringe</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>spatula; swab</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -162,24 +162,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>heroin</t>
+    <t>heroin; unknown</t>
+  </si>
+  <si>
+    <t>fentanyl; cocaine</t>
   </si>
   <si>
     <t>fentanyl; xylazine; benzodiazepine</t>
   </si>
   <si>
-    <t>fentanyl; cocaine</t>
-  </si>
-  <si>
-    <t>heroin; unknown</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -210,42 +210,42 @@
     <t>color</t>
   </si>
   <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>white; brown</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>clear; white</t>
+  </si>
+  <si>
     <t>light brown; gray</t>
   </si>
   <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
+    <t>white; translucent</t>
+  </si>
+  <si>
+    <t>white; tan</t>
+  </si>
+  <si>
+    <t>red; brown</t>
   </si>
   <si>
     <t>light brown; black</t>
   </si>
   <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>white; translucent</t>
-  </si>
-  <si>
-    <t>white; tan</t>
-  </si>
-  <si>
-    <t>white; brown</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>clear; white</t>
-  </si>
-  <si>
     <t>white; clear</t>
   </si>
   <si>
@@ -258,10 +258,16 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals; shiny; flaky</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder; dull</t>
   </si>
   <si>
-    <t>crystals</t>
+    <t>liquid</t>
   </si>
   <si>
     <t>powder; chunky</t>
@@ -270,12 +276,6 @@
     <t>chunky; crystals</t>
   </si>
   <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>crystals; shiny; flaky</t>
-  </si>
-  <si>
     <t>crystals; powder</t>
   </si>
   <si>
@@ -294,19 +294,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>more up</t>
+  </si>
+  <si>
+    <t>more down</t>
+  </si>
+  <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>more up</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>weaker</t>
-  </si>
-  <si>
-    <t>more down</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -811,7 +811,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="1">
-        <v>45679</v>
+        <v>45071</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
@@ -820,13 +820,13 @@
         <v>39</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -870,9 +870,11 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -883,49 +885,51 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO2" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0</v>
+      </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45687</v>
+        <v>45107</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW2" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
         <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -967,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -1014,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1026,19 +1030,19 @@
         <v>36</v>
       </c>
       <c r="F3" s="1">
-        <v>45641</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -1074,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1083,14 +1087,14 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1100,15 +1104,17 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO3" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0</v>
+      </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45649</v>
+        <v>45107</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1243,13 +1249,13 @@
         <v>36</v>
       </c>
       <c r="F4" s="1">
-        <v>45092</v>
+        <v>45071</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -1258,7 +1264,7 @@
         <v>49</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1267,13 +1273,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1304,10 +1310,10 @@
       <c r="AC4" t="s">
         <v>93</v>
       </c>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1327,47 +1333,47 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1403,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1462,7 +1468,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="1">
-        <v>45590</v>
+        <v>45518</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
@@ -1474,13 +1480,13 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -1504,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="s">
         <v>32</v>
@@ -1516,69 +1522,69 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
+      <c r="AG5" s="2">
+        <v>1</v>
+      </c>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
-      <c r="AM5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>1</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45602</v>
+        <v>45525</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
         <v>0</v>
@@ -1614,16 +1620,16 @@
         <v>0</v>
       </c>
       <c r="BP5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1679,25 +1685,25 @@
         <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>45518</v>
+        <v>45652</v>
       </c>
       <c r="G6" t="s">
         <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1721,13 +1727,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1736,16 +1742,16 @@
       <c r="AA6" s="2">
         <v>1</v>
       </c>
-      <c r="AB6" s="2"/>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
       <c r="AC6" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
@@ -1753,7 +1759,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
@@ -1761,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45525</v>
+        <v>45687</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1896,19 +1902,19 @@
         <v>36</v>
       </c>
       <c r="F7" s="1">
-        <v>45092</v>
+        <v>45679</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1938,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -1955,12 +1961,10 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -1970,17 +1974,15 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45107</v>
+        <v>45687</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -2103,7 +2105,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -2115,7 +2117,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="1">
-        <v>45071</v>
+        <v>45641</v>
       </c>
       <c r="G8" t="s">
         <v>43</v>
@@ -2124,13 +2126,13 @@
         <v>43</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -2157,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2174,11 +2176,9 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -2189,51 +2189,49 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45107</v>
+        <v>45664</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
@@ -2275,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="BR8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="2">
         <v>0</v>
@@ -2337,16 +2335,16 @@
         <v>45641</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2376,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2406,7 +2404,7 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
@@ -2537,7 +2535,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -2549,22 +2547,22 @@
         <v>36</v>
       </c>
       <c r="F10" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -2591,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
@@ -2608,30 +2606,30 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
+      <c r="AH10" s="2">
+        <v>1</v>
+      </c>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>1</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45664</v>
+        <v>45526</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2641,7 +2639,7 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW10" s="2">
         <v>7</v>
@@ -2701,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="BP10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ10" s="2">
         <v>0</v>
@@ -2722,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="BW10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="2">
         <v>0</v>
       </c>
       <c r="BY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ10" s="2">
         <v>0</v>
@@ -2754,7 +2752,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2766,19 +2764,19 @@
         <v>36</v>
       </c>
       <c r="F11" s="1">
-        <v>45652</v>
+        <v>45092</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2808,27 +2806,29 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45666</v>
+        <v>45100</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2983,22 +2983,22 @@
         <v>36</v>
       </c>
       <c r="F12" s="1">
-        <v>45071</v>
+        <v>45679</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -3007,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
@@ -3042,11 +3042,9 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -3067,26 +3065,26 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45107</v>
+        <v>45687</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
@@ -3098,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
@@ -3143,10 +3141,10 @@
         <v>0</v>
       </c>
       <c r="BR12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT12" s="2">
         <v>0</v>
@@ -3202,34 +3200,34 @@
         <v>36</v>
       </c>
       <c r="F13" s="1">
-        <v>45435</v>
+        <v>45590</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
         <v>0</v>
@@ -3244,10 +3242,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="U13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="s">
         <v>32</v>
@@ -3270,7 +3268,9 @@
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
-      <c r="AM13" s="2"/>
+      <c r="AM13" s="2">
+        <v>1</v>
+      </c>
       <c r="AN13" t="s">
         <v>110</v>
       </c>
@@ -3282,20 +3282,20 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45446</v>
+        <v>45602</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW13" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX13" s="2">
         <v>1</v>
@@ -3304,13 +3304,13 @@
         <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
         <v>1</v>
       </c>
       <c r="BB13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="2">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="BG13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -3352,10 +3352,10 @@
         <v>0</v>
       </c>
       <c r="BP13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR13" s="2">
         <v>1</v>
@@ -3417,19 +3417,19 @@
         <v>36</v>
       </c>
       <c r="F14" s="1">
-        <v>45641</v>
+        <v>45683</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3459,21 +3459,21 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
         <v>32</v>
@@ -3489,7 +3489,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45664</v>
+        <v>45687</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3620,7 +3620,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3632,25 +3632,25 @@
         <v>36</v>
       </c>
       <c r="F15" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3662,10 +3662,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -3689,7 +3689,9 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC15" t="s">
         <v>32</v>
       </c>
@@ -3704,7 +3706,7 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
@@ -3712,17 +3714,17 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45525</v>
+        <v>45649</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="2">
         <v>1</v>
@@ -3743,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3847,25 +3849,25 @@
         <v>36</v>
       </c>
       <c r="F16" s="1">
-        <v>45623</v>
+        <v>45641</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -3889,19 +3891,17 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="U16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
@@ -3919,28 +3919,30 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO16" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>1</v>
+      </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45666</v>
+        <v>45665</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AW16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3949,10 +3951,10 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
@@ -3961,13 +3963,13 @@
         <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16" s="2">
         <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG16" s="2">
         <v>0</v>
@@ -3982,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="BK16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL16" s="2">
         <v>0</v>
@@ -3997,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="BP16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ16" s="2">
         <v>0</v>
@@ -4015,16 +4017,16 @@
         <v>0</v>
       </c>
       <c r="BV16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ16" s="2">
         <v>0</v>
@@ -4050,7 +4052,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -4062,22 +4064,22 @@
         <v>36</v>
       </c>
       <c r="F17" s="1">
-        <v>45631</v>
+        <v>45652</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -4086,13 +4088,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4104,21 +4106,21 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="2">
+        <v>1</v>
+      </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
         <v>32</v>
@@ -4150,20 +4152,20 @@
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
         <v>0</v>
@@ -4175,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="2">
         <v>0</v>
@@ -4193,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ17" s="2">
         <v>0</v>
@@ -4220,10 +4222,10 @@
         <v>0</v>
       </c>
       <c r="BR17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT17" s="2">
         <v>0</v>
@@ -4279,16 +4281,16 @@
         <v>36</v>
       </c>
       <c r="F18" s="1">
-        <v>45518</v>
+        <v>45623</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>51</v>
@@ -4297,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -4321,10 +4323,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="s">
         <v>80</v>
@@ -4338,22 +4340,20 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
-      <c r="AH18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
@@ -4361,20 +4361,20 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45526</v>
+        <v>45666</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AW18" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -4383,10 +4383,10 @@
         <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="2">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="2">
         <v>0</v>
@@ -4499,16 +4499,16 @@
         <v>45631</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -4538,21 +4538,21 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
         <v>32</v>
@@ -4568,9 +4568,11 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO19" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
@@ -4586,7 +4588,7 @@
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW19" s="2">
         <v>3</v>
@@ -4610,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE19" s="2">
         <v>0</v>
@@ -4711,7 +4713,7 @@
         <v>36</v>
       </c>
       <c r="F20" s="1">
-        <v>45071</v>
+        <v>45518</v>
       </c>
       <c r="G20" t="s">
         <v>43</v>
@@ -4720,7 +4722,7 @@
         <v>43</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>51</v>
@@ -4729,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -4770,11 +4772,9 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
@@ -4785,17 +4785,15 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45107</v>
+        <v>45526</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4805,10 +4803,10 @@
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -4820,16 +4818,16 @@
         <v>0</v>
       </c>
       <c r="BA20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="2">
         <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" s="2">
         <v>1</v>
@@ -4930,31 +4928,31 @@
         <v>36</v>
       </c>
       <c r="F21" s="1">
-        <v>45641</v>
+        <v>45518</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -4963,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -4972,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
@@ -4982,7 +4980,9 @@
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -5000,17 +5000,15 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO21" s="2">
-        <v>1</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45665</v>
+        <v>45525</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5020,22 +5018,22 @@
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AW21" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
@@ -5044,10 +5042,10 @@
         <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="2">
         <v>1</v>
@@ -5065,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="BK21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL21" s="2">
         <v>0</v>
@@ -5080,16 +5078,16 @@
         <v>0</v>
       </c>
       <c r="BP21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ21" s="2">
         <v>0</v>
       </c>
       <c r="BR21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT21" s="2">
         <v>0</v>
@@ -5098,16 +5096,16 @@
         <v>0</v>
       </c>
       <c r="BV21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ21" s="2">
         <v>0</v>
@@ -5145,34 +5143,34 @@
         <v>36</v>
       </c>
       <c r="F22" s="1">
-        <v>45652</v>
+        <v>45435</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2">
         <v>0</v>
@@ -5187,24 +5185,20 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s">
         <v>32</v>
       </c>
@@ -5219,15 +5213,17 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO22" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>1</v>
+      </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45687</v>
+        <v>45446</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5237,31 +5233,31 @@
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW22" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
       </c>
       <c r="BC22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE22" s="2">
         <v>0</v>
@@ -5270,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="BG22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH22" s="2">
         <v>0</v>
@@ -5303,10 +5299,10 @@
         <v>0</v>
       </c>
       <c r="BR22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT22" s="2">
         <v>0</v>
@@ -5362,13 +5358,13 @@
         <v>36</v>
       </c>
       <c r="F23" s="1">
-        <v>45679</v>
+        <v>45631</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -5377,7 +5373,7 @@
         <v>49</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -5386,13 +5382,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -5404,21 +5400,21 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
+      <c r="AA23" s="2">
+        <v>1</v>
+      </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
         <v>32</v>
@@ -5434,36 +5430,34 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO23" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45687</v>
+        <v>45666</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW23" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="2">
         <v>0</v>
@@ -5475,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="BC23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="2">
         <v>1</v>
@@ -5493,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="BI23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ23" s="2">
         <v>0</v>
@@ -5520,10 +5514,10 @@
         <v>0</v>
       </c>
       <c r="BR23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT23" s="2">
         <v>0</v>
@@ -5579,25 +5573,25 @@
         <v>36</v>
       </c>
       <c r="F24" s="1">
-        <v>45518</v>
+        <v>45071</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
@@ -5621,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
@@ -5638,9 +5632,11 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD24" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
@@ -5651,15 +5647,17 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO24" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>0</v>
+      </c>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45526</v>
+        <v>45107</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -5669,10 +5667,10 @@
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX24" s="2">
         <v>1</v>
@@ -5693,13 +5691,13 @@
         <v>0</v>
       </c>
       <c r="BD24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG24" s="2">
         <v>0</v>
@@ -5794,20 +5792,20 @@
         <v>36</v>
       </c>
       <c r="F25" s="1">
-        <v>45683</v>
+        <v>45641</v>
       </c>
       <c r="G25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
         <v>44</v>
       </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>49</v>
-      </c>
       <c r="K25" s="2">
         <v>0</v>
       </c>
@@ -5818,13 +5816,13 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -5842,15 +5840,15 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
         <v>32</v>
@@ -5866,46 +5864,48 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO25" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>1</v>
+      </c>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45687</v>
+        <v>45664</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AW25" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
       </c>
       <c r="BC25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="2">
         <v>1</v>
@@ -5944,16 +5944,16 @@
         <v>0</v>
       </c>
       <c r="BP25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ25" s="2">
         <v>0</v>
       </c>
       <c r="BR25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT25" s="2">
         <v>0</v>
@@ -5965,13 +5965,13 @@
         <v>0</v>
       </c>
       <c r="BW25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX25" s="2">
         <v>0</v>
       </c>
       <c r="BY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ25" s="2">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>36</v>
       </c>
       <c r="F26" s="1">
-        <v>45590</v>
+        <v>45652</v>
       </c>
       <c r="G26" t="s">
         <v>41</v>
@@ -6021,13 +6021,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -6051,13 +6051,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6065,7 +6065,9 @@
         <v>1</v>
       </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
+      <c r="AA26" s="2">
+        <v>1</v>
+      </c>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
         <v>32</v>
@@ -6081,7 +6083,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
@@ -6089,17 +6091,19 @@
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45611</v>
+        <v>45688</v>
       </c>
       <c r="AS26" s="2">
         <v>0</v>
       </c>
       <c r="AT26" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU26" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU26" s="2">
+        <v>1</v>
+      </c>
       <c r="AV26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW26" s="2">
         <v>0</v>
@@ -6186,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="BY26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ26" s="2">
         <v>0</v>
@@ -6224,25 +6228,25 @@
         <v>36</v>
       </c>
       <c r="F27" s="1">
-        <v>45652</v>
+        <v>45590</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -6266,13 +6270,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -6280,9 +6284,7 @@
         <v>1</v>
       </c>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
         <v>32</v>
@@ -6298,7 +6300,7 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
@@ -6306,19 +6308,17 @@
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45688</v>
+        <v>45611</v>
       </c>
       <c r="AS27" s="2">
         <v>0</v>
       </c>
       <c r="AT27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU27" s="2"/>
       <c r="AV27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW27" s="2">
         <v>0</v>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="BY27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ27" s="2">
         <v>0</v>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,78 +18,78 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>602671</t>
+  </si>
+  <si>
     <t>500706</t>
   </si>
   <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>602679</t>
+  </si>
+  <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>602677</t>
+  </si>
+  <si>
+    <t>602676</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>602675</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
     <t>500175</t>
   </si>
   <si>
-    <t>500200</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>602679</t>
-  </si>
-  <si>
-    <t>602677</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>602671</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>602675</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>602529</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
     <t>602678</t>
   </si>
   <si>
@@ -99,12 +99,12 @@
     <t>location</t>
   </si>
   <si>
+    <t>Martinsville</t>
+  </si>
+  <si>
     <t>Roanoke</t>
   </si>
   <si>
-    <t>Martinsville</t>
-  </si>
-  <si>
     <t>Franklin County</t>
   </si>
   <si>
@@ -132,24 +132,24 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>syringe</t>
+  </si>
+  <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>cotton</t>
   </si>
   <si>
-    <t>syringe</t>
-  </si>
-  <si>
-    <t>spatula</t>
+    <t>unknown</t>
   </si>
   <si>
     <t>spatula; swab</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -162,24 +162,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>methamphetamine</t>
+    <t>heroin; unknown</t>
+  </si>
+  <si>
+    <t>fentanyl; cocaine</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine; benzodiazepine</t>
   </si>
   <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>heroin; unknown</t>
-  </si>
-  <si>
-    <t>fentanyl; cocaine</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine; benzodiazepine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -210,42 +210,42 @@
     <t>color</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>white; brown</t>
+  </si>
+  <si>
     <t>gray; brown</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>white; brown</t>
-  </si>
-  <si>
-    <t>clear</t>
+    <t>white; tan</t>
+  </si>
+  <si>
+    <t>light brown; black</t>
   </si>
   <si>
     <t>blue</t>
   </si>
   <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
+    <t>white; translucent</t>
+  </si>
+  <si>
     <t>clear; white</t>
   </si>
   <si>
-    <t>light brown; gray</t>
-  </si>
-  <si>
-    <t>white; translucent</t>
-  </si>
-  <si>
-    <t>white; tan</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
     <t>white; clear</t>
   </si>
   <si>
@@ -255,13 +255,19 @@
     <t>texture</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>chunky; crystals</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
     <t>crystals; shiny; flaky</t>
   </si>
   <si>
-    <t>crystals</t>
+    <t>powder; chunky</t>
   </si>
   <si>
     <t>powder; dull</t>
@@ -270,12 +276,6 @@
     <t>liquid</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>chunky; crystals</t>
-  </si>
-  <si>
     <t>crystals; powder</t>
   </si>
   <si>
@@ -294,19 +294,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>more down</t>
+  </si>
+  <si>
     <t>weaker</t>
   </si>
   <si>
+    <t>more up</t>
+  </si>
+  <si>
     <t>weird</t>
-  </si>
-  <si>
-    <t>more up</t>
-  </si>
-  <si>
-    <t>more down</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -617,13 +617,13 @@
         <v>89</v>
       </c>
       <c r="Y1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z1" t="s">
         <v>90</v>
       </c>
       <c r="AA1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB1" t="s">
         <v>91</v>
@@ -811,7 +811,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="1">
-        <v>45071</v>
+        <v>45641</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
@@ -820,13 +820,13 @@
         <v>39</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -863,18 +863,16 @@
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -885,17 +883,15 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45107</v>
+        <v>45649</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -905,31 +901,31 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW2" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
         <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -971,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -1018,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1030,22 +1026,22 @@
         <v>36</v>
       </c>
       <c r="F3" s="1">
-        <v>45092</v>
+        <v>45631</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -1054,13 +1050,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -1078,23 +1074,21 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1104,36 +1098,34 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45107</v>
+        <v>45666</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
@@ -1145,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="2">
         <v>1</v>
@@ -1163,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="BI3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ3" s="2">
         <v>0</v>
@@ -1190,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1237,7 +1229,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -1249,13 +1241,13 @@
         <v>36</v>
       </c>
       <c r="F4" s="1">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -1264,7 +1256,7 @@
         <v>49</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1273,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1297,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1310,10 +1302,10 @@
       <c r="AC4" t="s">
         <v>93</v>
       </c>
-      <c r="AD4" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1333,47 +1325,47 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45107</v>
+        <v>45100</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1409,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1456,7 +1448,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -1480,13 +1472,13 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -1510,39 +1502,39 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2">
+        <v>1</v>
+      </c>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
@@ -1550,38 +1542,38 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45525</v>
+        <v>45526</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="2">
         <v>1</v>
@@ -1626,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1673,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -1685,19 +1677,19 @@
         <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>45652</v>
+        <v>45679</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1709,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1727,24 +1719,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>32</v>
       </c>
@@ -1759,9 +1749,11 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO6" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
@@ -1890,7 +1882,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -1902,22 +1894,22 @@
         <v>36</v>
       </c>
       <c r="F7" s="1">
-        <v>45679</v>
+        <v>45071</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>50</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1926,13 +1918,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1944,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1961,9 +1953,11 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD7" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -1974,49 +1968,51 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45687</v>
+        <v>45107</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="2">
         <v>0</v>
@@ -2058,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2117,22 +2113,22 @@
         <v>36</v>
       </c>
       <c r="F8" s="1">
-        <v>45641</v>
+        <v>45071</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -2165,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2176,9 +2172,11 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD8" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -2189,55 +2187,57 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO8" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0</v>
+      </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45664</v>
+        <v>45107</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2273,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="BR8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2356,13 +2356,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2384,11 +2384,11 @@
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
         <v>32</v>
@@ -2404,7 +2404,7 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
@@ -2412,20 +2412,20 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45649</v>
+        <v>45664</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -2547,7 +2547,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="1">
-        <v>45518</v>
+        <v>45631</v>
       </c>
       <c r="G10" t="s">
         <v>43</v>
@@ -2556,10 +2556,10 @@
         <v>43</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2589,13 +2589,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2606,30 +2606,30 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-      <c r="AH10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45526</v>
+        <v>45666</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2639,10 +2639,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AW10" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2651,10 +2651,10 @@
         <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ10" s="2">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>36</v>
       </c>
       <c r="F11" s="1">
-        <v>45092</v>
+        <v>45641</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2788,13 +2788,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2823,12 +2823,10 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2838,48 +2836,48 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45100</v>
+        <v>45664</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="2">
         <v>1</v>
@@ -2918,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="BP11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ11" s="2">
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2939,13 +2937,13 @@
         <v>0</v>
       </c>
       <c r="BW11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX11" s="2">
         <v>0</v>
       </c>
       <c r="BY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ11" s="2">
         <v>0</v>
@@ -2971,7 +2969,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -2983,20 +2981,20 @@
         <v>36</v>
       </c>
       <c r="F12" s="1">
-        <v>45679</v>
+        <v>45652</v>
       </c>
       <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>43</v>
       </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>50</v>
-      </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
@@ -3007,13 +3005,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3025,22 +3023,24 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1</v>
+      </c>
       <c r="AC12" t="s">
         <v>32</v>
       </c>
@@ -3055,11 +3055,9 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
@@ -3188,7 +3186,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -3203,16 +3201,16 @@
         <v>45590</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -3242,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U13" s="2">
         <v>1</v>
@@ -3417,25 +3415,25 @@
         <v>36</v>
       </c>
       <c r="F14" s="1">
-        <v>45683</v>
+        <v>45518</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
@@ -3447,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -3459,21 +3457,21 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
         <v>32</v>
@@ -3489,7 +3487,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -3497,17 +3495,17 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45687</v>
+        <v>45525</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW14" s="2">
         <v>1</v>
@@ -3528,16 +3526,16 @@
         <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3632,37 +3630,37 @@
         <v>36</v>
       </c>
       <c r="F15" s="1">
-        <v>45641</v>
+        <v>45435</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3674,24 +3672,20 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s">
         <v>32</v>
       </c>
@@ -3706,15 +3700,17 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>1</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45649</v>
+        <v>45446</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3724,31 +3720,31 @@
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
@@ -3757,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3790,10 +3786,10 @@
         <v>0</v>
       </c>
       <c r="BR15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" s="2">
         <v>0</v>
@@ -3852,19 +3848,19 @@
         <v>45641</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>49</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -3873,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3891,20 +3887,24 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="AB16" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC16" t="s">
         <v>32</v>
       </c>
@@ -3919,48 +3919,46 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45665</v>
+        <v>45649</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AW16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="2">
         <v>1</v>
@@ -3969,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="2">
         <v>0</v>
@@ -3984,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="BK16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL16" s="2">
         <v>0</v>
@@ -3999,16 +3997,16 @@
         <v>0</v>
       </c>
       <c r="BP16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ16" s="2">
         <v>0</v>
       </c>
       <c r="BR16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT16" s="2">
         <v>0</v>
@@ -4017,16 +4015,16 @@
         <v>0</v>
       </c>
       <c r="BV16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ16" s="2">
         <v>0</v>
@@ -4064,22 +4062,22 @@
         <v>36</v>
       </c>
       <c r="F17" s="1">
-        <v>45652</v>
+        <v>45071</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>50</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -4088,13 +4086,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4106,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
@@ -4116,16 +4114,18 @@
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD17" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
@@ -4146,26 +4146,26 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45666</v>
+        <v>45107</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
         <v>0</v>
@@ -4177,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="2">
         <v>0</v>
@@ -4222,10 +4222,10 @@
         <v>0</v>
       </c>
       <c r="BR17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT17" s="2">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -4281,19 +4281,19 @@
         <v>36</v>
       </c>
       <c r="F18" s="1">
-        <v>45623</v>
+        <v>45518</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -4323,13 +4323,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4353,7 +4353,7 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
@@ -4361,20 +4361,20 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45666</v>
+        <v>45526</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -4395,13 +4395,13 @@
         <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18" s="2">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -4496,22 +4496,22 @@
         <v>36</v>
       </c>
       <c r="F19" s="1">
-        <v>45631</v>
+        <v>45679</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -4520,13 +4520,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4538,13 +4538,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4568,36 +4568,34 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45666</v>
+        <v>45687</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
         <v>0</v>
@@ -4609,10 +4607,10 @@
         <v>0</v>
       </c>
       <c r="BC19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19" s="2">
         <v>0</v>
@@ -4627,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="BI19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ19" s="2">
         <v>0</v>
@@ -4654,10 +4652,10 @@
         <v>0</v>
       </c>
       <c r="BR19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT19" s="2">
         <v>0</v>
@@ -4713,37 +4711,37 @@
         <v>36</v>
       </c>
       <c r="F20" s="1">
-        <v>45518</v>
+        <v>45652</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4755,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
@@ -4765,11 +4763,11 @@
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
         <v>32</v>
@@ -4785,34 +4783,36 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0</v>
+      </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45526</v>
+        <v>45666</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
         <v>0</v>
@@ -4824,16 +4824,16 @@
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" s="2">
         <v>1</v>
       </c>
       <c r="BE20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="2">
         <v>0</v>
@@ -4869,10 +4869,10 @@
         <v>0</v>
       </c>
       <c r="BR20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="2">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -4928,31 +4928,31 @@
         <v>36</v>
       </c>
       <c r="F21" s="1">
-        <v>45518</v>
+        <v>45641</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -4976,13 +4976,11 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -5000,15 +4998,17 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO21" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>1</v>
+      </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45525</v>
+        <v>45665</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5018,22 +5018,22 @@
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AW21" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
@@ -5042,10 +5042,10 @@
         <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="2">
         <v>1</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="BK21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL21" s="2">
         <v>0</v>
@@ -5078,16 +5078,16 @@
         <v>0</v>
       </c>
       <c r="BP21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ21" s="2">
         <v>0</v>
       </c>
       <c r="BR21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT21" s="2">
         <v>0</v>
@@ -5096,16 +5096,16 @@
         <v>0</v>
       </c>
       <c r="BV21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ21" s="2">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -5143,7 +5143,7 @@
         <v>36</v>
       </c>
       <c r="F22" s="1">
-        <v>45435</v>
+        <v>45623</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
@@ -5152,7 +5152,7 @@
         <v>43</v>
       </c>
       <c r="I22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>54</v>
@@ -5164,13 +5164,13 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2">
         <v>0</v>
@@ -5185,17 +5185,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="U22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
@@ -5213,17 +5215,15 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO22" s="2">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45446</v>
+        <v>45666</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5233,10 +5233,10 @@
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX22" s="2">
         <v>1</v>
@@ -5245,10 +5245,10 @@
         <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="BG22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH22" s="2">
         <v>0</v>
@@ -5358,13 +5358,13 @@
         <v>36</v>
       </c>
       <c r="F23" s="1">
-        <v>45631</v>
+        <v>45683</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>49</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -5382,13 +5382,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -5400,13 +5400,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -5430,7 +5430,7 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
@@ -5438,26 +5438,26 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45666</v>
+        <v>45687</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="2">
         <v>0</v>
@@ -5469,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="BC23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD23" s="2">
         <v>1</v>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="BI23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ23" s="2">
         <v>0</v>
@@ -5514,10 +5514,10 @@
         <v>0</v>
       </c>
       <c r="BR23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT23" s="2">
         <v>0</v>
@@ -5561,7 +5561,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
@@ -5573,25 +5573,25 @@
         <v>36</v>
       </c>
       <c r="F24" s="1">
-        <v>45071</v>
+        <v>45518</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
@@ -5615,31 +5615,31 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
+      <c r="AA24" s="2">
+        <v>1</v>
+      </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>-1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
+      <c r="AG24" s="2">
+        <v>1</v>
+      </c>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
@@ -5647,36 +5647,34 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45107</v>
+        <v>45525</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="2">
         <v>0</v>
@@ -5688,10 +5686,10 @@
         <v>0</v>
       </c>
       <c r="BC24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE24" s="2">
         <v>0</v>
@@ -5733,10 +5731,10 @@
         <v>0</v>
       </c>
       <c r="BR24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT24" s="2">
         <v>0</v>
@@ -5792,19 +5790,19 @@
         <v>36</v>
       </c>
       <c r="F25" s="1">
-        <v>45641</v>
+        <v>45092</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -5816,13 +5814,13 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -5834,13 +5832,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5851,10 +5849,12 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
+      <c r="AE25" s="2">
+        <v>1</v>
+      </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
@@ -5864,48 +5864,48 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AO25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45664</v>
+        <v>45107</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AW25" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
       </c>
       <c r="BC25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD25" s="2">
         <v>1</v>
@@ -5944,16 +5944,16 @@
         <v>0</v>
       </c>
       <c r="BP25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ25" s="2">
         <v>0</v>
       </c>
       <c r="BR25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT25" s="2">
         <v>0</v>
@@ -5965,13 +5965,13 @@
         <v>0</v>
       </c>
       <c r="BW25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="2">
         <v>0</v>
       </c>
       <c r="BY25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ25" s="2">
         <v>0</v>
@@ -6012,16 +6012,16 @@
         <v>45652</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6083,7 +6083,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
@@ -6231,16 +6231,16 @@
         <v>45590</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -6270,13 +6270,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -6300,7 +6300,7 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,93 +18,93 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602525</t>
+  </si>
+  <si>
+    <t>602679</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>602675</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
     <t>602520</t>
   </si>
   <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>602677</t>
+  </si>
+  <si>
+    <t>602671</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
     <t>602527</t>
   </si>
   <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>602671</t>
-  </si>
-  <si>
-    <t>500706</t>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>602676</t>
   </si>
   <si>
     <t>500200</t>
   </si>
   <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>602529</t>
-  </si>
-  <si>
-    <t>602521</t>
-  </si>
-  <si>
-    <t>602679</t>
-  </si>
-  <si>
-    <t>602525</t>
-  </si>
-  <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>601633</t>
-  </si>
-  <si>
-    <t>602677</t>
-  </si>
-  <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>602675</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>500175</t>
+    <t>602526</t>
   </si>
   <si>
     <t>602678</t>
   </si>
   <si>
-    <t>602526</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
+    <t>Roanoke</t>
+  </si>
+  <si>
     <t>Martinsville</t>
   </si>
   <si>
-    <t>Roanoke</t>
-  </si>
-  <si>
     <t>Franklin County</t>
   </si>
   <si>
@@ -132,24 +132,24 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>spatula; swab</t>
+  </si>
+  <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>syringe</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>syringe</t>
-  </si>
-  <si>
-    <t>swab</t>
-  </si>
-  <si>
     <t>cotton</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>spatula; swab</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -168,18 +168,18 @@
     <t>heroin</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl; cocaine</t>
+  </si>
+  <si>
     <t>heroin; unknown</t>
   </si>
   <si>
-    <t>fentanyl; cocaine</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine; benzodiazepine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -210,42 +210,42 @@
     <t>color</t>
   </si>
   <si>
+    <t>blue</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
+    <t>clear; white</t>
+  </si>
+  <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
     <t>brown</t>
   </si>
   <si>
     <t>clear</t>
   </si>
   <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
     <t>white; brown</t>
   </si>
   <si>
-    <t>gray; brown</t>
+    <t>light brown; black</t>
   </si>
   <si>
     <t>white; tan</t>
   </si>
   <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>light brown; gray</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
     <t>white; translucent</t>
   </si>
   <si>
-    <t>clear; white</t>
-  </si>
-  <si>
     <t>white; clear</t>
   </si>
   <si>
@@ -255,27 +255,27 @@
     <t>texture</t>
   </si>
   <si>
+    <t>crystals; shiny; flaky</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>chunky; crystals</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>crystals; shiny; flaky</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
     <t>crystals; powder</t>
   </si>
   <si>
@@ -294,21 +294,21 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>weaker</t>
+  </si>
+  <si>
     <t>unpleasant</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>more down</t>
   </si>
   <si>
-    <t>weaker</t>
-  </si>
-  <si>
     <t>more up</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -342,10 +342,10 @@
     <t>overdose</t>
   </si>
   <si>
+    <t>involved in OD</t>
+  </si>
+  <si>
     <t>not overdose related</t>
-  </si>
-  <si>
-    <t>involved in OD</t>
   </si>
   <si>
     <t>od</t>
@@ -617,13 +617,13 @@
         <v>89</v>
       </c>
       <c r="Y1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z1" t="s">
         <v>90</v>
       </c>
       <c r="AA1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB1" t="s">
         <v>91</v>
@@ -811,7 +811,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="1">
-        <v>45641</v>
+        <v>45590</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
@@ -820,10 +820,10 @@
         <v>39</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -856,18 +856,16 @@
         <v>65</v>
       </c>
       <c r="U2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>32</v>
@@ -881,17 +879,21 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
+      <c r="AM2" s="2">
+        <v>1</v>
+      </c>
       <c r="AN2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO2" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>1</v>
+      </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45649</v>
+        <v>45602</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -901,31 +903,31 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW2" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
         <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -961,16 +963,16 @@
         <v>0</v>
       </c>
       <c r="BP2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -1014,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1026,22 +1028,22 @@
         <v>36</v>
       </c>
       <c r="F3" s="1">
-        <v>45631</v>
+        <v>45652</v>
       </c>
       <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -1074,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1083,7 +1085,9 @@
       <c r="AA3" s="2">
         <v>1</v>
       </c>
-      <c r="AB3" s="2"/>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
       <c r="AC3" t="s">
         <v>32</v>
       </c>
@@ -1098,7 +1102,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
@@ -1106,26 +1110,26 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45666</v>
+        <v>45687</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
@@ -1137,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="2">
         <v>1</v>
@@ -1155,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="BI3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3" s="2">
         <v>0</v>
@@ -1182,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1241,19 +1245,19 @@
         <v>36</v>
       </c>
       <c r="F4" s="1">
-        <v>45092</v>
+        <v>45641</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1265,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1283,13 +1287,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1300,12 +1304,10 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1315,17 +1317,15 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45100</v>
+        <v>45664</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1460,22 +1460,22 @@
         <v>36</v>
       </c>
       <c r="F5" s="1">
-        <v>45518</v>
+        <v>45683</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1512,29 +1512,27 @@
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
@@ -1542,38 +1540,38 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45526</v>
+        <v>45687</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="2">
         <v>1</v>
@@ -1618,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1677,7 +1675,7 @@
         <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>45679</v>
+        <v>45641</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
@@ -1719,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1734,7 +1732,9 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="AB6" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC6" t="s">
         <v>32</v>
       </c>
@@ -1749,17 +1749,15 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45687</v>
+        <v>45649</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1882,7 +1880,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -1897,10 +1895,10 @@
         <v>45071</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -1942,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1953,7 +1951,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AD7" s="2">
         <v>-1</v>
@@ -1968,7 +1966,7 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO7" s="2">
         <v>0</v>
@@ -1988,10 +1986,10 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW7" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="2">
         <v>1</v>
@@ -2003,10 +2001,10 @@
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
@@ -2101,7 +2099,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -2113,7 +2111,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="1">
-        <v>45071</v>
+        <v>45641</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -2155,28 +2153,24 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -2190,14 +2184,14 @@
         <v>109</v>
       </c>
       <c r="AO8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45107</v>
+        <v>45665</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2207,7 +2201,7 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AW8" s="2">
         <v>4</v>
@@ -2219,22 +2213,22 @@
         <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
         <v>1</v>
       </c>
       <c r="BB8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="2">
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
         <v>1</v>
@@ -2252,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="BK8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL8" s="2">
         <v>0</v>
@@ -2267,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="BP8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ8" s="2">
         <v>0</v>
@@ -2285,16 +2279,16 @@
         <v>0</v>
       </c>
       <c r="BV8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ8" s="2">
         <v>0</v>
@@ -2332,19 +2326,19 @@
         <v>36</v>
       </c>
       <c r="F9" s="1">
-        <v>45641</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2356,13 +2350,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2374,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2391,10 +2385,12 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
@@ -2404,15 +2400,17 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO9" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45664</v>
+        <v>45100</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2535,7 +2533,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -2547,22 +2545,22 @@
         <v>36</v>
       </c>
       <c r="F10" s="1">
-        <v>45631</v>
+        <v>45092</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -2571,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2589,13 +2587,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2606,10 +2604,12 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
+      <c r="AE10" s="2">
+        <v>1</v>
+      </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -2619,7 +2619,7 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO10" s="2">
         <v>0</v>
@@ -2629,26 +2629,26 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45666</v>
+        <v>45107</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ10" s="2">
         <v>0</v>
@@ -2705,10 +2705,10 @@
         <v>0</v>
       </c>
       <c r="BR10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT10" s="2">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2767,16 +2767,16 @@
         <v>45641</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2788,13 +2788,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -2816,11 +2816,11 @@
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
         <v>32</v>
@@ -2836,17 +2836,15 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45664</v>
+        <v>45649</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2856,28 +2854,28 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AW11" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="2">
         <v>1</v>
@@ -2916,16 +2914,16 @@
         <v>0</v>
       </c>
       <c r="BP11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ11" s="2">
         <v>0</v>
       </c>
       <c r="BR11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="2">
         <v>0</v>
@@ -2937,13 +2935,13 @@
         <v>0</v>
       </c>
       <c r="BW11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="2">
         <v>0</v>
       </c>
       <c r="BY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ11" s="2">
         <v>0</v>
@@ -2969,7 +2967,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -2981,22 +2979,22 @@
         <v>36</v>
       </c>
       <c r="F12" s="1">
-        <v>45652</v>
+        <v>45071</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -3023,28 +3021,28 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD12" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -3055,49 +3053,51 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO12" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45687</v>
+        <v>45107</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
@@ -3139,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="BR12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12" s="2">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -3198,19 +3198,19 @@
         <v>36</v>
       </c>
       <c r="F13" s="1">
-        <v>45590</v>
+        <v>45679</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -3222,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3240,17 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -3266,55 +3268,51 @@
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
-      <c r="AM13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45602</v>
+        <v>45687</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
         <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
         <v>0</v>
@@ -3350,16 +3348,16 @@
         <v>0</v>
       </c>
       <c r="BP13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="2">
         <v>0</v>
@@ -3403,7 +3401,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -3415,25 +3413,25 @@
         <v>36</v>
       </c>
       <c r="F14" s="1">
-        <v>45518</v>
+        <v>45679</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
@@ -3445,10 +3443,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -3457,13 +3455,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3487,25 +3485,27 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45525</v>
+        <v>45687</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="2">
         <v>1</v>
@@ -3526,16 +3526,16 @@
         <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3630,7 +3630,7 @@
         <v>36</v>
       </c>
       <c r="F15" s="1">
-        <v>45435</v>
+        <v>45518</v>
       </c>
       <c r="G15" t="s">
         <v>41</v>
@@ -3642,22 +3642,22 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2">
         <v>0</v>
@@ -3672,58 +3672,60 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
+      <c r="AH15" s="2">
+        <v>1</v>
+      </c>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45446</v>
+        <v>45526</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AW15" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
@@ -3744,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
@@ -3753,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3833,7 +3835,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -3854,10 +3856,10 @@
         <v>41</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -3869,13 +3871,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3887,13 +3889,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3902,9 +3904,7 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s">
         <v>32</v>
       </c>
@@ -3919,46 +3919,48 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO16" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>1</v>
+      </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45649</v>
+        <v>45664</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="2">
         <v>1</v>
@@ -3997,16 +3999,16 @@
         <v>0</v>
       </c>
       <c r="BP16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ16" s="2">
         <v>0</v>
       </c>
       <c r="BR16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT16" s="2">
         <v>0</v>
@@ -4018,13 +4020,13 @@
         <v>0</v>
       </c>
       <c r="BW16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX16" s="2">
         <v>0</v>
       </c>
       <c r="BY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ16" s="2">
         <v>0</v>
@@ -4050,7 +4052,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -4062,7 +4064,7 @@
         <v>36</v>
       </c>
       <c r="F17" s="1">
-        <v>45071</v>
+        <v>45518</v>
       </c>
       <c r="G17" t="s">
         <v>41</v>
@@ -4071,16 +4073,16 @@
         <v>41</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -4104,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4121,11 +4123,9 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
@@ -4136,17 +4136,15 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45107</v>
+        <v>45526</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -4156,11 +4154,11 @@
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW17" s="2">
         <v>3</v>
       </c>
-      <c r="AW17" s="2">
-        <v>2</v>
-      </c>
       <c r="AX17" s="2">
         <v>1</v>
       </c>
@@ -4180,13 +4178,13 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG17" s="2">
         <v>0</v>
@@ -4269,7 +4267,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -4284,16 +4282,16 @@
         <v>45518</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -4305,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -4314,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -4323,13 +4321,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4353,7 +4351,7 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
@@ -4361,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45526</v>
+        <v>45525</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -4371,16 +4369,16 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="2">
         <v>0</v>
@@ -4395,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="2">
         <v>1</v>
@@ -4437,10 +4435,10 @@
         <v>0</v>
       </c>
       <c r="BR18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT18" s="2">
         <v>0</v>
@@ -4484,7 +4482,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -4496,22 +4494,22 @@
         <v>36</v>
       </c>
       <c r="F19" s="1">
-        <v>45679</v>
+        <v>45631</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -4520,13 +4518,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4538,21 +4536,21 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
+      <c r="AA19" s="2">
+        <v>1</v>
+      </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
         <v>32</v>
@@ -4568,7 +4566,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -4576,26 +4574,26 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45687</v>
+        <v>45666</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
         <v>0</v>
@@ -4607,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="BC19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="2">
         <v>1</v>
@@ -4625,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="BI19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ19" s="2">
         <v>0</v>
@@ -4652,10 +4650,10 @@
         <v>0</v>
       </c>
       <c r="BR19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT19" s="2">
         <v>0</v>
@@ -4711,37 +4709,37 @@
         <v>36</v>
       </c>
       <c r="F20" s="1">
-        <v>45652</v>
+        <v>45518</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4753,13 +4751,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4770,12 +4768,14 @@
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
+      <c r="AG20" s="2">
+        <v>1</v>
+      </c>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
@@ -4783,17 +4783,15 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45666</v>
+        <v>45525</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4916,7 +4914,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -4928,19 +4926,19 @@
         <v>36</v>
       </c>
       <c r="F21" s="1">
-        <v>45641</v>
+        <v>45631</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -4970,17 +4968,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -5001,14 +5001,14 @@
         <v>110</v>
       </c>
       <c r="AO21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45665</v>
+        <v>45666</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5018,10 +5018,10 @@
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AW21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX21" s="2">
         <v>1</v>
@@ -5030,10 +5030,10 @@
         <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
@@ -5042,13 +5042,13 @@
         <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE21" s="2">
         <v>0</v>
       </c>
       <c r="BF21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -5057,13 +5057,13 @@
         <v>0</v>
       </c>
       <c r="BI21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ21" s="2">
         <v>0</v>
       </c>
       <c r="BK21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL21" s="2">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="BP21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ21" s="2">
         <v>0</v>
@@ -5096,16 +5096,16 @@
         <v>0</v>
       </c>
       <c r="BV21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ21" s="2">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -5143,16 +5143,16 @@
         <v>36</v>
       </c>
       <c r="F22" s="1">
-        <v>45623</v>
+        <v>45435</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>54</v>
@@ -5164,13 +5164,13 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2">
         <v>0</v>
@@ -5185,19 +5185,17 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="U22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
@@ -5215,15 +5213,17 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO22" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>1</v>
+      </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45666</v>
+        <v>45446</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5233,10 +5233,10 @@
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX22" s="2">
         <v>1</v>
@@ -5245,10 +5245,10 @@
         <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="BG22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH22" s="2">
         <v>0</v>
@@ -5358,37 +5358,37 @@
         <v>36</v>
       </c>
       <c r="F23" s="1">
-        <v>45683</v>
+        <v>45623</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -5403,18 +5403,18 @@
         <v>76</v>
       </c>
       <c r="U23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
+      <c r="Y23" s="2">
+        <v>1</v>
+      </c>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
         <v>32</v>
@@ -5430,7 +5430,7 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45687</v>
+        <v>45666</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
@@ -5448,16 +5448,16 @@
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="2">
         <v>0</v>
@@ -5469,10 +5469,10 @@
         <v>0</v>
       </c>
       <c r="BC23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE23" s="2">
         <v>0</v>
@@ -5514,10 +5514,10 @@
         <v>0</v>
       </c>
       <c r="BR23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT23" s="2">
         <v>0</v>
@@ -5573,37 +5573,37 @@
         <v>36</v>
       </c>
       <c r="F24" s="1">
-        <v>45518</v>
+        <v>45652</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="2">
         <v>0</v>
@@ -5615,13 +5615,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -5632,14 +5632,12 @@
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
@@ -5647,15 +5645,17 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO24" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>0</v>
+      </c>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45525</v>
+        <v>45666</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -5778,7 +5778,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -5790,22 +5790,22 @@
         <v>36</v>
       </c>
       <c r="F25" s="1">
-        <v>45092</v>
+        <v>45071</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
@@ -5814,13 +5814,13 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -5832,13 +5832,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5849,12 +5849,12 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2">
-        <v>1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
@@ -5864,7 +5864,7 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO25" s="2">
         <v>0</v>
@@ -5880,41 +5880,41 @@
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW25" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
         <v>0</v>
       </c>
       <c r="BA25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG25" s="2">
         <v>0</v>
@@ -5950,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="BR25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT25" s="2">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>36</v>
       </c>
       <c r="F26" s="1">
-        <v>45652</v>
+        <v>45590</v>
       </c>
       <c r="G26" t="s">
         <v>39</v>
@@ -6021,13 +6021,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -6051,13 +6051,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6065,9 +6065,7 @@
         <v>1</v>
       </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
         <v>32</v>
@@ -6083,7 +6081,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
@@ -6091,19 +6089,17 @@
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45688</v>
+        <v>45611</v>
       </c>
       <c r="AS26" s="2">
         <v>0</v>
       </c>
       <c r="AT26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU26" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW26" s="2">
         <v>0</v>
@@ -6190,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="BY26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ26" s="2">
         <v>0</v>
@@ -6228,7 +6224,7 @@
         <v>36</v>
       </c>
       <c r="F27" s="1">
-        <v>45590</v>
+        <v>45652</v>
       </c>
       <c r="G27" t="s">
         <v>43</v>
@@ -6240,13 +6236,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -6270,13 +6266,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -6284,7 +6280,9 @@
         <v>1</v>
       </c>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
+      <c r="AA27" s="2">
+        <v>1</v>
+      </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
         <v>32</v>
@@ -6300,7 +6298,7 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
@@ -6308,17 +6306,19 @@
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45611</v>
+        <v>45688</v>
       </c>
       <c r="AS27" s="2">
         <v>0</v>
       </c>
       <c r="AT27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU27" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU27" s="2">
+        <v>1</v>
+      </c>
       <c r="AV27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="2">
         <v>0</v>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="BY27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ27" s="2">
         <v>0</v>

--- a/datasets/selfservice/RV/analysis_dataset.xlsx
+++ b/datasets/selfservice/RV/analysis_dataset.xlsx
@@ -18,78 +18,78 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>602671</t>
+  </si>
+  <si>
+    <t>601716</t>
+  </si>
+  <si>
+    <t>602523</t>
+  </si>
+  <si>
+    <t>500911</t>
+  </si>
+  <si>
+    <t>602679</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
+    <t>500200</t>
+  </si>
+  <si>
+    <t>601646</t>
+  </si>
+  <si>
+    <t>602677</t>
+  </si>
+  <si>
+    <t>602527</t>
+  </si>
+  <si>
+    <t>500706</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
+    <t>602528</t>
+  </si>
+  <si>
+    <t>601719</t>
+  </si>
+  <si>
+    <t>500782</t>
+  </si>
+  <si>
+    <t>601522</t>
+  </si>
+  <si>
+    <t>602529</t>
+  </si>
+  <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>602675</t>
+  </si>
+  <si>
     <t>602525</t>
   </si>
   <si>
-    <t>602679</t>
-  </si>
-  <si>
-    <t>602522</t>
-  </si>
-  <si>
-    <t>602675</t>
-  </si>
-  <si>
-    <t>602524</t>
-  </si>
-  <si>
-    <t>500782</t>
-  </si>
-  <si>
-    <t>602523</t>
-  </si>
-  <si>
-    <t>500911</t>
-  </si>
-  <si>
-    <t>500175</t>
-  </si>
-  <si>
-    <t>602520</t>
-  </si>
-  <si>
-    <t>500706</t>
-  </si>
-  <si>
-    <t>602677</t>
-  </si>
-  <si>
-    <t>602671</t>
-  </si>
-  <si>
-    <t>601522</t>
-  </si>
-  <si>
-    <t>602521</t>
+    <t>602676</t>
   </si>
   <si>
     <t>601633</t>
   </si>
   <si>
-    <t>601716</t>
-  </si>
-  <si>
-    <t>602527</t>
-  </si>
-  <si>
-    <t>601646</t>
-  </si>
-  <si>
-    <t>602529</t>
-  </si>
-  <si>
-    <t>601719</t>
-  </si>
-  <si>
-    <t>602528</t>
-  </si>
-  <si>
-    <t>602676</t>
-  </si>
-  <si>
-    <t>500200</t>
-  </si>
-  <si>
     <t>602526</t>
   </si>
   <si>
@@ -132,24 +132,24 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>syringe</t>
+  </si>
+  <si>
+    <t>spatula; swab</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>spatula; swab</t>
-  </si>
-  <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>syringe</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -165,21 +165,21 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>fentanyl; cocaine</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>fentanyl; cocaine</t>
+    <t>fentanyl; xylazine; benzodiazepine</t>
   </si>
   <si>
     <t>heroin; unknown</t>
   </si>
   <si>
-    <t>fentanyl; xylazine; benzodiazepine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -210,42 +210,42 @@
     <t>color</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>light brown; gray</t>
+  </si>
+  <si>
+    <t>gray; brown</t>
+  </si>
+  <si>
+    <t>white; translucent</t>
+  </si>
+  <si>
+    <t>red; brown</t>
+  </si>
+  <si>
+    <t>white; brown</t>
+  </si>
+  <si>
+    <t>white; tan</t>
+  </si>
+  <si>
+    <t>light brown; black</t>
+  </si>
+  <si>
+    <t>clear; white</t>
+  </si>
+  <si>
     <t>blue</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>clear; white</t>
-  </si>
-  <si>
-    <t>light brown; gray</t>
-  </si>
-  <si>
-    <t>red; brown</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>gray; brown</t>
-  </si>
-  <si>
-    <t>white; brown</t>
-  </si>
-  <si>
-    <t>light brown; black</t>
-  </si>
-  <si>
-    <t>white; tan</t>
-  </si>
-  <si>
-    <t>white; translucent</t>
-  </si>
-  <si>
     <t>white; clear</t>
   </si>
   <si>
@@ -255,27 +255,27 @@
     <t>texture</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
     <t>crystals; shiny; flaky</t>
   </si>
   <si>
-    <t>powder</t>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>chunky; crystals</t>
   </si>
   <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>chunky; crystals</t>
-  </si>
-  <si>
     <t>crystals; powder</t>
   </si>
   <si>
@@ -294,21 +294,21 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>weaker</t>
   </si>
   <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>more up</t>
   </si>
   <si>
     <t>more down</t>
   </si>
   <si>
-    <t>more up</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -342,10 +342,10 @@
     <t>overdose</t>
   </si>
   <si>
+    <t>not overdose related</t>
+  </si>
+  <si>
     <t>involved in OD</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
   </si>
   <si>
     <t>od</t>
@@ -617,13 +617,13 @@
         <v>89</v>
       </c>
       <c r="Y1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z1" t="s">
         <v>90</v>
       </c>
       <c r="AA1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AB1" t="s">
         <v>91</v>
@@ -811,7 +811,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="1">
-        <v>45590</v>
+        <v>45679</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
@@ -820,10 +820,10 @@
         <v>39</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -856,14 +856,16 @@
         <v>65</v>
       </c>
       <c r="U2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -879,55 +881,53 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
-      <c r="AM2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AM2" s="2"/>
       <c r="AN2" t="s">
         <v>109</v>
       </c>
       <c r="AO2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45602</v>
+        <v>45687</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW2" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
         <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -963,16 +963,16 @@
         <v>0</v>
       </c>
       <c r="BP2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -1028,31 +1028,31 @@
         <v>36</v>
       </c>
       <c r="F3" s="1">
-        <v>45652</v>
+        <v>45518</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -1070,24 +1070,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
       <c r="AC3" t="s">
         <v>32</v>
       </c>
@@ -1102,7 +1100,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
@@ -1110,17 +1108,17 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45687</v>
+        <v>45525</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="2">
         <v>1</v>
@@ -1141,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1233,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -1254,13 +1252,13 @@
         <v>41</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1293,13 +1291,11 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -1317,46 +1313,48 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>1</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45664</v>
+        <v>45665</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="2">
         <v>1</v>
@@ -1365,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1380,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="BK4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL4" s="2">
         <v>0</v>
@@ -1395,16 +1393,16 @@
         <v>0</v>
       </c>
       <c r="BP4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ4" s="2">
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1413,16 +1411,16 @@
         <v>0</v>
       </c>
       <c r="BV4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ4" s="2">
         <v>0</v>
@@ -1448,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -1460,16 +1458,16 @@
         <v>36</v>
       </c>
       <c r="F5" s="1">
-        <v>45683</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
@@ -1508,21 +1506,23 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -1532,15 +1532,17 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45687</v>
+        <v>45100</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1663,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -1675,19 +1677,19 @@
         <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>45641</v>
+        <v>45652</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1699,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1717,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -1727,13 +1729,13 @@
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
       <c r="AB6" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC6" t="s">
         <v>32</v>
@@ -1749,7 +1751,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
@@ -1757,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45649</v>
+        <v>45687</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1892,7 +1894,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="1">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
@@ -1904,10 +1906,10 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1916,13 +1918,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1934,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1951,12 +1953,12 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE7" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -1966,7 +1968,7 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AO7" s="2">
         <v>0</v>
@@ -1982,20 +1984,20 @@
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
@@ -2007,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
         <v>0</v>
@@ -2052,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
    